--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4C8BE-DAA9-4892-AFDC-48785357C630}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16C58D3-F5C3-494D-8121-153DFEA1AB12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,18 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6093" uniqueCount="4079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="4081">
   <si>
     <t>register</t>
   </si>
@@ -12260,6 +12267,12 @@
   </si>
   <si>
     <t>7000000000029630</t>
+  </si>
+  <si>
+    <t>Folkestone and Hythe District Council</t>
+  </si>
+  <si>
+    <t>Folkestone and Hythe</t>
   </si>
 </sst>
 </file>
@@ -16480,8 +16493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="U409" sqref="U409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I255" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30076,9 +30089,15 @@
         <v>66</v>
       </c>
       <c r="I259" t="s">
+        <v>4079</v>
+      </c>
+      <c r="J259" t="s">
+        <v>4080</v>
+      </c>
+      <c r="K259" t="s">
         <v>2231</v>
       </c>
-      <c r="J259" t="s">
+      <c r="L259" t="s">
         <v>2232</v>
       </c>
       <c r="M259" t="s">

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\uk_local_authority_lookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\postcode_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16C58D3-F5C3-494D-8121-153DFEA1AB12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E928CC-E327-4E0C-A900-1723EBD156DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="4081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="4083">
   <si>
     <t>register</t>
   </si>
@@ -12273,6 +12273,12 @@
   </si>
   <si>
     <t>Folkestone and Hythe</t>
+  </si>
+  <si>
+    <t>S12000047</t>
+  </si>
+  <si>
+    <t>S12000048</t>
   </si>
 </sst>
 </file>
@@ -16493,8 +16499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I255" sqref="I255"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="P415" sqref="P415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36712,6 +36718,9 @@
         <v>38521</v>
       </c>
       <c r="P406" t="s">
+        <v>4081</v>
+      </c>
+      <c r="Q406" t="s">
         <v>3379</v>
       </c>
       <c r="S406" t="s">
@@ -37072,6 +37081,9 @@
         <v>38521</v>
       </c>
       <c r="P415" t="s">
+        <v>4082</v>
+      </c>
+      <c r="Q415" t="s">
         <v>3453</v>
       </c>
       <c r="S415" t="s">
@@ -38461,5 +38473,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\postcode_convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E928CC-E327-4E0C-A900-1723EBD156DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDAC42-AB99-43A4-8B25-5982E7D104C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="10260" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uk_local_authorities!$A$1:$AA$445</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="4083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6099" uniqueCount="4085">
   <si>
     <t>register</t>
   </si>
@@ -12279,6 +12282,12 @@
   </si>
   <si>
     <t>S12000048</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -16497,10 +16506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y445"/>
+  <dimension ref="A1:AA445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="P415" sqref="P415"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16510,7 +16519,7 @@
     <col min="21" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16584,10 +16593,16 @@
         <v>3738</v>
       </c>
       <c r="Y1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -16637,8 +16652,14 @@
         <f>VLOOKUP(C2,[1]Sheet2!$B:$C,2,0)</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>50.84504596</v>
+      </c>
+      <c r="Z2">
+        <v>50.84504596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -16688,8 +16709,14 @@
         <f>VLOOKUP(C3,[1]Sheet2!$B:$C,2,0)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>54.703434360000003</v>
+      </c>
+      <c r="Z3">
+        <v>54.703434360000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -16739,8 +16766,14 @@
         <f>VLOOKUP(C4,[1]Sheet2!$B:$C,2,0)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>53.029235800000002</v>
+      </c>
+      <c r="Z4">
+        <v>53.029235800000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -16790,8 +16823,14 @@
         <f>VLOOKUP(C5,[1]Sheet2!$B:$C,2,0)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>50.841659589999999</v>
+      </c>
+      <c r="Z5">
+        <v>50.841659589999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -16841,8 +16880,14 @@
         <f>VLOOKUP(C6,[1]Sheet2!$B:$C,2,0)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>51.125295100000002</v>
+      </c>
+      <c r="Z6">
+        <v>51.125295100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -16892,8 +16937,14 @@
         <f>VLOOKUP(C7,[1]Sheet2!$B:$C,2,0)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>53.092258489999999</v>
+      </c>
+      <c r="Z7">
+        <v>53.092258489999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -16943,8 +16994,14 @@
         <f>VLOOKUP(C8,[1]Sheet2!$B:$C,2,0)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>51.892184479999997</v>
+      </c>
+      <c r="Z8">
+        <v>51.892184479999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -16994,8 +17051,14 @@
         <f>VLOOKUP(C9,[1]Sheet2!$B:$C,2,0)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>52.052907410000003</v>
+      </c>
+      <c r="Z9">
+        <v>52.052907410000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -17045,8 +17108,14 @@
         <f>VLOOKUP(C10,[1]Sheet2!$B:$C,2,0)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>53.33277803</v>
+      </c>
+      <c r="Z10">
+        <v>53.33277803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -17096,8 +17165,14 @@
         <f>VLOOKUP(C11,[1]Sheet2!$B:$C,2,0)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>51.5903019</v>
+      </c>
+      <c r="Z11">
+        <v>51.5903019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -17150,8 +17225,14 @@
         <f>VLOOKUP(C12,[1]Sheet2!$B:$C,2,0)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>51.273458990000002</v>
+      </c>
+      <c r="Z12">
+        <v>51.273458990000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -17201,8 +17282,14 @@
         <f>VLOOKUP(C13,[1]Sheet2!$B:$C,2,0)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>54.13912096</v>
+      </c>
+      <c r="Z13">
+        <v>54.13912096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -17258,8 +17345,14 @@
         <f>VLOOKUP(C14,[1]Sheet2!$B:$C,2,0)</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>51.35598529</v>
+      </c>
+      <c r="Z14">
+        <v>51.35598529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -17315,8 +17408,14 @@
         <f>VLOOKUP(C15,[1]Sheet2!$B:$C,2,0)</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>53.692612459999999</v>
+      </c>
+      <c r="Z15">
+        <v>53.692612459999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -17372,8 +17471,14 @@
         <f>VLOOKUP(C16,[1]Sheet2!$B:$C,2,0)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>52.189180540000002</v>
+      </c>
+      <c r="Z16">
+        <v>52.189180540000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -17426,8 +17531,14 @@
         <f>VLOOKUP(C17,[1]Sheet2!$B:$C,2,0)</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>51.545272480000001</v>
+      </c>
+      <c r="Z17">
+        <v>51.545272480000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -17477,8 +17588,14 @@
         <f>VLOOKUP(C18,[1]Sheet2!$B:$C,2,0)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>51.558554409999999</v>
+      </c>
+      <c r="Z18">
+        <v>51.558554409999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -17528,8 +17645,14 @@
         <f>VLOOKUP(C19,[1]Sheet2!$B:$C,2,0)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>51.458810929999999</v>
+      </c>
+      <c r="Z19">
+        <v>51.458810929999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -17582,8 +17705,14 @@
         <f>VLOOKUP(C20,[1]Sheet2!$B:$C,2,0)</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>52.488547279999999</v>
+      </c>
+      <c r="Z20">
+        <v>52.488547279999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -17637,7 +17766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -17687,8 +17816,14 @@
         <f>VLOOKUP(C22,[1]Sheet2!$B:$C,2,0)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>52.57150764</v>
+      </c>
+      <c r="Z22">
+        <v>52.57150764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -17744,8 +17879,14 @@
         <f>VLOOKUP(C23,[1]Sheet2!$B:$C,2,0)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>50.742298730000002</v>
+      </c>
+      <c r="Z23">
+        <v>50.742298730000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -17795,8 +17936,14 @@
         <f>VLOOKUP(C24,[1]Sheet2!$B:$C,2,0)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>51.616018619999998</v>
+      </c>
+      <c r="Z24">
+        <v>51.616018619999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17852,8 +17999,14 @@
         <f>VLOOKUP(C25,[1]Sheet2!$B:$C,2,0)</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>50.844664280000003</v>
+      </c>
+      <c r="Z25">
+        <v>50.844664280000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -17906,8 +18059,14 @@
         <f>VLOOKUP(C26,[1]Sheet2!$B:$C,2,0)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>53.535870549999999</v>
+      </c>
+      <c r="Z26">
+        <v>53.535870549999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -17960,8 +18119,14 @@
         <f>VLOOKUP(C27,[1]Sheet2!$B:$C,2,0)</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>53.578632390000003</v>
+      </c>
+      <c r="Z27">
+        <v>53.578632390000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -18011,8 +18176,14 @@
         <f>VLOOKUP(C28,[1]Sheet2!$B:$C,2,0)</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>53.21562694</v>
+      </c>
+      <c r="Z28">
+        <v>53.21562694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -18062,8 +18233,14 @@
         <f>VLOOKUP(C29,[1]Sheet2!$B:$C,2,0)</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>52.973271390000001</v>
+      </c>
+      <c r="Z29">
+        <v>52.973271390000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -18119,8 +18296,14 @@
         <f>VLOOKUP(C30,[1]Sheet2!$B:$C,2,0)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>53.81780578</v>
+      </c>
+      <c r="Z30">
+        <v>53.81780578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -18170,8 +18353,14 @@
         <f>VLOOKUP(C31,[1]Sheet2!$B:$C,2,0)</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>51.941828989999998</v>
+      </c>
+      <c r="Z31">
+        <v>51.941828989999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -18227,8 +18416,14 @@
         <f>VLOOKUP(C32,[1]Sheet2!$B:$C,2,0)</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>51.408112510000002</v>
+      </c>
+      <c r="Z32">
+        <v>51.408112510000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -18281,8 +18476,14 @@
         <f>VLOOKUP(C33,[1]Sheet2!$B:$C,2,0)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>53.844670469999997</v>
+      </c>
+      <c r="Z33">
+        <v>53.844670469999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -18332,8 +18533,14 @@
         <f>VLOOKUP(C34,[1]Sheet2!$B:$C,2,0)</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>52.587929500000001</v>
+      </c>
+      <c r="Z34">
+        <v>52.587929500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -18383,8 +18590,14 @@
         <f>VLOOKUP(C35,[1]Sheet2!$B:$C,2,0)</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>52.36175128</v>
+      </c>
+      <c r="Z35">
+        <v>52.36175128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -18434,8 +18647,14 @@
         <f>VLOOKUP(C36,[1]Sheet2!$B:$C,2,0)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>52.701286690000003</v>
+      </c>
+      <c r="Z36">
+        <v>52.701286690000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -18485,8 +18704,14 @@
         <f>VLOOKUP(C37,[1]Sheet2!$B:$C,2,0)</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>52.976421119999998</v>
+      </c>
+      <c r="Z37">
+        <v>52.976421119999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -18536,8 +18761,14 @@
         <f>VLOOKUP(C38,[1]Sheet2!$B:$C,2,0)</f>
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>51.638635129999997</v>
+      </c>
+      <c r="Z38">
+        <v>51.638635129999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -18587,8 +18818,14 @@
         <f>VLOOKUP(C39,[1]Sheet2!$B:$C,2,0)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>51.72510759</v>
+      </c>
+      <c r="Z39">
+        <v>51.72510759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -18638,8 +18875,14 @@
         <f>VLOOKUP(C40,[1]Sheet2!$B:$C,2,0)</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>51.3719842</v>
+      </c>
+      <c r="Z40">
+        <v>51.3719842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -18698,8 +18941,14 @@
         <f>VLOOKUP(C41,[1]Sheet2!$B:$C,2,0)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>51.46677219</v>
+      </c>
+      <c r="Z41">
+        <v>51.46677219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -18749,8 +18998,14 @@
         <f>VLOOKUP(C42,[1]Sheet2!$B:$C,2,0)</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>53.778935519999997</v>
+      </c>
+      <c r="Z42">
+        <v>53.778935519999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -18803,8 +19058,14 @@
         <f>VLOOKUP(C43,[1]Sheet2!$B:$C,2,0)</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>53.587839189999997</v>
+      </c>
+      <c r="Z43">
+        <v>53.587839189999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -18854,8 +19115,14 @@
         <f>VLOOKUP(C44,[1]Sheet2!$B:$C,2,0)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>52.199368649999997</v>
+      </c>
+      <c r="Z44">
+        <v>52.199368649999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -18906,7 +19173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -18956,8 +19223,14 @@
         <f>VLOOKUP(C46,[1]Sheet2!$B:$C,2,0)</f>
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>52.712382609999999</v>
+      </c>
+      <c r="Z46">
+        <v>52.712382609999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -19007,8 +19280,14 @@
         <f>VLOOKUP(C47,[1]Sheet2!$B:$C,2,0)</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>54.971193909999997</v>
+      </c>
+      <c r="Z47">
+        <v>54.971193909999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -19058,8 +19337,14 @@
         <f>VLOOKUP(C48,[1]Sheet2!$B:$C,2,0)</f>
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>51.545461660000001</v>
+      </c>
+      <c r="Z48">
+        <v>51.545461660000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -19109,8 +19394,14 @@
         <f>VLOOKUP(C49,[1]Sheet2!$B:$C,2,0)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>51.280876390000003</v>
+      </c>
+      <c r="Z49">
+        <v>51.280876390000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -19166,8 +19457,14 @@
         <f>VLOOKUP(C50,[1]Sheet2!$B:$C,2,0)</f>
         <v>4311</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>52.006629570000001</v>
+      </c>
+      <c r="Z50">
+        <v>52.006629570000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -19217,8 +19514,14 @@
         <f>VLOOKUP(C51,[1]Sheet2!$B:$C,2,0)</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>52.737006829999999</v>
+      </c>
+      <c r="Z51">
+        <v>52.737006829999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -19268,8 +19571,14 @@
         <f>VLOOKUP(C52,[1]Sheet2!$B:$C,2,0)</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>50.762460949999998</v>
+      </c>
+      <c r="Z52">
+        <v>50.762460949999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -19325,8 +19634,14 @@
         <f>VLOOKUP(C53,[1]Sheet2!$B:$C,2,0)</f>
         <v>4305</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>53.180270899999996</v>
+      </c>
+      <c r="Z53">
+        <v>53.180270899999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -19379,8 +19694,14 @@
         <f>VLOOKUP(C54,[1]Sheet2!$B:$C,2,0)</f>
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>50.941904379999997</v>
+      </c>
+      <c r="Z54">
+        <v>50.941904379999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -19430,8 +19751,14 @@
         <f>VLOOKUP(C55,[1]Sheet2!$B:$C,2,0)</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>51.725629619999999</v>
+      </c>
+      <c r="Z55">
+        <v>51.725629619999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -19481,8 +19808,14 @@
         <f>VLOOKUP(C56,[1]Sheet2!$B:$C,2,0)</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>51.680500909999999</v>
+      </c>
+      <c r="Z56">
+        <v>51.680500909999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -19532,8 +19865,14 @@
         <f>VLOOKUP(C57,[1]Sheet2!$B:$C,2,0)</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>53.661481909999999</v>
+      </c>
+      <c r="Z57">
+        <v>53.661481909999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -19583,8 +19922,14 @@
         <f>VLOOKUP(C58,[1]Sheet2!$B:$C,2,0)</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>51.95878329</v>
+      </c>
+      <c r="Z58">
+        <v>51.95878329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -19634,8 +19979,14 @@
         <f>VLOOKUP(C59,[1]Sheet2!$B:$C,2,0)</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>53.256280740000001</v>
+      </c>
+      <c r="Z59">
+        <v>53.256280740000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -19685,8 +20036,14 @@
         <f>VLOOKUP(C60,[1]Sheet2!$B:$C,2,0)</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>51.896999479999998</v>
+      </c>
+      <c r="Z60">
+        <v>51.896999479999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -19742,8 +20099,14 @@
         <f>VLOOKUP(C61,[1]Sheet2!$B:$C,2,0)</f>
         <v>4306</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>53.197453860000003</v>
+      </c>
+      <c r="Z61">
+        <v>53.197453860000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -19796,8 +20159,14 @@
         <f>VLOOKUP(C62,[1]Sheet2!$B:$C,2,0)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>53.721179939999999</v>
+      </c>
+      <c r="Z62">
+        <v>53.721179939999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -19848,7 +20217,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -19898,8 +20267,14 @@
         <f>VLOOKUP(C64,[1]Sheet2!$B:$C,2,0)</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>51.546392480000002</v>
+      </c>
+      <c r="Z64">
+        <v>51.546392480000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -19949,8 +20324,14 @@
         <f>VLOOKUP(C65,[1]Sheet2!$B:$C,2,0)</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>51.875673140000004</v>
+      </c>
+      <c r="Z65">
+        <v>51.875673140000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -20006,8 +20387,14 @@
         <f>VLOOKUP(C66,[1]Sheet2!$B:$C,2,0)</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>50.406308000000003</v>
+      </c>
+      <c r="Z66">
+        <v>50.406308000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -20057,8 +20444,14 @@
         <f>VLOOKUP(C67,[1]Sheet2!$B:$C,2,0)</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>54.420167050000003</v>
+      </c>
+      <c r="Z67">
+        <v>54.420167050000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -20108,8 +20501,14 @@
         <f>VLOOKUP(C68,[1]Sheet2!$B:$C,2,0)</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>52.499072980000001</v>
+      </c>
+      <c r="Z68">
+        <v>52.499072980000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -20159,8 +20558,14 @@
         <f>VLOOKUP(C69,[1]Sheet2!$B:$C,2,0)</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>51.816451659999998</v>
+      </c>
+      <c r="Z69">
+        <v>51.816451659999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -20213,8 +20618,14 @@
         <f>VLOOKUP(C70,[1]Sheet2!$B:$C,2,0)</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>52.416868409999999</v>
+      </c>
+      <c r="Z70">
+        <v>52.416868409999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -20264,8 +20675,14 @@
         <f>VLOOKUP(C71,[1]Sheet2!$B:$C,2,0)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>54.07982706</v>
+      </c>
+      <c r="Z71">
+        <v>54.07982706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -20318,8 +20735,14 @@
         <f>VLOOKUP(C72,[1]Sheet2!$B:$C,2,0)</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>51.125470630000002</v>
+      </c>
+      <c r="Z72">
+        <v>51.125470630000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -20369,8 +20792,14 @@
         <f>VLOOKUP(C73,[1]Sheet2!$B:$C,2,0)</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>51.35531787</v>
+      </c>
+      <c r="Z73">
+        <v>51.35531787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -20420,8 +20849,14 @@
         <f>VLOOKUP(C74,[1]Sheet2!$B:$C,2,0)</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>51.778182489999999</v>
+      </c>
+      <c r="Z74">
+        <v>51.778182489999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -20477,8 +20912,14 @@
         <f>VLOOKUP(C75,[1]Sheet2!$B:$C,2,0)</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>54.54869927</v>
+      </c>
+      <c r="Z75">
+        <v>54.54869927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -20528,8 +20969,14 @@
         <f>VLOOKUP(C76,[1]Sheet2!$B:$C,2,0)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>51.429839479999998</v>
+      </c>
+      <c r="Z76">
+        <v>51.429839479999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -20579,8 +21026,14 @@
         <f>VLOOKUP(C77,[1]Sheet2!$B:$C,2,0)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>52.315986379999998</v>
+      </c>
+      <c r="Z77">
+        <v>52.315986379999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -20631,7 +21084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -20681,8 +21134,14 @@
         <f>VLOOKUP(C79,[1]Sheet2!$B:$C,2,0)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>53.128150290000001</v>
+      </c>
+      <c r="Z79">
+        <v>53.128150290000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -20738,8 +21197,14 @@
         <f>VLOOKUP(C80,[1]Sheet2!$B:$C,2,0)</f>
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>52.912544689999997</v>
+      </c>
+      <c r="Z80">
+        <v>52.912544689999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -20790,7 +21255,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -20843,8 +21308,14 @@
         <f>VLOOKUP(C82,[1]Sheet2!$B:$C,2,0)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>53.544243880000003</v>
+      </c>
+      <c r="Z82">
+        <v>53.544243880000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -20895,7 +21366,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -20945,8 +21416,14 @@
         <f>VLOOKUP(C84,[1]Sheet2!$B:$C,2,0)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>51.211454080000003</v>
+      </c>
+      <c r="Z84">
+        <v>51.211454080000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -20999,8 +21476,14 @@
         <f>VLOOKUP(C85,[1]Sheet2!$B:$C,2,0)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>52.482850679999999</v>
+      </c>
+      <c r="Z85">
+        <v>52.482850679999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -21059,8 +21542,14 @@
         <f>VLOOKUP(C86,[1]Sheet2!$B:$C,2,0)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>54.69541375</v>
+      </c>
+      <c r="Z86">
+        <v>54.69541375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -21110,8 +21599,14 @@
         <f>VLOOKUP(C87,[1]Sheet2!$B:$C,2,0)</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>51.522476109999999</v>
+      </c>
+      <c r="Z87">
+        <v>51.522476109999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -21161,8 +21656,14 @@
         <f>VLOOKUP(C88,[1]Sheet2!$B:$C,2,0)</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>50.776789870000002</v>
+      </c>
+      <c r="Z88">
+        <v>50.776789870000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -21212,8 +21713,14 @@
         <f>VLOOKUP(C89,[1]Sheet2!$B:$C,2,0)</f>
         <v>183</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>50.937708020000002</v>
+      </c>
+      <c r="Z89">
+        <v>50.937708020000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -21263,8 +21770,14 @@
         <f>VLOOKUP(C90,[1]Sheet2!$B:$C,2,0)</f>
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>52.342862779999997</v>
+      </c>
+      <c r="Z90">
+        <v>52.342862779999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -21314,8 +21827,14 @@
         <f>VLOOKUP(C91,[1]Sheet2!$B:$C,2,0)</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>50.765509940000001</v>
+      </c>
+      <c r="Z91">
+        <v>50.765509940000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -21365,8 +21884,14 @@
         <f>VLOOKUP(C92,[1]Sheet2!$B:$C,2,0)</f>
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>54.612779500000002</v>
+      </c>
+      <c r="Z92">
+        <v>54.612779500000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -21416,8 +21941,14 @@
         <f>VLOOKUP(C93,[1]Sheet2!$B:$C,2,0)</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>50.863687069999997</v>
+      </c>
+      <c r="Z93">
+        <v>50.863687069999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -21467,8 +21998,14 @@
         <f>VLOOKUP(C94,[1]Sheet2!$B:$C,2,0)</f>
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>51.074554020000001</v>
+      </c>
+      <c r="Z94">
+        <v>51.074554020000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -21521,8 +22058,14 @@
         <f>VLOOKUP(C95,[1]Sheet2!$B:$C,2,0)</f>
         <v>174</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>51.865054610000001</v>
+      </c>
+      <c r="Z95">
+        <v>51.865054610000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -21572,8 +22115,14 @@
         <f>VLOOKUP(C96,[1]Sheet2!$B:$C,2,0)</f>
         <v>175</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>53.25104881</v>
+      </c>
+      <c r="Z96">
+        <v>53.25104881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -21623,8 +22172,14 @@
         <f>VLOOKUP(C97,[1]Sheet2!$B:$C,2,0)</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>51.357132270000001</v>
+      </c>
+      <c r="Z97">
+        <v>51.357132270000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -21674,8 +22229,14 @@
         <f>VLOOKUP(C98,[1]Sheet2!$B:$C,2,0)</f>
         <v>1604</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>51.65099197</v>
+      </c>
+      <c r="Z98">
+        <v>51.65099197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -21725,8 +22286,14 @@
         <f>VLOOKUP(C99,[1]Sheet2!$B:$C,2,0)</f>
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>52.457547259999998</v>
+      </c>
+      <c r="Z99">
+        <v>52.457547259999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -21776,8 +22343,14 @@
         <f>VLOOKUP(C100,[1]Sheet2!$B:$C,2,0)</f>
         <v>186</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>51.708877809999997</v>
+      </c>
+      <c r="Z100">
+        <v>51.708877809999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -21830,8 +22403,14 @@
         <f>VLOOKUP(C101,[1]Sheet2!$B:$C,2,0)</f>
         <v>187</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>51.339166859999999</v>
+      </c>
+      <c r="Z101">
+        <v>51.339166859999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -21881,8 +22460,14 @@
         <f>VLOOKUP(C102,[1]Sheet2!$B:$C,2,0)</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>52.93549007</v>
+      </c>
+      <c r="Z102">
+        <v>52.93549007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -21938,8 +22523,14 @@
         <f>VLOOKUP(C103,[1]Sheet2!$B:$C,2,0)</f>
         <v>179</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>53.874442139999999</v>
+      </c>
+      <c r="Z103">
+        <v>53.874442139999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -21990,7 +22581,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -22040,8 +22631,14 @@
         <f>VLOOKUP(C105,[1]Sheet2!$B:$C,2,0)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>52.863268079999997</v>
+      </c>
+      <c r="Z105">
+        <v>52.863268079999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -22092,7 +22689,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -22142,8 +22739,14 @@
         <f>VLOOKUP(C107,[1]Sheet2!$B:$C,2,0)</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <v>50.72229308</v>
+      </c>
+      <c r="Z107">
+        <v>50.72229308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -22193,8 +22796,14 @@
         <f>VLOOKUP(C108,[1]Sheet2!$B:$C,2,0)</f>
         <v>601</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>50.853116649999997</v>
+      </c>
+      <c r="Z108">
+        <v>50.853116649999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -22244,8 +22853,14 @@
         <f>VLOOKUP(C109,[1]Sheet2!$B:$C,2,0)</f>
         <v>192</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <v>52.562713449999997</v>
+      </c>
+      <c r="Z109">
+        <v>52.562713449999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -22295,8 +22910,14 @@
         <f>VLOOKUP(C110,[1]Sheet2!$B:$C,2,0)</f>
         <v>605</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <v>51.836660930000001</v>
+      </c>
+      <c r="Z110">
+        <v>51.836660930000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -22346,8 +22967,14 @@
         <f>VLOOKUP(C111,[1]Sheet2!$B:$C,2,0)</f>
         <v>604</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <v>52.354759049999998</v>
+      </c>
+      <c r="Z111">
+        <v>52.354759049999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -22397,8 +23024,14 @@
         <f>VLOOKUP(C112,[1]Sheet2!$B:$C,2,0)</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y112">
+        <v>53.787853089999999</v>
+      </c>
+      <c r="Z112">
+        <v>53.787853089999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -22451,8 +23084,14 @@
         <f>VLOOKUP(C113,[1]Sheet2!$B:$C,2,0)</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y113">
+        <v>54.935006389999998</v>
+      </c>
+      <c r="Z113">
+        <v>54.935006389999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -22502,8 +23141,14 @@
         <f>VLOOKUP(C114,[1]Sheet2!$B:$C,2,0)</f>
         <v>196</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <v>53.028372050000002</v>
+      </c>
+      <c r="Z114">
+        <v>53.028372050000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -22547,11 +23192,11 @@
         <f>VLOOKUP(C115,[1]Sheet2!$B:$C,2,0)</f>
         <v>606</v>
       </c>
-      <c r="Y115" t="s">
+      <c r="AA115" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -22601,8 +23246,14 @@
         <f>VLOOKUP(C116,[1]Sheet2!$B:$C,2,0)</f>
         <v>198</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <v>51.84933882</v>
+      </c>
+      <c r="Z116">
+        <v>51.84933882</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -22653,7 +23304,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -22703,8 +23354,14 @@
         <f>VLOOKUP(C118,[1]Sheet2!$B:$C,2,0)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <v>50.805125359999998</v>
+      </c>
+      <c r="Z118">
+        <v>50.805125359999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -22754,8 +23411,14 @@
         <f>VLOOKUP(C119,[1]Sheet2!$B:$C,2,0)</f>
         <v>201</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <v>51.40234435</v>
+      </c>
+      <c r="Z119">
+        <v>51.40234435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -22805,8 +23468,14 @@
         <f>VLOOKUP(C120,[1]Sheet2!$B:$C,2,0)</f>
         <v>203</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <v>51.4728037</v>
+      </c>
+      <c r="Z120">
+        <v>51.4728037</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -22856,8 +23525,14 @@
         <f>VLOOKUP(C121,[1]Sheet2!$B:$C,2,0)</f>
         <v>204</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <v>51.247800050000002</v>
+      </c>
+      <c r="Z121">
+        <v>51.247800050000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -22907,8 +23582,14 @@
         <f>VLOOKUP(C122,[1]Sheet2!$B:$C,2,0)</f>
         <v>202</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>52.642233910000002</v>
+      </c>
+      <c r="Z122">
+        <v>52.642233910000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -22958,8 +23639,14 @@
         <f>VLOOKUP(C123,[1]Sheet2!$B:$C,2,0)</f>
         <v>610</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <v>50.848456140000003</v>
+      </c>
+      <c r="Z123">
+        <v>50.848456140000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -23009,8 +23696,14 @@
         <f>VLOOKUP(C124,[1]Sheet2!$B:$C,2,0)</f>
         <v>207</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <v>54.286778179999999</v>
+      </c>
+      <c r="Z124">
+        <v>54.286778179999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -23060,8 +23753,14 @@
         <f>VLOOKUP(C125,[1]Sheet2!$B:$C,2,0)</f>
         <v>589</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <v>54.067102169999998</v>
+      </c>
+      <c r="Z125">
+        <v>54.067102169999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -23117,8 +23816,14 @@
         <f>VLOOKUP(C126,[1]Sheet2!$B:$C,2,0)</f>
         <v>607</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <v>53.345132939999999</v>
+      </c>
+      <c r="Z126">
+        <v>53.345132939999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -23169,7 +23874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -23219,8 +23924,14 @@
         <f>VLOOKUP(C128,[1]Sheet2!$B:$C,2,0)</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <v>52.539309690000003</v>
+      </c>
+      <c r="Z128">
+        <v>52.539309690000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -23270,8 +23981,14 @@
         <f>VLOOKUP(C129,[1]Sheet2!$B:$C,2,0)</f>
         <v>608</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129">
+        <v>51.768349069999999</v>
+      </c>
+      <c r="Z129">
+        <v>51.768349069999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -23321,8 +24038,14 @@
         <f>VLOOKUP(C130,[1]Sheet2!$B:$C,2,0)</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130">
+        <v>50.869935079999998</v>
+      </c>
+      <c r="Z130">
+        <v>50.869935079999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -23372,8 +24095,14 @@
         <f>VLOOKUP(C131,[1]Sheet2!$B:$C,2,0)</f>
         <v>212</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131">
+        <v>51.284812100000003</v>
+      </c>
+      <c r="Z131">
+        <v>51.284812100000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -23423,8 +24152,14 @@
         <f>VLOOKUP(C132,[1]Sheet2!$B:$C,2,0)</f>
         <v>611</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <v>51.564368309999999</v>
+      </c>
+      <c r="Z132">
+        <v>51.564368309999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -23474,8 +24209,14 @@
         <f>VLOOKUP(C133,[1]Sheet2!$B:$C,2,0)</f>
         <v>206</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <v>51.552264860000001</v>
+      </c>
+      <c r="Z133">
+        <v>51.552264860000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -23531,8 +24272,14 @@
         <f>VLOOKUP(C134,[1]Sheet2!$B:$C,2,0)</f>
         <v>612</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134">
+        <v>52.103478600000003</v>
+      </c>
+      <c r="Z134">
+        <v>52.103478600000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -23582,8 +24329,14 @@
         <f>VLOOKUP(C135,[1]Sheet2!$B:$C,2,0)</f>
         <v>216</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135">
+        <v>51.677284870000001</v>
+      </c>
+      <c r="Z135">
+        <v>51.677284870000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -23633,8 +24386,14 @@
         <f>VLOOKUP(C136,[1]Sheet2!$B:$C,2,0)</f>
         <v>217</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <v>53.372950279999998</v>
+      </c>
+      <c r="Z136">
+        <v>53.372950279999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -23684,8 +24443,14 @@
         <f>VLOOKUP(C137,[1]Sheet2!$B:$C,2,0)</f>
         <v>218</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <v>51.541471860000001</v>
+      </c>
+      <c r="Z137">
+        <v>51.541471860000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -23738,8 +24503,14 @@
         <f>VLOOKUP(C138,[1]Sheet2!$B:$C,2,0)</f>
         <v>614</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <v>52.616482529999999</v>
+      </c>
+      <c r="Z138">
+        <v>52.616482529999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -23792,8 +24563,14 @@
         <f>VLOOKUP(C139,[1]Sheet2!$B:$C,2,0)</f>
         <v>208</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <v>51.495947919999999</v>
+      </c>
+      <c r="Z139">
+        <v>51.495947919999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -23843,8 +24620,14 @@
         <f>VLOOKUP(C140,[1]Sheet2!$B:$C,2,0)</f>
         <v>1585</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140">
+        <v>51.468386469999999</v>
+      </c>
+      <c r="Z140">
+        <v>51.468386469999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -23897,8 +24680,14 @@
         <f>VLOOKUP(C141,[1]Sheet2!$B:$C,2,0)</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141">
+        <v>50.993848509999999</v>
+      </c>
+      <c r="Z141">
+        <v>50.993848509999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -23954,8 +24743,14 @@
         <f>VLOOKUP(C142,[1]Sheet2!$B:$C,2,0)</f>
         <v>213</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142">
+        <v>54.66947734</v>
+      </c>
+      <c r="Z142">
+        <v>54.66947734</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -24006,7 +24801,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -24056,8 +24851,14 @@
         <f>VLOOKUP(C144,[1]Sheet2!$B:$C,2,0)</f>
         <v>609</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <v>51.597718749999999</v>
+      </c>
+      <c r="Z144">
+        <v>51.597718749999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -24107,8 +24908,14 @@
         <f>VLOOKUP(C145,[1]Sheet2!$B:$C,2,0)</f>
         <v>211</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <v>51.590373970000002</v>
+      </c>
+      <c r="Z145">
+        <v>51.590373970000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -24158,8 +24965,14 @@
         <f>VLOOKUP(C146,[1]Sheet2!$B:$C,2,0)</f>
         <v>615</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146">
+        <v>52.373615890000004</v>
+      </c>
+      <c r="Z146">
+        <v>52.373615890000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -24209,8 +25022,14 @@
         <f>VLOOKUP(C147,[1]Sheet2!$B:$C,2,0)</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147">
+        <v>53.758642440000003</v>
+      </c>
+      <c r="Z147">
+        <v>53.758642440000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -24263,8 +25082,14 @@
         <f>VLOOKUP(C148,[1]Sheet2!$B:$C,2,0)</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148">
+        <v>49.935335070000001</v>
+      </c>
+      <c r="Z148">
+        <v>49.935335070000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -24320,8 +25145,14 @@
         <f>VLOOKUP(C149,[1]Sheet2!$B:$C,2,0)</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149">
+        <v>50.674685599999997</v>
+      </c>
+      <c r="Z149">
+        <v>50.674685599999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -24371,8 +25202,14 @@
         <f>VLOOKUP(C150,[1]Sheet2!$B:$C,2,0)</f>
         <v>221</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150">
+        <v>52.056359039999997</v>
+      </c>
+      <c r="Z150">
+        <v>52.056359039999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -24422,8 +25259,14 @@
         <f>VLOOKUP(C151,[1]Sheet2!$B:$C,2,0)</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <v>51.54848338</v>
+      </c>
+      <c r="Z151">
+        <v>51.54848338</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -24476,8 +25319,14 @@
         <f>VLOOKUP(C152,[1]Sheet2!$B:$C,2,0)</f>
         <v>227</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152">
+        <v>51.501610749999998</v>
+      </c>
+      <c r="Z152">
+        <v>51.501610749999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -24528,7 +25377,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -24578,8 +25427,14 @@
         <f>VLOOKUP(C154,[1]Sheet2!$B:$C,2,0)</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154">
+        <v>52.42614459</v>
+      </c>
+      <c r="Z154">
+        <v>52.42614459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -24638,8 +25493,14 @@
         <f>VLOOKUP(C155,[1]Sheet2!$B:$C,2,0)</f>
         <v>232</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <v>53.764107920000001</v>
+      </c>
+      <c r="Z155">
+        <v>53.764107920000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -24695,8 +25556,14 @@
         <f>VLOOKUP(C156,[1]Sheet2!$B:$C,2,0)</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156">
+        <v>52.717961039999999</v>
+      </c>
+      <c r="Z156">
+        <v>52.717961039999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -24749,8 +25616,14 @@
         <f>VLOOKUP(C157,[1]Sheet2!$B:$C,2,0)</f>
         <v>234</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157">
+        <v>53.627356560000003</v>
+      </c>
+      <c r="Z157">
+        <v>53.627356560000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -24800,8 +25673,14 @@
         <f>VLOOKUP(C158,[1]Sheet2!$B:$C,2,0)</f>
         <v>233</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158">
+        <v>51.387893759999997</v>
+      </c>
+      <c r="Z158">
+        <v>51.387893759999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -24854,8 +25733,14 @@
         <f>VLOOKUP(C159,[1]Sheet2!$B:$C,2,0)</f>
         <v>235</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159">
+        <v>53.425100569999998</v>
+      </c>
+      <c r="Z159">
+        <v>53.425100569999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -24905,8 +25790,14 @@
         <f>VLOOKUP(C160,[1]Sheet2!$B:$C,2,0)</f>
         <v>238</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160">
+        <v>54.070893810000001</v>
+      </c>
+      <c r="Z160">
+        <v>54.070893810000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -24957,7 +25848,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -25007,8 +25898,14 @@
         <f>VLOOKUP(C162,[1]Sheet2!$B:$C,2,0)</f>
         <v>236</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162">
+        <v>51.45307931</v>
+      </c>
+      <c r="Z162">
+        <v>51.45307931</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -25067,8 +25964,14 @@
         <f>VLOOKUP(C163,[1]Sheet2!$B:$C,2,0)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163">
+        <v>52.637914360000003</v>
+      </c>
+      <c r="Z163">
+        <v>52.637914360000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -25121,8 +26024,14 @@
         <f>VLOOKUP(C164,[1]Sheet2!$B:$C,2,0)</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164">
+        <v>53.825746410000001</v>
+      </c>
+      <c r="Z164">
+        <v>53.825746410000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -25173,7 +26082,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -25223,8 +26132,14 @@
         <f>VLOOKUP(C166,[1]Sheet2!$B:$C,2,0)</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <v>50.882769709999998</v>
+      </c>
+      <c r="Z166">
+        <v>50.882769709999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -25274,8 +26189,14 @@
         <f>VLOOKUP(C167,[1]Sheet2!$B:$C,2,0)</f>
         <v>243</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167">
+        <v>51.448086269999997</v>
+      </c>
+      <c r="Z167">
+        <v>51.448086269999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -25328,8 +26249,14 @@
         <f>VLOOKUP(C168,[1]Sheet2!$B:$C,2,0)</f>
         <v>245</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168">
+        <v>53.224726599999997</v>
+      </c>
+      <c r="Z168">
+        <v>53.224726599999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -25379,8 +26306,14 @@
         <f>VLOOKUP(C169,[1]Sheet2!$B:$C,2,0)</f>
         <v>244</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169">
+        <v>52.688169340000002</v>
+      </c>
+      <c r="Z169">
+        <v>52.688169340000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -25431,7 +26364,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -25484,8 +26417,14 @@
         <f>VLOOKUP(C171,[1]Sheet2!$B:$C,2,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171">
+        <v>53.403919950000002</v>
+      </c>
+      <c r="Z171">
+        <v>53.403919950000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -25538,8 +26477,14 @@
         <f>VLOOKUP(C172,[1]Sheet2!$B:$C,2,0)</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172">
+        <v>51.514844850000003</v>
+      </c>
+      <c r="Z172">
+        <v>51.514844850000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -25595,8 +26540,14 @@
         <f>VLOOKUP(C173,[1]Sheet2!$B:$C,2,0)</f>
         <v>247</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173">
+        <v>51.894225110000001</v>
+      </c>
+      <c r="Z173">
+        <v>51.894225110000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -25646,8 +26597,14 @@
         <f>VLOOKUP(C174,[1]Sheet2!$B:$C,2,0)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174">
+        <v>51.234995130000001</v>
+      </c>
+      <c r="Z174">
+        <v>51.234995130000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -25697,8 +26654,14 @@
         <f>VLOOKUP(C175,[1]Sheet2!$B:$C,2,0)</f>
         <v>251</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175">
+        <v>51.710319560000002</v>
+      </c>
+      <c r="Z175">
+        <v>51.710319560000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -25751,8 +26714,14 @@
         <f>VLOOKUP(C176,[1]Sheet2!$B:$C,2,0)</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176">
+        <v>53.451484399999998</v>
+      </c>
+      <c r="Z176">
+        <v>53.451484399999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -25802,8 +26771,14 @@
         <f>VLOOKUP(C177,[1]Sheet2!$B:$C,2,0)</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <v>53.170715039999997</v>
+      </c>
+      <c r="Z177">
+        <v>53.170715039999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -25853,8 +26828,14 @@
         <f>VLOOKUP(C178,[1]Sheet2!$B:$C,2,0)</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178">
+        <v>52.18275809</v>
+      </c>
+      <c r="Z178">
+        <v>52.18275809</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -25910,8 +26891,14 @@
         <f>VLOOKUP(C179,[1]Sheet2!$B:$C,2,0)</f>
         <v>264</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179">
+        <v>54.541996249999997</v>
+      </c>
+      <c r="Z179">
+        <v>54.541996249999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -25961,8 +26948,14 @@
         <f>VLOOKUP(C180,[1]Sheet2!$B:$C,2,0)</f>
         <v>261</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180">
+        <v>50.876261640000003</v>
+      </c>
+      <c r="Z180">
+        <v>50.876261640000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -26021,8 +27014,14 @@
         <f>VLOOKUP(C181,[1]Sheet2!$B:$C,2,0)</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y181">
+        <v>51.415147470000001</v>
+      </c>
+      <c r="Z181">
+        <v>51.415147470000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -26072,8 +27071,14 @@
         <f>VLOOKUP(C182,[1]Sheet2!$B:$C,2,0)</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y182">
+        <v>52.7963819</v>
+      </c>
+      <c r="Z182">
+        <v>52.7963819</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -26123,8 +27128,14 @@
         <f>VLOOKUP(C183,[1]Sheet2!$B:$C,2,0)</f>
         <v>257</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y183">
+        <v>51.202912599999998</v>
+      </c>
+      <c r="Z183">
+        <v>51.202912599999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -26180,8 +27191,14 @@
         <f>VLOOKUP(C184,[1]Sheet2!$B:$C,2,0)</f>
         <v>266</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y184">
+        <v>52.083804860000001</v>
+      </c>
+      <c r="Z184">
+        <v>52.083804860000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -26231,8 +27248,14 @@
         <f>VLOOKUP(C185,[1]Sheet2!$B:$C,2,0)</f>
         <v>267</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y185">
+        <v>51.212265080000002</v>
+      </c>
+      <c r="Z185">
+        <v>51.212265080000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -26282,8 +27305,14 @@
         <f>VLOOKUP(C186,[1]Sheet2!$B:$C,2,0)</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y186">
+        <v>51.409949820000001</v>
+      </c>
+      <c r="Z186">
+        <v>51.409949820000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -26336,8 +27365,14 @@
         <f>VLOOKUP(C187,[1]Sheet2!$B:$C,2,0)</f>
         <v>263</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y187">
+        <v>51.020842719999997</v>
+      </c>
+      <c r="Z187">
+        <v>51.020842719999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -26387,8 +27422,14 @@
         <f>VLOOKUP(C188,[1]Sheet2!$B:$C,2,0)</f>
         <v>262</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y188">
+        <v>52.246821439999998</v>
+      </c>
+      <c r="Z188">
+        <v>52.246821439999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -26444,8 +27485,14 @@
         <f>VLOOKUP(C189,[1]Sheet2!$B:$C,2,0)</f>
         <v>292</v>
       </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y189">
+        <v>55.238015769999997</v>
+      </c>
+      <c r="Z189">
+        <v>55.238015769999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -26495,8 +27542,14 @@
         <f>VLOOKUP(C190,[1]Sheet2!$B:$C,2,0)</f>
         <v>278</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y190">
+        <v>51.069056449999998</v>
+      </c>
+      <c r="Z190">
+        <v>51.069056449999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -26546,8 +27599,14 @@
         <f>VLOOKUP(C191,[1]Sheet2!$B:$C,2,0)</f>
         <v>279</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y191">
+        <v>50.912469090000002</v>
+      </c>
+      <c r="Z191">
+        <v>50.912469090000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -26600,8 +27659,14 @@
         <f>VLOOKUP(C192,[1]Sheet2!$B:$C,2,0)</f>
         <v>271</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y192">
+        <v>53.123890099999997</v>
+      </c>
+      <c r="Z192">
+        <v>53.123890099999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -26651,8 +27716,14 @@
         <f>VLOOKUP(C193,[1]Sheet2!$B:$C,2,0)</f>
         <v>622</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y193">
+        <v>52.993123830000002</v>
+      </c>
+      <c r="Z193">
+        <v>52.993123830000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>24</v>
       </c>
@@ -26702,8 +27773,14 @@
         <f>VLOOKUP(C194,[1]Sheet2!$B:$C,2,0)</f>
         <v>626</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y194">
+        <v>53.225828819999997</v>
+      </c>
+      <c r="Z194">
+        <v>53.225828819999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -26759,8 +27836,14 @@
         <f>VLOOKUP(C195,[1]Sheet2!$B:$C,2,0)</f>
         <v>627</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y195">
+        <v>53.542574620000003</v>
+      </c>
+      <c r="Z195">
+        <v>53.542574620000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -26813,8 +27896,14 @@
         <f>VLOOKUP(C196,[1]Sheet2!$B:$C,2,0)</f>
         <v>272</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y196">
+        <v>55.008254180000002</v>
+      </c>
+      <c r="Z196">
+        <v>55.008254180000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -26864,8 +27953,14 @@
         <f>VLOOKUP(C197,[1]Sheet2!$B:$C,2,0)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y197">
+        <v>50.859895729999998</v>
+      </c>
+      <c r="Z197">
+        <v>50.859895729999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -26916,7 +28011,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -26975,8 +28070,14 @@
         <f>VLOOKUP(C199,[1]Sheet2!$B:$C,2,0)</f>
         <v>294</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y199">
+        <v>52.96058498</v>
+      </c>
+      <c r="Z199">
+        <v>52.96058498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -27026,8 +28127,14 @@
         <f>VLOOKUP(C200,[1]Sheet2!$B:$C,2,0)</f>
         <v>628</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y200">
+        <v>51.959092460000001</v>
+      </c>
+      <c r="Z200">
+        <v>51.959092460000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -27077,8 +28184,14 @@
         <f>VLOOKUP(C201,[1]Sheet2!$B:$C,2,0)</f>
         <v>280</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y201">
+        <v>53.081080460000003</v>
+      </c>
+      <c r="Z201">
+        <v>53.081080460000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -27134,8 +28247,14 @@
         <f>VLOOKUP(C202,[1]Sheet2!$B:$C,2,0)</f>
         <v>282</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y202">
+        <v>53.59084103</v>
+      </c>
+      <c r="Z202">
+        <v>53.59084103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -27185,8 +28304,14 @@
         <f>VLOOKUP(C203,[1]Sheet2!$B:$C,2,0)</f>
         <v>283</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y203">
+        <v>52.847638119999999</v>
+      </c>
+      <c r="Z203">
+        <v>52.847638119999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -27236,8 +28361,14 @@
         <f>VLOOKUP(C204,[1]Sheet2!$B:$C,2,0)</f>
         <v>629</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y204">
+        <v>52.241250569999998</v>
+      </c>
+      <c r="Z204">
+        <v>52.241250569999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -27287,8 +28418,14 @@
         <f>VLOOKUP(C205,[1]Sheet2!$B:$C,2,0)</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y205">
+        <v>52.633055550000002</v>
+      </c>
+      <c r="Z205">
+        <v>52.633055550000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -27344,8 +28481,14 @@
         <f>VLOOKUP(C206,[1]Sheet2!$B:$C,2,0)</f>
         <v>285</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y206">
+        <v>51.389793060000002</v>
+      </c>
+      <c r="Z206">
+        <v>51.389793060000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -27396,7 +28539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -27447,7 +28590,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -27500,8 +28643,14 @@
         <f>VLOOKUP(C209,[1]Sheet2!$B:$C,2,0)</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y209">
+        <v>55.028380589999998</v>
+      </c>
+      <c r="Z209">
+        <v>55.028380589999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -27554,8 +28703,14 @@
         <f>VLOOKUP(C210,[1]Sheet2!$B:$C,2,0)</f>
         <v>1602</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y210">
+        <v>52.501128549999997</v>
+      </c>
+      <c r="Z210">
+        <v>52.501128549999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -27605,8 +28760,14 @@
         <f>VLOOKUP(C211,[1]Sheet2!$B:$C,2,0)</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y211">
+        <v>52.54748034</v>
+      </c>
+      <c r="Z211">
+        <v>52.54748034</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -27656,8 +28817,14 @@
         <f>VLOOKUP(C212,[1]Sheet2!$B:$C,2,0)</f>
         <v>288</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y212">
+        <v>52.753117680000003</v>
+      </c>
+      <c r="Z212">
+        <v>52.753117680000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -27707,8 +28874,14 @@
         <f>VLOOKUP(C213,[1]Sheet2!$B:$C,2,0)</f>
         <v>273</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y213">
+        <v>51.528342809999998</v>
+      </c>
+      <c r="Z213">
+        <v>51.528342809999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>24</v>
       </c>
@@ -27759,7 +28932,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>24</v>
       </c>
@@ -27812,8 +28985,14 @@
         <f>VLOOKUP(C215,[1]Sheet2!$B:$C,2,0)</f>
         <v>631</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y215">
+        <v>52.587136610000002</v>
+      </c>
+      <c r="Z215">
+        <v>52.587136610000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -27866,8 +29045,14 @@
         <f>VLOOKUP(C216,[1]Sheet2!$B:$C,2,0)</f>
         <v>295</v>
       </c>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y216">
+        <v>53.551887700000002</v>
+      </c>
+      <c r="Z216">
+        <v>53.551887700000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -27918,7 +29103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -27968,8 +29153,14 @@
         <f>VLOOKUP(C218,[1]Sheet2!$B:$C,2,0)</f>
         <v>298</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y218">
+        <v>51.754586629999999</v>
+      </c>
+      <c r="Z218">
+        <v>51.754586629999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -28019,8 +29210,14 @@
         <f>VLOOKUP(C219,[1]Sheet2!$B:$C,2,0)</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y219">
+        <v>53.86549428</v>
+      </c>
+      <c r="Z219">
+        <v>53.86549428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -28076,8 +29273,14 @@
         <f>VLOOKUP(C220,[1]Sheet2!$B:$C,2,0)</f>
         <v>304</v>
       </c>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y220">
+        <v>50.392016609999999</v>
+      </c>
+      <c r="Z220">
+        <v>50.392016609999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -28133,8 +29336,14 @@
         <f>VLOOKUP(C221,[1]Sheet2!$B:$C,2,0)</f>
         <v>305</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y221">
+        <v>50.745052119999997</v>
+      </c>
+      <c r="Z221">
+        <v>50.745052119999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -28190,8 +29399,14 @@
         <f>VLOOKUP(C222,[1]Sheet2!$B:$C,2,0)</f>
         <v>306</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y222">
+        <v>50.820724050000003</v>
+      </c>
+      <c r="Z222">
+        <v>50.820724050000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -28241,8 +29456,14 @@
         <f>VLOOKUP(C223,[1]Sheet2!$B:$C,2,0)</f>
         <v>308</v>
       </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y223">
+        <v>53.812056249999998</v>
+      </c>
+      <c r="Z223">
+        <v>53.812056249999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -28298,8 +29519,14 @@
         <f>VLOOKUP(C224,[1]Sheet2!$B:$C,2,0)</f>
         <v>303</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y224">
+        <v>52.608562329999998</v>
+      </c>
+      <c r="Z224">
+        <v>52.608562329999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -28349,8 +29576,14 @@
         <f>VLOOKUP(C225,[1]Sheet2!$B:$C,2,0)</f>
         <v>309</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y225">
+        <v>50.681157489999997</v>
+      </c>
+      <c r="Z225">
+        <v>50.681157489999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -28406,8 +29639,14 @@
         <f>VLOOKUP(C226,[1]Sheet2!$B:$C,2,0)</f>
         <v>312</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y226">
+        <v>54.551589290000003</v>
+      </c>
+      <c r="Z226">
+        <v>54.551589290000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -28460,8 +29699,14 @@
         <f>VLOOKUP(C227,[1]Sheet2!$B:$C,2,0)</f>
         <v>321</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y227">
+        <v>53.61655296</v>
+      </c>
+      <c r="Z227">
+        <v>53.61655296</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -28511,8 +29756,14 @@
         <f>VLOOKUP(C228,[1]Sheet2!$B:$C,2,0)</f>
         <v>311</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y228">
+        <v>51.585669950000003</v>
+      </c>
+      <c r="Z228">
+        <v>51.585669950000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -28568,8 +29819,14 @@
         <f>VLOOKUP(C229,[1]Sheet2!$B:$C,2,0)</f>
         <v>310</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y229">
+        <v>51.452978829999999</v>
+      </c>
+      <c r="Z229">
+        <v>51.452978829999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -28619,8 +29876,14 @@
         <f>VLOOKUP(C230,[1]Sheet2!$B:$C,2,0)</f>
         <v>313</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y230">
+        <v>52.282285780000002</v>
+      </c>
+      <c r="Z230">
+        <v>52.282285780000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -28673,8 +29936,14 @@
         <f>VLOOKUP(C231,[1]Sheet2!$B:$C,2,0)</f>
         <v>314</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y231">
+        <v>51.253200460000002</v>
+      </c>
+      <c r="Z231">
+        <v>51.253200460000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -28724,8 +29993,14 @@
         <f>VLOOKUP(C232,[1]Sheet2!$B:$C,2,0)</f>
         <v>318</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y232">
+        <v>53.907219179999998</v>
+      </c>
+      <c r="Z232">
+        <v>53.907219179999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>24</v>
       </c>
@@ -28775,8 +30050,14 @@
         <f>VLOOKUP(C233,[1]Sheet2!$B:$C,2,0)</f>
         <v>319</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y233">
+        <v>51.442185340000002</v>
+      </c>
+      <c r="Z233">
+        <v>51.442185340000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>24</v>
       </c>
@@ -28826,8 +30107,14 @@
         <f>VLOOKUP(C234,[1]Sheet2!$B:$C,2,0)</f>
         <v>320</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y234">
+        <v>54.361541920000001</v>
+      </c>
+      <c r="Z234">
+        <v>54.361541920000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -28877,8 +30164,14 @@
         <f>VLOOKUP(C235,[1]Sheet2!$B:$C,2,0)</f>
         <v>633</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y235">
+        <v>51.595214120000001</v>
+      </c>
+      <c r="Z235">
+        <v>51.595214120000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -28928,8 +30221,14 @@
         <f>VLOOKUP(C236,[1]Sheet2!$B:$C,2,0)</f>
         <v>323</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y236">
+        <v>50.952224510000001</v>
+      </c>
+      <c r="Z236">
+        <v>50.952224510000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -28979,8 +30278,14 @@
         <f>VLOOKUP(C237,[1]Sheet2!$B:$C,2,0)</f>
         <v>322</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y237">
+        <v>53.693815659999999</v>
+      </c>
+      <c r="Z237">
+        <v>53.693815659999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -29033,8 +30338,14 @@
         <f>VLOOKUP(C238,[1]Sheet2!$B:$C,2,0)</f>
         <v>324</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y238">
+        <v>53.40861795</v>
+      </c>
+      <c r="Z238">
+        <v>53.40861795</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -29084,8 +30395,14 @@
         <f>VLOOKUP(C239,[1]Sheet2!$B:$C,2,0)</f>
         <v>325</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y239">
+        <v>52.384361439999999</v>
+      </c>
+      <c r="Z239">
+        <v>52.384361439999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>24</v>
       </c>
@@ -29135,8 +30452,14 @@
         <f>VLOOKUP(C240,[1]Sheet2!$B:$C,2,0)</f>
         <v>327</v>
       </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y240">
+        <v>51.273443469999997</v>
+      </c>
+      <c r="Z240">
+        <v>51.273443469999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>24</v>
       </c>
@@ -29186,8 +30509,14 @@
         <f>VLOOKUP(C241,[1]Sheet2!$B:$C,2,0)</f>
         <v>634</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y241">
+        <v>51.39378705</v>
+      </c>
+      <c r="Z241">
+        <v>51.39378705</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -29237,8 +30566,14 @@
         <f>VLOOKUP(C242,[1]Sheet2!$B:$C,2,0)</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y242">
+        <v>52.900847290000002</v>
+      </c>
+      <c r="Z242">
+        <v>52.900847290000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -29294,8 +30629,14 @@
         <f>VLOOKUP(C243,[1]Sheet2!$B:$C,2,0)</f>
         <v>328</v>
       </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y243">
+        <v>52.660723519999998</v>
+      </c>
+      <c r="Z243">
+        <v>52.660723519999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -29345,8 +30686,14 @@
         <f>VLOOKUP(C244,[1]Sheet2!$B:$C,2,0)</f>
         <v>329</v>
       </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y244">
+        <v>54.210492459999998</v>
+      </c>
+      <c r="Z244">
+        <v>54.210492459999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -29399,8 +30746,14 @@
         <f>VLOOKUP(C245,[1]Sheet2!$B:$C,2,0)</f>
         <v>367</v>
       </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y245">
+        <v>51.772068310000002</v>
+      </c>
+      <c r="Z245">
+        <v>51.772068310000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -29453,8 +30806,14 @@
         <f>VLOOKUP(C246,[1]Sheet2!$B:$C,2,0)</f>
         <v>331</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y246">
+        <v>52.515427330000001</v>
+      </c>
+      <c r="Z246">
+        <v>52.515427330000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -29504,8 +30863,14 @@
         <f>VLOOKUP(C247,[1]Sheet2!$B:$C,2,0)</f>
         <v>347</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y247">
+        <v>51.556379810000003</v>
+      </c>
+      <c r="Z247">
+        <v>51.556379810000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -29555,8 +30920,14 @@
         <f>VLOOKUP(C248,[1]Sheet2!$B:$C,2,0)</f>
         <v>348</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y248">
+        <v>52.172778080000001</v>
+      </c>
+      <c r="Z248">
+        <v>52.172778080000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -29606,8 +30977,14 @@
         <f>VLOOKUP(C249,[1]Sheet2!$B:$C,2,0)</f>
         <v>332</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y249">
+        <v>54.36640147</v>
+      </c>
+      <c r="Z249">
+        <v>54.36640147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -29657,8 +31034,14 @@
         <f>VLOOKUP(C250,[1]Sheet2!$B:$C,2,0)</f>
         <v>349</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y250">
+        <v>52.830993509999999</v>
+      </c>
+      <c r="Z250">
+        <v>52.830993509999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -29708,8 +31091,14 @@
         <f>VLOOKUP(C251,[1]Sheet2!$B:$C,2,0)</f>
         <v>368</v>
       </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y251">
+        <v>52.233386449999998</v>
+      </c>
+      <c r="Z251">
+        <v>52.233386449999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -29759,8 +31148,14 @@
         <f>VLOOKUP(C252,[1]Sheet2!$B:$C,2,0)</f>
         <v>334</v>
       </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y252">
+        <v>51.17983985</v>
+      </c>
+      <c r="Z252">
+        <v>51.17983985</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -29810,8 +31205,14 @@
         <f>VLOOKUP(C253,[1]Sheet2!$B:$C,2,0)</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y253">
+        <v>53.787102449999999</v>
+      </c>
+      <c r="Z253">
+        <v>53.787102449999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -29861,8 +31262,14 @@
         <f>VLOOKUP(C254,[1]Sheet2!$B:$C,2,0)</f>
         <v>336</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y254">
+        <v>51.275410309999998</v>
+      </c>
+      <c r="Z254">
+        <v>51.275410309999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -29913,7 +31320,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -29966,8 +31373,14 @@
         <f>VLOOKUP(C256,[1]Sheet2!$B:$C,2,0)</f>
         <v>637</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y256">
+        <v>53.549675999999998</v>
+      </c>
+      <c r="Z256">
+        <v>53.549675999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -30023,8 +31436,14 @@
         <f>VLOOKUP(C257,[1]Sheet2!$B:$C,2,0)</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y257">
+        <v>51.541870799999998</v>
+      </c>
+      <c r="Z257">
+        <v>51.541870799999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -30074,8 +31493,14 @@
         <f>VLOOKUP(C258,[1]Sheet2!$B:$C,2,0)</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y258">
+        <v>50.375080750000002</v>
+      </c>
+      <c r="Z258">
+        <v>50.375080750000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -30131,8 +31556,14 @@
         <f>VLOOKUP(C259,[1]Sheet2!$B:$C,2,0)</f>
         <v>338</v>
       </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y259">
+        <v>51.055632899999999</v>
+      </c>
+      <c r="Z259">
+        <v>51.055632899999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -30185,8 +31616,14 @@
         <f>VLOOKUP(C260,[1]Sheet2!$B:$C,2,0)</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y260">
+        <v>53.40441483</v>
+      </c>
+      <c r="Z260">
+        <v>53.40441483</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -30242,8 +31679,14 @@
         <f>VLOOKUP(C261,[1]Sheet2!$B:$C,2,0)</f>
         <v>369</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y261">
+        <v>53.459472640000001</v>
+      </c>
+      <c r="Z261">
+        <v>53.459472640000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -30293,8 +31736,14 @@
         <f>VLOOKUP(C262,[1]Sheet2!$B:$C,2,0)</f>
         <v>352</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y262">
+        <v>52.788523009999999</v>
+      </c>
+      <c r="Z262">
+        <v>52.788523009999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -30350,8 +31799,14 @@
         <f>VLOOKUP(C263,[1]Sheet2!$B:$C,2,0)</f>
         <v>341</v>
       </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y263">
+        <v>52.63490144</v>
+      </c>
+      <c r="Z263">
+        <v>52.63490144</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -30401,8 +31856,14 @@
         <f>VLOOKUP(C264,[1]Sheet2!$B:$C,2,0)</f>
         <v>638</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y264">
+        <v>52.854291070000002</v>
+      </c>
+      <c r="Z264">
+        <v>52.854291070000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>24</v>
       </c>
@@ -30455,8 +31916,14 @@
         <f>VLOOKUP(C265,[1]Sheet2!$B:$C,2,0)</f>
         <v>375</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y265">
+        <v>53.393961349999998</v>
+      </c>
+      <c r="Z265">
+        <v>53.393961349999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -30506,8 +31973,14 @@
         <f>VLOOKUP(C266,[1]Sheet2!$B:$C,2,0)</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y266">
+        <v>54.312475849999998</v>
+      </c>
+      <c r="Z266">
+        <v>54.312475849999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -30560,8 +32033,14 @@
         <f>VLOOKUP(C267,[1]Sheet2!$B:$C,2,0)</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y267">
+        <v>53.489538889999999</v>
+      </c>
+      <c r="Z267">
+        <v>53.489538889999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -30617,8 +32096,14 @@
         <f>VLOOKUP(C268,[1]Sheet2!$B:$C,2,0)</f>
         <v>342</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y268">
+        <v>51.508399429999997</v>
+      </c>
+      <c r="Z268">
+        <v>51.508399429999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -30671,8 +32156,14 @@
         <f>VLOOKUP(C269,[1]Sheet2!$B:$C,2,0)</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y269">
+        <v>54.879925980000003</v>
+      </c>
+      <c r="Z269">
+        <v>54.879925980000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -30722,8 +32213,14 @@
         <f>VLOOKUP(C270,[1]Sheet2!$B:$C,2,0)</f>
         <v>355</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y270">
+        <v>52.514557070000002</v>
+      </c>
+      <c r="Z270">
+        <v>52.514557070000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -30773,8 +32270,14 @@
         <f>VLOOKUP(C271,[1]Sheet2!$B:$C,2,0)</f>
         <v>356</v>
       </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y271">
+        <v>52.12265154</v>
+      </c>
+      <c r="Z271">
+        <v>52.12265154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>24</v>
       </c>
@@ -30827,8 +32330,14 @@
         <f>VLOOKUP(C272,[1]Sheet2!$B:$C,2,0)</f>
         <v>343</v>
       </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y272">
+        <v>52.413116619999997</v>
+      </c>
+      <c r="Z272">
+        <v>52.413116619999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -30879,7 +32388,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -30938,8 +32447,14 @@
         <f>VLOOKUP(C274,[1]Sheet2!$B:$C,2,0)</f>
         <v>364</v>
       </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y274">
+        <v>51.547730729999998</v>
+      </c>
+      <c r="Z274">
+        <v>51.547730729999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -30989,8 +32504,14 @@
         <f>VLOOKUP(C275,[1]Sheet2!$B:$C,2,0)</f>
         <v>357</v>
       </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y275">
+        <v>51.633749379999998</v>
+      </c>
+      <c r="Z275">
+        <v>51.633749379999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -31040,8 +32561,14 @@
         <f>VLOOKUP(C276,[1]Sheet2!$B:$C,2,0)</f>
         <v>366</v>
       </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y276">
+        <v>51.424802550000003</v>
+      </c>
+      <c r="Z276">
+        <v>51.424802550000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -31091,8 +32618,14 @@
         <f>VLOOKUP(C277,[1]Sheet2!$B:$C,2,0)</f>
         <v>358</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y277">
+        <v>53.727990699999999</v>
+      </c>
+      <c r="Z277">
+        <v>53.727990699999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>24</v>
       </c>
@@ -31143,7 +32676,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>24</v>
       </c>
@@ -31193,8 +32726,14 @@
         <f>VLOOKUP(C279,[1]Sheet2!$B:$C,2,0)</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y279">
+        <v>50.988148420000002</v>
+      </c>
+      <c r="Z279">
+        <v>50.988148420000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>24</v>
       </c>
@@ -31244,8 +32783,14 @@
         <f>VLOOKUP(C280,[1]Sheet2!$B:$C,2,0)</f>
         <v>361</v>
       </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y280">
+        <v>52.62539597</v>
+      </c>
+      <c r="Z280">
+        <v>52.62539597</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -31295,8 +32840,14 @@
         <f>VLOOKUP(C281,[1]Sheet2!$B:$C,2,0)</f>
         <v>370</v>
       </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y281">
+        <v>52.848153519999997</v>
+      </c>
+      <c r="Z281">
+        <v>52.848153519999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -31352,8 +32903,14 @@
         <f>VLOOKUP(C282,[1]Sheet2!$B:$C,2,0)</f>
         <v>377</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y282">
+        <v>53.018019160000001</v>
+      </c>
+      <c r="Z282">
+        <v>53.018019160000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>24</v>
       </c>
@@ -31403,8 +32960,14 @@
         <f>VLOOKUP(C283,[1]Sheet2!$B:$C,2,0)</f>
         <v>372</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y283">
+        <v>53.0793149</v>
+      </c>
+      <c r="Z283">
+        <v>53.0793149</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -31460,8 +33023,14 @@
         <f>VLOOKUP(C284,[1]Sheet2!$B:$C,2,0)</f>
         <v>363</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y284">
+        <v>50.919913970000003</v>
+      </c>
+      <c r="Z284">
+        <v>50.919913970000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -31511,8 +33080,14 @@
         <f>VLOOKUP(C285,[1]Sheet2!$B:$C,2,0)</f>
         <v>386</v>
       </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y285">
+        <v>51.362088870000001</v>
+      </c>
+      <c r="Z285">
+        <v>51.362088870000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>24</v>
       </c>
@@ -31562,8 +33137,14 @@
         <f>VLOOKUP(C286,[1]Sheet2!$B:$C,2,0)</f>
         <v>380</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y286">
+        <v>51.728496249999999</v>
+      </c>
+      <c r="Z286">
+        <v>51.728496249999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>24</v>
       </c>
@@ -31613,8 +33194,14 @@
         <f>VLOOKUP(C287,[1]Sheet2!$B:$C,2,0)</f>
         <v>379</v>
       </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y287">
+        <v>52.178785740000002</v>
+      </c>
+      <c r="Z287">
+        <v>52.178785740000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>24</v>
       </c>
@@ -31665,7 +33252,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -31724,8 +33311,14 @@
         <f>VLOOKUP(C289,[1]Sheet2!$B:$C,2,0)</f>
         <v>376</v>
       </c>
-    </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y289">
+        <v>54.561578490000002</v>
+      </c>
+      <c r="Z289">
+        <v>54.561578490000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>24</v>
       </c>
@@ -31778,8 +33371,14 @@
         <f>VLOOKUP(C290,[1]Sheet2!$B:$C,2,0)</f>
         <v>373</v>
       </c>
-    </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y290">
+        <v>51.904335359999997</v>
+      </c>
+      <c r="Z290">
+        <v>51.904335359999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -31832,8 +33431,14 @@
         <f>VLOOKUP(C291,[1]Sheet2!$B:$C,2,0)</f>
         <v>362</v>
       </c>
-    </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y291">
+        <v>54.962746279999998</v>
+      </c>
+      <c r="Z291">
+        <v>54.962746279999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -31883,8 +33488,14 @@
         <f>VLOOKUP(C292,[1]Sheet2!$B:$C,2,0)</f>
         <v>381</v>
       </c>
-    </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y292">
+        <v>52.165017849999998</v>
+      </c>
+      <c r="Z292">
+        <v>52.165017849999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -31934,8 +33545,14 @@
         <f>VLOOKUP(C293,[1]Sheet2!$B:$C,2,0)</f>
         <v>385</v>
       </c>
-    </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y293">
+        <v>51.342928389999997</v>
+      </c>
+      <c r="Z293">
+        <v>51.342928389999997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>24</v>
       </c>
@@ -31991,8 +33608,14 @@
         <f>VLOOKUP(C294,[1]Sheet2!$B:$C,2,0)</f>
         <v>389</v>
       </c>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y294">
+        <v>51.57151811</v>
+      </c>
+      <c r="Z294">
+        <v>51.57151811</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>24</v>
       </c>
@@ -32042,8 +33665,14 @@
         <f>VLOOKUP(C295,[1]Sheet2!$B:$C,2,0)</f>
         <v>365</v>
       </c>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y295">
+        <v>51.473137510000001</v>
+      </c>
+      <c r="Z295">
+        <v>51.473137510000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>24</v>
       </c>
@@ -32093,8 +33722,14 @@
         <f>VLOOKUP(C296,[1]Sheet2!$B:$C,2,0)</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y296">
+        <v>51.33565918</v>
+      </c>
+      <c r="Z296">
+        <v>51.33565918</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>24</v>
       </c>
@@ -32147,8 +33782,14 @@
         <f>VLOOKUP(C297,[1]Sheet2!$B:$C,2,0)</f>
         <v>641</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y297">
+        <v>53.477471940000001</v>
+      </c>
+      <c r="Z297">
+        <v>53.477471940000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>24</v>
       </c>
@@ -32198,8 +33839,14 @@
         <f>VLOOKUP(C298,[1]Sheet2!$B:$C,2,0)</f>
         <v>391</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y298">
+        <v>51.227032139999999</v>
+      </c>
+      <c r="Z298">
+        <v>51.227032139999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>24</v>
       </c>
@@ -32249,8 +33896,14 @@
         <f>VLOOKUP(C299,[1]Sheet2!$B:$C,2,0)</f>
         <v>392</v>
       </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y299">
+        <v>51.0105146</v>
+      </c>
+      <c r="Z299">
+        <v>51.0105146</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -32300,8 +33953,14 @@
         <f>VLOOKUP(C300,[1]Sheet2!$B:$C,2,0)</f>
         <v>390</v>
       </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y300">
+        <v>52.626428249999996</v>
+      </c>
+      <c r="Z300">
+        <v>52.626428249999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>24</v>
       </c>
@@ -32351,8 +34010,14 @@
         <f>VLOOKUP(C301,[1]Sheet2!$B:$C,2,0)</f>
         <v>394</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y301">
+        <v>50.60655071</v>
+      </c>
+      <c r="Z301">
+        <v>50.60655071</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -32402,8 +34067,14 @@
         <f>VLOOKUP(C302,[1]Sheet2!$B:$C,2,0)</f>
         <v>396</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y302">
+        <v>51.87034147</v>
+      </c>
+      <c r="Z302">
+        <v>51.87034147</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>24</v>
       </c>
@@ -32453,8 +34124,14 @@
         <f>VLOOKUP(C303,[1]Sheet2!$B:$C,2,0)</f>
         <v>397</v>
       </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y303">
+        <v>51.128445020000001</v>
+      </c>
+      <c r="Z303">
+        <v>51.128445020000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -32504,8 +34181,14 @@
         <f>VLOOKUP(C304,[1]Sheet2!$B:$C,2,0)</f>
         <v>398</v>
       </c>
-    </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y304">
+        <v>51.94573844</v>
+      </c>
+      <c r="Z304">
+        <v>51.94573844</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -32564,8 +34247,14 @@
         <f>VLOOKUP(C305,[1]Sheet2!$B:$C,2,0)</f>
         <v>395</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y305">
+        <v>52.730194990000001</v>
+      </c>
+      <c r="Z305">
+        <v>52.730194990000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>24</v>
       </c>
@@ -32615,8 +34304,14 @@
         <f>VLOOKUP(C306,[1]Sheet2!$B:$C,2,0)</f>
         <v>399</v>
       </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y306">
+        <v>51.354348109999997</v>
+      </c>
+      <c r="Z306">
+        <v>51.354348109999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -32666,8 +34361,14 @@
         <f>VLOOKUP(C307,[1]Sheet2!$B:$C,2,0)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y307">
+        <v>51.660966469999998</v>
+      </c>
+      <c r="Z307">
+        <v>51.660966469999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>24</v>
       </c>
@@ -32723,8 +34424,14 @@
         <f>VLOOKUP(C308,[1]Sheet2!$B:$C,2,0)</f>
         <v>401</v>
       </c>
-    </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y308">
+        <v>51.509109189999997</v>
+      </c>
+      <c r="Z308">
+        <v>51.509109189999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>24</v>
       </c>
@@ -32780,8 +34487,14 @@
         <f>VLOOKUP(C309,[1]Sheet2!$B:$C,2,0)</f>
         <v>403</v>
       </c>
-    </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y309">
+        <v>50.441723750000001</v>
+      </c>
+      <c r="Z309">
+        <v>50.441723750000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>24</v>
       </c>
@@ -32834,8 +34547,14 @@
         <f>VLOOKUP(C310,[1]Sheet2!$B:$C,2,0)</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y310">
+        <v>51.273416490000002</v>
+      </c>
+      <c r="Z310">
+        <v>51.273416490000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>24</v>
       </c>
@@ -32885,8 +34604,14 @@
         <f>VLOOKUP(C311,[1]Sheet2!$B:$C,2,0)</f>
         <v>642</v>
       </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y311">
+        <v>50.88593951</v>
+      </c>
+      <c r="Z311">
+        <v>50.88593951</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>24</v>
       </c>
@@ -32939,8 +34664,14 @@
         <f>VLOOKUP(C312,[1]Sheet2!$B:$C,2,0)</f>
         <v>406</v>
       </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y312">
+        <v>53.418996190000001</v>
+      </c>
+      <c r="Z312">
+        <v>53.418996190000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -32990,8 +34721,14 @@
         <f>VLOOKUP(C313,[1]Sheet2!$B:$C,2,0)</f>
         <v>407</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y313">
+        <v>51.11439773</v>
+      </c>
+      <c r="Z313">
+        <v>51.11439773</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -33041,8 +34778,14 @@
         <f>VLOOKUP(C314,[1]Sheet2!$B:$C,2,0)</f>
         <v>405</v>
       </c>
-    </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y314">
+        <v>51.517163259999997</v>
+      </c>
+      <c r="Z314">
+        <v>51.517163259999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -33092,8 +34835,14 @@
         <f>VLOOKUP(C315,[1]Sheet2!$B:$C,2,0)</f>
         <v>409</v>
       </c>
-    </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y315">
+        <v>51.9346003</v>
+      </c>
+      <c r="Z315">
+        <v>51.9346003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>24</v>
       </c>
@@ -33143,8 +34892,14 @@
         <f>VLOOKUP(C316,[1]Sheet2!$B:$C,2,0)</f>
         <v>411</v>
       </c>
-    </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y316">
+        <v>51.634232840000003</v>
+      </c>
+      <c r="Z316">
+        <v>51.634232840000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>24</v>
       </c>
@@ -33194,8 +34949,14 @@
         <f>VLOOKUP(C317,[1]Sheet2!$B:$C,2,0)</f>
         <v>420</v>
       </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y317">
+        <v>51.149829189999998</v>
+      </c>
+      <c r="Z317">
+        <v>51.149829189999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -33246,7 +35007,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -33296,8 +35057,14 @@
         <f>VLOOKUP(C319,[1]Sheet2!$B:$C,2,0)</f>
         <v>418</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y319">
+        <v>51.668106710000004</v>
+      </c>
+      <c r="Z319">
+        <v>51.668106710000004</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -33347,8 +35114,14 @@
         <f>VLOOKUP(C320,[1]Sheet2!$B:$C,2,0)</f>
         <v>419</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y320">
+        <v>52.418748630000003</v>
+      </c>
+      <c r="Z320">
+        <v>52.418748630000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -33398,8 +35171,14 @@
         <f>VLOOKUP(C321,[1]Sheet2!$B:$C,2,0)</f>
         <v>644</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y321">
+        <v>52.310002769999997</v>
+      </c>
+      <c r="Z321">
+        <v>52.310002769999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -33455,8 +35234,14 @@
         <f>VLOOKUP(C322,[1]Sheet2!$B:$C,2,0)</f>
         <v>425</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y322">
+        <v>51.449628580000002</v>
+      </c>
+      <c r="Z322">
+        <v>51.449628580000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>24</v>
       </c>
@@ -33506,8 +35291,14 @@
         <f>VLOOKUP(C323,[1]Sheet2!$B:$C,2,0)</f>
         <v>426</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y323">
+        <v>50.656728209999997</v>
+      </c>
+      <c r="Z323">
+        <v>50.656728209999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>24</v>
       </c>
@@ -33557,8 +35348,14 @@
         <f>VLOOKUP(C324,[1]Sheet2!$B:$C,2,0)</f>
         <v>427</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y324">
+        <v>50.78524865</v>
+      </c>
+      <c r="Z324">
+        <v>50.78524865</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -33608,8 +35405,14 @@
         <f>VLOOKUP(C325,[1]Sheet2!$B:$C,2,0)</f>
         <v>421</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y325">
+        <v>50.967632909999999</v>
+      </c>
+      <c r="Z325">
+        <v>50.967632909999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>24</v>
       </c>
@@ -33659,8 +35462,14 @@
         <f>VLOOKUP(C326,[1]Sheet2!$B:$C,2,0)</f>
         <v>423</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y326">
+        <v>52.287784619999996</v>
+      </c>
+      <c r="Z326">
+        <v>52.287784619999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>24</v>
       </c>
@@ -33713,8 +35522,14 @@
         <f>VLOOKUP(C327,[1]Sheet2!$B:$C,2,0)</f>
         <v>424</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y327">
+        <v>51.766888829999999</v>
+      </c>
+      <c r="Z327">
+        <v>51.766888829999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>24</v>
       </c>
@@ -33767,8 +35582,14 @@
         <f>VLOOKUP(C328,[1]Sheet2!$B:$C,2,0)</f>
         <v>434</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y328">
+        <v>50.610250069999999</v>
+      </c>
+      <c r="Z328">
+        <v>50.610250069999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -33818,8 +35639,14 @@
         <f>VLOOKUP(C329,[1]Sheet2!$B:$C,2,0)</f>
         <v>414</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y329">
+        <v>51.59402206</v>
+      </c>
+      <c r="Z329">
+        <v>51.59402206</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>24</v>
       </c>
@@ -33872,8 +35699,14 @@
         <f>VLOOKUP(C330,[1]Sheet2!$B:$C,2,0)</f>
         <v>435</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y330">
+        <v>53.524149260000002</v>
+      </c>
+      <c r="Z330">
+        <v>53.524149260000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>24</v>
       </c>
@@ -33929,8 +35762,14 @@
         <f>VLOOKUP(C331,[1]Sheet2!$B:$C,2,0)</f>
         <v>436</v>
       </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y331">
+        <v>51.297115810000001</v>
+      </c>
+      <c r="Z331">
+        <v>51.297115810000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>24</v>
       </c>
@@ -33980,8 +35819,14 @@
         <f>VLOOKUP(C332,[1]Sheet2!$B:$C,2,0)</f>
         <v>437</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y332">
+        <v>51.028181269999997</v>
+      </c>
+      <c r="Z332">
+        <v>51.028181269999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>24</v>
       </c>
@@ -34034,8 +35879,14 @@
         <f>VLOOKUP(C333,[1]Sheet2!$B:$C,2,0)</f>
         <v>412</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y333">
+        <v>53.660675089999998</v>
+      </c>
+      <c r="Z333">
+        <v>53.660675089999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>24</v>
       </c>
@@ -34085,8 +35936,14 @@
         <f>VLOOKUP(C334,[1]Sheet2!$B:$C,2,0)</f>
         <v>429</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y334">
+        <v>53.599251270000003</v>
+      </c>
+      <c r="Z334">
+        <v>53.599251270000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>24</v>
       </c>
@@ -34136,8 +35993,14 @@
         <f>VLOOKUP(C335,[1]Sheet2!$B:$C,2,0)</f>
         <v>645</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y335">
+        <v>53.39277242</v>
+      </c>
+      <c r="Z335">
+        <v>53.39277242</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>24</v>
       </c>
@@ -34190,8 +36053,14 @@
         <f>VLOOKUP(C336,[1]Sheet2!$B:$C,2,0)</f>
         <v>413</v>
       </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y336">
+        <v>52.599255919999997</v>
+      </c>
+      <c r="Z336">
+        <v>52.599255919999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -34244,8 +36113,14 @@
         <f>VLOOKUP(C337,[1]Sheet2!$B:$C,2,0)</f>
         <v>648</v>
       </c>
-    </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y337">
+        <v>52.589190510000002</v>
+      </c>
+      <c r="Z337">
+        <v>52.589190510000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -34295,8 +36170,14 @@
         <f>VLOOKUP(C338,[1]Sheet2!$B:$C,2,0)</f>
         <v>415</v>
       </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y338">
+        <v>51.4513538</v>
+      </c>
+      <c r="Z338">
+        <v>51.4513538</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -34352,8 +36233,14 @@
         <f>VLOOKUP(C339,[1]Sheet2!$B:$C,2,0)</f>
         <v>438</v>
       </c>
-    </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y339">
+        <v>51.485672090000001</v>
+      </c>
+      <c r="Z339">
+        <v>51.485672090000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -34403,8 +36290,14 @@
         <f>VLOOKUP(C340,[1]Sheet2!$B:$C,2,0)</f>
         <v>649</v>
       </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y340">
+        <v>52.196692669999997</v>
+      </c>
+      <c r="Z340">
+        <v>52.196692669999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -34454,8 +36347,14 @@
         <f>VLOOKUP(C341,[1]Sheet2!$B:$C,2,0)</f>
         <v>440</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y341">
+        <v>51.313878629999998</v>
+      </c>
+      <c r="Z341">
+        <v>51.313878629999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>24</v>
       </c>
@@ -34511,8 +36410,14 @@
         <f>VLOOKUP(C342,[1]Sheet2!$B:$C,2,0)</f>
         <v>441</v>
       </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y342">
+        <v>51.429405969999998</v>
+      </c>
+      <c r="Z342">
+        <v>51.429405969999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -34563,7 +36468,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>24</v>
       </c>
@@ -34616,8 +36521,14 @@
         <f>VLOOKUP(C344,[1]Sheet2!$B:$C,2,0)</f>
         <v>443</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y344">
+        <v>50.830045920000003</v>
+      </c>
+      <c r="Z344">
+        <v>50.830045920000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -34667,8 +36578,14 @@
         <f>VLOOKUP(C345,[1]Sheet2!$B:$C,2,0)</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y345">
+        <v>51.837569809999998</v>
+      </c>
+      <c r="Z345">
+        <v>51.837569809999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -34721,8 +36638,14 @@
         <f>VLOOKUP(C346,[1]Sheet2!$B:$C,2,0)</f>
         <v>439</v>
       </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y346">
+        <v>53.363285189999999</v>
+      </c>
+      <c r="Z346">
+        <v>53.363285189999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>24</v>
       </c>
@@ -34778,8 +36701,14 @@
         <f>VLOOKUP(C347,[1]Sheet2!$B:$C,2,0)</f>
         <v>416</v>
       </c>
-    </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y347">
+        <v>53.399097859999998</v>
+      </c>
+      <c r="Z347">
+        <v>53.399097859999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>24</v>
       </c>
@@ -34829,8 +36758,14 @@
         <f>VLOOKUP(C348,[1]Sheet2!$B:$C,2,0)</f>
         <v>433</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y348">
+        <v>51.513897700000001</v>
+      </c>
+      <c r="Z348">
+        <v>51.513897700000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -34880,8 +36815,14 @@
         <f>VLOOKUP(C349,[1]Sheet2!$B:$C,2,0)</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y349">
+        <v>51.131861110000003</v>
+      </c>
+      <c r="Z349">
+        <v>51.131861110000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -34932,7 +36873,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -34982,8 +36923,14 @@
         <f>VLOOKUP(C351,[1]Sheet2!$B:$C,2,0)</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y351">
+        <v>52.164187310000003</v>
+      </c>
+      <c r="Z351">
+        <v>52.164187310000003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -35033,8 +36980,14 @@
         <f>VLOOKUP(C352,[1]Sheet2!$B:$C,2,0)</f>
         <v>448</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y352">
+        <v>52.379576540000002</v>
+      </c>
+      <c r="Z352">
+        <v>52.379576540000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -35084,8 +37037,14 @@
         <f>VLOOKUP(C353,[1]Sheet2!$B:$C,2,0)</f>
         <v>446</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y353">
+        <v>51.649193629999999</v>
+      </c>
+      <c r="Z353">
+        <v>51.649193629999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -35135,8 +37094,14 @@
         <f>VLOOKUP(C354,[1]Sheet2!$B:$C,2,0)</f>
         <v>447</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y354">
+        <v>53.897111610000003</v>
+      </c>
+      <c r="Z354">
+        <v>53.897111610000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>24</v>
       </c>
@@ -35192,8 +37157,14 @@
         <f>VLOOKUP(C355,[1]Sheet2!$B:$C,2,0)</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y355">
+        <v>53.958741230000001</v>
+      </c>
+      <c r="Z355">
+        <v>53.958741230000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>3053</v>
       </c>
@@ -35226,7 +37197,7 @@
         <v>54906</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>3053</v>
       </c>
@@ -35259,7 +37230,7 @@
         <v>54914</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>3053</v>
       </c>
@@ -35292,7 +37263,7 @@
         <v>54905</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>3053</v>
       </c>
@@ -35328,7 +37299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>3053</v>
       </c>
@@ -35361,7 +37332,7 @@
         <v>54907</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>3053</v>
       </c>
@@ -35394,7 +37365,7 @@
         <v>54908</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>3053</v>
       </c>
@@ -35427,7 +37398,7 @@
         <v>54909</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>3053</v>
       </c>
@@ -35460,7 +37431,7 @@
         <v>54910</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>3053</v>
       </c>
@@ -35493,7 +37464,7 @@
         <v>54911</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>3053</v>
       </c>
@@ -35529,7 +37500,7 @@
         <v>54912</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3053</v>
       </c>
@@ -35552,7 +37523,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>3053</v>
       </c>
@@ -35575,7 +37546,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>3053</v>
       </c>
@@ -35966,7 +37937,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>3053</v>
       </c>
@@ -35989,7 +37960,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>3053</v>
       </c>
@@ -36012,7 +37983,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>3053</v>
       </c>
@@ -36035,7 +38006,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>3053</v>
       </c>
@@ -36058,7 +38029,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3053</v>
       </c>
@@ -36081,7 +38052,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3053</v>
       </c>
@@ -36104,7 +38075,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3053</v>
       </c>
@@ -36137,7 +38108,7 @@
         <v>54913</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>3257</v>
       </c>
@@ -36175,8 +38146,14 @@
         <f>VLOOKUP(C392,[1]Sheet2!$B:$C,2,0)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y392">
+        <v>57.24072675</v>
+      </c>
+      <c r="Z392">
+        <v>57.24072675</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>3257</v>
       </c>
@@ -36214,8 +38191,14 @@
         <f>VLOOKUP(C393,[1]Sheet2!$B:$C,2,0)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y393">
+        <v>57.157135670000002</v>
+      </c>
+      <c r="Z393">
+        <v>57.157135670000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>3257</v>
       </c>
@@ -36253,8 +38236,14 @@
         <f>VLOOKUP(C394,[1]Sheet2!$B:$C,2,0)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y394">
+        <v>56.121681529999996</v>
+      </c>
+      <c r="Z394">
+        <v>56.121681529999996</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>3257</v>
       </c>
@@ -36292,8 +38281,14 @@
         <f>VLOOKUP(C395,[1]Sheet2!$B:$C,2,0)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y395">
+        <v>56.724654049999998</v>
+      </c>
+      <c r="Z395">
+        <v>56.724654049999998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>3257</v>
       </c>
@@ -36331,8 +38326,14 @@
         <f>VLOOKUP(C396,[1]Sheet2!$B:$C,2,0)</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y396">
+        <v>56.152075750000002</v>
+      </c>
+      <c r="Z396">
+        <v>56.152075750000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>3257</v>
       </c>
@@ -36373,8 +38374,14 @@
         <f>VLOOKUP(C397,[1]Sheet2!$B:$C,2,0)</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y397">
+        <v>55.077665860000003</v>
+      </c>
+      <c r="Z397">
+        <v>55.077665860000003</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>3257</v>
       </c>
@@ -36412,8 +38419,14 @@
         <f>VLOOKUP(C398,[1]Sheet2!$B:$C,2,0)</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y398">
+        <v>56.477985760000003</v>
+      </c>
+      <c r="Z398">
+        <v>56.477985760000003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>3257</v>
       </c>
@@ -36451,8 +38464,14 @@
         <f>VLOOKUP(C399,[1]Sheet2!$B:$C,2,0)</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y399">
+        <v>55.485006990000002</v>
+      </c>
+      <c r="Z399">
+        <v>55.485006990000002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>3257</v>
       </c>
@@ -36490,8 +38509,14 @@
         <f>VLOOKUP(C400,[1]Sheet2!$B:$C,2,0)</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y400">
+        <v>55.924282789999999</v>
+      </c>
+      <c r="Z400">
+        <v>55.924282789999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>3257</v>
       </c>
@@ -36532,8 +38557,14 @@
         <f>VLOOKUP(C401,[1]Sheet2!$B:$C,2,0)</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y401">
+        <v>55.956033840000003</v>
+      </c>
+      <c r="Z401">
+        <v>55.956033840000003</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>3257</v>
       </c>
@@ -36571,8 +38602,14 @@
         <f>VLOOKUP(C402,[1]Sheet2!$B:$C,2,0)</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y402">
+        <v>55.939847360000002</v>
+      </c>
+      <c r="Z402">
+        <v>55.939847360000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>3257</v>
       </c>
@@ -36616,8 +38653,14 @@
         <f>VLOOKUP(C403,[1]Sheet2!$B:$C,2,0)</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y403">
+        <v>57.922294389999998</v>
+      </c>
+      <c r="Z403">
+        <v>57.922294389999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>3257</v>
       </c>
@@ -36655,8 +38698,14 @@
         <f>VLOOKUP(C404,[1]Sheet2!$B:$C,2,0)</f>
         <v>178</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y404">
+        <v>55.753140160000001</v>
+      </c>
+      <c r="Z404">
+        <v>55.753140160000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>3257</v>
       </c>
@@ -36694,8 +38743,14 @@
         <f>VLOOKUP(C405,[1]Sheet2!$B:$C,2,0)</f>
         <v>191</v>
       </c>
-    </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y405">
+        <v>55.995194959999999</v>
+      </c>
+      <c r="Z405">
+        <v>55.995194959999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3257</v>
       </c>
@@ -36736,8 +38791,14 @@
         <f>VLOOKUP(C406,[1]Sheet2!$B:$C,2,0)</f>
         <v>603</v>
       </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y406">
+        <v>56.228451200000002</v>
+      </c>
+      <c r="Z406">
+        <v>56.228451200000002</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>3257</v>
       </c>
@@ -36778,8 +38839,14 @@
         <f>VLOOKUP(C407,[1]Sheet2!$B:$C,2,0)</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y407">
+        <v>55.857841710000002</v>
+      </c>
+      <c r="Z407">
+        <v>55.857841710000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>3257</v>
       </c>
@@ -36820,8 +38887,14 @@
         <f>VLOOKUP(C408,[1]Sheet2!$B:$C,2,0)</f>
         <v>613</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y408">
+        <v>57.572502479999997</v>
+      </c>
+      <c r="Z408">
+        <v>57.572502479999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>3257</v>
       </c>
@@ -36859,8 +38932,14 @@
         <f>VLOOKUP(C409,[1]Sheet2!$B:$C,2,0)</f>
         <v>616</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y409">
+        <v>55.90118683</v>
+      </c>
+      <c r="Z409">
+        <v>55.90118683</v>
+      </c>
+    </row>
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>3257</v>
       </c>
@@ -36898,8 +38977,14 @@
         <f>VLOOKUP(C410,[1]Sheet2!$B:$C,2,0)</f>
         <v>265</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y410">
+        <v>55.83222456</v>
+      </c>
+      <c r="Z410">
+        <v>55.83222456</v>
+      </c>
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>3257</v>
       </c>
@@ -36940,8 +39025,14 @@
         <f>VLOOKUP(C411,[1]Sheet2!$B:$C,2,0)</f>
         <v>269</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y411">
+        <v>57.47383971</v>
+      </c>
+      <c r="Z411">
+        <v>57.47383971</v>
+      </c>
+    </row>
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>3257</v>
       </c>
@@ -36979,8 +39070,14 @@
         <f>VLOOKUP(C412,[1]Sheet2!$B:$C,2,0)</f>
         <v>624</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y412">
+        <v>55.65105277</v>
+      </c>
+      <c r="Z412">
+        <v>55.65105277</v>
+      </c>
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>3257</v>
       </c>
@@ -37018,8 +39115,14 @@
         <f>VLOOKUP(C413,[1]Sheet2!$B:$C,2,0)</f>
         <v>281</v>
       </c>
-    </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y413">
+        <v>55.874755759999999</v>
+      </c>
+      <c r="Z413">
+        <v>55.874755759999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>3257</v>
       </c>
@@ -37057,8 +39160,14 @@
         <f>VLOOKUP(C414,[1]Sheet2!$B:$C,2,0)</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y414">
+        <v>59.024298979999998</v>
+      </c>
+      <c r="Z414">
+        <v>59.024298979999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>3257</v>
       </c>
@@ -37099,8 +39208,14 @@
         <f>VLOOKUP(C415,[1]Sheet2!$B:$C,2,0)</f>
         <v>302</v>
       </c>
-    </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y415">
+        <v>56.566487930000001</v>
+      </c>
+      <c r="Z415">
+        <v>56.566487930000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>3257</v>
       </c>
@@ -37138,8 +39253,14 @@
         <f>VLOOKUP(C416,[1]Sheet2!$B:$C,2,0)</f>
         <v>315</v>
       </c>
-    </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y416">
+        <v>55.845690689999998</v>
+      </c>
+      <c r="Z416">
+        <v>55.845690689999998</v>
+      </c>
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>3257</v>
       </c>
@@ -37177,8 +39298,14 @@
         <f>VLOOKUP(C417,[1]Sheet2!$B:$C,2,0)</f>
         <v>345</v>
       </c>
-    </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y417">
+        <v>55.267233480000002</v>
+      </c>
+      <c r="Z417">
+        <v>55.267233480000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>3257</v>
       </c>
@@ -37216,8 +39343,14 @@
         <f>VLOOKUP(C418,[1]Sheet2!$B:$C,2,0)</f>
         <v>636</v>
       </c>
-    </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y418">
+        <v>55.576010199999999</v>
+      </c>
+      <c r="Z418">
+        <v>55.576010199999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>3257</v>
       </c>
@@ -37255,8 +39388,14 @@
         <f>VLOOKUP(C419,[1]Sheet2!$B:$C,2,0)</f>
         <v>354</v>
       </c>
-    </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y419">
+        <v>55.612638609999998</v>
+      </c>
+      <c r="Z419">
+        <v>55.612638609999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>3257</v>
       </c>
@@ -37294,8 +39433,14 @@
         <f>VLOOKUP(C420,[1]Sheet2!$B:$C,2,0)</f>
         <v>374</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y420">
+        <v>56.244098080000001</v>
+      </c>
+      <c r="Z420">
+        <v>56.244098080000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>3257</v>
       </c>
@@ -37333,8 +39478,14 @@
         <f>VLOOKUP(C421,[1]Sheet2!$B:$C,2,0)</f>
         <v>428</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y421">
+        <v>55.986489769999999</v>
+      </c>
+      <c r="Z421">
+        <v>55.986489769999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>3257</v>
       </c>
@@ -37372,8 +39523,14 @@
         <f>VLOOKUP(C422,[1]Sheet2!$B:$C,2,0)</f>
         <v>430</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y422">
+        <v>55.884234460000002</v>
+      </c>
+      <c r="Z422">
+        <v>55.884234460000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>3257</v>
       </c>
@@ -37411,8 +39568,14 @@
         <f>VLOOKUP(C423,[1]Sheet2!$B:$C,2,0)</f>
         <v>339</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y423">
+        <v>60.378935509999998</v>
+      </c>
+      <c r="Z423">
+        <v>60.378935509999998</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>3520</v>
       </c>
@@ -37459,8 +39622,14 @@
         <f>VLOOKUP(C424,[1]Sheet2!$B:$C,2,0)</f>
         <v>222</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y424">
+        <v>53.287263070000002</v>
+      </c>
+      <c r="Z424">
+        <v>53.287263070000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>3520</v>
       </c>
@@ -37507,8 +39676,14 @@
         <f>VLOOKUP(C425,[1]Sheet2!$B:$C,2,0)</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y425">
+        <v>51.556929169999997</v>
+      </c>
+      <c r="Z425">
+        <v>51.556929169999997</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>3520</v>
       </c>
@@ -37555,8 +39730,14 @@
         <f>VLOOKUP(C426,[1]Sheet2!$B:$C,2,0)</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y426">
+        <v>51.766739950000002</v>
+      </c>
+      <c r="Z426">
+        <v>51.766739950000002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>3520</v>
       </c>
@@ -37603,8 +39784,14 @@
         <f>VLOOKUP(C427,[1]Sheet2!$B:$C,2,0)</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y427">
+        <v>51.65327018</v>
+      </c>
+      <c r="Z427">
+        <v>51.65327018</v>
+      </c>
+    </row>
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>3520</v>
       </c>
@@ -37651,8 +39838,14 @@
         <f>VLOOKUP(C428,[1]Sheet2!$B:$C,2,0)</f>
         <v>115</v>
       </c>
-    </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y428">
+        <v>52.254108199999997</v>
+      </c>
+      <c r="Z428">
+        <v>52.254108199999997</v>
+      </c>
+    </row>
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>3520</v>
       </c>
@@ -37699,8 +39892,14 @@
         <f>VLOOKUP(C429,[1]Sheet2!$B:$C,2,0)</f>
         <v>109</v>
       </c>
-    </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y429">
+        <v>51.905049269999999</v>
+      </c>
+      <c r="Z429">
+        <v>51.905049269999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>3520</v>
       </c>
@@ -37750,8 +39949,14 @@
         <f>VLOOKUP(C430,[1]Sheet2!$B:$C,2,0)</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y430">
+        <v>51.51006134</v>
+      </c>
+      <c r="Z430">
+        <v>51.51006134</v>
+      </c>
+    </row>
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>3520</v>
       </c>
@@ -37798,8 +40003,14 @@
         <f>VLOOKUP(C431,[1]Sheet2!$B:$C,2,0)</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y431">
+        <v>53.137869139999999</v>
+      </c>
+      <c r="Z431">
+        <v>53.137869139999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>3520</v>
       </c>
@@ -37846,8 +40057,14 @@
         <f>VLOOKUP(C432,[1]Sheet2!$B:$C,2,0)</f>
         <v>152</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y432">
+        <v>53.08963447</v>
+      </c>
+      <c r="Z432">
+        <v>53.08963447</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>3520</v>
       </c>
@@ -37894,8 +40111,14 @@
         <f>VLOOKUP(C433,[1]Sheet2!$B:$C,2,0)</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y433">
+        <v>53.208188159999999</v>
+      </c>
+      <c r="Z433">
+        <v>53.208188159999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>3520</v>
       </c>
@@ -37942,8 +40165,14 @@
         <f>VLOOKUP(C434,[1]Sheet2!$B:$C,2,0)</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y434">
+        <v>52.892839250000002</v>
+      </c>
+      <c r="Z434">
+        <v>52.892839250000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>3520</v>
       </c>
@@ -37990,8 +40219,14 @@
         <f>VLOOKUP(C435,[1]Sheet2!$B:$C,2,0)</f>
         <v>268</v>
       </c>
-    </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y435">
+        <v>51.76597889</v>
+      </c>
+      <c r="Z435">
+        <v>51.76597889</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>3520</v>
       </c>
@@ -38038,8 +40273,14 @@
         <f>VLOOKUP(C436,[1]Sheet2!$B:$C,2,0)</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y436">
+        <v>51.740941759999998</v>
+      </c>
+      <c r="Z436">
+        <v>51.740941759999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>3520</v>
       </c>
@@ -38086,8 +40327,14 @@
         <f>VLOOKUP(C437,[1]Sheet2!$B:$C,2,0)</f>
         <v>621</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y437">
+        <v>51.681488620000003</v>
+      </c>
+      <c r="Z437">
+        <v>51.681488620000003</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>3520</v>
       </c>
@@ -38134,8 +40381,14 @@
         <f>VLOOKUP(C438,[1]Sheet2!$B:$C,2,0)</f>
         <v>274</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y438">
+        <v>51.579330810000002</v>
+      </c>
+      <c r="Z438">
+        <v>51.579330810000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>3520</v>
       </c>
@@ -38182,8 +40435,14 @@
         <f>VLOOKUP(C439,[1]Sheet2!$B:$C,2,0)</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y439">
+        <v>51.855601749999998</v>
+      </c>
+      <c r="Z439">
+        <v>51.855601749999998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>3520</v>
       </c>
@@ -38230,8 +40489,14 @@
         <f>VLOOKUP(C440,[1]Sheet2!$B:$C,2,0)</f>
         <v>307</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y440">
+        <v>52.323736680000003</v>
+      </c>
+      <c r="Z440">
+        <v>52.323736680000003</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>3520</v>
       </c>
@@ -38275,8 +40540,14 @@
         <f>VLOOKUP(C441,[1]Sheet2!$B:$C,2,0)</f>
         <v>317</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y441">
+        <v>51.650328020000003</v>
+      </c>
+      <c r="Z441">
+        <v>51.650328020000003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>3520</v>
       </c>
@@ -38326,8 +40597,14 @@
         <f>VLOOKUP(C442,[1]Sheet2!$B:$C,2,0)</f>
         <v>388</v>
       </c>
-    </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y442">
+        <v>51.643470540000003</v>
+      </c>
+      <c r="Z442">
+        <v>51.643470540000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>3520</v>
       </c>
@@ -38374,8 +40651,14 @@
         <f>VLOOKUP(C443,[1]Sheet2!$B:$C,2,0)</f>
         <v>404</v>
       </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y443">
+        <v>51.69858739</v>
+      </c>
+      <c r="Z443">
+        <v>51.69858739</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>3520</v>
       </c>
@@ -38422,8 +40705,14 @@
         <f>VLOOKUP(C444,[1]Sheet2!$B:$C,2,0)</f>
         <v>410</v>
       </c>
-    </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y444">
+        <v>51.44576945</v>
+      </c>
+      <c r="Z444">
+        <v>51.44576945</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>3520</v>
       </c>
@@ -38470,8 +40759,15 @@
         <f>VLOOKUP(C445,[1]Sheet2!$B:$C,2,0)</f>
         <v>444</v>
       </c>
+      <c r="Y445">
+        <v>52.990268999999998</v>
+      </c>
+      <c r="Z445">
+        <v>52.990268999999998</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA445" xr:uid="{5CB5FCB2-E20C-413E-817A-961F3565DA6A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alex\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894BE402-5D8B-4B1F-BE25-32C8A60E377D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77403530-A21A-4FE5-9C44-3E7B282CDC8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="4108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="4114">
   <si>
     <t>register</t>
   </si>
@@ -10197,9 +10197,6 @@
     <t>glasgow</t>
   </si>
   <si>
-    <t>S12000046</t>
-  </si>
-  <si>
     <t>00-QS</t>
   </si>
   <si>
@@ -12252,9 +12249,6 @@
     <t>7000000000030620</t>
   </si>
   <si>
-    <t>S12000043</t>
-  </si>
-  <si>
     <t>7000000000030100</t>
   </si>
   <si>
@@ -12358,6 +12352,30 @@
   </si>
   <si>
     <t>Bournemouth Christchurch and Poole</t>
+  </si>
+  <si>
+    <t>E06000058</t>
+  </si>
+  <si>
+    <t>E06000059</t>
+  </si>
+  <si>
+    <t>E07000245</t>
+  </si>
+  <si>
+    <t>E07000246</t>
+  </si>
+  <si>
+    <t>E07000244</t>
+  </si>
+  <si>
+    <t>S12000049</t>
+  </si>
+  <si>
+    <t>S12000046,S12000043</t>
+  </si>
+  <si>
+    <t>S12000050</t>
   </si>
 </sst>
 </file>
@@ -16579,8 +16597,8 @@
   <dimension ref="A1:AD450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K437" sqref="K437"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16642,7 +16660,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
@@ -16654,7 +16672,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -16672,13 +16690,13 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="AB1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="AC1" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="AD1" t="s">
         <v>23</v>
@@ -16725,7 +16743,7 @@
         <v>34</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="Y2" t="s">
         <v>35</v>
@@ -16785,7 +16803,7 @@
         <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="Y3" t="s">
         <v>45</v>
@@ -16845,7 +16863,7 @@
         <v>53</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="Y4" t="s">
         <v>54</v>
@@ -16905,7 +16923,7 @@
         <v>62</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="Y5" t="s">
         <v>63</v>
@@ -16965,7 +16983,7 @@
         <v>71</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="Y6" t="s">
         <v>72</v>
@@ -17025,7 +17043,7 @@
         <v>80</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="Y7" t="s">
         <v>81</v>
@@ -17085,7 +17103,7 @@
         <v>89</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="Y8" t="s">
         <v>90</v>
@@ -17145,7 +17163,7 @@
         <v>98</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="Y9" t="s">
         <v>99</v>
@@ -17205,7 +17223,7 @@
         <v>107</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="Y10" t="s">
         <v>108</v>
@@ -17265,7 +17283,7 @@
         <v>116</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Y11" t="s">
         <v>117</v>
@@ -17328,7 +17346,7 @@
         <v>126</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="Y12" t="s">
         <v>127</v>
@@ -17388,7 +17406,7 @@
         <v>134</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="Y13" t="s">
         <v>135</v>
@@ -17454,7 +17472,7 @@
         <v>146</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="Y14" t="s">
         <v>147</v>
@@ -17520,7 +17538,7 @@
         <v>157</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="Y15" t="s">
         <v>158</v>
@@ -17586,7 +17604,7 @@
         <v>167</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="Y16" t="s">
         <v>168</v>
@@ -17649,7 +17667,7 @@
         <v>179</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="Y17" t="s">
         <v>180</v>
@@ -17709,7 +17727,7 @@
         <v>187</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="Y18" t="s">
         <v>188</v>
@@ -17769,7 +17787,7 @@
         <v>195</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="Y19" t="s">
         <v>196</v>
@@ -17832,7 +17850,7 @@
         <v>206</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="Y20" t="s">
         <v>207</v>
@@ -17895,7 +17913,7 @@
         <v>11</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="Y21" t="s">
         <v>217</v>
@@ -17949,7 +17967,7 @@
         <v>225</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="Y22" t="s">
         <v>226</v>
@@ -18003,7 +18021,7 @@
         <v>43555</v>
       </c>
       <c r="Q23" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="R23" t="s">
         <v>233</v>
@@ -18021,7 +18039,7 @@
         <v>235</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="Y23" t="s">
         <v>236</v>
@@ -18081,7 +18099,7 @@
         <v>243</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="Y24" t="s">
         <v>244</v>
@@ -18147,7 +18165,7 @@
         <v>253</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="Y25" t="s">
         <v>254</v>
@@ -18210,7 +18228,7 @@
         <v>262</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="Y26" t="s">
         <v>263</v>
@@ -18273,7 +18291,7 @@
         <v>271</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="Y27" t="s">
         <v>272</v>
@@ -18333,7 +18351,7 @@
         <v>280</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="Y28" t="s">
         <v>281</v>
@@ -18393,7 +18411,7 @@
         <v>289</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="Y29" t="s">
         <v>290</v>
@@ -18459,7 +18477,7 @@
         <v>299</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="Y30" t="s">
         <v>300</v>
@@ -18519,7 +18537,7 @@
         <v>308</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="Y31" t="s">
         <v>309</v>
@@ -18585,7 +18603,7 @@
         <v>318</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y32" t="s">
         <v>319</v>
@@ -18648,7 +18666,7 @@
         <v>327</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="Y33" t="s">
         <v>328</v>
@@ -18708,7 +18726,7 @@
         <v>336</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="Y34" t="s">
         <v>337</v>
@@ -18768,7 +18786,7 @@
         <v>344</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="Y35" t="s">
         <v>345</v>
@@ -18828,7 +18846,7 @@
         <v>353</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="Y36" t="s">
         <v>354</v>
@@ -18888,7 +18906,7 @@
         <v>361</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="Y37" t="s">
         <v>362</v>
@@ -18948,7 +18966,7 @@
         <v>369</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="Y38" t="s">
         <v>370</v>
@@ -19008,7 +19026,7 @@
         <v>377</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="Y39" t="s">
         <v>378</v>
@@ -19068,7 +19086,7 @@
         <v>385</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="Y40" t="s">
         <v>386</v>
@@ -19137,7 +19155,7 @@
         <v>396</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="Y41" t="s">
         <v>397</v>
@@ -19197,7 +19215,7 @@
         <v>404</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="Y42" t="s">
         <v>405</v>
@@ -19260,7 +19278,7 @@
         <v>413</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="Y43" t="s">
         <v>414</v>
@@ -19320,7 +19338,7 @@
         <v>422</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="Y44" t="s">
         <v>423</v>
@@ -19380,7 +19398,7 @@
         <v>12</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="Y45" t="s">
         <v>430</v>
@@ -19434,7 +19452,7 @@
         <v>438</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="Y46" t="s">
         <v>439</v>
@@ -19494,7 +19512,7 @@
         <v>446</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="Y47" t="s">
         <v>447</v>
@@ -19554,7 +19572,7 @@
         <v>454</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="Y48" t="s">
         <v>455</v>
@@ -19614,7 +19632,7 @@
         <v>462</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="Y49" t="s">
         <v>463</v>
@@ -19680,7 +19698,7 @@
         <v>472</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="Y50" t="s">
         <v>473</v>
@@ -19740,7 +19758,7 @@
         <v>480</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="Y51" t="s">
         <v>481</v>
@@ -19791,7 +19809,7 @@
         <v>43555</v>
       </c>
       <c r="Q52" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="R52" t="s">
         <v>488</v>
@@ -19806,7 +19824,7 @@
         <v>489</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="Y52" t="s">
         <v>490</v>
@@ -19872,7 +19890,7 @@
         <v>499</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="Y53" t="s">
         <v>500</v>
@@ -19935,7 +19953,7 @@
         <v>507</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="Y54" t="s">
         <v>508</v>
@@ -19995,7 +20013,7 @@
         <v>515</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="Y55" t="s">
         <v>516</v>
@@ -20055,7 +20073,7 @@
         <v>523</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="Y56" t="s">
         <v>524</v>
@@ -20115,7 +20133,7 @@
         <v>531</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="Y57" t="s">
         <v>532</v>
@@ -20175,7 +20193,7 @@
         <v>539</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="Y58" t="s">
         <v>540</v>
@@ -20235,7 +20253,7 @@
         <v>547</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="Y59" t="s">
         <v>548</v>
@@ -20295,7 +20313,7 @@
         <v>555</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="Y60" t="s">
         <v>556</v>
@@ -20361,7 +20379,7 @@
         <v>565</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="Y61" t="s">
         <v>566</v>
@@ -20424,7 +20442,7 @@
         <v>574</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="Y62" t="s">
         <v>575</v>
@@ -20484,7 +20502,7 @@
         <v>16</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="Y63" t="s">
         <v>582</v>
@@ -20538,7 +20556,7 @@
         <v>589</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="Y64" t="s">
         <v>590</v>
@@ -20598,7 +20616,7 @@
         <v>597</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="Y65" t="s">
         <v>598</v>
@@ -20664,7 +20682,7 @@
         <v>607</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="Y66" t="s">
         <v>608</v>
@@ -20724,7 +20742,7 @@
         <v>615</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="Y67" t="s">
         <v>616</v>
@@ -20784,7 +20802,7 @@
         <v>623</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="Y68" t="s">
         <v>624</v>
@@ -20844,7 +20862,7 @@
         <v>631</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="Y69" t="s">
         <v>632</v>
@@ -20907,7 +20925,7 @@
         <v>640</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="Y70" t="s">
         <v>641</v>
@@ -20967,7 +20985,7 @@
         <v>649</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="Y71" t="s">
         <v>650</v>
@@ -21030,7 +21048,7 @@
         <v>657</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="Y72" t="s">
         <v>658</v>
@@ -21090,7 +21108,7 @@
         <v>665</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="Y73" t="s">
         <v>666</v>
@@ -21150,7 +21168,7 @@
         <v>674</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="Y74" t="s">
         <v>675</v>
@@ -21216,7 +21234,7 @@
         <v>684</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="Y75" t="s">
         <v>685</v>
@@ -21276,7 +21294,7 @@
         <v>692</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="Y76" t="s">
         <v>693</v>
@@ -21336,7 +21354,7 @@
         <v>700</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="Y77" t="s">
         <v>701</v>
@@ -21396,7 +21414,7 @@
         <v>17</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="Y78" t="s">
         <v>708</v>
@@ -21450,7 +21468,7 @@
         <v>715</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="Y79" t="s">
         <v>716</v>
@@ -21516,7 +21534,7 @@
         <v>726</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="Y80" t="s">
         <v>727</v>
@@ -21576,7 +21594,7 @@
         <v>18</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="Y81" t="s">
         <v>734</v>
@@ -21633,7 +21651,7 @@
         <v>742</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="Y82" t="s">
         <v>743</v>
@@ -21681,7 +21699,7 @@
         <v>43555</v>
       </c>
       <c r="Q83" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R83" t="s">
         <v>748</v>
@@ -21699,7 +21717,7 @@
         <v>19</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="Y83" t="s">
         <v>750</v>
@@ -21753,7 +21771,7 @@
         <v>757</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="Y84" t="s">
         <v>758</v>
@@ -21816,7 +21834,7 @@
         <v>766</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="Y85" t="s">
         <v>767</v>
@@ -21885,7 +21903,7 @@
         <v>777</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="Y86" t="s">
         <v>778</v>
@@ -21945,7 +21963,7 @@
         <v>785</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="Y87" t="s">
         <v>786</v>
@@ -22005,7 +22023,7 @@
         <v>794</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="Y88" t="s">
         <v>795</v>
@@ -22065,7 +22083,7 @@
         <v>802</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="Y89" t="s">
         <v>803</v>
@@ -22125,7 +22143,7 @@
         <v>810</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="Y90" t="s">
         <v>811</v>
@@ -22185,7 +22203,7 @@
         <v>818</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="Y91" t="s">
         <v>819</v>
@@ -22245,7 +22263,7 @@
         <v>826</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="Y92" t="s">
         <v>827</v>
@@ -22296,7 +22314,7 @@
         <v>43555</v>
       </c>
       <c r="Q93" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R93" t="s">
         <v>833</v>
@@ -22311,7 +22329,7 @@
         <v>834</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="Y93" t="s">
         <v>835</v>
@@ -22371,7 +22389,7 @@
         <v>843</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="Y94" t="s">
         <v>844</v>
@@ -22418,12 +22436,12 @@
       <c r="N95" t="s">
         <v>849</v>
       </c>
-      <c r="Q95" t="s">
-        <v>851</v>
-      </c>
       <c r="R95" t="s">
         <v>850</v>
       </c>
+      <c r="S95" t="s">
+        <v>851</v>
+      </c>
       <c r="T95" t="s">
         <v>852</v>
       </c>
@@ -22434,7 +22452,7 @@
         <v>852</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="Y95" t="s">
         <v>853</v>
@@ -22494,7 +22512,7 @@
         <v>860</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="Y96" t="s">
         <v>861</v>
@@ -22554,7 +22572,7 @@
         <v>869</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="Y97" t="s">
         <v>870</v>
@@ -22614,7 +22632,7 @@
         <v>877</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="Y98" t="s">
         <v>878</v>
@@ -22674,7 +22692,7 @@
         <v>885</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="Y99" t="s">
         <v>886</v>
@@ -22734,7 +22752,7 @@
         <v>893</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="Y100" t="s">
         <v>894</v>
@@ -22797,7 +22815,7 @@
         <v>903</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="Y101" t="s">
         <v>904</v>
@@ -22857,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="Y102" t="s">
         <v>912</v>
@@ -22923,7 +22941,7 @@
         <v>921</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="Y103" t="s">
         <v>922</v>
@@ -22983,7 +23001,7 @@
         <v>22</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="Y104" t="s">
         <v>929</v>
@@ -23037,7 +23055,7 @@
         <v>936</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="Y105" t="s">
         <v>937</v>
@@ -23097,7 +23115,7 @@
         <v>21</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="Y106" t="s">
         <v>944</v>
@@ -23151,7 +23169,7 @@
         <v>951</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="Y107" t="s">
         <v>952</v>
@@ -23211,7 +23229,7 @@
         <v>959</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="Y108" t="s">
         <v>960</v>
@@ -23271,7 +23289,7 @@
         <v>967</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="Y109" t="s">
         <v>968</v>
@@ -23331,7 +23349,7 @@
         <v>975</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="Y110" t="s">
         <v>976</v>
@@ -23382,7 +23400,7 @@
         <v>43555</v>
       </c>
       <c r="Q111" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="R111" t="s">
         <v>982</v>
@@ -23397,7 +23415,7 @@
         <v>983</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="Y111" t="s">
         <v>984</v>
@@ -23457,7 +23475,7 @@
         <v>991</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="Y112" t="s">
         <v>992</v>
@@ -23504,12 +23522,12 @@
       <c r="O113" s="1">
         <v>27120</v>
       </c>
-      <c r="Q113" t="s">
-        <v>999</v>
-      </c>
       <c r="R113" t="s">
         <v>998</v>
       </c>
+      <c r="S113" t="s">
+        <v>999</v>
+      </c>
       <c r="T113">
         <v>390</v>
       </c>
@@ -23520,7 +23538,7 @@
         <v>1000</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="Y113" t="s">
         <v>1001</v>
@@ -23580,7 +23598,7 @@
         <v>1008</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="Y114" t="s">
         <v>1009</v>
@@ -23634,7 +23652,7 @@
         <v>1017</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="Y115" t="s">
         <v>1018</v>
@@ -23688,7 +23706,7 @@
         <v>1026</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="Y116" t="s">
         <v>1027</v>
@@ -23748,7 +23766,7 @@
         <v>23</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="Y117" t="s">
         <v>1034</v>
@@ -23802,7 +23820,7 @@
         <v>1041</v>
       </c>
       <c r="X118" s="2" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="Y118" t="s">
         <v>1042</v>
@@ -23862,7 +23880,7 @@
         <v>1049</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="Y119" t="s">
         <v>1050</v>
@@ -23922,7 +23940,7 @@
         <v>1057</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="Y120" t="s">
         <v>1058</v>
@@ -23982,7 +24000,7 @@
         <v>1065</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="Y121" t="s">
         <v>1066</v>
@@ -24042,7 +24060,7 @@
         <v>1073</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="Y122" t="s">
         <v>1074</v>
@@ -24102,7 +24120,7 @@
         <v>1081</v>
       </c>
       <c r="X123" s="2" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="Y123" t="s">
         <v>1082</v>
@@ -24162,7 +24180,7 @@
         <v>1089</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="Y124" t="s">
         <v>1090</v>
@@ -24222,7 +24240,7 @@
         <v>1097</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="Y125" t="s">
         <v>1098</v>
@@ -24288,7 +24306,7 @@
         <v>1107</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="Y126" t="s">
         <v>1108</v>
@@ -24348,7 +24366,7 @@
         <v>24</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="Y127" t="s">
         <v>1115</v>
@@ -24402,7 +24420,7 @@
         <v>1122</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="Y128" t="s">
         <v>1123</v>
@@ -24462,7 +24480,7 @@
         <v>1130</v>
       </c>
       <c r="X129" s="2" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="Y129" t="s">
         <v>1131</v>
@@ -24522,7 +24540,7 @@
         <v>1138</v>
       </c>
       <c r="X130" s="2" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="Y130" t="s">
         <v>1139</v>
@@ -24582,7 +24600,7 @@
         <v>1146</v>
       </c>
       <c r="X131" s="2" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="Y131" t="s">
         <v>1147</v>
@@ -24642,7 +24660,7 @@
         <v>1154</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="Y132" t="s">
         <v>1155</v>
@@ -24702,7 +24720,7 @@
         <v>1162</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="Y133" t="s">
         <v>1163</v>
@@ -24768,7 +24786,7 @@
         <v>1172</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="Y134" t="s">
         <v>1173</v>
@@ -24828,7 +24846,7 @@
         <v>1180</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="Y135" t="s">
         <v>1181</v>
@@ -24888,7 +24906,7 @@
         <v>1188</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="Y136" t="s">
         <v>1189</v>
@@ -24948,7 +24966,7 @@
         <v>1196</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="Y137" t="s">
         <v>1197</v>
@@ -25011,7 +25029,7 @@
         <v>1205</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="Y138" t="s">
         <v>1206</v>
@@ -25074,7 +25092,7 @@
         <v>1214</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="Y139" t="s">
         <v>1215</v>
@@ -25134,7 +25152,7 @@
         <v>1222</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="Y140" t="s">
         <v>1223</v>
@@ -25197,7 +25215,7 @@
         <v>1230</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="Y141" t="s">
         <v>1231</v>
@@ -25263,7 +25281,7 @@
         <v>1240</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="Y142" t="s">
         <v>1241</v>
@@ -25323,7 +25341,7 @@
         <v>26</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="Y143" t="s">
         <v>1248</v>
@@ -25377,7 +25395,7 @@
         <v>1255</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="Y144" t="s">
         <v>1256</v>
@@ -25437,7 +25455,7 @@
         <v>1263</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="Y145" t="s">
         <v>1264</v>
@@ -25497,7 +25515,7 @@
         <v>1271</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Y146" t="s">
         <v>1272</v>
@@ -25557,7 +25575,7 @@
         <v>1279</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Y147" t="s">
         <v>1280</v>
@@ -25620,7 +25638,7 @@
         <v>1288</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="Y148" t="s">
         <v>1289</v>
@@ -25686,7 +25704,7 @@
         <v>1299</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="Y149" t="s">
         <v>1300</v>
@@ -25746,7 +25764,7 @@
         <v>1307</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="Y150" t="s">
         <v>1308</v>
@@ -25806,7 +25824,7 @@
         <v>1315</v>
       </c>
       <c r="X151" s="2" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="Y151" t="s">
         <v>1316</v>
@@ -25869,7 +25887,7 @@
         <v>1324</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="Y152" t="s">
         <v>1325</v>
@@ -25929,7 +25947,7 @@
         <v>29</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="Y153" t="s">
         <v>1332</v>
@@ -25983,7 +26001,7 @@
         <v>1339</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="Y154" t="s">
         <v>1340</v>
@@ -26052,7 +26070,7 @@
         <v>1350</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="Y155" t="s">
         <v>1351</v>
@@ -26118,7 +26136,7 @@
         <v>1360</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="Y156" t="s">
         <v>1361</v>
@@ -26181,7 +26199,7 @@
         <v>1369</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="Y157" t="s">
         <v>1370</v>
@@ -26241,7 +26259,7 @@
         <v>1377</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="Y158" t="s">
         <v>1378</v>
@@ -26304,7 +26322,7 @@
         <v>1386</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="Y159" t="s">
         <v>1387</v>
@@ -26364,7 +26382,7 @@
         <v>1394</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="Y160" t="s">
         <v>1395</v>
@@ -26424,7 +26442,7 @@
         <v>30</v>
       </c>
       <c r="X161" s="2" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="Y161" t="s">
         <v>1402</v>
@@ -26478,7 +26496,7 @@
         <v>1409</v>
       </c>
       <c r="X162" s="2" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="Y162" t="s">
         <v>1410</v>
@@ -26547,7 +26565,7 @@
         <v>1420</v>
       </c>
       <c r="X163" s="2" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="Y163" t="s">
         <v>1421</v>
@@ -26610,7 +26628,7 @@
         <v>1429</v>
       </c>
       <c r="X164" s="2" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="Y164" t="s">
         <v>1430</v>
@@ -26670,7 +26688,7 @@
         <v>31</v>
       </c>
       <c r="X165" s="2" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="Y165" t="s">
         <v>1437</v>
@@ -26724,7 +26742,7 @@
         <v>1444</v>
       </c>
       <c r="X166" s="2" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="Y166" t="s">
         <v>1445</v>
@@ -26784,7 +26802,7 @@
         <v>1452</v>
       </c>
       <c r="X167" s="2" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="Y167" t="s">
         <v>1453</v>
@@ -26847,7 +26865,7 @@
         <v>1461</v>
       </c>
       <c r="X168" s="2" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="Y168" t="s">
         <v>1462</v>
@@ -26907,7 +26925,7 @@
         <v>1469</v>
       </c>
       <c r="X169" s="2" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="Y169" t="s">
         <v>1470</v>
@@ -26967,7 +26985,7 @@
         <v>32</v>
       </c>
       <c r="X170" s="2" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="Y170" t="s">
         <v>1477</v>
@@ -27024,7 +27042,7 @@
         <v>1485</v>
       </c>
       <c r="X171" s="2" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="Y171" t="s">
         <v>1486</v>
@@ -27087,7 +27105,7 @@
         <v>1495</v>
       </c>
       <c r="X172" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="Y172" t="s">
         <v>1496</v>
@@ -27153,7 +27171,7 @@
         <v>1505</v>
       </c>
       <c r="X173" s="2" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="Y173" t="s">
         <v>1506</v>
@@ -27213,7 +27231,7 @@
         <v>1513</v>
       </c>
       <c r="X174" s="2" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="Y174" t="s">
         <v>1514</v>
@@ -27273,7 +27291,7 @@
         <v>1521</v>
       </c>
       <c r="X175" s="2" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="Y175" t="s">
         <v>1522</v>
@@ -27336,7 +27354,7 @@
         <v>1530</v>
       </c>
       <c r="X176" s="2" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="Y176" t="s">
         <v>1531</v>
@@ -27396,7 +27414,7 @@
         <v>1538</v>
       </c>
       <c r="X177" s="2" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="Y177" t="s">
         <v>1539</v>
@@ -27456,7 +27474,7 @@
         <v>1546</v>
       </c>
       <c r="X178" s="2" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="Y178" t="s">
         <v>1547</v>
@@ -27522,7 +27540,7 @@
         <v>1556</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="Y179" t="s">
         <v>1557</v>
@@ -27582,7 +27600,7 @@
         <v>1564</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="Y180" t="s">
         <v>1565</v>
@@ -27651,7 +27669,7 @@
         <v>1575</v>
       </c>
       <c r="X181" s="2" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="Y181" t="s">
         <v>1576</v>
@@ -27711,7 +27729,7 @@
         <v>1583</v>
       </c>
       <c r="X182" s="2" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="Y182" t="s">
         <v>1584</v>
@@ -27771,7 +27789,7 @@
         <v>1592</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="Y183" t="s">
         <v>1593</v>
@@ -27837,7 +27855,7 @@
         <v>1602</v>
       </c>
       <c r="X184" s="2" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="Y184" t="s">
         <v>1603</v>
@@ -27897,7 +27915,7 @@
         <v>1610</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="Y185" t="s">
         <v>1611</v>
@@ -27957,7 +27975,7 @@
         <v>1618</v>
       </c>
       <c r="X186" s="2" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="Y186" t="s">
         <v>1619</v>
@@ -28020,7 +28038,7 @@
         <v>1626</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="Y187" t="s">
         <v>1627</v>
@@ -28080,7 +28098,7 @@
         <v>1634</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="Y188" t="s">
         <v>1635</v>
@@ -28130,12 +28148,12 @@
       <c r="O189" s="1">
         <v>39904</v>
       </c>
-      <c r="Q189" t="s">
-        <v>1643</v>
-      </c>
       <c r="R189" t="s">
         <v>1642</v>
       </c>
+      <c r="S189" t="s">
+        <v>1643</v>
+      </c>
       <c r="T189">
         <v>929</v>
       </c>
@@ -28146,7 +28164,7 @@
         <v>1644</v>
       </c>
       <c r="X189" s="2" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="Y189" t="s">
         <v>1645</v>
@@ -28206,7 +28224,7 @@
         <v>1652</v>
       </c>
       <c r="X190" s="2" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="Y190" t="s">
         <v>1653</v>
@@ -28257,7 +28275,7 @@
         <v>43555</v>
       </c>
       <c r="Q191" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R191" t="s">
         <v>1659</v>
@@ -28272,7 +28290,7 @@
         <v>1660</v>
       </c>
       <c r="X191" s="2" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="Y191" t="s">
         <v>1661</v>
@@ -28335,7 +28353,7 @@
         <v>1669</v>
       </c>
       <c r="X192" s="2" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="Y192" t="s">
         <v>1670</v>
@@ -28395,7 +28413,7 @@
         <v>1677</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="Y193" t="s">
         <v>1678</v>
@@ -28455,7 +28473,7 @@
         <v>1685</v>
       </c>
       <c r="X194" s="2" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="Y194" t="s">
         <v>1686</v>
@@ -28521,7 +28539,7 @@
         <v>1695</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="Y195" t="s">
         <v>1696</v>
@@ -28584,7 +28602,7 @@
         <v>1704</v>
       </c>
       <c r="X196" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="Y196" t="s">
         <v>1705</v>
@@ -28644,7 +28662,7 @@
         <v>1712</v>
       </c>
       <c r="X197" s="2" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="Y197" t="s">
         <v>1713</v>
@@ -28704,7 +28722,7 @@
         <v>33</v>
       </c>
       <c r="X198" s="2" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="Y198" t="s">
         <v>1720</v>
@@ -28767,7 +28785,7 @@
         <v>1730</v>
       </c>
       <c r="X199" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="Y199" t="s">
         <v>1731</v>
@@ -28827,7 +28845,7 @@
         <v>1738</v>
       </c>
       <c r="X200" s="2" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="Y200" t="s">
         <v>1739</v>
@@ -28887,7 +28905,7 @@
         <v>1746</v>
       </c>
       <c r="X201" s="2" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="Y201" t="s">
         <v>1747</v>
@@ -28953,7 +28971,7 @@
         <v>1756</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="Y202" t="s">
         <v>1757</v>
@@ -29013,7 +29031,7 @@
         <v>1764</v>
       </c>
       <c r="X203" s="2" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="Y203" t="s">
         <v>1765</v>
@@ -29073,7 +29091,7 @@
         <v>1772</v>
       </c>
       <c r="X204" s="2" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="Y204" t="s">
         <v>1773</v>
@@ -29133,7 +29151,7 @@
         <v>1780</v>
       </c>
       <c r="X205" s="2" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="Y205" t="s">
         <v>1781</v>
@@ -29199,7 +29217,7 @@
         <v>1790</v>
       </c>
       <c r="X206" s="2" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="Y206" t="s">
         <v>1791</v>
@@ -29259,7 +29277,7 @@
         <v>34</v>
       </c>
       <c r="X207" s="2" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="Y207" t="s">
         <v>1798</v>
@@ -29313,7 +29331,7 @@
         <v>37</v>
       </c>
       <c r="X208" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="Y208" t="s">
         <v>1805</v>
@@ -29370,7 +29388,7 @@
         <v>1813</v>
       </c>
       <c r="X209" s="2" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="Y209" t="s">
         <v>1814</v>
@@ -29433,7 +29451,7 @@
         <v>1822</v>
       </c>
       <c r="X210" s="2" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="Y210" t="s">
         <v>1823</v>
@@ -29493,7 +29511,7 @@
         <v>1830</v>
       </c>
       <c r="X211" s="2" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="Y211" t="s">
         <v>1831</v>
@@ -29553,7 +29571,7 @@
         <v>1838</v>
       </c>
       <c r="X212" s="2" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="Y212" t="s">
         <v>1839</v>
@@ -29613,7 +29631,7 @@
         <v>1846</v>
       </c>
       <c r="X213" s="2" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="Y213" t="s">
         <v>1847</v>
@@ -29673,7 +29691,7 @@
         <v>36</v>
       </c>
       <c r="X214" s="2" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="Y214" t="s">
         <v>1854</v>
@@ -29730,7 +29748,7 @@
         <v>1862</v>
       </c>
       <c r="X215" s="2" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="Y215" t="s">
         <v>1863</v>
@@ -29793,7 +29811,7 @@
         <v>1871</v>
       </c>
       <c r="X216" s="2" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="Y216" t="s">
         <v>1872</v>
@@ -29853,7 +29871,7 @@
         <v>38</v>
       </c>
       <c r="X217" s="2" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="Y217" t="s">
         <v>1879</v>
@@ -29907,7 +29925,7 @@
         <v>1886</v>
       </c>
       <c r="X218" s="2" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="Y218" t="s">
         <v>1887</v>
@@ -29967,7 +29985,7 @@
         <v>1894</v>
       </c>
       <c r="X219" s="2" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="Y219" t="s">
         <v>1895</v>
@@ -30033,7 +30051,7 @@
         <v>1904</v>
       </c>
       <c r="X220" s="2" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="Y220" t="s">
         <v>1905</v>
@@ -30087,7 +30105,7 @@
         <v>43555</v>
       </c>
       <c r="Q221" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="R221" t="s">
         <v>1912</v>
@@ -30105,7 +30123,7 @@
         <v>1914</v>
       </c>
       <c r="X221" s="2" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="Y221" t="s">
         <v>1915</v>
@@ -30171,7 +30189,7 @@
         <v>1924</v>
       </c>
       <c r="X222" s="2" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="Y222" t="s">
         <v>1925</v>
@@ -30231,7 +30249,7 @@
         <v>1932</v>
       </c>
       <c r="X223" s="2" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="Y223" t="s">
         <v>1933</v>
@@ -30297,7 +30315,7 @@
         <v>1942</v>
       </c>
       <c r="X224" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="Y224" t="s">
         <v>1943</v>
@@ -30348,7 +30366,7 @@
         <v>43555</v>
       </c>
       <c r="Q225" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R225" t="s">
         <v>1949</v>
@@ -30363,7 +30381,7 @@
         <v>1950</v>
       </c>
       <c r="X225" s="2" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="Y225" t="s">
         <v>1951</v>
@@ -30429,7 +30447,7 @@
         <v>1960</v>
       </c>
       <c r="X226" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="Y226" t="s">
         <v>1961</v>
@@ -30492,7 +30510,7 @@
         <v>1969</v>
       </c>
       <c r="X227" s="2" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="Y227" t="s">
         <v>1970</v>
@@ -30552,7 +30570,7 @@
         <v>1977</v>
       </c>
       <c r="X228" s="2" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="Y228" t="s">
         <v>1978</v>
@@ -30618,7 +30636,7 @@
         <v>1987</v>
       </c>
       <c r="X229" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y229" t="s">
         <v>1988</v>
@@ -30678,7 +30696,7 @@
         <v>1995</v>
       </c>
       <c r="X230" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="Y230" t="s">
         <v>1996</v>
@@ -30741,7 +30759,7 @@
         <v>2004</v>
       </c>
       <c r="X231" s="2" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="Y231" t="s">
         <v>2005</v>
@@ -30801,7 +30819,7 @@
         <v>2012</v>
       </c>
       <c r="X232" s="2" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="Y232" t="s">
         <v>2013</v>
@@ -30861,7 +30879,7 @@
         <v>2020</v>
       </c>
       <c r="X233" s="2" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="Y233" t="s">
         <v>2021</v>
@@ -30921,7 +30939,7 @@
         <v>2028</v>
       </c>
       <c r="X234" s="2" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="Y234" t="s">
         <v>2029</v>
@@ -30981,7 +30999,7 @@
         <v>2036</v>
       </c>
       <c r="X235" s="2" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="Y235" t="s">
         <v>2037</v>
@@ -31041,7 +31059,7 @@
         <v>2044</v>
       </c>
       <c r="X236" s="2" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="Y236" t="s">
         <v>2045</v>
@@ -31101,7 +31119,7 @@
         <v>2052</v>
       </c>
       <c r="X237" s="2" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="Y237" t="s">
         <v>2053</v>
@@ -31164,7 +31182,7 @@
         <v>2061</v>
       </c>
       <c r="X238" s="2" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="Y238" t="s">
         <v>2062</v>
@@ -31224,7 +31242,7 @@
         <v>2069</v>
       </c>
       <c r="X239" s="2" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="Y239" t="s">
         <v>2070</v>
@@ -31284,7 +31302,7 @@
         <v>2077</v>
       </c>
       <c r="X240" s="2" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="Y240" t="s">
         <v>2078</v>
@@ -31344,7 +31362,7 @@
         <v>2085</v>
       </c>
       <c r="X241" s="2" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="Y241" t="s">
         <v>2086</v>
@@ -31404,7 +31422,7 @@
         <v>2093</v>
       </c>
       <c r="X242" s="2" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="Y242" t="s">
         <v>2094</v>
@@ -31470,7 +31488,7 @@
         <v>2103</v>
       </c>
       <c r="X243" s="2" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="Y243" t="s">
         <v>2104</v>
@@ -31530,7 +31548,7 @@
         <v>2111</v>
       </c>
       <c r="X244" s="2" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="Y244" t="s">
         <v>2112</v>
@@ -31577,12 +31595,12 @@
       <c r="N245" t="s">
         <v>2117</v>
       </c>
-      <c r="Q245" t="s">
-        <v>2119</v>
-      </c>
       <c r="R245" t="s">
         <v>2118</v>
       </c>
+      <c r="S245" t="s">
+        <v>2119</v>
+      </c>
       <c r="T245" t="s">
         <v>2120</v>
       </c>
@@ -31593,7 +31611,7 @@
         <v>2120</v>
       </c>
       <c r="X245" s="2" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="Y245" t="s">
         <v>2121</v>
@@ -31656,7 +31674,7 @@
         <v>2129</v>
       </c>
       <c r="X246" s="2" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="Y246" t="s">
         <v>2130</v>
@@ -31716,7 +31734,7 @@
         <v>2137</v>
       </c>
       <c r="X247" s="2" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="Y247" t="s">
         <v>2138</v>
@@ -31776,7 +31794,7 @@
         <v>2145</v>
       </c>
       <c r="X248" s="2" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="Y248" t="s">
         <v>2146</v>
@@ -31836,7 +31854,7 @@
         <v>2153</v>
       </c>
       <c r="X249" s="2" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="Y249" t="s">
         <v>2154</v>
@@ -31896,7 +31914,7 @@
         <v>2161</v>
       </c>
       <c r="X250" s="2" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="Y250" t="s">
         <v>2162</v>
@@ -31947,7 +31965,7 @@
         <v>43555</v>
       </c>
       <c r="Q251" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="R251" t="s">
         <v>2168</v>
@@ -31962,7 +31980,7 @@
         <v>2169</v>
       </c>
       <c r="X251" s="2" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="Y251" t="s">
         <v>2170</v>
@@ -32022,7 +32040,7 @@
         <v>2177</v>
       </c>
       <c r="X252" s="2" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="Y252" t="s">
         <v>2178</v>
@@ -32082,7 +32100,7 @@
         <v>2185</v>
       </c>
       <c r="X253" s="2" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="Y253" t="s">
         <v>2186</v>
@@ -32142,7 +32160,7 @@
         <v>2193</v>
       </c>
       <c r="X254" s="2" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="Y254" t="s">
         <v>2194</v>
@@ -32202,7 +32220,7 @@
         <v>42</v>
       </c>
       <c r="X255" s="2" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="Y255" t="s">
         <v>2201</v>
@@ -32259,7 +32277,7 @@
         <v>2209</v>
       </c>
       <c r="X256" s="2" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="Y256" t="s">
         <v>2210</v>
@@ -32325,7 +32343,7 @@
         <v>2219</v>
       </c>
       <c r="X257" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="Y257" t="s">
         <v>2220</v>
@@ -32385,7 +32403,7 @@
         <v>2227</v>
       </c>
       <c r="X258" s="2" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="Y258" t="s">
         <v>2228</v>
@@ -32424,10 +32442,10 @@
         <v>66</v>
       </c>
       <c r="J259" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="K259" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="L259" t="s">
         <v>2231</v>
@@ -32451,7 +32469,7 @@
         <v>2235</v>
       </c>
       <c r="X259" s="2" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="Y259" t="s">
         <v>2236</v>
@@ -32514,7 +32532,7 @@
         <v>2244</v>
       </c>
       <c r="X260" s="2" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="Y260" t="s">
         <v>2245</v>
@@ -32580,7 +32598,7 @@
         <v>2254</v>
       </c>
       <c r="X261" s="2" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="Y261" t="s">
         <v>2255</v>
@@ -32640,7 +32658,7 @@
         <v>2262</v>
       </c>
       <c r="X262" s="2" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="Y262" t="s">
         <v>2263</v>
@@ -32706,7 +32724,7 @@
         <v>2272</v>
       </c>
       <c r="X263" s="2" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="Y263" t="s">
         <v>2273</v>
@@ -32766,7 +32784,7 @@
         <v>2280</v>
       </c>
       <c r="X264" s="2" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="Y264" t="s">
         <v>2281</v>
@@ -32829,7 +32847,7 @@
         <v>2289</v>
       </c>
       <c r="X265" s="2" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="Y265" t="s">
         <v>2290</v>
@@ -32889,7 +32907,7 @@
         <v>2297</v>
       </c>
       <c r="X266" s="2" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="Y266" t="s">
         <v>2298</v>
@@ -32952,7 +32970,7 @@
         <v>2306</v>
       </c>
       <c r="X267" s="2" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="Y267" t="s">
         <v>2307</v>
@@ -33018,7 +33036,7 @@
         <v>2316</v>
       </c>
       <c r="X268" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y268" t="s">
         <v>2317</v>
@@ -33081,7 +33099,7 @@
         <v>2325</v>
       </c>
       <c r="X269" s="2" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="Y269" t="s">
         <v>2326</v>
@@ -33141,7 +33159,7 @@
         <v>2333</v>
       </c>
       <c r="X270" s="2" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="Y270" t="s">
         <v>2334</v>
@@ -33201,7 +33219,7 @@
         <v>2341</v>
       </c>
       <c r="X271" s="2" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="Y271" t="s">
         <v>2342</v>
@@ -33264,7 +33282,7 @@
         <v>2350</v>
       </c>
       <c r="X272" s="2" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="Y272" t="s">
         <v>2351</v>
@@ -33324,7 +33342,7 @@
         <v>40</v>
       </c>
       <c r="X273" s="2" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="Y273" t="s">
         <v>2358</v>
@@ -33387,7 +33405,7 @@
         <v>2368</v>
       </c>
       <c r="X274" s="2" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="Y274" t="s">
         <v>2369</v>
@@ -33447,7 +33465,7 @@
         <v>2376</v>
       </c>
       <c r="X275" s="2" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="Y275" t="s">
         <v>2377</v>
@@ -33507,7 +33525,7 @@
         <v>2384</v>
       </c>
       <c r="X276" s="2" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="Y276" t="s">
         <v>2385</v>
@@ -33567,7 +33585,7 @@
         <v>2392</v>
       </c>
       <c r="X277" s="2" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="Y277" t="s">
         <v>2393</v>
@@ -33627,7 +33645,7 @@
         <v>43</v>
       </c>
       <c r="X278" s="2" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="Y278" t="s">
         <v>2400</v>
@@ -33681,7 +33699,7 @@
         <v>2407</v>
       </c>
       <c r="X279" s="2" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="Y279" t="s">
         <v>2408</v>
@@ -33741,7 +33759,7 @@
         <v>2415</v>
       </c>
       <c r="X280" s="2" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="Y280" t="s">
         <v>2416</v>
@@ -33801,7 +33819,7 @@
         <v>2423</v>
       </c>
       <c r="X281" s="2" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="Y281" t="s">
         <v>2424</v>
@@ -33867,7 +33885,7 @@
         <v>2433</v>
       </c>
       <c r="X282" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="Y282" t="s">
         <v>2434</v>
@@ -33927,7 +33945,7 @@
         <v>2441</v>
       </c>
       <c r="X283" s="2" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="Y283" t="s">
         <v>2442</v>
@@ -33993,7 +34011,7 @@
         <v>2451</v>
       </c>
       <c r="X284" s="2" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="Y284" t="s">
         <v>2452</v>
@@ -34053,7 +34071,7 @@
         <v>2459</v>
       </c>
       <c r="X285" s="2" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="Y285" t="s">
         <v>2460</v>
@@ -34113,7 +34131,7 @@
         <v>2467</v>
       </c>
       <c r="X286" s="2" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="Y286" t="s">
         <v>2468</v>
@@ -34173,7 +34191,7 @@
         <v>2475</v>
       </c>
       <c r="X287" s="2" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="Y287" t="s">
         <v>2476</v>
@@ -34233,7 +34251,7 @@
         <v>41</v>
       </c>
       <c r="X288" s="2" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="Y288" t="s">
         <v>2483</v>
@@ -34296,7 +34314,7 @@
         <v>2493</v>
       </c>
       <c r="X289" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="Y289" t="s">
         <v>2494</v>
@@ -34343,12 +34361,12 @@
       <c r="N290" t="s">
         <v>2499</v>
       </c>
-      <c r="Q290" t="s">
-        <v>2501</v>
-      </c>
       <c r="R290" t="s">
         <v>2500</v>
       </c>
+      <c r="S290" t="s">
+        <v>2501</v>
+      </c>
       <c r="T290" t="s">
         <v>2502</v>
       </c>
@@ -34359,7 +34377,7 @@
         <v>2502</v>
       </c>
       <c r="X290" s="2" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="Y290" t="s">
         <v>2503</v>
@@ -34422,7 +34440,7 @@
         <v>2511</v>
       </c>
       <c r="X291" s="2" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="Y291" t="s">
         <v>2512</v>
@@ -34473,7 +34491,7 @@
         <v>43555</v>
       </c>
       <c r="Q292" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="R292" t="s">
         <v>2518</v>
@@ -34488,7 +34506,7 @@
         <v>2519</v>
       </c>
       <c r="X292" s="2" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="Y292" t="s">
         <v>2520</v>
@@ -34548,7 +34566,7 @@
         <v>2527</v>
       </c>
       <c r="X293" s="2" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="Y293" t="s">
         <v>2528</v>
@@ -34614,7 +34632,7 @@
         <v>2537</v>
       </c>
       <c r="X294" s="2" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="Y294" t="s">
         <v>2538</v>
@@ -34674,7 +34692,7 @@
         <v>2545</v>
       </c>
       <c r="X295" s="2" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="Y295" t="s">
         <v>2546</v>
@@ -34734,7 +34752,7 @@
         <v>2553</v>
       </c>
       <c r="X296" s="2" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="Y296" t="s">
         <v>2554</v>
@@ -34797,7 +34815,7 @@
         <v>2562</v>
       </c>
       <c r="X297" s="2" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="Y297" t="s">
         <v>2563</v>
@@ -34857,7 +34875,7 @@
         <v>2570</v>
       </c>
       <c r="X298" s="2" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="Y298" t="s">
         <v>2571</v>
@@ -34908,7 +34926,7 @@
         <v>43555</v>
       </c>
       <c r="Q299" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="R299" t="s">
         <v>2577</v>
@@ -34923,7 +34941,7 @@
         <v>2578</v>
       </c>
       <c r="X299" s="2" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="Y299" t="s">
         <v>2579</v>
@@ -34983,7 +35001,7 @@
         <v>2586</v>
       </c>
       <c r="X300" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="Y300" t="s">
         <v>2587</v>
@@ -35043,7 +35061,7 @@
         <v>2594</v>
       </c>
       <c r="X301" s="2" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="Y301" t="s">
         <v>2595</v>
@@ -35103,7 +35121,7 @@
         <v>2602</v>
       </c>
       <c r="X302" s="2" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="Y302" t="s">
         <v>2603</v>
@@ -35163,7 +35181,7 @@
         <v>2610</v>
       </c>
       <c r="X303" s="2" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="Y303" t="s">
         <v>2611</v>
@@ -35223,7 +35241,7 @@
         <v>2618</v>
       </c>
       <c r="X304" s="2" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="Y304" t="s">
         <v>2619</v>
@@ -35292,7 +35310,7 @@
         <v>2629</v>
       </c>
       <c r="X305" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="Y305" t="s">
         <v>2630</v>
@@ -35352,7 +35370,7 @@
         <v>2637</v>
       </c>
       <c r="X306" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="Y306" t="s">
         <v>2638</v>
@@ -35412,7 +35430,7 @@
         <v>2645</v>
       </c>
       <c r="X307" s="2" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="Y307" t="s">
         <v>2646</v>
@@ -35478,7 +35496,7 @@
         <v>2655</v>
       </c>
       <c r="X308" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="Y308" t="s">
         <v>2656</v>
@@ -35544,7 +35562,7 @@
         <v>2665</v>
       </c>
       <c r="X309" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="Y309" t="s">
         <v>2666</v>
@@ -35607,7 +35625,7 @@
         <v>2674</v>
       </c>
       <c r="X310" s="2" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="Y310" t="s">
         <v>2675</v>
@@ -35667,7 +35685,7 @@
         <v>2682</v>
       </c>
       <c r="X311" s="2" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="Y311" t="s">
         <v>2683</v>
@@ -35730,7 +35748,7 @@
         <v>2691</v>
       </c>
       <c r="X312" s="2" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="Y312" t="s">
         <v>2692</v>
@@ -35790,7 +35808,7 @@
         <v>2699</v>
       </c>
       <c r="X313" s="2" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="Y313" t="s">
         <v>2700</v>
@@ -35850,7 +35868,7 @@
         <v>2707</v>
       </c>
       <c r="X314" s="2" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="Y314" t="s">
         <v>2708</v>
@@ -35910,7 +35928,7 @@
         <v>2715</v>
       </c>
       <c r="X315" s="2" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="Y315" t="s">
         <v>2716</v>
@@ -35970,7 +35988,7 @@
         <v>2723</v>
       </c>
       <c r="X316" s="2" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="Y316" t="s">
         <v>2724</v>
@@ -36030,7 +36048,7 @@
         <v>2731</v>
       </c>
       <c r="X317" s="2" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="Y317" t="s">
         <v>2732</v>
@@ -36090,7 +36108,7 @@
         <v>44</v>
       </c>
       <c r="X318" s="2" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="Y318" t="s">
         <v>2739</v>
@@ -36144,7 +36162,7 @@
         <v>2746</v>
       </c>
       <c r="X319" s="2" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="Y319" t="s">
         <v>2747</v>
@@ -36195,7 +36213,7 @@
         <v>43555</v>
       </c>
       <c r="Q320" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="R320" t="s">
         <v>2753</v>
@@ -36210,7 +36228,7 @@
         <v>2754</v>
       </c>
       <c r="X320" s="2" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="Y320" t="s">
         <v>2755</v>
@@ -36270,7 +36288,7 @@
         <v>2762</v>
       </c>
       <c r="X321" s="2" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="Y321" t="s">
         <v>2763</v>
@@ -36336,7 +36354,7 @@
         <v>2772</v>
       </c>
       <c r="X322" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y322" t="s">
         <v>2773</v>
@@ -36396,7 +36414,7 @@
         <v>2780</v>
       </c>
       <c r="X323" s="2" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="Y323" t="s">
         <v>2781</v>
@@ -36447,7 +36465,7 @@
         <v>43555</v>
       </c>
       <c r="Q324" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R324" t="s">
         <v>2787</v>
@@ -36462,7 +36480,7 @@
         <v>2788</v>
       </c>
       <c r="X324" s="2" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="Y324" t="s">
         <v>2789</v>
@@ -36522,7 +36540,7 @@
         <v>2796</v>
       </c>
       <c r="X325" s="2" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="Y325" t="s">
         <v>2797</v>
@@ -36582,7 +36600,7 @@
         <v>2804</v>
       </c>
       <c r="X326" s="2" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="Y326" t="s">
         <v>2805</v>
@@ -36629,12 +36647,12 @@
       <c r="N327" t="s">
         <v>2810</v>
       </c>
-      <c r="Q327" t="s">
-        <v>2812</v>
-      </c>
       <c r="R327" t="s">
         <v>2811</v>
       </c>
+      <c r="S327" t="s">
+        <v>2812</v>
+      </c>
       <c r="T327" t="s">
         <v>2813</v>
       </c>
@@ -36645,7 +36663,7 @@
         <v>2813</v>
       </c>
       <c r="X327" s="2" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="Y327" t="s">
         <v>2814</v>
@@ -36699,7 +36717,7 @@
         <v>43555</v>
       </c>
       <c r="Q328" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="R328" t="s">
         <v>2821</v>
@@ -36714,7 +36732,7 @@
         <v>2822</v>
       </c>
       <c r="X328" s="2" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="Y328" t="s">
         <v>2823</v>
@@ -36774,7 +36792,7 @@
         <v>2830</v>
       </c>
       <c r="X329" s="2" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="Y329" t="s">
         <v>2831</v>
@@ -36837,7 +36855,7 @@
         <v>2839</v>
       </c>
       <c r="X330" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="Y330" t="s">
         <v>2840</v>
@@ -36903,7 +36921,7 @@
         <v>2849</v>
       </c>
       <c r="X331" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="Y331" t="s">
         <v>2850</v>
@@ -36963,7 +36981,7 @@
         <v>2857</v>
       </c>
       <c r="X332" s="2" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="Y332" t="s">
         <v>2858</v>
@@ -37026,7 +37044,7 @@
         <v>2866</v>
       </c>
       <c r="X333" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="Y333" t="s">
         <v>2867</v>
@@ -37086,7 +37104,7 @@
         <v>2874</v>
       </c>
       <c r="X334" s="2" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="Y334" t="s">
         <v>2875</v>
@@ -37146,7 +37164,7 @@
         <v>2882</v>
       </c>
       <c r="X335" s="2" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="Y335" t="s">
         <v>2883</v>
@@ -37209,7 +37227,7 @@
         <v>2891</v>
       </c>
       <c r="X336" s="2" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="Y336" t="s">
         <v>2892</v>
@@ -37272,7 +37290,7 @@
         <v>2900</v>
       </c>
       <c r="X337" s="2" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="Y337" t="s">
         <v>2901</v>
@@ -37332,7 +37350,7 @@
         <v>2908</v>
       </c>
       <c r="X338" s="2" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="Y338" t="s">
         <v>2909</v>
@@ -37398,7 +37416,7 @@
         <v>2918</v>
       </c>
       <c r="X339" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y339" t="s">
         <v>2919</v>
@@ -37458,7 +37476,7 @@
         <v>2926</v>
       </c>
       <c r="X340" s="2" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="Y340" t="s">
         <v>2927</v>
@@ -37518,7 +37536,7 @@
         <v>2934</v>
       </c>
       <c r="X341" s="2" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="Y341" t="s">
         <v>2935</v>
@@ -37584,7 +37602,7 @@
         <v>2944</v>
       </c>
       <c r="X342" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="Y342" t="s">
         <v>2945</v>
@@ -37644,7 +37662,7 @@
         <v>47</v>
       </c>
       <c r="X343" s="2" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="Y343" t="s">
         <v>2952</v>
@@ -37701,7 +37719,7 @@
         <v>2959</v>
       </c>
       <c r="X344" s="2" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="Y344" t="s">
         <v>2960</v>
@@ -37761,7 +37779,7 @@
         <v>2967</v>
       </c>
       <c r="X345" s="2" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="Y345" t="s">
         <v>2968</v>
@@ -37824,7 +37842,7 @@
         <v>2976</v>
       </c>
       <c r="X346" s="2" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="Y346" t="s">
         <v>2977</v>
@@ -37890,7 +37908,7 @@
         <v>2986</v>
       </c>
       <c r="X347" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="Y347" t="s">
         <v>2987</v>
@@ -37950,7 +37968,7 @@
         <v>2994</v>
       </c>
       <c r="X348" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="Y348" t="s">
         <v>2995</v>
@@ -38001,7 +38019,7 @@
         <v>43555</v>
       </c>
       <c r="Q349" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="R349" t="s">
         <v>3001</v>
@@ -38016,7 +38034,7 @@
         <v>3002</v>
       </c>
       <c r="X349" s="2" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="Y349" t="s">
         <v>3003</v>
@@ -38076,7 +38094,7 @@
         <v>45</v>
       </c>
       <c r="X350" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="Y350" t="s">
         <v>3010</v>
@@ -38130,7 +38148,7 @@
         <v>3017</v>
       </c>
       <c r="X351" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="Y351" t="s">
         <v>3018</v>
@@ -38190,7 +38208,7 @@
         <v>3025</v>
       </c>
       <c r="X352" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="Y352" t="s">
         <v>3026</v>
@@ -38250,7 +38268,7 @@
         <v>3033</v>
       </c>
       <c r="X353" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="Y353" t="s">
         <v>3034</v>
@@ -38310,7 +38328,7 @@
         <v>3041</v>
       </c>
       <c r="X354" s="2" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="Y354" t="s">
         <v>3042</v>
@@ -38376,7 +38394,7 @@
         <v>3051</v>
       </c>
       <c r="X355" s="2" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Y355" t="s">
         <v>3052</v>
@@ -39432,7 +39450,7 @@
         <v>3265</v>
       </c>
       <c r="X392" s="2" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="AA392">
         <f>VLOOKUP(C392,[1]Sheet2!$B:$C,2,0)</f>
@@ -39480,7 +39498,7 @@
         <v>3273</v>
       </c>
       <c r="X393" s="2" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="AA393">
         <f>VLOOKUP(C393,[1]Sheet2!$B:$C,2,0)</f>
@@ -39528,7 +39546,7 @@
         <v>3281</v>
       </c>
       <c r="X394" s="2" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="AA394">
         <f>VLOOKUP(C394,[1]Sheet2!$B:$C,2,0)</f>
@@ -39576,7 +39594,7 @@
         <v>3289</v>
       </c>
       <c r="X395" s="2" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="AA395">
         <f>VLOOKUP(C395,[1]Sheet2!$B:$C,2,0)</f>
@@ -39624,7 +39642,7 @@
         <v>3297</v>
       </c>
       <c r="X396" s="2" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="AA396">
         <f>VLOOKUP(C396,[1]Sheet2!$B:$C,2,0)</f>
@@ -39675,7 +39693,7 @@
         <v>3306</v>
       </c>
       <c r="X397" s="2" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="AA397">
         <f>VLOOKUP(C397,[1]Sheet2!$B:$C,2,0)</f>
@@ -39723,7 +39741,7 @@
         <v>3314</v>
       </c>
       <c r="X398" s="2" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="AA398">
         <f>VLOOKUP(C398,[1]Sheet2!$B:$C,2,0)</f>
@@ -39771,7 +39789,7 @@
         <v>3322</v>
       </c>
       <c r="X399" s="2" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="AA399">
         <f>VLOOKUP(C399,[1]Sheet2!$B:$C,2,0)</f>
@@ -39819,7 +39837,7 @@
         <v>3330</v>
       </c>
       <c r="X400" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA400">
         <f>VLOOKUP(C400,[1]Sheet2!$B:$C,2,0)</f>
@@ -39870,7 +39888,7 @@
         <v>3339</v>
       </c>
       <c r="X401" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA401">
         <f>VLOOKUP(C401,[1]Sheet2!$B:$C,2,0)</f>
@@ -39918,7 +39936,7 @@
         <v>3347</v>
       </c>
       <c r="X402" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA402">
         <f>VLOOKUP(C402,[1]Sheet2!$B:$C,2,0)</f>
@@ -39972,7 +39990,7 @@
         <v>3357</v>
       </c>
       <c r="X403" s="2" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="AA403">
         <f>VLOOKUP(C403,[1]Sheet2!$B:$C,2,0)</f>
@@ -40020,7 +40038,7 @@
         <v>3365</v>
       </c>
       <c r="X404" s="2" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="AA404">
         <f>VLOOKUP(C404,[1]Sheet2!$B:$C,2,0)</f>
@@ -40068,7 +40086,7 @@
         <v>3373</v>
       </c>
       <c r="X405" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA405">
         <f>VLOOKUP(C405,[1]Sheet2!$B:$C,2,0)</f>
@@ -40104,7 +40122,7 @@
         <v>38521</v>
       </c>
       <c r="R406" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="S406" t="s">
         <v>3379</v>
@@ -40119,7 +40137,7 @@
         <v>3381</v>
       </c>
       <c r="X406" s="2" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="AA406">
         <f>VLOOKUP(C406,[1]Sheet2!$B:$C,2,0)</f>
@@ -40155,22 +40173,22 @@
         <v>38521</v>
       </c>
       <c r="R407" t="s">
-        <v>3387</v>
+        <v>4111</v>
       </c>
       <c r="S407" t="s">
-        <v>4072</v>
+        <v>4112</v>
       </c>
       <c r="U407">
         <v>310</v>
       </c>
       <c r="V407" t="s">
+        <v>3387</v>
+      </c>
+      <c r="W407" t="s">
         <v>3388</v>
       </c>
-      <c r="W407" t="s">
-        <v>3389</v>
-      </c>
       <c r="X407" s="2" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="AA407">
         <f>VLOOKUP(C407,[1]Sheet2!$B:$C,2,0)</f>
@@ -40188,40 +40206,40 @@
         <v>3257</v>
       </c>
       <c r="C408" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E408" t="s">
         <v>3390</v>
       </c>
-      <c r="E408" t="s">
+      <c r="J408" t="s">
         <v>3391</v>
       </c>
-      <c r="J408" t="s">
+      <c r="K408" t="s">
         <v>3392</v>
       </c>
-      <c r="K408" t="s">
+      <c r="L408" t="s">
         <v>3393</v>
       </c>
-      <c r="L408" t="s">
+      <c r="N408" t="s">
         <v>3394</v>
-      </c>
-      <c r="N408" t="s">
-        <v>3395</v>
       </c>
       <c r="O408" s="1">
         <v>38521</v>
       </c>
       <c r="R408" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="U408">
         <v>311</v>
       </c>
       <c r="V408" t="s">
+        <v>3396</v>
+      </c>
+      <c r="W408" t="s">
         <v>3397</v>
       </c>
-      <c r="W408" t="s">
-        <v>3398</v>
-      </c>
       <c r="X408" s="2" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="AA408">
         <f>VLOOKUP(C408,[1]Sheet2!$B:$C,2,0)</f>
@@ -40239,37 +40257,37 @@
         <v>3257</v>
       </c>
       <c r="C409" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E409" t="s">
         <v>3399</v>
       </c>
-      <c r="E409" t="s">
+      <c r="J409" t="s">
         <v>3400</v>
       </c>
-      <c r="J409" t="s">
+      <c r="K409" t="s">
         <v>3401</v>
       </c>
-      <c r="K409" t="s">
+      <c r="N409" t="s">
         <v>3402</v>
-      </c>
-      <c r="N409" t="s">
-        <v>3403</v>
       </c>
       <c r="O409" s="1">
         <v>38521</v>
       </c>
       <c r="R409" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="U409">
         <v>312</v>
       </c>
       <c r="V409" t="s">
+        <v>3404</v>
+      </c>
+      <c r="W409" t="s">
         <v>3405</v>
       </c>
-      <c r="W409" t="s">
-        <v>3406</v>
-      </c>
       <c r="X409" s="2" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="AA409">
         <f>VLOOKUP(C409,[1]Sheet2!$B:$C,2,0)</f>
@@ -40287,37 +40305,37 @@
         <v>3257</v>
       </c>
       <c r="C410" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E410" t="s">
         <v>3407</v>
       </c>
-      <c r="E410" t="s">
+      <c r="J410" t="s">
         <v>3408</v>
       </c>
-      <c r="J410" t="s">
+      <c r="K410" t="s">
         <v>3409</v>
       </c>
-      <c r="K410" t="s">
+      <c r="N410" t="s">
         <v>3410</v>
-      </c>
-      <c r="N410" t="s">
-        <v>3411</v>
       </c>
       <c r="O410" s="1">
         <v>38521</v>
       </c>
       <c r="R410" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="U410">
         <v>313</v>
       </c>
       <c r="V410" t="s">
+        <v>3412</v>
+      </c>
+      <c r="W410" t="s">
         <v>3413</v>
       </c>
-      <c r="W410" t="s">
-        <v>3414</v>
-      </c>
       <c r="X410" s="2" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="AA410">
         <f>VLOOKUP(C410,[1]Sheet2!$B:$C,2,0)</f>
@@ -40335,40 +40353,40 @@
         <v>3257</v>
       </c>
       <c r="C411" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E411" t="s">
         <v>3415</v>
       </c>
-      <c r="E411" t="s">
+      <c r="J411" t="s">
         <v>3416</v>
       </c>
-      <c r="J411" t="s">
+      <c r="K411" t="s">
         <v>3417</v>
       </c>
-      <c r="K411" t="s">
+      <c r="L411" t="s">
         <v>3418</v>
       </c>
-      <c r="L411" t="s">
+      <c r="N411" t="s">
         <v>3419</v>
-      </c>
-      <c r="N411" t="s">
-        <v>3420</v>
       </c>
       <c r="O411" s="1">
         <v>38521</v>
       </c>
       <c r="R411" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="U411">
         <v>314</v>
       </c>
       <c r="V411" t="s">
+        <v>3421</v>
+      </c>
+      <c r="W411" t="s">
         <v>3422</v>
       </c>
-      <c r="W411" t="s">
-        <v>3423</v>
-      </c>
       <c r="X411" s="2" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="AA411">
         <f>VLOOKUP(C411,[1]Sheet2!$B:$C,2,0)</f>
@@ -40386,37 +40404,37 @@
         <v>3257</v>
       </c>
       <c r="C412" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E412" t="s">
         <v>3424</v>
       </c>
-      <c r="E412" t="s">
+      <c r="J412" t="s">
         <v>3425</v>
       </c>
-      <c r="J412" t="s">
+      <c r="K412" t="s">
         <v>3426</v>
       </c>
-      <c r="K412" t="s">
+      <c r="N412" t="s">
         <v>3427</v>
-      </c>
-      <c r="N412" t="s">
-        <v>3428</v>
       </c>
       <c r="O412" s="1">
         <v>38521</v>
       </c>
       <c r="R412" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="U412">
         <v>315</v>
       </c>
       <c r="V412" t="s">
+        <v>3429</v>
+      </c>
+      <c r="W412" t="s">
         <v>3430</v>
       </c>
-      <c r="W412" t="s">
-        <v>3431</v>
-      </c>
       <c r="X412" s="2" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="AA412">
         <f>VLOOKUP(C412,[1]Sheet2!$B:$C,2,0)</f>
@@ -40434,37 +40452,40 @@
         <v>3257</v>
       </c>
       <c r="C413" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E413" t="s">
         <v>3432</v>
       </c>
-      <c r="E413" t="s">
+      <c r="J413" t="s">
         <v>3433</v>
       </c>
-      <c r="J413" t="s">
+      <c r="K413" t="s">
         <v>3434</v>
       </c>
-      <c r="K413" t="s">
+      <c r="N413" t="s">
         <v>3435</v>
-      </c>
-      <c r="N413" t="s">
-        <v>3436</v>
       </c>
       <c r="O413" s="1">
         <v>38521</v>
       </c>
       <c r="R413" t="s">
-        <v>3437</v>
+        <v>4113</v>
+      </c>
+      <c r="S413" t="s">
+        <v>3436</v>
       </c>
       <c r="U413">
         <v>316</v>
       </c>
       <c r="V413" t="s">
+        <v>3437</v>
+      </c>
+      <c r="W413" t="s">
         <v>3438</v>
       </c>
-      <c r="W413" t="s">
-        <v>3439</v>
-      </c>
       <c r="X413" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA413">
         <f>VLOOKUP(C413,[1]Sheet2!$B:$C,2,0)</f>
@@ -40482,37 +40503,37 @@
         <v>3257</v>
       </c>
       <c r="C414" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E414" t="s">
         <v>3440</v>
       </c>
-      <c r="E414" t="s">
+      <c r="J414" t="s">
         <v>3441</v>
       </c>
-      <c r="J414" t="s">
+      <c r="K414" t="s">
         <v>3442</v>
       </c>
-      <c r="K414" t="s">
+      <c r="N414" t="s">
         <v>3443</v>
-      </c>
-      <c r="N414" t="s">
-        <v>3444</v>
       </c>
       <c r="O414" s="1">
         <v>38521</v>
       </c>
       <c r="R414" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="U414">
         <v>317</v>
       </c>
       <c r="V414" t="s">
+        <v>3445</v>
+      </c>
+      <c r="W414" t="s">
         <v>3446</v>
       </c>
-      <c r="W414" t="s">
-        <v>3447</v>
-      </c>
       <c r="X414" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="AA414">
         <f>VLOOKUP(C414,[1]Sheet2!$B:$C,2,0)</f>
@@ -40530,40 +40551,40 @@
         <v>3257</v>
       </c>
       <c r="C415" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E415" t="s">
         <v>3448</v>
       </c>
-      <c r="E415" t="s">
+      <c r="J415" t="s">
         <v>3449</v>
       </c>
-      <c r="J415" t="s">
+      <c r="K415" t="s">
         <v>3450</v>
       </c>
-      <c r="K415" t="s">
+      <c r="N415" t="s">
         <v>3451</v>
-      </c>
-      <c r="N415" t="s">
-        <v>3452</v>
       </c>
       <c r="O415" s="1">
         <v>38521</v>
       </c>
       <c r="R415" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="S415" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="U415">
         <v>318</v>
       </c>
       <c r="V415" t="s">
+        <v>3453</v>
+      </c>
+      <c r="W415" t="s">
         <v>3454</v>
       </c>
-      <c r="W415" t="s">
-        <v>3455</v>
-      </c>
       <c r="X415" s="2" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="AA415">
         <f>VLOOKUP(C415,[1]Sheet2!$B:$C,2,0)</f>
@@ -40581,37 +40602,37 @@
         <v>3257</v>
       </c>
       <c r="C416" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E416" t="s">
         <v>3456</v>
       </c>
-      <c r="E416" t="s">
+      <c r="J416" t="s">
         <v>3457</v>
       </c>
-      <c r="J416" t="s">
+      <c r="K416" t="s">
         <v>3458</v>
       </c>
-      <c r="K416" t="s">
+      <c r="N416" t="s">
         <v>3459</v>
-      </c>
-      <c r="N416" t="s">
-        <v>3460</v>
       </c>
       <c r="O416" s="1">
         <v>38521</v>
       </c>
       <c r="R416" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="U416">
         <v>319</v>
       </c>
       <c r="V416" t="s">
+        <v>3461</v>
+      </c>
+      <c r="W416" t="s">
         <v>3462</v>
       </c>
-      <c r="W416" t="s">
-        <v>3463</v>
-      </c>
       <c r="X416" s="2" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="AA416">
         <f>VLOOKUP(C416,[1]Sheet2!$B:$C,2,0)</f>
@@ -40629,37 +40650,37 @@
         <v>3257</v>
       </c>
       <c r="C417" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E417" t="s">
         <v>3464</v>
       </c>
-      <c r="E417" t="s">
+      <c r="J417" t="s">
         <v>3465</v>
       </c>
-      <c r="J417" t="s">
+      <c r="K417" t="s">
         <v>3466</v>
       </c>
-      <c r="K417" t="s">
+      <c r="N417" t="s">
         <v>3467</v>
-      </c>
-      <c r="N417" t="s">
-        <v>3468</v>
       </c>
       <c r="O417" s="1">
         <v>38521</v>
       </c>
       <c r="R417" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="U417">
         <v>322</v>
       </c>
       <c r="V417" t="s">
+        <v>3469</v>
+      </c>
+      <c r="W417" t="s">
         <v>3470</v>
       </c>
-      <c r="W417" t="s">
-        <v>3471</v>
-      </c>
       <c r="X417" s="2" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="AA417">
         <f>VLOOKUP(C417,[1]Sheet2!$B:$C,2,0)</f>
@@ -40677,37 +40698,37 @@
         <v>3257</v>
       </c>
       <c r="C418" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E418" t="s">
         <v>3472</v>
       </c>
-      <c r="E418" t="s">
+      <c r="J418" t="s">
         <v>3473</v>
       </c>
-      <c r="J418" t="s">
+      <c r="K418" t="s">
         <v>3474</v>
       </c>
-      <c r="K418" t="s">
+      <c r="N418" t="s">
         <v>3475</v>
-      </c>
-      <c r="N418" t="s">
-        <v>3476</v>
       </c>
       <c r="O418" s="1">
         <v>38521</v>
       </c>
       <c r="R418" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="U418">
         <v>320</v>
       </c>
       <c r="V418" t="s">
+        <v>3477</v>
+      </c>
+      <c r="W418" t="s">
         <v>3478</v>
       </c>
-      <c r="W418" t="s">
-        <v>3479</v>
-      </c>
       <c r="X418" s="2" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="AA418">
         <f>VLOOKUP(C418,[1]Sheet2!$B:$C,2,0)</f>
@@ -40725,37 +40746,37 @@
         <v>3257</v>
       </c>
       <c r="C419" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E419" t="s">
         <v>3480</v>
       </c>
-      <c r="E419" t="s">
+      <c r="J419" t="s">
         <v>3481</v>
       </c>
-      <c r="J419" t="s">
+      <c r="K419" t="s">
         <v>3482</v>
       </c>
-      <c r="K419" t="s">
+      <c r="N419" t="s">
         <v>3483</v>
-      </c>
-      <c r="N419" t="s">
-        <v>3484</v>
       </c>
       <c r="O419" s="1">
         <v>38521</v>
       </c>
       <c r="R419" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="U419">
         <v>323</v>
       </c>
       <c r="V419" t="s">
+        <v>3485</v>
+      </c>
+      <c r="W419" t="s">
         <v>3486</v>
       </c>
-      <c r="W419" t="s">
-        <v>3487</v>
-      </c>
       <c r="X419" s="2" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="AA419">
         <f>VLOOKUP(C419,[1]Sheet2!$B:$C,2,0)</f>
@@ -40773,37 +40794,37 @@
         <v>3257</v>
       </c>
       <c r="C420" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E420" t="s">
         <v>3488</v>
       </c>
-      <c r="E420" t="s">
+      <c r="J420" t="s">
         <v>3489</v>
       </c>
-      <c r="J420" t="s">
+      <c r="K420" t="s">
         <v>3490</v>
       </c>
-      <c r="K420" t="s">
+      <c r="N420" t="s">
         <v>3491</v>
-      </c>
-      <c r="N420" t="s">
-        <v>3492</v>
       </c>
       <c r="O420" s="1">
         <v>38521</v>
       </c>
       <c r="R420" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="U420">
         <v>324</v>
       </c>
       <c r="V420" t="s">
+        <v>3493</v>
+      </c>
+      <c r="W420" t="s">
         <v>3494</v>
       </c>
-      <c r="W420" t="s">
-        <v>3495</v>
-      </c>
       <c r="X420" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="AA420">
         <f>VLOOKUP(C420,[1]Sheet2!$B:$C,2,0)</f>
@@ -40821,37 +40842,37 @@
         <v>3257</v>
       </c>
       <c r="C421" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E421" t="s">
         <v>3496</v>
       </c>
-      <c r="E421" t="s">
+      <c r="J421" t="s">
         <v>3497</v>
       </c>
-      <c r="J421" t="s">
+      <c r="K421" t="s">
         <v>3498</v>
       </c>
-      <c r="K421" t="s">
+      <c r="N421" t="s">
         <v>3499</v>
-      </c>
-      <c r="N421" t="s">
-        <v>3500</v>
       </c>
       <c r="O421" s="1">
         <v>38521</v>
       </c>
       <c r="R421" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="U421">
         <v>325</v>
       </c>
       <c r="V421" t="s">
+        <v>3501</v>
+      </c>
+      <c r="W421" t="s">
         <v>3502</v>
       </c>
-      <c r="W421" t="s">
-        <v>3503</v>
-      </c>
       <c r="X421" s="2" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="AA421">
         <f>VLOOKUP(C421,[1]Sheet2!$B:$C,2,0)</f>
@@ -40869,37 +40890,37 @@
         <v>3257</v>
       </c>
       <c r="C422" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E422" t="s">
         <v>3504</v>
       </c>
-      <c r="E422" t="s">
+      <c r="J422" t="s">
         <v>3505</v>
       </c>
-      <c r="J422" t="s">
+      <c r="K422" t="s">
         <v>3506</v>
       </c>
-      <c r="K422" t="s">
+      <c r="N422" t="s">
         <v>3507</v>
-      </c>
-      <c r="N422" t="s">
-        <v>3508</v>
       </c>
       <c r="O422" s="1">
         <v>38521</v>
       </c>
       <c r="R422" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="U422">
         <v>326</v>
       </c>
       <c r="V422" t="s">
+        <v>3509</v>
+      </c>
+      <c r="W422" t="s">
         <v>3510</v>
       </c>
-      <c r="W422" t="s">
-        <v>3511</v>
-      </c>
       <c r="X422" s="2" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="AA422">
         <f>VLOOKUP(C422,[1]Sheet2!$B:$C,2,0)</f>
@@ -40917,37 +40938,37 @@
         <v>3257</v>
       </c>
       <c r="C423" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E423" t="s">
         <v>3512</v>
       </c>
-      <c r="E423" t="s">
+      <c r="J423" t="s">
         <v>3513</v>
       </c>
-      <c r="J423" t="s">
+      <c r="K423" t="s">
         <v>3514</v>
       </c>
-      <c r="K423" t="s">
+      <c r="N423" t="s">
         <v>3515</v>
-      </c>
-      <c r="N423" t="s">
-        <v>3516</v>
       </c>
       <c r="O423" s="1">
         <v>38521</v>
       </c>
       <c r="R423" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="U423">
         <v>321</v>
       </c>
       <c r="V423" t="s">
+        <v>3517</v>
+      </c>
+      <c r="W423" t="s">
         <v>3518</v>
       </c>
-      <c r="W423" t="s">
-        <v>3519</v>
-      </c>
       <c r="X423" s="2" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="AA423">
         <f>VLOOKUP(C423,[1]Sheet2!$B:$C,2,0)</f>
@@ -40962,49 +40983,49 @@
     </row>
     <row r="424" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B424" t="s">
         <v>3520</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>3521</v>
       </c>
-      <c r="C424" t="s">
+      <c r="E424" t="s">
         <v>3522</v>
       </c>
-      <c r="E424" t="s">
+      <c r="F424" t="s">
         <v>3523</v>
       </c>
-      <c r="F424" t="s">
+      <c r="J424" t="s">
         <v>3524</v>
       </c>
-      <c r="J424" t="s">
+      <c r="K424" t="s">
         <v>3525</v>
       </c>
-      <c r="K424" t="s">
+      <c r="L424" t="s">
         <v>3526</v>
       </c>
-      <c r="L424" t="s">
+      <c r="N424" t="s">
         <v>3527</v>
-      </c>
-      <c r="N424" t="s">
-        <v>3528</v>
       </c>
       <c r="O424" s="1">
         <v>35156</v>
       </c>
       <c r="R424" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="U424">
         <v>392</v>
       </c>
       <c r="V424" t="s">
+        <v>3529</v>
+      </c>
+      <c r="W424" t="s">
         <v>3530</v>
       </c>
-      <c r="W424" t="s">
-        <v>3531</v>
-      </c>
       <c r="X424" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA424">
         <f>VLOOKUP(C424,[1]Sheet2!$B:$C,2,0)</f>
@@ -41019,49 +41040,49 @@
     </row>
     <row r="425" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B425" t="s">
         <v>3520</v>
       </c>
-      <c r="B425" t="s">
-        <v>3521</v>
-      </c>
       <c r="C425" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E425" t="s">
         <v>3532</v>
       </c>
-      <c r="E425" t="s">
+      <c r="F425" t="s">
         <v>3533</v>
       </c>
-      <c r="F425" t="s">
+      <c r="J425" t="s">
         <v>3534</v>
       </c>
-      <c r="J425" t="s">
+      <c r="K425" t="s">
         <v>3535</v>
       </c>
-      <c r="K425" t="s">
+      <c r="L425" t="s">
         <v>3536</v>
       </c>
-      <c r="L425" t="s">
+      <c r="N425" t="s">
         <v>3537</v>
-      </c>
-      <c r="N425" t="s">
-        <v>3538</v>
       </c>
       <c r="O425" s="1">
         <v>35156</v>
       </c>
       <c r="R425" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="U425">
         <v>383</v>
       </c>
       <c r="V425" t="s">
+        <v>3539</v>
+      </c>
+      <c r="W425" t="s">
         <v>3540</v>
       </c>
-      <c r="W425" t="s">
-        <v>3541</v>
-      </c>
       <c r="X425" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA425">
         <f>VLOOKUP(C425,[1]Sheet2!$B:$C,2,0)</f>
@@ -41076,49 +41097,49 @@
     </row>
     <row r="426" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B426" t="s">
         <v>3520</v>
       </c>
-      <c r="B426" t="s">
-        <v>3521</v>
-      </c>
       <c r="C426" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E426" t="s">
         <v>3542</v>
       </c>
-      <c r="E426" t="s">
+      <c r="F426" t="s">
         <v>3543</v>
       </c>
-      <c r="F426" t="s">
+      <c r="J426" t="s">
         <v>3544</v>
       </c>
-      <c r="J426" t="s">
+      <c r="K426" t="s">
         <v>3545</v>
       </c>
-      <c r="K426" t="s">
+      <c r="L426" t="s">
+        <v>3545</v>
+      </c>
+      <c r="N426" t="s">
         <v>3546</v>
-      </c>
-      <c r="L426" t="s">
-        <v>3546</v>
-      </c>
-      <c r="N426" t="s">
-        <v>3547</v>
       </c>
       <c r="O426" s="1">
         <v>35156</v>
       </c>
       <c r="R426" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="U426">
         <v>382</v>
       </c>
       <c r="V426" t="s">
+        <v>3548</v>
+      </c>
+      <c r="W426" t="s">
         <v>3549</v>
       </c>
-      <c r="W426" t="s">
-        <v>3550</v>
-      </c>
       <c r="X426" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA426">
         <f>VLOOKUP(C426,[1]Sheet2!$B:$C,2,0)</f>
@@ -41133,49 +41154,49 @@
     </row>
     <row r="427" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B427" t="s">
         <v>3520</v>
       </c>
-      <c r="B427" t="s">
-        <v>3521</v>
-      </c>
       <c r="C427" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E427" t="s">
         <v>3551</v>
       </c>
-      <c r="E427" t="s">
+      <c r="F427" t="s">
         <v>3552</v>
       </c>
-      <c r="F427" t="s">
+      <c r="J427" t="s">
         <v>3553</v>
       </c>
-      <c r="J427" t="s">
+      <c r="K427" t="s">
         <v>3554</v>
       </c>
-      <c r="K427" t="s">
+      <c r="L427" t="s">
         <v>3555</v>
       </c>
-      <c r="L427" t="s">
+      <c r="N427" t="s">
         <v>3556</v>
-      </c>
-      <c r="N427" t="s">
-        <v>3557</v>
       </c>
       <c r="O427" s="1">
         <v>35156</v>
       </c>
       <c r="R427" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="U427">
         <v>384</v>
       </c>
       <c r="V427" t="s">
+        <v>3558</v>
+      </c>
+      <c r="W427" t="s">
         <v>3559</v>
       </c>
-      <c r="W427" t="s">
-        <v>3560</v>
-      </c>
       <c r="X427" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA427">
         <f>VLOOKUP(C427,[1]Sheet2!$B:$C,2,0)</f>
@@ -41190,49 +41211,49 @@
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B428" t="s">
         <v>3520</v>
       </c>
-      <c r="B428" t="s">
-        <v>3521</v>
-      </c>
       <c r="C428" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E428" t="s">
         <v>3561</v>
       </c>
-      <c r="E428" t="s">
+      <c r="F428" t="s">
         <v>3562</v>
       </c>
-      <c r="F428" t="s">
+      <c r="J428" t="s">
         <v>3563</v>
       </c>
-      <c r="J428" t="s">
+      <c r="K428" t="s">
         <v>3564</v>
       </c>
-      <c r="K428" t="s">
+      <c r="L428" t="s">
+        <v>3564</v>
+      </c>
+      <c r="N428" t="s">
         <v>3565</v>
-      </c>
-      <c r="L428" t="s">
-        <v>3565</v>
-      </c>
-      <c r="N428" t="s">
-        <v>3566</v>
       </c>
       <c r="O428" s="1">
         <v>35156</v>
       </c>
       <c r="R428" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="U428">
         <v>387</v>
       </c>
       <c r="V428" t="s">
+        <v>3567</v>
+      </c>
+      <c r="W428" t="s">
         <v>3568</v>
       </c>
-      <c r="W428" t="s">
-        <v>3569</v>
-      </c>
       <c r="X428" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA428">
         <f>VLOOKUP(C428,[1]Sheet2!$B:$C,2,0)</f>
@@ -41247,49 +41268,49 @@
     </row>
     <row r="429" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B429" t="s">
         <v>3520</v>
       </c>
-      <c r="B429" t="s">
-        <v>3521</v>
-      </c>
       <c r="C429" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E429" t="s">
         <v>3570</v>
       </c>
-      <c r="E429" t="s">
+      <c r="F429" t="s">
         <v>3571</v>
       </c>
-      <c r="F429" t="s">
+      <c r="J429" t="s">
         <v>3572</v>
       </c>
-      <c r="J429" t="s">
+      <c r="K429" t="s">
         <v>3573</v>
       </c>
-      <c r="K429" t="s">
+      <c r="L429" t="s">
         <v>3574</v>
       </c>
-      <c r="L429" t="s">
+      <c r="N429" t="s">
         <v>3575</v>
-      </c>
-      <c r="N429" t="s">
-        <v>3576</v>
       </c>
       <c r="O429" s="1">
         <v>35156</v>
       </c>
       <c r="R429" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="U429">
         <v>386</v>
       </c>
       <c r="V429" t="s">
+        <v>3577</v>
+      </c>
+      <c r="W429" t="s">
         <v>3578</v>
       </c>
-      <c r="W429" t="s">
-        <v>3579</v>
-      </c>
       <c r="X429" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA429">
         <f>VLOOKUP(C429,[1]Sheet2!$B:$C,2,0)</f>
@@ -41304,52 +41325,52 @@
     </row>
     <row r="430" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B430" t="s">
         <v>3520</v>
       </c>
-      <c r="B430" t="s">
-        <v>3521</v>
-      </c>
       <c r="C430" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E430" t="s">
         <v>3580</v>
       </c>
-      <c r="E430" t="s">
+      <c r="F430" t="s">
         <v>3581</v>
       </c>
-      <c r="F430" t="s">
+      <c r="J430" t="s">
         <v>3582</v>
       </c>
-      <c r="J430" t="s">
+      <c r="K430" t="s">
         <v>3583</v>
       </c>
-      <c r="K430" t="s">
+      <c r="L430" t="s">
         <v>3584</v>
       </c>
-      <c r="L430" t="s">
+      <c r="M430" t="s">
         <v>3585</v>
       </c>
-      <c r="M430" t="s">
+      <c r="N430" t="s">
         <v>3586</v>
-      </c>
-      <c r="N430" t="s">
-        <v>3587</v>
       </c>
       <c r="O430" s="1">
         <v>35156</v>
       </c>
       <c r="R430" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="U430">
         <v>385</v>
       </c>
       <c r="V430" t="s">
+        <v>3588</v>
+      </c>
+      <c r="W430" t="s">
         <v>3589</v>
       </c>
-      <c r="W430" t="s">
-        <v>3590</v>
-      </c>
       <c r="X430" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA430">
         <f>VLOOKUP(C430,[1]Sheet2!$B:$C,2,0)</f>
@@ -41364,49 +41385,49 @@
     </row>
     <row r="431" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B431" t="s">
         <v>3520</v>
       </c>
-      <c r="B431" t="s">
-        <v>3521</v>
-      </c>
       <c r="C431" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E431" t="s">
         <v>3591</v>
       </c>
-      <c r="E431" t="s">
+      <c r="F431" t="s">
         <v>3592</v>
       </c>
-      <c r="F431" t="s">
+      <c r="J431" t="s">
         <v>3593</v>
       </c>
-      <c r="J431" t="s">
+      <c r="K431" t="s">
         <v>3594</v>
       </c>
-      <c r="K431" t="s">
+      <c r="L431" t="s">
+        <v>3594</v>
+      </c>
+      <c r="N431" t="s">
         <v>3595</v>
-      </c>
-      <c r="L431" t="s">
-        <v>3595</v>
-      </c>
-      <c r="N431" t="s">
-        <v>3596</v>
       </c>
       <c r="O431" s="1">
         <v>35156</v>
       </c>
       <c r="R431" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="U431">
         <v>388</v>
       </c>
       <c r="V431" t="s">
+        <v>3597</v>
+      </c>
+      <c r="W431" t="s">
         <v>3598</v>
       </c>
-      <c r="W431" t="s">
-        <v>3599</v>
-      </c>
       <c r="X431" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA431">
         <f>VLOOKUP(C431,[1]Sheet2!$B:$C,2,0)</f>
@@ -41421,49 +41442,49 @@
     </row>
     <row r="432" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B432" t="s">
         <v>3520</v>
       </c>
-      <c r="B432" t="s">
-        <v>3521</v>
-      </c>
       <c r="C432" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E432" t="s">
         <v>3600</v>
       </c>
-      <c r="E432" t="s">
+      <c r="F432" t="s">
         <v>3601</v>
       </c>
-      <c r="F432" t="s">
+      <c r="J432" t="s">
         <v>3602</v>
       </c>
-      <c r="J432" t="s">
+      <c r="K432" t="s">
         <v>3603</v>
       </c>
-      <c r="K432" t="s">
+      <c r="L432" t="s">
         <v>3604</v>
       </c>
-      <c r="L432" t="s">
+      <c r="N432" t="s">
         <v>3605</v>
-      </c>
-      <c r="N432" t="s">
-        <v>3606</v>
       </c>
       <c r="O432" s="1">
         <v>35156</v>
       </c>
       <c r="R432" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="U432">
         <v>389</v>
       </c>
       <c r="V432" t="s">
+        <v>3607</v>
+      </c>
+      <c r="W432" t="s">
         <v>3608</v>
       </c>
-      <c r="W432" t="s">
-        <v>3609</v>
-      </c>
       <c r="X432" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA432">
         <f>VLOOKUP(C432,[1]Sheet2!$B:$C,2,0)</f>
@@ -41478,49 +41499,49 @@
     </row>
     <row r="433" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B433" t="s">
         <v>3520</v>
       </c>
-      <c r="B433" t="s">
-        <v>3521</v>
-      </c>
       <c r="C433" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E433" t="s">
         <v>3610</v>
       </c>
-      <c r="E433" t="s">
+      <c r="F433" t="s">
         <v>3611</v>
       </c>
-      <c r="F433" t="s">
+      <c r="J433" t="s">
         <v>3612</v>
       </c>
-      <c r="J433" t="s">
+      <c r="K433" t="s">
         <v>3613</v>
       </c>
-      <c r="K433" t="s">
+      <c r="L433" t="s">
         <v>3614</v>
       </c>
-      <c r="L433" t="s">
+      <c r="N433" t="s">
         <v>3615</v>
-      </c>
-      <c r="N433" t="s">
-        <v>3616</v>
       </c>
       <c r="O433" s="1">
         <v>35156</v>
       </c>
       <c r="R433" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="U433">
         <v>390</v>
       </c>
       <c r="V433" t="s">
+        <v>3617</v>
+      </c>
+      <c r="W433" t="s">
         <v>3618</v>
       </c>
-      <c r="W433" t="s">
-        <v>3619</v>
-      </c>
       <c r="X433" s="2" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="AA433">
         <f>VLOOKUP(C433,[1]Sheet2!$B:$C,2,0)</f>
@@ -41535,49 +41556,49 @@
     </row>
     <row r="434" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B434" t="s">
         <v>3520</v>
       </c>
-      <c r="B434" t="s">
-        <v>3521</v>
-      </c>
       <c r="C434" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E434" t="s">
         <v>3620</v>
       </c>
-      <c r="E434" t="s">
+      <c r="F434" t="s">
         <v>3621</v>
       </c>
-      <c r="F434" t="s">
+      <c r="J434" t="s">
         <v>3622</v>
       </c>
-      <c r="J434" t="s">
+      <c r="K434" t="s">
         <v>3623</v>
       </c>
-      <c r="K434" t="s">
+      <c r="L434" t="s">
+        <v>3623</v>
+      </c>
+      <c r="N434" t="s">
         <v>3624</v>
-      </c>
-      <c r="L434" t="s">
-        <v>3624</v>
-      </c>
-      <c r="N434" t="s">
-        <v>3625</v>
       </c>
       <c r="O434" s="1">
         <v>35156</v>
       </c>
       <c r="R434" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="U434">
         <v>391</v>
       </c>
       <c r="V434" t="s">
+        <v>3626</v>
+      </c>
+      <c r="W434" t="s">
         <v>3627</v>
       </c>
-      <c r="W434" t="s">
-        <v>3628</v>
-      </c>
       <c r="X434" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA434">
         <f>VLOOKUP(C434,[1]Sheet2!$B:$C,2,0)</f>
@@ -41592,49 +41613,49 @@
     </row>
     <row r="435" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B435" t="s">
         <v>3520</v>
       </c>
-      <c r="B435" t="s">
-        <v>3521</v>
-      </c>
       <c r="C435" t="s">
+        <v>3628</v>
+      </c>
+      <c r="E435" t="s">
         <v>3629</v>
       </c>
-      <c r="E435" t="s">
+      <c r="F435" t="s">
         <v>3630</v>
       </c>
-      <c r="F435" t="s">
+      <c r="J435" t="s">
         <v>3631</v>
       </c>
-      <c r="J435" t="s">
+      <c r="K435" t="s">
         <v>3632</v>
       </c>
-      <c r="K435" t="s">
+      <c r="L435" t="s">
         <v>3633</v>
       </c>
-      <c r="L435" t="s">
+      <c r="N435" t="s">
         <v>3634</v>
-      </c>
-      <c r="N435" t="s">
-        <v>3635</v>
       </c>
       <c r="O435" s="1">
         <v>35156</v>
       </c>
       <c r="R435" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="U435">
         <v>394</v>
       </c>
       <c r="V435" t="s">
+        <v>3636</v>
+      </c>
+      <c r="W435" t="s">
         <v>3637</v>
       </c>
-      <c r="W435" t="s">
-        <v>3638</v>
-      </c>
       <c r="X435" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AA435">
         <f>VLOOKUP(C435,[1]Sheet2!$B:$C,2,0)</f>
@@ -41649,49 +41670,49 @@
     </row>
     <row r="436" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B436" t="s">
         <v>3520</v>
       </c>
-      <c r="B436" t="s">
-        <v>3521</v>
-      </c>
       <c r="C436" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E436" t="s">
         <v>3639</v>
       </c>
-      <c r="E436" t="s">
+      <c r="F436" t="s">
         <v>3640</v>
       </c>
-      <c r="F436" t="s">
+      <c r="J436" t="s">
         <v>3641</v>
       </c>
-      <c r="J436" t="s">
+      <c r="K436" t="s">
         <v>3642</v>
       </c>
-      <c r="K436" t="s">
+      <c r="L436" t="s">
         <v>3643</v>
       </c>
-      <c r="L436" t="s">
+      <c r="N436" t="s">
         <v>3644</v>
-      </c>
-      <c r="N436" t="s">
-        <v>3645</v>
       </c>
       <c r="O436" s="1">
         <v>35156</v>
       </c>
       <c r="R436" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="U436">
         <v>393</v>
       </c>
       <c r="V436" t="s">
+        <v>3646</v>
+      </c>
+      <c r="W436" t="s">
         <v>3647</v>
       </c>
-      <c r="W436" t="s">
-        <v>3648</v>
-      </c>
       <c r="X436" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA436">
         <f>VLOOKUP(C436,[1]Sheet2!$B:$C,2,0)</f>
@@ -41706,49 +41727,49 @@
     </row>
     <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B437" t="s">
         <v>3520</v>
       </c>
-      <c r="B437" t="s">
-        <v>3521</v>
-      </c>
       <c r="C437" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E437" t="s">
         <v>3649</v>
       </c>
-      <c r="E437" t="s">
+      <c r="F437" t="s">
         <v>3650</v>
       </c>
-      <c r="F437" t="s">
+      <c r="J437" t="s">
         <v>3651</v>
       </c>
-      <c r="J437" t="s">
+      <c r="K437" t="s">
         <v>3652</v>
       </c>
-      <c r="K437" t="s">
+      <c r="L437" t="s">
         <v>3653</v>
       </c>
-      <c r="L437" t="s">
+      <c r="N437" t="s">
         <v>3654</v>
-      </c>
-      <c r="N437" t="s">
-        <v>3655</v>
       </c>
       <c r="O437" s="1">
         <v>35156</v>
       </c>
       <c r="R437" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="U437">
         <v>395</v>
       </c>
       <c r="V437" t="s">
+        <v>3656</v>
+      </c>
+      <c r="W437" t="s">
         <v>3657</v>
       </c>
-      <c r="W437" t="s">
-        <v>3658</v>
-      </c>
       <c r="X437" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA437">
         <f>VLOOKUP(C437,[1]Sheet2!$B:$C,2,0)</f>
@@ -41763,49 +41784,49 @@
     </row>
     <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B438" t="s">
         <v>3520</v>
       </c>
-      <c r="B438" t="s">
-        <v>3521</v>
-      </c>
       <c r="C438" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E438" t="s">
         <v>3659</v>
       </c>
-      <c r="E438" t="s">
+      <c r="F438" t="s">
         <v>3660</v>
       </c>
-      <c r="F438" t="s">
+      <c r="J438" t="s">
         <v>3661</v>
       </c>
-      <c r="J438" t="s">
+      <c r="K438" t="s">
         <v>3662</v>
       </c>
-      <c r="K438" t="s">
+      <c r="L438" t="s">
         <v>3663</v>
       </c>
-      <c r="L438" t="s">
+      <c r="N438" t="s">
         <v>3664</v>
-      </c>
-      <c r="N438" t="s">
-        <v>3665</v>
       </c>
       <c r="O438" s="1">
         <v>35156</v>
       </c>
       <c r="R438" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="U438">
         <v>396</v>
       </c>
       <c r="V438" t="s">
+        <v>3666</v>
+      </c>
+      <c r="W438" t="s">
         <v>3667</v>
       </c>
-      <c r="W438" t="s">
-        <v>3668</v>
-      </c>
       <c r="X438" s="2" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="AA438">
         <f>VLOOKUP(C438,[1]Sheet2!$B:$C,2,0)</f>
@@ -41820,49 +41841,49 @@
     </row>
     <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B439" t="s">
         <v>3520</v>
       </c>
-      <c r="B439" t="s">
-        <v>3521</v>
-      </c>
       <c r="C439" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E439" t="s">
         <v>3669</v>
       </c>
-      <c r="E439" t="s">
+      <c r="F439" t="s">
         <v>3670</v>
       </c>
-      <c r="F439" t="s">
+      <c r="J439" t="s">
         <v>3671</v>
       </c>
-      <c r="J439" t="s">
+      <c r="K439" t="s">
         <v>3672</v>
       </c>
-      <c r="K439" t="s">
+      <c r="L439" t="s">
         <v>3673</v>
       </c>
-      <c r="L439" t="s">
+      <c r="N439" t="s">
         <v>3674</v>
-      </c>
-      <c r="N439" t="s">
-        <v>3675</v>
       </c>
       <c r="O439" s="1">
         <v>35156</v>
       </c>
       <c r="R439" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="U439">
         <v>397</v>
       </c>
       <c r="V439" t="s">
+        <v>3676</v>
+      </c>
+      <c r="W439" t="s">
         <v>3677</v>
       </c>
-      <c r="W439" t="s">
-        <v>3678</v>
-      </c>
       <c r="X439" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA439">
         <f>VLOOKUP(C439,[1]Sheet2!$B:$C,2,0)</f>
@@ -41877,49 +41898,49 @@
     </row>
     <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B440" t="s">
         <v>3520</v>
       </c>
-      <c r="B440" t="s">
-        <v>3521</v>
-      </c>
       <c r="C440" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E440" t="s">
         <v>3679</v>
       </c>
-      <c r="E440" t="s">
+      <c r="F440" t="s">
         <v>3680</v>
       </c>
-      <c r="F440" t="s">
+      <c r="J440" t="s">
         <v>3681</v>
       </c>
-      <c r="J440" t="s">
+      <c r="K440" t="s">
         <v>3682</v>
       </c>
-      <c r="K440" t="s">
+      <c r="L440" t="s">
+        <v>3682</v>
+      </c>
+      <c r="N440" t="s">
         <v>3683</v>
-      </c>
-      <c r="L440" t="s">
-        <v>3683</v>
-      </c>
-      <c r="N440" t="s">
-        <v>3684</v>
       </c>
       <c r="O440" s="1">
         <v>35156</v>
       </c>
       <c r="R440" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="U440">
         <v>398</v>
       </c>
       <c r="V440" t="s">
+        <v>3685</v>
+      </c>
+      <c r="W440" t="s">
         <v>3686</v>
       </c>
-      <c r="W440" t="s">
-        <v>3687</v>
-      </c>
       <c r="X440" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA440">
         <f>VLOOKUP(C440,[1]Sheet2!$B:$C,2,0)</f>
@@ -41934,46 +41955,46 @@
     </row>
     <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B441" t="s">
         <v>3520</v>
       </c>
-      <c r="B441" t="s">
-        <v>3521</v>
-      </c>
       <c r="C441" t="s">
+        <v>3687</v>
+      </c>
+      <c r="E441" t="s">
         <v>3688</v>
       </c>
-      <c r="E441" t="s">
+      <c r="F441" t="s">
         <v>3689</v>
       </c>
-      <c r="F441" t="s">
+      <c r="J441" t="s">
         <v>3690</v>
       </c>
-      <c r="J441" t="s">
+      <c r="K441" t="s">
         <v>3691</v>
       </c>
-      <c r="K441" t="s">
+      <c r="N441" t="s">
         <v>3692</v>
-      </c>
-      <c r="N441" t="s">
-        <v>3693</v>
       </c>
       <c r="O441" s="1">
         <v>35156</v>
       </c>
       <c r="R441" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="U441">
         <v>399</v>
       </c>
       <c r="V441" t="s">
+        <v>3694</v>
+      </c>
+      <c r="W441" t="s">
         <v>3695</v>
       </c>
-      <c r="W441" t="s">
-        <v>3696</v>
-      </c>
       <c r="X441" s="2" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="AA441">
         <f>VLOOKUP(C441,[1]Sheet2!$B:$C,2,0)</f>
@@ -41988,52 +42009,52 @@
     </row>
     <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B442" t="s">
         <v>3520</v>
       </c>
-      <c r="B442" t="s">
-        <v>3521</v>
-      </c>
       <c r="C442" t="s">
+        <v>3696</v>
+      </c>
+      <c r="E442" t="s">
         <v>3697</v>
       </c>
-      <c r="E442" t="s">
+      <c r="F442" t="s">
         <v>3698</v>
       </c>
-      <c r="F442" t="s">
+      <c r="J442" t="s">
         <v>3699</v>
       </c>
-      <c r="J442" t="s">
+      <c r="K442" t="s">
         <v>3700</v>
       </c>
-      <c r="K442" t="s">
+      <c r="L442" t="s">
         <v>3701</v>
       </c>
-      <c r="L442" t="s">
+      <c r="M442" t="s">
         <v>3702</v>
       </c>
-      <c r="M442" t="s">
+      <c r="N442" t="s">
         <v>3703</v>
-      </c>
-      <c r="N442" t="s">
-        <v>3704</v>
       </c>
       <c r="O442" s="1">
         <v>35156</v>
       </c>
       <c r="R442" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="U442">
         <v>400</v>
       </c>
       <c r="V442" t="s">
+        <v>3705</v>
+      </c>
+      <c r="W442" t="s">
         <v>3706</v>
       </c>
-      <c r="W442" t="s">
-        <v>3707</v>
-      </c>
       <c r="X442" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="AA442">
         <f>VLOOKUP(C442,[1]Sheet2!$B:$C,2,0)</f>
@@ -42048,49 +42069,49 @@
     </row>
     <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B443" t="s">
         <v>3520</v>
       </c>
-      <c r="B443" t="s">
-        <v>3521</v>
-      </c>
       <c r="C443" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E443" t="s">
         <v>3708</v>
       </c>
-      <c r="E443" t="s">
+      <c r="F443" t="s">
         <v>3709</v>
       </c>
-      <c r="F443" t="s">
+      <c r="J443" t="s">
         <v>3710</v>
       </c>
-      <c r="J443" t="s">
+      <c r="K443" t="s">
         <v>3711</v>
       </c>
-      <c r="K443" t="s">
+      <c r="L443" t="s">
         <v>3712</v>
       </c>
-      <c r="L443" t="s">
+      <c r="N443" t="s">
         <v>3713</v>
-      </c>
-      <c r="N443" t="s">
-        <v>3714</v>
       </c>
       <c r="O443" s="1">
         <v>35156</v>
       </c>
       <c r="R443" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="U443">
         <v>401</v>
       </c>
       <c r="V443" t="s">
+        <v>3715</v>
+      </c>
+      <c r="W443" t="s">
         <v>3716</v>
       </c>
-      <c r="W443" t="s">
-        <v>3717</v>
-      </c>
       <c r="X443" s="2" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="AA443">
         <f>VLOOKUP(C443,[1]Sheet2!$B:$C,2,0)</f>
@@ -42105,49 +42126,49 @@
     </row>
     <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B444" t="s">
         <v>3520</v>
       </c>
-      <c r="B444" t="s">
-        <v>3521</v>
-      </c>
       <c r="C444" t="s">
+        <v>3717</v>
+      </c>
+      <c r="E444" t="s">
         <v>3718</v>
       </c>
-      <c r="E444" t="s">
+      <c r="F444" t="s">
         <v>3719</v>
       </c>
-      <c r="F444" t="s">
+      <c r="J444" t="s">
         <v>3720</v>
       </c>
-      <c r="J444" t="s">
+      <c r="K444" t="s">
         <v>3721</v>
       </c>
-      <c r="K444" t="s">
+      <c r="L444" t="s">
         <v>3722</v>
       </c>
-      <c r="L444" t="s">
+      <c r="N444" t="s">
         <v>3723</v>
-      </c>
-      <c r="N444" t="s">
-        <v>3724</v>
       </c>
       <c r="O444" s="1">
         <v>35156</v>
       </c>
       <c r="R444" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="U444">
         <v>402</v>
       </c>
       <c r="V444" t="s">
+        <v>3725</v>
+      </c>
+      <c r="W444" t="s">
         <v>3726</v>
       </c>
-      <c r="W444" t="s">
-        <v>3727</v>
-      </c>
       <c r="X444" s="2" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="AA444">
         <f>VLOOKUP(C444,[1]Sheet2!$B:$C,2,0)</f>
@@ -42162,49 +42183,49 @@
     </row>
     <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B445" t="s">
         <v>3520</v>
       </c>
-      <c r="B445" t="s">
-        <v>3521</v>
-      </c>
       <c r="C445" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E445" t="s">
         <v>3728</v>
       </c>
-      <c r="E445" t="s">
+      <c r="F445" t="s">
         <v>3729</v>
       </c>
-      <c r="F445" t="s">
+      <c r="J445" t="s">
         <v>3730</v>
       </c>
-      <c r="J445" t="s">
+      <c r="K445" t="s">
         <v>3731</v>
       </c>
-      <c r="K445" t="s">
+      <c r="L445" t="s">
         <v>3732</v>
       </c>
-      <c r="L445" t="s">
+      <c r="N445" t="s">
         <v>3733</v>
-      </c>
-      <c r="N445" t="s">
-        <v>3734</v>
       </c>
       <c r="O445" s="1">
         <v>35156</v>
       </c>
       <c r="R445" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="U445">
         <v>403</v>
       </c>
       <c r="V445" t="s">
+        <v>3735</v>
+      </c>
+      <c r="W445" t="s">
         <v>3736</v>
       </c>
-      <c r="W445" t="s">
-        <v>3737</v>
-      </c>
       <c r="X445" s="2" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="AA445">
         <f>VLOOKUP(C445,[1]Sheet2!$B:$C,2,0)</f>
@@ -42222,25 +42243,28 @@
         <v>24</v>
       </c>
       <c r="C446" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="E446" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="G446" t="s">
         <v>138</v>
       </c>
       <c r="J446" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="K446" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="L446" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="O446" s="1">
         <v>43556</v>
+      </c>
+      <c r="R446" t="s">
+        <v>4106</v>
       </c>
     </row>
     <row r="447" spans="1:29" x14ac:dyDescent="0.25">
@@ -42248,22 +42272,25 @@
         <v>24</v>
       </c>
       <c r="C447" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="E447" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="G447" t="s">
         <v>138</v>
       </c>
       <c r="J447" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="K447" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="O447" s="1">
         <v>43556</v>
+      </c>
+      <c r="R447" t="s">
+        <v>4107</v>
       </c>
     </row>
     <row r="448" spans="1:29" x14ac:dyDescent="0.25">
@@ -42271,25 +42298,28 @@
         <v>24</v>
       </c>
       <c r="C448" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="E448" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="G448" t="s">
         <v>27</v>
       </c>
       <c r="J448" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="K448" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="L448" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="O448" s="1">
         <v>43556</v>
+      </c>
+      <c r="R448" t="s">
+        <v>4109</v>
       </c>
       <c r="U448">
         <v>411</v>
@@ -42300,22 +42330,25 @@
         <v>24</v>
       </c>
       <c r="C449" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="E449" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="G449" t="s">
         <v>27</v>
       </c>
       <c r="J449" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="K449" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="O449" s="1">
         <v>43556</v>
+      </c>
+      <c r="R449" t="s">
+        <v>4108</v>
       </c>
       <c r="U449">
         <v>410</v>
@@ -42326,22 +42359,25 @@
         <v>24</v>
       </c>
       <c r="C450" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="E450" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="G450" t="s">
         <v>27</v>
       </c>
       <c r="J450" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="K450" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="O450" s="1">
         <v>43556</v>
+      </c>
+      <c r="R450" t="s">
+        <v>4110</v>
       </c>
       <c r="U450">
         <v>412</v>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666E7D3-AC82-472D-800D-02A12426E4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3104E7-D09F-4991-946A-DECD79132F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="4316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="4315">
   <si>
     <t>register</t>
   </si>
@@ -12453,9 +12453,6 @@
   </si>
   <si>
     <t>local-authority-eng:BUC</t>
-  </si>
-  <si>
-    <t>Unitary Authority</t>
   </si>
   <si>
     <t>Buckinghamshire Council</t>
@@ -13832,9 +13829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N444" sqref="N444"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14001,7 +13998,7 @@
         <v>50.84504596</v>
       </c>
       <c r="AC2">
-        <v>50.84504596</v>
+        <v>-0.29853079768066898</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -14060,7 +14057,7 @@
         <v>54.703434360000003</v>
       </c>
       <c r="AC3">
-        <v>54.703434360000003</v>
+        <v>-3.24722422689331</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -14119,7 +14116,7 @@
         <v>53.029235800000002</v>
       </c>
       <c r="AC4">
-        <v>53.029235800000002</v>
+        <v>-1.46665873702776</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -14178,7 +14175,7 @@
         <v>50.841659589999999</v>
       </c>
       <c r="AC5">
-        <v>50.841659589999999</v>
+        <v>-0.56818848880294304</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -14237,7 +14234,7 @@
         <v>51.125295100000002</v>
       </c>
       <c r="AC6">
-        <v>51.125295100000002</v>
+        <v>0.81129819917048196</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -14296,7 +14293,7 @@
         <v>53.092258489999999</v>
       </c>
       <c r="AC7">
-        <v>53.092258489999999</v>
+        <v>-1.2591513419243701</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -14357,12 +14354,6 @@
       <c r="AA8">
         <v>53</v>
       </c>
-      <c r="AB8">
-        <v>51.892184479999997</v>
-      </c>
-      <c r="AC8">
-        <v>51.892184479999997</v>
-      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -14420,7 +14411,7 @@
         <v>52.052907410000003</v>
       </c>
       <c r="AC9">
-        <v>52.052907410000003</v>
+        <v>0.91533728957657501</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -14479,7 +14470,7 @@
         <v>53.33277803</v>
       </c>
       <c r="AC10">
-        <v>53.33277803</v>
+        <v>-0.95891662147405199</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -14538,7 +14529,7 @@
         <v>51.5903019</v>
       </c>
       <c r="AC11">
-        <v>51.5903019</v>
+        <v>0.46629089418242597</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -14600,7 +14591,7 @@
         <v>51.273458990000002</v>
       </c>
       <c r="AC12">
-        <v>51.273458990000002</v>
+        <v>-1.2009435841509399</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -14659,7 +14650,7 @@
         <v>54.13912096</v>
       </c>
       <c r="AC13">
-        <v>54.13912096</v>
+        <v>-3.2122852055299398</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -14697,7 +14688,7 @@
         <v>144</v>
       </c>
       <c r="S14" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="T14">
         <v>800</v>
@@ -14727,7 +14718,7 @@
         <v>51.35598529</v>
       </c>
       <c r="AC14">
-        <v>51.35598529</v>
+        <v>-2.4752562946031902</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -14765,7 +14756,7 @@
         <v>155</v>
       </c>
       <c r="S15" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="T15">
         <v>889</v>
@@ -14795,7 +14786,7 @@
         <v>53.692612459999999</v>
       </c>
       <c r="AC15">
-        <v>53.692612459999999</v>
+        <v>-2.4675476946073398</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -14833,7 +14824,7 @@
         <v>165</v>
       </c>
       <c r="S16" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="T16">
         <v>822</v>
@@ -14863,7 +14854,7 @@
         <v>52.189180540000002</v>
       </c>
       <c r="AC16">
-        <v>52.189180540000002</v>
+        <v>-0.47708243486090501</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -14925,7 +14916,7 @@
         <v>51.545272480000001</v>
       </c>
       <c r="AC17">
-        <v>51.545272480000001</v>
+        <v>0.13316440100825999</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -14984,7 +14975,7 @@
         <v>51.558554409999999</v>
       </c>
       <c r="AC18">
-        <v>51.558554409999999</v>
+        <v>-0.26781131950910397</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -15043,7 +15034,7 @@
         <v>51.458810929999999</v>
       </c>
       <c r="AC19">
-        <v>51.458810929999999</v>
+        <v>0.142348001531232</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -15078,7 +15069,7 @@
         <v>204</v>
       </c>
       <c r="S20" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="T20">
         <v>330</v>
@@ -15108,7 +15099,7 @@
         <v>52.488547279999999</v>
       </c>
       <c r="AC20">
-        <v>52.488547279999999</v>
+        <v>-1.8748023729485099</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -15149,7 +15140,7 @@
         <v>215</v>
       </c>
       <c r="S21" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="T21">
         <v>825</v>
@@ -15232,7 +15223,7 @@
         <v>52.57150764</v>
       </c>
       <c r="AC22">
-        <v>52.57150764</v>
+        <v>-1.22196189843978</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -15299,12 +15290,6 @@
       <c r="AA23">
         <v>80</v>
       </c>
-      <c r="AB23">
-        <v>50.742298730000002</v>
-      </c>
-      <c r="AC23">
-        <v>50.742298730000002</v>
-      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -15362,7 +15347,7 @@
         <v>51.616018619999998</v>
       </c>
       <c r="AC24">
-        <v>51.616018619999998</v>
+        <v>-0.21001736105659499</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -15400,7 +15385,7 @@
         <v>251</v>
       </c>
       <c r="S25" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="T25">
         <v>846</v>
@@ -15430,7 +15415,7 @@
         <v>50.844664280000003</v>
       </c>
       <c r="AC25">
-        <v>50.844664280000003</v>
+        <v>-0.13313545319187201</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -15465,7 +15450,7 @@
         <v>260</v>
       </c>
       <c r="S26" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="T26">
         <v>370</v>
@@ -15495,7 +15480,7 @@
         <v>53.535870549999999</v>
       </c>
       <c r="AC26">
-        <v>53.535870549999999</v>
+        <v>-1.53257458326465</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -15530,7 +15515,7 @@
         <v>269</v>
       </c>
       <c r="S27" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="T27">
         <v>350</v>
@@ -15560,7 +15545,7 @@
         <v>53.578632390000003</v>
       </c>
       <c r="AC27">
-        <v>53.578632390000003</v>
+        <v>-2.4669702024590698</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -15619,7 +15604,7 @@
         <v>53.21562694</v>
       </c>
       <c r="AC28">
-        <v>53.21562694</v>
+        <v>-1.2773246814138699</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -15678,7 +15663,7 @@
         <v>52.973271390000001</v>
       </c>
       <c r="AC29">
-        <v>52.973271390000001</v>
+        <v>-2.2346840889682799E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -15713,7 +15698,10 @@
         <v>4106</v>
       </c>
       <c r="S30" t="s">
-        <v>4151</v>
+        <v>4150</v>
+      </c>
+      <c r="AC30">
+        <v>-1.8832767543704001</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -15751,7 +15739,7 @@
         <v>297</v>
       </c>
       <c r="S31" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="T31">
         <v>890</v>
@@ -15781,7 +15769,7 @@
         <v>53.81780578</v>
       </c>
       <c r="AC31">
-        <v>53.81780578</v>
+        <v>-3.0355263398194898</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -15840,7 +15828,7 @@
         <v>51.941828989999998</v>
       </c>
       <c r="AC32">
-        <v>51.941828989999998</v>
+        <v>0.58993191534261002</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -15878,7 +15866,7 @@
         <v>316</v>
       </c>
       <c r="S33" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="T33">
         <v>867</v>
@@ -15908,7 +15896,7 @@
         <v>51.408112510000002</v>
       </c>
       <c r="AC33">
-        <v>51.408112510000002</v>
+        <v>-0.73973762236580598</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -15943,7 +15931,7 @@
         <v>325</v>
       </c>
       <c r="S34" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="T34">
         <v>380</v>
@@ -15973,7 +15961,7 @@
         <v>53.844670469999997</v>
       </c>
       <c r="AC34">
-        <v>53.844670469999997</v>
+        <v>-1.8546713065720899</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -16032,7 +16020,7 @@
         <v>52.587929500000001</v>
       </c>
       <c r="AC35">
-        <v>52.587929500000001</v>
+        <v>0.83727582982422</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -16091,7 +16079,7 @@
         <v>52.36175128</v>
       </c>
       <c r="AC36">
-        <v>52.36175128</v>
+        <v>-2.0160150229923799</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -16150,7 +16138,7 @@
         <v>52.701286690000003</v>
       </c>
       <c r="AC37">
-        <v>52.701286690000003</v>
+        <v>1.3106131362756599</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -16209,7 +16197,7 @@
         <v>52.976421119999998</v>
       </c>
       <c r="AC38">
-        <v>52.976421119999998</v>
+        <v>-1.26209487685358</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -16268,7 +16256,7 @@
         <v>51.638635129999997</v>
       </c>
       <c r="AC39">
-        <v>51.638635129999997</v>
+        <v>0.31075979004458298</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -16327,7 +16315,7 @@
         <v>51.72510759</v>
       </c>
       <c r="AC40">
-        <v>51.72510759</v>
+        <v>-4.7375277037571301E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -16386,7 +16374,7 @@
         <v>51.3719842</v>
       </c>
       <c r="AC41">
-        <v>51.3719842</v>
+        <v>5.1537722669066997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -16427,7 +16415,7 @@
         <v>394</v>
       </c>
       <c r="S42" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="T42">
         <v>801</v>
@@ -16457,7 +16445,7 @@
         <v>51.46677219</v>
       </c>
       <c r="AC42">
-        <v>51.46677219</v>
+        <v>-2.7708323519360398</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -16516,7 +16504,7 @@
         <v>53.778935519999997</v>
       </c>
       <c r="AC43">
-        <v>53.778935519999997</v>
+        <v>-2.2219452917805902</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -16551,7 +16539,7 @@
         <v>411</v>
       </c>
       <c r="S44" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="T44">
         <v>351</v>
@@ -16581,7 +16569,7 @@
         <v>53.587839189999997</v>
       </c>
       <c r="AC44">
-        <v>53.587839189999997</v>
+        <v>-2.3125533828838001</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -16640,7 +16628,7 @@
         <v>52.199368649999997</v>
       </c>
       <c r="AC45">
-        <v>52.199368649999997</v>
+        <v>0.13292340916676401</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -16672,7 +16660,7 @@
         <v>428</v>
       </c>
       <c r="S46" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="T46">
         <v>873</v>
@@ -16755,7 +16743,7 @@
         <v>52.712382609999999</v>
       </c>
       <c r="AC47">
-        <v>52.712382609999999</v>
+        <v>-1.9802318640761301</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -16814,7 +16802,7 @@
         <v>54.971193909999997</v>
       </c>
       <c r="AC48">
-        <v>54.971193909999997</v>
+        <v>-2.8092503063009899</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -16873,7 +16861,7 @@
         <v>51.545461660000001</v>
       </c>
       <c r="AC49">
-        <v>51.545461660000001</v>
+        <v>0.59469378383326399</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -16932,7 +16920,7 @@
         <v>51.280876390000003</v>
       </c>
       <c r="AC50">
-        <v>51.280876390000003</v>
+        <v>1.10181619758618</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -16970,7 +16958,7 @@
         <v>470</v>
       </c>
       <c r="S51" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="T51">
         <v>823</v>
@@ -17000,7 +16988,7 @@
         <v>52.006629570000001</v>
       </c>
       <c r="AC51">
-        <v>52.006629570000001</v>
+        <v>-0.43629195492780098</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -17059,7 +17047,7 @@
         <v>52.737006829999999</v>
       </c>
       <c r="AC52">
-        <v>52.737006829999999</v>
+        <v>-1.14613584536538</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -17120,12 +17108,6 @@
       <c r="AA53">
         <v>127</v>
       </c>
-      <c r="AB53">
-        <v>50.762460949999998</v>
-      </c>
-      <c r="AC53">
-        <v>50.762460949999998</v>
-      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -17162,7 +17144,7 @@
         <v>497</v>
       </c>
       <c r="S54" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="T54">
         <v>895</v>
@@ -17192,7 +17174,7 @@
         <v>53.180270899999996</v>
       </c>
       <c r="AC54">
-        <v>53.180270899999996</v>
+        <v>-2.34994253283099</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -17254,7 +17236,7 @@
         <v>50.941904379999997</v>
       </c>
       <c r="AC55">
-        <v>50.941904379999997</v>
+        <v>-0.74226375153748902</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -17313,7 +17295,7 @@
         <v>51.725629619999999</v>
       </c>
       <c r="AC56">
-        <v>51.725629619999999</v>
+        <v>0.480915957502693</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -17374,12 +17356,6 @@
       <c r="AA57">
         <v>125</v>
       </c>
-      <c r="AB57">
-        <v>51.680500909999999</v>
-      </c>
-      <c r="AC57">
-        <v>51.680500909999999</v>
-      </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -17437,7 +17413,7 @@
         <v>53.661481909999999</v>
       </c>
       <c r="AC58">
-        <v>53.661481909999999</v>
+        <v>-2.6478813276136002</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -17496,7 +17472,7 @@
         <v>51.95878329</v>
       </c>
       <c r="AC59">
-        <v>51.95878329</v>
+        <v>-1.27559517385222</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -17555,7 +17531,7 @@
         <v>53.256280740000001</v>
       </c>
       <c r="AC60">
-        <v>53.256280740000001</v>
+        <v>-1.40123094254592</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -17614,7 +17590,7 @@
         <v>51.896999479999998</v>
       </c>
       <c r="AC61">
-        <v>51.896999479999998</v>
+        <v>-2.0740223238436202</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -17652,7 +17628,7 @@
         <v>563</v>
       </c>
       <c r="S62" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="T62">
         <v>896</v>
@@ -17682,7 +17658,7 @@
         <v>53.197453860000003</v>
       </c>
       <c r="AC62">
-        <v>53.197453860000003</v>
+        <v>-2.7358562336485499</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -17717,7 +17693,7 @@
         <v>572</v>
       </c>
       <c r="S63" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="T63">
         <v>381</v>
@@ -17747,7 +17723,7 @@
         <v>53.721179939999999</v>
       </c>
       <c r="AC63">
-        <v>53.721179939999999</v>
+        <v>-1.9734126331777899</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -17779,7 +17755,7 @@
         <v>580</v>
       </c>
       <c r="S64" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="T64">
         <v>909</v>
@@ -17862,7 +17838,7 @@
         <v>51.546392480000002</v>
       </c>
       <c r="AC65">
-        <v>51.546392480000002</v>
+        <v>-0.157415056241972</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -17921,7 +17897,7 @@
         <v>51.875673140000004</v>
       </c>
       <c r="AC66">
-        <v>51.875673140000004</v>
+        <v>0.86090231976730502</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
@@ -17959,7 +17935,7 @@
         <v>605</v>
       </c>
       <c r="S67" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="T67">
         <v>908</v>
@@ -17989,7 +17965,7 @@
         <v>50.406308000000003</v>
       </c>
       <c r="AC67">
-        <v>50.406308000000003</v>
+        <v>-4.9482176397012996</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
@@ -18048,7 +18024,7 @@
         <v>54.420167050000003</v>
       </c>
       <c r="AC68">
-        <v>54.420167050000003</v>
+        <v>-3.3731363138071</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -18107,7 +18083,7 @@
         <v>52.499072980000001</v>
       </c>
       <c r="AC69">
-        <v>52.499072980000001</v>
+        <v>-0.69591855896418098</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -18166,7 +18142,7 @@
         <v>51.816451659999998</v>
       </c>
       <c r="AC70">
-        <v>51.816451659999998</v>
+        <v>-1.8929521615162299</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
@@ -18201,7 +18177,7 @@
         <v>638</v>
       </c>
       <c r="S71" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="T71">
         <v>331</v>
@@ -18231,7 +18207,7 @@
         <v>52.416868409999999</v>
       </c>
       <c r="AC71">
-        <v>52.416868409999999</v>
+        <v>-1.5197503068760101</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -18313,7 +18289,7 @@
         <v>54.07982706</v>
       </c>
       <c r="AC73">
-        <v>54.07982706</v>
+        <v>-2.1742510400716202</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -18375,7 +18351,7 @@
         <v>51.125470630000002</v>
       </c>
       <c r="AC74">
-        <v>51.125470630000002</v>
+        <v>-0.18203462265567399</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -18434,7 +18410,7 @@
         <v>51.35531787</v>
       </c>
       <c r="AC75">
-        <v>51.35531787</v>
+        <v>-8.7165024613834005E-2</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -18493,7 +18469,7 @@
         <v>51.778182489999999</v>
       </c>
       <c r="AC76">
-        <v>51.778182489999999</v>
+        <v>-0.54087696974008204</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -18531,7 +18507,7 @@
         <v>682</v>
       </c>
       <c r="S77" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="T77">
         <v>841</v>
@@ -18561,7 +18537,7 @@
         <v>54.54869927</v>
       </c>
       <c r="AC77">
-        <v>54.54869927</v>
+        <v>-1.5525857155965399</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -18620,7 +18596,7 @@
         <v>51.429839479999998</v>
       </c>
       <c r="AC78">
-        <v>51.429839479999998</v>
+        <v>0.25316777724608802</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -18679,7 +18655,7 @@
         <v>52.315986379999998</v>
       </c>
       <c r="AC79">
-        <v>52.315986379999998</v>
+        <v>-1.04824667885277</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
@@ -18711,7 +18687,7 @@
         <v>706</v>
       </c>
       <c r="S80" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="T80">
         <v>830</v>
@@ -18794,7 +18770,7 @@
         <v>53.128150290000001</v>
       </c>
       <c r="AC81">
-        <v>53.128150290000001</v>
+        <v>-1.69368006706174</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -18832,7 +18808,7 @@
         <v>724</v>
       </c>
       <c r="S82" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="T82">
         <v>831</v>
@@ -18862,7 +18838,7 @@
         <v>52.912544689999997</v>
       </c>
       <c r="AC82">
-        <v>52.912544689999997</v>
+        <v>-1.4683439126002999</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -18894,7 +18870,7 @@
         <v>732</v>
       </c>
       <c r="S83" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="T83">
         <v>878</v>
@@ -18953,7 +18929,7 @@
         <v>740</v>
       </c>
       <c r="S84" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="T84">
         <v>371</v>
@@ -18983,7 +18959,7 @@
         <v>53.544243880000003</v>
       </c>
       <c r="AC84">
-        <v>53.544243880000003</v>
+        <v>-1.0957642741408999</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -19021,7 +18997,7 @@
         <v>748</v>
       </c>
       <c r="S85" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="T85">
         <v>835</v>
@@ -19104,7 +19080,7 @@
         <v>51.211454080000003</v>
       </c>
       <c r="AC86">
-        <v>51.211454080000003</v>
+        <v>1.2892144193203501</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -19135,6 +19111,9 @@
       <c r="Q87" t="s">
         <v>4107</v>
       </c>
+      <c r="AC87">
+        <v>-2.3335558746994098</v>
+      </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -19168,7 +19147,7 @@
         <v>764</v>
       </c>
       <c r="S88" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="T88">
         <v>332</v>
@@ -19198,7 +19177,7 @@
         <v>52.482850679999999</v>
       </c>
       <c r="AC88">
-        <v>52.482850679999999</v>
+        <v>-2.1087361271354599</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -19239,7 +19218,7 @@
         <v>775</v>
       </c>
       <c r="S89" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="T89">
         <v>840</v>
@@ -19269,7 +19248,7 @@
         <v>54.69541375</v>
       </c>
       <c r="AC89">
-        <v>54.69541375</v>
+        <v>-1.83991172191284</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -19328,7 +19307,7 @@
         <v>51.522476109999999</v>
       </c>
       <c r="AC90">
-        <v>51.522476109999999</v>
+        <v>-0.331018584222806</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
@@ -19387,7 +19366,7 @@
         <v>50.776789870000002</v>
       </c>
       <c r="AC91">
-        <v>50.776789870000002</v>
+        <v>0.26622944628692102</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -19446,7 +19425,7 @@
         <v>50.937708020000002</v>
       </c>
       <c r="AC92">
-        <v>50.937708020000002</v>
+        <v>-1.32720068468055</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
@@ -19505,7 +19484,7 @@
         <v>52.342862779999997</v>
       </c>
       <c r="AC93">
-        <v>52.342862779999997</v>
+        <v>0.294782697862571</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -19564,7 +19543,7 @@
         <v>50.765509940000001</v>
       </c>
       <c r="AC94">
-        <v>50.765509940000001</v>
+        <v>-3.2243125929424199</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -19623,7 +19602,7 @@
         <v>54.612779500000002</v>
       </c>
       <c r="AC95">
-        <v>54.612779500000002</v>
+        <v>-2.6218219715923099</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -19684,12 +19663,6 @@
       <c r="AA96">
         <v>171</v>
       </c>
-      <c r="AB96">
-        <v>50.863687069999997</v>
-      </c>
-      <c r="AC96">
-        <v>50.863687069999997</v>
-      </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -19747,7 +19720,7 @@
         <v>51.074554020000001</v>
       </c>
       <c r="AC97">
-        <v>51.074554020000001</v>
+        <v>-0.95512420774780105</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
@@ -19809,7 +19782,7 @@
         <v>51.865054610000001</v>
       </c>
       <c r="AC98">
-        <v>51.865054610000001</v>
+        <v>-8.2579317821315692E-3</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
@@ -19868,7 +19841,7 @@
         <v>53.25104881</v>
       </c>
       <c r="AC99">
-        <v>53.25104881</v>
+        <v>3.03338886761347E-2</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
@@ -19927,7 +19900,7 @@
         <v>51.357132270000001</v>
       </c>
       <c r="AC100">
-        <v>51.357132270000001</v>
+        <v>-0.39217250644269003</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
@@ -19986,7 +19959,7 @@
         <v>51.65099197</v>
       </c>
       <c r="AC101">
-        <v>51.65099197</v>
+        <v>-8.7264502186229706E-2</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
@@ -20045,7 +20018,7 @@
         <v>52.457547259999998</v>
       </c>
       <c r="AC102">
-        <v>52.457547259999998</v>
+        <v>-0.52347974785409601</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
@@ -20104,7 +20077,7 @@
         <v>51.708877809999997</v>
       </c>
       <c r="AC103">
-        <v>51.708877809999997</v>
+        <v>0.14866520769558</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
@@ -20166,7 +20139,7 @@
         <v>51.339166859999999</v>
       </c>
       <c r="AC104">
-        <v>51.339166859999999</v>
+        <v>-0.26144844660503602</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
@@ -20225,7 +20198,7 @@
         <v>52.93549007</v>
       </c>
       <c r="AC105">
-        <v>52.93549007</v>
+        <v>-1.3466958468372301</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -20263,7 +20236,7 @@
         <v>919</v>
       </c>
       <c r="S106" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="T106">
         <v>811</v>
@@ -20293,7 +20266,7 @@
         <v>53.874442139999999</v>
       </c>
       <c r="AC106">
-        <v>53.874442139999999</v>
+        <v>-0.48250917149656902</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -20327,6 +20300,9 @@
       <c r="U107">
         <v>412</v>
       </c>
+      <c r="AC107">
+        <v>1.4614605743951401</v>
+      </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -20357,7 +20333,7 @@
         <v>927</v>
       </c>
       <c r="S108" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="T108">
         <v>881</v>
@@ -20440,7 +20416,7 @@
         <v>52.863268079999997</v>
       </c>
       <c r="AC109">
-        <v>52.863268079999997</v>
+        <v>-1.81214118182388</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -20472,7 +20448,7 @@
         <v>942</v>
       </c>
       <c r="S110" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="T110">
         <v>845</v>
@@ -20555,7 +20531,7 @@
         <v>50.72229308</v>
       </c>
       <c r="AC111">
-        <v>50.72229308</v>
+        <v>-3.5101761920371901</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -20614,7 +20590,7 @@
         <v>50.853116649999997</v>
       </c>
       <c r="AC112">
-        <v>50.853116649999997</v>
+        <v>-1.2246651080011499</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
@@ -20673,7 +20649,7 @@
         <v>52.562713449999997</v>
       </c>
       <c r="AC113">
-        <v>52.562713449999997</v>
+        <v>6.0771297225044402E-2</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
@@ -20732,7 +20708,7 @@
         <v>51.836660930000001</v>
       </c>
       <c r="AC114">
-        <v>51.836660930000001</v>
+        <v>-2.4901213839832601</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
@@ -20793,12 +20769,6 @@
       <c r="AA115">
         <v>604</v>
       </c>
-      <c r="AB115">
-        <v>52.354759049999998</v>
-      </c>
-      <c r="AC115">
-        <v>52.354759049999998</v>
-      </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -20856,7 +20826,7 @@
         <v>53.787853089999999</v>
       </c>
       <c r="AC116">
-        <v>53.787853089999999</v>
+        <v>-2.92287972999782</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.25">
@@ -20894,7 +20864,7 @@
         <v>999</v>
       </c>
       <c r="S117" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="T117">
         <v>390</v>
@@ -20921,7 +20891,7 @@
         <v>54.935006389999998</v>
       </c>
       <c r="AC117">
-        <v>54.935006389999998</v>
+        <v>-1.68289087502256</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
@@ -20980,7 +20950,7 @@
         <v>53.028372050000002</v>
       </c>
       <c r="AC118">
-        <v>53.028372050000002</v>
+        <v>-1.1193100378155301</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
@@ -21012,7 +20982,7 @@
         <v>1015</v>
       </c>
       <c r="S119" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="T119" t="s">
         <v>1016</v>
@@ -21089,7 +21059,7 @@
         <v>51.84933882</v>
       </c>
       <c r="AC120">
-        <v>51.84933882</v>
+        <v>-2.2402646253741301</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
@@ -21121,7 +21091,7 @@
         <v>1032</v>
       </c>
       <c r="S121" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="T121">
         <v>916</v>
@@ -21227,7 +21197,7 @@
         <v>50.805125359999998</v>
       </c>
       <c r="AC123">
-        <v>50.805125359999998</v>
+        <v>-1.1594623667666399</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
@@ -21286,7 +21256,7 @@
         <v>51.40234435</v>
       </c>
       <c r="AC124">
-        <v>51.40234435</v>
+        <v>0.39499417091077599</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
@@ -21345,7 +21315,7 @@
         <v>51.4728037</v>
       </c>
       <c r="AC125">
-        <v>51.4728037</v>
+        <v>5.5542716458775301E-2</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
@@ -21404,7 +21374,7 @@
         <v>51.247800050000002</v>
       </c>
       <c r="AC126">
-        <v>51.247800050000002</v>
+        <v>-0.56164554240444897</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
@@ -21463,7 +21433,7 @@
         <v>52.642233910000002</v>
       </c>
       <c r="AC127">
-        <v>52.642233910000002</v>
+        <v>1.66134793066905</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
@@ -21522,7 +21492,7 @@
         <v>50.848456140000003</v>
       </c>
       <c r="AC128">
-        <v>50.848456140000003</v>
+        <v>-0.98936169825244902</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
@@ -21581,7 +21551,7 @@
         <v>54.286778179999999</v>
       </c>
       <c r="AC129">
-        <v>54.286778179999999</v>
+        <v>-1.31908778079823</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
@@ -21640,7 +21610,7 @@
         <v>54.067102169999998</v>
       </c>
       <c r="AC130">
-        <v>54.067102169999998</v>
+        <v>-1.59553909500438</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
@@ -21678,7 +21648,7 @@
         <v>1105</v>
       </c>
       <c r="S131" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="T131">
         <v>876</v>
@@ -21708,7 +21678,7 @@
         <v>53.345132939999999</v>
       </c>
       <c r="AC131">
-        <v>53.345132939999999</v>
+        <v>-2.7187968167260799</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
@@ -21740,7 +21710,7 @@
         <v>1113</v>
       </c>
       <c r="S132" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="T132">
         <v>850</v>
@@ -21823,7 +21793,7 @@
         <v>52.539309690000003</v>
       </c>
       <c r="AC133">
-        <v>52.539309690000003</v>
+        <v>-1.0081235593811999</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
@@ -21882,7 +21852,7 @@
         <v>51.768349069999999</v>
       </c>
       <c r="AC134">
-        <v>51.768349069999999</v>
+        <v>0.108539457994397</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -21941,7 +21911,7 @@
         <v>50.869935079999998</v>
       </c>
       <c r="AC135">
-        <v>50.869935079999998</v>
+        <v>0.57043334791955602</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
@@ -22000,7 +21970,7 @@
         <v>51.284812100000003</v>
       </c>
       <c r="AC136">
-        <v>51.284812100000003</v>
+        <v>-0.89747200545425898</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
@@ -22059,7 +22029,7 @@
         <v>51.564368309999999</v>
       </c>
       <c r="AC137">
-        <v>51.564368309999999</v>
+        <v>0.22042672677428801</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
@@ -22118,7 +22088,7 @@
         <v>51.552264860000001</v>
       </c>
       <c r="AC138">
-        <v>51.552264860000001</v>
+        <v>-6.3315272614078294E-2</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
@@ -22156,7 +22126,7 @@
         <v>1170</v>
       </c>
       <c r="S139" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="T139">
         <v>884</v>
@@ -22186,7 +22156,7 @@
         <v>52.103478600000003</v>
       </c>
       <c r="AC139">
-        <v>52.103478600000003</v>
+        <v>-2.7449596144109498</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
@@ -22245,7 +22215,7 @@
         <v>51.677284870000001</v>
       </c>
       <c r="AC140">
-        <v>51.677284870000001</v>
+        <v>-0.28109663669281998</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
@@ -22304,7 +22274,7 @@
         <v>53.372950279999998</v>
       </c>
       <c r="AC141">
-        <v>53.372950279999998</v>
+        <v>-1.8739385921285301</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
@@ -22363,7 +22333,7 @@
         <v>51.541471860000001</v>
       </c>
       <c r="AC142">
-        <v>51.541471860000001</v>
+        <v>-0.44566202430884599</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
@@ -22425,7 +22395,7 @@
         <v>52.616482529999999</v>
       </c>
       <c r="AC143">
-        <v>52.616482529999999</v>
+        <v>-1.3910550818802301</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
@@ -22487,7 +22457,7 @@
         <v>51.495947919999999</v>
       </c>
       <c r="AC144">
-        <v>51.495947919999999</v>
+        <v>-0.220777565101831</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
@@ -22546,7 +22516,7 @@
         <v>51.468386469999999</v>
       </c>
       <c r="AC145">
-        <v>51.468386469999999</v>
+        <v>-0.36616172517234102</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
@@ -22608,7 +22578,7 @@
         <v>50.993848509999999</v>
       </c>
       <c r="AC146">
-        <v>50.993848509999999</v>
+        <v>-0.36633274976462499</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
@@ -22646,7 +22616,7 @@
         <v>1238</v>
       </c>
       <c r="S147" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="T147">
         <v>805</v>
@@ -22676,7 +22646,7 @@
         <v>54.66947734</v>
       </c>
       <c r="AC147">
-        <v>54.66947734</v>
+        <v>-1.2556467591787599</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
@@ -22708,7 +22678,7 @@
         <v>1246</v>
       </c>
       <c r="S148" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="T148">
         <v>919</v>
@@ -22791,7 +22761,7 @@
         <v>51.597718749999999</v>
       </c>
       <c r="AC149">
-        <v>51.597718749999999</v>
+        <v>-0.341274221017002</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
@@ -22850,7 +22820,7 @@
         <v>51.590373970000002</v>
       </c>
       <c r="AC150">
-        <v>51.590373970000002</v>
+        <v>-0.10747266739674501</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
@@ -22909,7 +22879,7 @@
         <v>52.373615890000004</v>
       </c>
       <c r="AC151">
-        <v>52.373615890000004</v>
+        <v>-0.220773550455199</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
@@ -22968,7 +22938,7 @@
         <v>53.758642440000003</v>
       </c>
       <c r="AC152">
-        <v>53.758642440000003</v>
+        <v>-2.3897873278493602</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
@@ -23003,7 +22973,7 @@
         <v>1286</v>
       </c>
       <c r="S153" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="T153">
         <v>420</v>
@@ -23033,7 +23003,7 @@
         <v>49.935335070000001</v>
       </c>
       <c r="AC153">
-        <v>49.935335070000001</v>
+        <v>-6.2987980018748004</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
@@ -23071,7 +23041,7 @@
         <v>1297</v>
       </c>
       <c r="S154" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="T154">
         <v>921</v>
@@ -23101,7 +23071,7 @@
         <v>50.674685599999997</v>
       </c>
       <c r="AC154">
-        <v>50.674685599999997</v>
+        <v>-1.09489649616619</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
@@ -23160,7 +23130,7 @@
         <v>52.056359039999997</v>
       </c>
       <c r="AC155">
-        <v>52.056359039999997</v>
+        <v>1.1597791056265001</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
@@ -23219,7 +23189,7 @@
         <v>51.54848338</v>
       </c>
       <c r="AC156">
-        <v>51.54848338</v>
+        <v>-0.110246258249108</v>
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
@@ -23281,7 +23251,7 @@
         <v>51.501610749999998</v>
       </c>
       <c r="AC157">
-        <v>51.501610749999998</v>
+        <v>-0.19221075151882699</v>
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
@@ -23313,7 +23283,7 @@
         <v>1330</v>
       </c>
       <c r="S158" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="T158">
         <v>886</v>
@@ -23396,7 +23366,7 @@
         <v>52.42614459</v>
       </c>
       <c r="AC159">
-        <v>52.42614459</v>
+        <v>-0.76542910237272799</v>
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
@@ -23437,7 +23407,7 @@
         <v>1348</v>
       </c>
       <c r="S160" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="T160">
         <v>810</v>
@@ -23467,7 +23437,7 @@
         <v>53.764107920000001</v>
       </c>
       <c r="AC160">
-        <v>53.764107920000001</v>
+        <v>-0.33535150963390398</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
@@ -23532,7 +23502,7 @@
         <v>52.717961039999999</v>
       </c>
       <c r="AC161">
-        <v>52.717961039999999</v>
+        <v>0.470465345077615</v>
       </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
@@ -23567,7 +23537,7 @@
         <v>1367</v>
       </c>
       <c r="S162" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="T162">
         <v>382</v>
@@ -23597,7 +23567,7 @@
         <v>53.627356560000003</v>
       </c>
       <c r="AC162">
-        <v>53.627356560000003</v>
+        <v>-1.76330731290644</v>
       </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
@@ -23656,7 +23626,7 @@
         <v>51.387893759999997</v>
       </c>
       <c r="AC163">
-        <v>51.387893759999997</v>
+        <v>-0.28691447761787803</v>
       </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
@@ -23691,7 +23661,7 @@
         <v>1384</v>
       </c>
       <c r="S164" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="T164">
         <v>340</v>
@@ -23721,7 +23691,7 @@
         <v>53.425100569999998</v>
       </c>
       <c r="AC164">
-        <v>53.425100569999998</v>
+        <v>-2.8340373463497501</v>
       </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
@@ -23780,7 +23750,7 @@
         <v>54.070893810000001</v>
       </c>
       <c r="AC165">
-        <v>54.070893810000001</v>
+        <v>-2.7147823620064</v>
       </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
@@ -23812,7 +23782,7 @@
         <v>1400</v>
       </c>
       <c r="S166" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="T166">
         <v>888</v>
@@ -23895,7 +23865,7 @@
         <v>51.45307931</v>
       </c>
       <c r="AC167">
-        <v>51.45307931</v>
+        <v>-0.118309072522519</v>
       </c>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
@@ -23936,7 +23906,7 @@
         <v>1418</v>
       </c>
       <c r="S168" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="T168">
         <v>856</v>
@@ -23966,7 +23936,7 @@
         <v>52.637914360000003</v>
       </c>
       <c r="AC168">
-        <v>52.637914360000003</v>
+        <v>-1.1284852020846301</v>
       </c>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
@@ -24024,7 +23994,7 @@
         <v>1427</v>
       </c>
       <c r="S170" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="T170">
         <v>383</v>
@@ -24054,7 +24024,7 @@
         <v>53.825746410000001</v>
       </c>
       <c r="AC170">
-        <v>53.825746410000001</v>
+        <v>-1.50601636692331</v>
       </c>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
@@ -24086,7 +24056,7 @@
         <v>1435</v>
       </c>
       <c r="S171" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="T171">
         <v>855</v>
@@ -24169,7 +24139,7 @@
         <v>50.882769709999998</v>
       </c>
       <c r="AC172">
-        <v>50.882769709999998</v>
+        <v>5.0543556228987803E-3</v>
       </c>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
@@ -24228,7 +24198,7 @@
         <v>51.448086269999997</v>
       </c>
       <c r="AC173">
-        <v>51.448086269999997</v>
+        <v>-2.0285774043622199E-2</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
@@ -24290,7 +24260,7 @@
         <v>53.224726599999997</v>
       </c>
       <c r="AC174">
-        <v>53.224726599999997</v>
+        <v>-0.55495288760678196</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
@@ -24349,7 +24319,7 @@
         <v>52.688169340000002</v>
       </c>
       <c r="AC175">
-        <v>52.688169340000002</v>
+        <v>-1.80491531530489</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
@@ -24381,7 +24351,7 @@
         <v>1475</v>
       </c>
       <c r="S176" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="T176">
         <v>925</v>
@@ -24440,7 +24410,7 @@
         <v>1483</v>
       </c>
       <c r="S177" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="T177">
         <v>341</v>
@@ -24470,7 +24440,7 @@
         <v>53.403919950000002</v>
       </c>
       <c r="AC177">
-        <v>53.403919950000002</v>
+        <v>-2.91700763031041</v>
       </c>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.25">
@@ -24532,7 +24502,7 @@
         <v>51.514844850000003</v>
       </c>
       <c r="AC178">
-        <v>51.514844850000003</v>
+        <v>-9.2437868622313998E-2</v>
       </c>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.25">
@@ -24570,7 +24540,7 @@
         <v>1503</v>
       </c>
       <c r="S179" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="T179">
         <v>821</v>
@@ -24600,7 +24570,7 @@
         <v>51.894225110000001</v>
       </c>
       <c r="AC179">
-        <v>51.894225110000001</v>
+        <v>-0.42559029048565999</v>
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.25">
@@ -24659,7 +24629,7 @@
         <v>51.234995130000001</v>
       </c>
       <c r="AC180">
-        <v>51.234995130000001</v>
+        <v>0.58055256446608905</v>
       </c>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.25">
@@ -24718,7 +24688,7 @@
         <v>51.710319560000002</v>
       </c>
       <c r="AC181">
-        <v>51.710319560000002</v>
+        <v>0.78377739171598204</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.25">
@@ -24753,7 +24723,7 @@
         <v>1528</v>
       </c>
       <c r="S182" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="T182">
         <v>352</v>
@@ -24783,7 +24753,7 @@
         <v>53.451484399999998</v>
       </c>
       <c r="AC182">
-        <v>53.451484399999998</v>
+        <v>-2.2325236866808602</v>
       </c>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.25">
@@ -24842,7 +24812,7 @@
         <v>53.170715039999997</v>
       </c>
       <c r="AC183">
-        <v>53.170715039999997</v>
+        <v>-1.1727869589561499</v>
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.25">
@@ -24901,7 +24871,7 @@
         <v>52.18275809</v>
       </c>
       <c r="AC184">
-        <v>52.18275809</v>
+        <v>-2.3446652905044201</v>
       </c>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
@@ -24939,7 +24909,7 @@
         <v>1554</v>
       </c>
       <c r="S185" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="T185">
         <v>806</v>
@@ -24969,7 +24939,7 @@
         <v>54.541996249999997</v>
       </c>
       <c r="AC185">
-        <v>54.541996249999997</v>
+        <v>-1.2224301962791999</v>
       </c>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.25">
@@ -25028,7 +24998,7 @@
         <v>50.876261640000003</v>
       </c>
       <c r="AC186">
-        <v>50.876261640000003</v>
+        <v>-3.55643798008176</v>
       </c>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
@@ -25069,7 +25039,7 @@
         <v>1573</v>
       </c>
       <c r="S187" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="T187">
         <v>887</v>
@@ -25099,7 +25069,7 @@
         <v>51.415147470000001</v>
       </c>
       <c r="AC187">
-        <v>51.415147470000001</v>
+        <v>0.56948457324977197</v>
       </c>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.25">
@@ -25158,7 +25128,7 @@
         <v>52.7963819</v>
       </c>
       <c r="AC188">
-        <v>52.7963819</v>
+        <v>-0.85621855043544903</v>
       </c>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.25">
@@ -25217,7 +25187,7 @@
         <v>51.202912599999998</v>
       </c>
       <c r="AC189">
-        <v>51.202912599999998</v>
+        <v>-2.5446553195065</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
@@ -25255,7 +25225,7 @@
         <v>1600</v>
       </c>
       <c r="S190" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="T190">
         <v>826</v>
@@ -25285,7 +25255,7 @@
         <v>52.083804860000001</v>
       </c>
       <c r="AC190">
-        <v>52.083804860000001</v>
+        <v>-0.73354065299243898</v>
       </c>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
@@ -25344,7 +25314,7 @@
         <v>51.212265080000002</v>
       </c>
       <c r="AC191">
-        <v>51.212265080000002</v>
+        <v>-0.32511597467560699</v>
       </c>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.25">
@@ -25403,7 +25373,7 @@
         <v>51.409949820000001</v>
       </c>
       <c r="AC192">
-        <v>51.409949820000001</v>
+        <v>-0.19724645978008301</v>
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.25">
@@ -25465,7 +25435,7 @@
         <v>51.020842719999997</v>
       </c>
       <c r="AC193">
-        <v>51.020842719999997</v>
+        <v>-0.12705176017318801</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
@@ -25524,7 +25494,7 @@
         <v>52.246821439999998</v>
       </c>
       <c r="AC194">
-        <v>52.246821439999998</v>
+        <v>1.0924171535160601</v>
       </c>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.25">
@@ -25565,7 +25535,7 @@
         <v>1643</v>
       </c>
       <c r="S195" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="T195">
         <v>929</v>
@@ -25592,7 +25562,7 @@
         <v>55.238015769999997</v>
       </c>
       <c r="AC195">
-        <v>55.238015769999997</v>
+        <v>-2.06647808763908</v>
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.25">
@@ -25651,7 +25621,7 @@
         <v>51.069056449999998</v>
       </c>
       <c r="AC196">
-        <v>51.069056449999998</v>
+        <v>-3.9145654715471498</v>
       </c>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
@@ -25712,12 +25682,6 @@
       <c r="AA197">
         <v>279</v>
       </c>
-      <c r="AB197">
-        <v>50.912469090000002</v>
-      </c>
-      <c r="AC197">
-        <v>50.912469090000002</v>
-      </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -25778,7 +25742,7 @@
         <v>53.123890099999997</v>
       </c>
       <c r="AC198">
-        <v>53.123890099999997</v>
+        <v>-0.91974426351731098</v>
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
@@ -25837,7 +25801,7 @@
         <v>52.993123830000002</v>
       </c>
       <c r="AC199">
-        <v>52.993123830000002</v>
+        <v>-2.3188747363185298</v>
       </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
@@ -25896,7 +25860,7 @@
         <v>53.225828819999997</v>
       </c>
       <c r="AC200">
-        <v>53.225828819999997</v>
+        <v>-1.44828792583317</v>
       </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
@@ -25934,7 +25898,7 @@
         <v>1693</v>
       </c>
       <c r="S201" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="T201">
         <v>812</v>
@@ -25964,7 +25928,7 @@
         <v>53.542574620000003</v>
       </c>
       <c r="AC201">
-        <v>53.542574620000003</v>
+        <v>-0.133445083693671</v>
       </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -25999,7 +25963,7 @@
         <v>1702</v>
       </c>
       <c r="S202" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="T202">
         <v>391</v>
@@ -26029,7 +25993,7 @@
         <v>55.008254180000002</v>
       </c>
       <c r="AC202">
-        <v>55.008254180000002</v>
+        <v>-1.65782010102585</v>
       </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
@@ -26088,7 +26052,7 @@
         <v>50.859895729999998</v>
       </c>
       <c r="AC203">
-        <v>50.859895729999998</v>
+        <v>-1.62474674793517</v>
       </c>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
@@ -26120,7 +26084,7 @@
         <v>1718</v>
       </c>
       <c r="S204" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="T204">
         <v>926</v>
@@ -26185,7 +26149,7 @@
         <v>1728</v>
       </c>
       <c r="S205" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="T205">
         <v>892</v>
@@ -26215,7 +26179,7 @@
         <v>52.96058498</v>
       </c>
       <c r="AC205">
-        <v>52.96058498</v>
+        <v>-1.1765203960699999</v>
       </c>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.25">
@@ -26274,7 +26238,7 @@
         <v>51.959092460000001</v>
       </c>
       <c r="AC206">
-        <v>51.959092460000001</v>
+        <v>-0.19270263064394799</v>
       </c>
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.25">
@@ -26333,7 +26297,7 @@
         <v>53.081080460000003</v>
       </c>
       <c r="AC207">
-        <v>53.081080460000003</v>
+        <v>-0.44592595094364801</v>
       </c>
     </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.25">
@@ -26371,7 +26335,7 @@
         <v>1754</v>
       </c>
       <c r="S208" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="T208">
         <v>813</v>
@@ -26401,7 +26365,7 @@
         <v>53.59084103</v>
       </c>
       <c r="AC208">
-        <v>53.59084103</v>
+        <v>-0.59273094304076102</v>
       </c>
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.25">
@@ -26460,7 +26424,7 @@
         <v>52.847638119999999</v>
       </c>
       <c r="AC209">
-        <v>52.847638119999999</v>
+        <v>1.1697820098986</v>
       </c>
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.25">
@@ -26519,7 +26483,7 @@
         <v>52.241250569999998</v>
       </c>
       <c r="AC210">
-        <v>52.241250569999998</v>
+        <v>-0.88691014682261404</v>
       </c>
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.25">
@@ -26578,7 +26542,7 @@
         <v>52.633055550000002</v>
       </c>
       <c r="AC211">
-        <v>52.633055550000002</v>
+        <v>1.2828005620354599</v>
       </c>
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.25">
@@ -26616,7 +26580,7 @@
         <v>1788</v>
       </c>
       <c r="S212" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="T212">
         <v>802</v>
@@ -26646,7 +26610,7 @@
         <v>51.389793060000002</v>
       </c>
       <c r="AC212">
-        <v>51.389793060000002</v>
+        <v>-2.8007412223167498</v>
       </c>
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.25">
@@ -26678,7 +26642,7 @@
         <v>1796</v>
       </c>
       <c r="S213" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="T213">
         <v>928</v>
@@ -26734,7 +26698,7 @@
         <v>1803</v>
       </c>
       <c r="S214" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="T214">
         <v>891</v>
@@ -26793,7 +26757,7 @@
         <v>1811</v>
       </c>
       <c r="S215" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="T215">
         <v>392</v>
@@ -26823,7 +26787,7 @@
         <v>55.028380589999998</v>
       </c>
       <c r="AC215">
-        <v>55.028380589999998</v>
+        <v>-1.51743967487292</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.25">
@@ -26885,7 +26849,7 @@
         <v>52.501128549999997</v>
       </c>
       <c r="AC216">
-        <v>52.501128549999997</v>
+        <v>-1.47587145083739</v>
       </c>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.25">
@@ -26944,7 +26908,7 @@
         <v>52.54748034</v>
       </c>
       <c r="AC217">
-        <v>52.54748034</v>
+        <v>-1.62805460803472</v>
       </c>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.25">
@@ -27003,7 +26967,7 @@
         <v>52.753117680000003</v>
       </c>
       <c r="AC218">
-        <v>52.753117680000003</v>
+        <v>-1.4051226189110999</v>
       </c>
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.25">
@@ -27062,7 +27026,7 @@
         <v>51.528342809999998</v>
       </c>
       <c r="AC219">
-        <v>51.528342809999998</v>
+        <v>3.7542592217240302E-2</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.25">
@@ -27094,7 +27058,7 @@
         <v>1852</v>
       </c>
       <c r="S220" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="T220">
         <v>815</v>
@@ -27180,7 +27144,7 @@
         <v>52.587136610000002</v>
       </c>
       <c r="AC221">
-        <v>52.587136610000002</v>
+        <v>-1.09340729708271</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.25">
@@ -27215,7 +27179,7 @@
         <v>1869</v>
       </c>
       <c r="S222" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="T222">
         <v>353</v>
@@ -27245,7 +27209,7 @@
         <v>53.551887700000002</v>
       </c>
       <c r="AC222">
-        <v>53.551887700000002</v>
+        <v>-2.0506522949308699</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.25">
@@ -27277,7 +27241,7 @@
         <v>1877</v>
       </c>
       <c r="S223" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="T223">
         <v>931</v>
@@ -27360,7 +27324,7 @@
         <v>51.754586629999999</v>
       </c>
       <c r="AC224">
-        <v>51.754586629999999</v>
+        <v>-1.2409629445558299</v>
       </c>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.25">
@@ -27419,7 +27383,7 @@
         <v>53.86549428</v>
       </c>
       <c r="AC225">
-        <v>53.86549428</v>
+        <v>-2.1849303763291501</v>
       </c>
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.25">
@@ -27457,7 +27421,7 @@
         <v>1902</v>
       </c>
       <c r="S226" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="T226">
         <v>879</v>
@@ -27487,7 +27451,7 @@
         <v>50.392016609999999</v>
       </c>
       <c r="AC226">
-        <v>50.392016609999999</v>
+        <v>-4.1198560602811201</v>
       </c>
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.25">
@@ -27554,12 +27518,6 @@
       <c r="AA227">
         <v>305</v>
       </c>
-      <c r="AB227">
-        <v>50.745052119999997</v>
-      </c>
-      <c r="AC227">
-        <v>50.745052119999997</v>
-      </c>
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -27596,7 +27554,7 @@
         <v>1922</v>
       </c>
       <c r="S228" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="T228">
         <v>851</v>
@@ -27626,7 +27584,7 @@
         <v>50.820724050000003</v>
       </c>
       <c r="AC228">
-        <v>50.820724050000003</v>
+        <v>-1.07837299817203</v>
       </c>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.25">
@@ -27685,7 +27643,7 @@
         <v>53.812056249999998</v>
       </c>
       <c r="AC229">
-        <v>53.812056249999998</v>
+        <v>-2.69765172873824</v>
       </c>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.25">
@@ -27723,7 +27681,7 @@
         <v>1940</v>
       </c>
       <c r="S230" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="T230">
         <v>874</v>
@@ -27753,7 +27711,7 @@
         <v>52.608562329999998</v>
       </c>
       <c r="AC230">
-        <v>52.608562329999998</v>
+        <v>-0.25310869841260603</v>
       </c>
     </row>
     <row r="231" spans="1:29" x14ac:dyDescent="0.25">
@@ -27814,12 +27772,6 @@
       <c r="AA231">
         <v>309</v>
       </c>
-      <c r="AB231">
-        <v>50.681157489999997</v>
-      </c>
-      <c r="AC231">
-        <v>50.681157489999997</v>
-      </c>
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
@@ -27856,7 +27808,7 @@
         <v>1958</v>
       </c>
       <c r="S232" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="T232">
         <v>807</v>
@@ -27886,7 +27838,7 @@
         <v>54.551589290000003</v>
       </c>
       <c r="AC232">
-        <v>54.551589290000003</v>
+        <v>-1.02164637989712</v>
       </c>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.25">
@@ -27921,7 +27873,7 @@
         <v>1967</v>
       </c>
       <c r="S233" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="T233">
         <v>354</v>
@@ -27951,7 +27903,7 @@
         <v>53.61655296</v>
       </c>
       <c r="AC233">
-        <v>53.61655296</v>
+        <v>-2.1578678631274801</v>
       </c>
     </row>
     <row r="234" spans="1:29" x14ac:dyDescent="0.25">
@@ -28010,7 +27962,7 @@
         <v>51.585669950000003</v>
       </c>
       <c r="AC234">
-        <v>51.585669950000003</v>
+        <v>7.5862726477865405E-2</v>
       </c>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.25">
@@ -28048,7 +28000,7 @@
         <v>1985</v>
       </c>
       <c r="S235" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="T235">
         <v>870</v>
@@ -28078,7 +28030,7 @@
         <v>51.452978829999999</v>
       </c>
       <c r="AC235">
-        <v>51.452978829999999</v>
+        <v>-0.98382499545167101</v>
       </c>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.25">
@@ -28137,7 +28089,7 @@
         <v>52.282285780000002</v>
       </c>
       <c r="AC236">
-        <v>52.282285780000002</v>
+        <v>-1.9518603046110901</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.25">
@@ -28199,7 +28151,7 @@
         <v>51.253200460000002</v>
       </c>
       <c r="AC237">
-        <v>51.253200460000002</v>
+        <v>-0.19185369982901401</v>
       </c>
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.25">
@@ -28258,7 +28210,7 @@
         <v>53.907219179999998</v>
       </c>
       <c r="AC238">
-        <v>53.907219179999998</v>
+        <v>-2.4447560366013001</v>
       </c>
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.25">
@@ -28317,7 +28269,7 @@
         <v>51.442185340000002</v>
       </c>
       <c r="AC239">
-        <v>51.442185340000002</v>
+        <v>-0.31237054143348503</v>
       </c>
     </row>
     <row r="240" spans="1:29" x14ac:dyDescent="0.25">
@@ -28376,7 +28328,7 @@
         <v>54.361541920000001</v>
       </c>
       <c r="AC240">
-        <v>54.361541920000001</v>
+        <v>-1.9343273352327199</v>
       </c>
     </row>
     <row r="241" spans="1:29" x14ac:dyDescent="0.25">
@@ -28435,7 +28387,7 @@
         <v>51.595214120000001</v>
       </c>
       <c r="AC241">
-        <v>51.595214120000001</v>
+        <v>0.80933174827144005</v>
       </c>
     </row>
     <row r="242" spans="1:29" x14ac:dyDescent="0.25">
@@ -28494,7 +28446,7 @@
         <v>50.952224510000001</v>
       </c>
       <c r="AC242">
-        <v>50.952224510000001</v>
+        <v>0.53888531091054503</v>
       </c>
     </row>
     <row r="243" spans="1:29" x14ac:dyDescent="0.25">
@@ -28553,7 +28505,7 @@
         <v>53.693815659999999</v>
       </c>
       <c r="AC243">
-        <v>53.693815659999999</v>
+        <v>-2.26729943401683</v>
       </c>
     </row>
     <row r="244" spans="1:29" x14ac:dyDescent="0.25">
@@ -28588,7 +28540,7 @@
         <v>2059</v>
       </c>
       <c r="S244" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="T244">
         <v>372</v>
@@ -28618,7 +28570,7 @@
         <v>53.40861795</v>
       </c>
       <c r="AC244">
-        <v>53.40861795</v>
+        <v>-1.28615064960739</v>
       </c>
     </row>
     <row r="245" spans="1:29" x14ac:dyDescent="0.25">
@@ -28677,7 +28629,7 @@
         <v>52.384361439999999</v>
       </c>
       <c r="AC245">
-        <v>52.384361439999999</v>
+        <v>-1.3282942440232499</v>
       </c>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.25">
@@ -28736,7 +28688,7 @@
         <v>51.273443469999997</v>
       </c>
       <c r="AC246">
-        <v>51.273443469999997</v>
+        <v>-0.76748144845213595</v>
       </c>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.25">
@@ -28795,7 +28747,7 @@
         <v>51.39378705</v>
       </c>
       <c r="AC247">
-        <v>51.39378705</v>
+        <v>-0.54131029860619295</v>
       </c>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.25">
@@ -28854,7 +28806,7 @@
         <v>52.900847290000002</v>
       </c>
       <c r="AC248">
-        <v>52.900847290000002</v>
+        <v>-1.0377351214797901</v>
       </c>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.25">
@@ -28892,7 +28844,7 @@
         <v>2101</v>
       </c>
       <c r="S249" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="T249">
         <v>857</v>
@@ -28922,7 +28874,7 @@
         <v>52.660723519999998</v>
       </c>
       <c r="AC249">
-        <v>52.660723519999998</v>
+        <v>-0.65469061550670404</v>
       </c>
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.25">
@@ -28981,7 +28933,7 @@
         <v>54.210492459999998</v>
       </c>
       <c r="AC250">
-        <v>54.210492459999998</v>
+        <v>-0.85200756474897199</v>
       </c>
     </row>
     <row r="251" spans="1:29" x14ac:dyDescent="0.25">
@@ -29043,7 +28995,7 @@
         <v>51.772068310000002</v>
       </c>
       <c r="AC251">
-        <v>51.772068310000002</v>
+        <v>-0.34249455556367903</v>
       </c>
     </row>
     <row r="252" spans="1:29" x14ac:dyDescent="0.25">
@@ -29078,7 +29030,7 @@
         <v>2127</v>
       </c>
       <c r="S252" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="T252">
         <v>333</v>
@@ -29108,7 +29060,7 @@
         <v>52.515427330000001</v>
       </c>
       <c r="AC252">
-        <v>52.515427330000001</v>
+        <v>-2.0089727072543599</v>
       </c>
     </row>
     <row r="253" spans="1:29" x14ac:dyDescent="0.25">
@@ -29169,12 +29121,6 @@
       <c r="AA253">
         <v>347</v>
       </c>
-      <c r="AB253">
-        <v>51.556379810000003</v>
-      </c>
-      <c r="AC253">
-        <v>51.556379810000003</v>
-      </c>
     </row>
     <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -29232,7 +29178,7 @@
         <v>52.172778080000001</v>
       </c>
       <c r="AC254">
-        <v>52.172778080000001</v>
+        <v>8.1300388968336204E-2</v>
       </c>
     </row>
     <row r="255" spans="1:29" x14ac:dyDescent="0.25">
@@ -29291,7 +29237,7 @@
         <v>54.36640147</v>
       </c>
       <c r="AC255">
-        <v>54.36640147</v>
+        <v>-0.63497108623668497</v>
       </c>
     </row>
     <row r="256" spans="1:29" x14ac:dyDescent="0.25">
@@ -29373,7 +29319,7 @@
         <v>52.830993509999999</v>
       </c>
       <c r="AC257">
-        <v>52.830993509999999</v>
+        <v>-1.55954528496134</v>
       </c>
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.25">
@@ -29434,12 +29380,6 @@
       <c r="AA258">
         <v>368</v>
       </c>
-      <c r="AB258">
-        <v>52.233386449999998</v>
-      </c>
-      <c r="AC258">
-        <v>52.233386449999998</v>
-      </c>
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -29497,7 +29437,7 @@
         <v>51.17983985</v>
       </c>
       <c r="AC259">
-        <v>51.17983985</v>
+        <v>-2.9528578456735</v>
       </c>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.25">
@@ -29556,7 +29496,7 @@
         <v>53.787102449999999</v>
       </c>
       <c r="AC260">
-        <v>53.787102449999999</v>
+        <v>-1.1346806822903901</v>
       </c>
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.25">
@@ -29615,7 +29555,7 @@
         <v>51.275410309999998</v>
       </c>
       <c r="AC261">
-        <v>51.275410309999998</v>
+        <v>0.17197231930346801</v>
       </c>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.25">
@@ -29647,7 +29587,7 @@
         <v>2199</v>
       </c>
       <c r="S262" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="T262">
         <v>935</v>
@@ -29706,7 +29646,7 @@
         <v>2207</v>
       </c>
       <c r="S263" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="T263">
         <v>343</v>
@@ -29736,7 +29676,7 @@
         <v>53.549675999999998</v>
       </c>
       <c r="AC263">
-        <v>53.549675999999998</v>
+        <v>-3.0150520386678501</v>
       </c>
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.25">
@@ -29774,7 +29714,7 @@
         <v>2217</v>
       </c>
       <c r="S264" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="T264">
         <v>803</v>
@@ -29804,7 +29744,7 @@
         <v>51.541870799999998</v>
       </c>
       <c r="AC264">
-        <v>51.541870799999998</v>
+        <v>-2.4704239435040698</v>
       </c>
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.25">
@@ -29863,7 +29803,7 @@
         <v>50.375080750000002</v>
       </c>
       <c r="AC265">
-        <v>50.375080750000002</v>
+        <v>-3.8229361944677298</v>
       </c>
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.25">
@@ -29928,7 +29868,7 @@
         <v>51.055632899999999</v>
       </c>
       <c r="AC266">
-        <v>51.055632899999999</v>
+        <v>0.99412411332960504</v>
       </c>
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.25">
@@ -29963,7 +29903,7 @@
         <v>2242</v>
       </c>
       <c r="S267" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="T267">
         <v>373</v>
@@ -29993,7 +29933,7 @@
         <v>53.40441483</v>
       </c>
       <c r="AC267">
-        <v>53.40441483</v>
+        <v>-1.5503791232830799</v>
       </c>
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.25">
@@ -30031,7 +29971,7 @@
         <v>2252</v>
       </c>
       <c r="S268" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="T268">
         <v>342</v>
@@ -30061,7 +30001,7 @@
         <v>53.459472640000001</v>
       </c>
       <c r="AC268">
-        <v>53.459472640000001</v>
+        <v>-2.7236205816115402</v>
       </c>
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.25">
@@ -30120,7 +30060,7 @@
         <v>52.788523009999999</v>
       </c>
       <c r="AC269">
-        <v>52.788523009999999</v>
+        <v>-3.2290793457714399E-2</v>
       </c>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.25">
@@ -30158,7 +30098,7 @@
         <v>2270</v>
       </c>
       <c r="S270" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="T270">
         <v>893</v>
@@ -30188,7 +30128,7 @@
         <v>52.63490144</v>
       </c>
       <c r="AC270">
-        <v>52.63490144</v>
+        <v>-2.73405297283644</v>
       </c>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.25">
@@ -30247,7 +30187,7 @@
         <v>52.854291070000002</v>
       </c>
       <c r="AC271">
-        <v>52.854291070000002</v>
+        <v>-0.51784258112992498</v>
       </c>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.25">
@@ -30282,7 +30222,7 @@
         <v>2287</v>
       </c>
       <c r="S272" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="T272">
         <v>356</v>
@@ -30312,7 +30252,7 @@
         <v>53.393961349999998</v>
       </c>
       <c r="AC272">
-        <v>53.393961349999998</v>
+        <v>-2.1281087509678298</v>
       </c>
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.25">
@@ -30371,7 +30311,7 @@
         <v>54.312475849999998</v>
       </c>
       <c r="AC273">
-        <v>54.312475849999998</v>
+        <v>-2.85007636867961</v>
       </c>
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.25">
@@ -30406,7 +30346,7 @@
         <v>2304</v>
       </c>
       <c r="S274" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="T274">
         <v>355</v>
@@ -30436,7 +30376,7 @@
         <v>53.489538889999999</v>
       </c>
       <c r="AC274">
-        <v>53.489538889999999</v>
+        <v>-2.3701907477397399</v>
       </c>
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.25">
@@ -30474,7 +30414,7 @@
         <v>2314</v>
       </c>
       <c r="S275" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="T275">
         <v>871</v>
@@ -30504,7 +30444,7 @@
         <v>51.508399429999997</v>
       </c>
       <c r="AC275">
-        <v>51.508399429999997</v>
+        <v>-0.586234662289148</v>
       </c>
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.25">
@@ -30539,7 +30479,7 @@
         <v>2323</v>
       </c>
       <c r="S276" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="T276">
         <v>394</v>
@@ -30569,7 +30509,7 @@
         <v>54.879925980000003</v>
       </c>
       <c r="AC276">
-        <v>54.879925980000003</v>
+        <v>-1.45195283365534</v>
       </c>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.25">
@@ -30628,7 +30568,7 @@
         <v>52.514557070000002</v>
       </c>
       <c r="AC277">
-        <v>52.514557070000002</v>
+        <v>1.2759971899167799</v>
       </c>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.25">
@@ -30687,7 +30627,7 @@
         <v>52.12265154</v>
       </c>
       <c r="AC278">
-        <v>52.12265154</v>
+        <v>-1.04288891982992</v>
       </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.25">
@@ -30722,7 +30662,7 @@
         <v>2348</v>
       </c>
       <c r="S279" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="T279">
         <v>334</v>
@@ -30752,7 +30692,7 @@
         <v>52.413116619999997</v>
       </c>
       <c r="AC279">
-        <v>52.413116619999997</v>
+        <v>-1.72707700878563</v>
       </c>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.25">
@@ -30784,7 +30724,7 @@
         <v>2356</v>
       </c>
       <c r="S280" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="T280">
         <v>933</v>
@@ -30849,7 +30789,7 @@
         <v>2366</v>
       </c>
       <c r="S281" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="T281">
         <v>882</v>
@@ -30879,7 +30819,7 @@
         <v>51.547730729999998</v>
       </c>
       <c r="AC281">
-        <v>51.547730729999998</v>
+        <v>0.72869135579069699</v>
       </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.25">
@@ -30938,7 +30878,7 @@
         <v>51.633749379999998</v>
       </c>
       <c r="AC282">
-        <v>51.633749379999998</v>
+        <v>-1.07140821432959</v>
       </c>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.25">
@@ -30997,7 +30937,7 @@
         <v>51.424802550000003</v>
       </c>
       <c r="AC283">
-        <v>51.424802550000003</v>
+        <v>-0.46798353846267798</v>
       </c>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.25">
@@ -31056,7 +30996,7 @@
         <v>53.727990699999999</v>
       </c>
       <c r="AC284">
-        <v>53.727990699999999</v>
+        <v>-2.7102579722904498</v>
       </c>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.25">
@@ -31088,7 +31028,7 @@
         <v>2398</v>
       </c>
       <c r="S285" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="T285">
         <v>936</v>
@@ -31171,7 +31111,7 @@
         <v>50.988148420000002</v>
       </c>
       <c r="AC286">
-        <v>50.988148420000002</v>
+        <v>-2.70989034157054</v>
       </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.25">
@@ -31230,7 +31170,7 @@
         <v>52.62539597</v>
       </c>
       <c r="AC287">
-        <v>52.62539597</v>
+        <v>-2.1768091357562098</v>
       </c>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.25">
@@ -31289,7 +31229,7 @@
         <v>52.848153519999997</v>
       </c>
       <c r="AC288">
-        <v>52.848153519999997</v>
+        <v>-2.17649681212928</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.25">
@@ -31327,7 +31267,7 @@
         <v>2431</v>
       </c>
       <c r="S289" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="T289">
         <v>861</v>
@@ -31357,7 +31297,7 @@
         <v>53.018019160000001</v>
       </c>
       <c r="AC289">
-        <v>53.018019160000001</v>
+        <v>-2.1645283464811702</v>
       </c>
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.25">
@@ -31416,7 +31356,7 @@
         <v>53.0793149</v>
       </c>
       <c r="AC290">
-        <v>53.0793149</v>
+        <v>-1.98125403204151</v>
       </c>
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.25">
@@ -31454,7 +31394,7 @@
         <v>2449</v>
       </c>
       <c r="S291" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="T291">
         <v>852</v>
@@ -31484,7 +31424,7 @@
         <v>50.919913970000003</v>
       </c>
       <c r="AC291">
-        <v>50.919913970000003</v>
+        <v>-1.39871369539267</v>
       </c>
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.25">
@@ -31543,7 +31483,7 @@
         <v>51.362088870000001</v>
       </c>
       <c r="AC292">
-        <v>51.362088870000001</v>
+        <v>-0.17757021668369599</v>
       </c>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.25">
@@ -31602,7 +31542,7 @@
         <v>51.728496249999999</v>
       </c>
       <c r="AC293">
-        <v>51.728496249999999</v>
+        <v>-2.3001467834814702</v>
       </c>
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.25">
@@ -31661,7 +31601,7 @@
         <v>52.178785740000002</v>
       </c>
       <c r="AC294">
-        <v>52.178785740000002</v>
+        <v>-1.62283893738364</v>
       </c>
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.25">
@@ -31693,7 +31633,7 @@
         <v>2481</v>
       </c>
       <c r="S295" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="T295">
         <v>860</v>
@@ -31758,7 +31698,7 @@
         <v>2491</v>
       </c>
       <c r="S296" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="T296">
         <v>808</v>
@@ -31788,7 +31728,7 @@
         <v>54.561578490000002</v>
       </c>
       <c r="AC296">
-        <v>54.561578490000002</v>
+        <v>-1.32897995507878</v>
       </c>
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.25">
@@ -31850,7 +31790,7 @@
         <v>51.904335359999997</v>
       </c>
       <c r="AC297">
-        <v>51.904335359999997</v>
+        <v>-0.189332334990787</v>
       </c>
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.25">
@@ -31885,7 +31825,7 @@
         <v>2509</v>
       </c>
       <c r="S298" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="T298">
         <v>393</v>
@@ -31915,7 +31855,7 @@
         <v>54.962746279999998</v>
       </c>
       <c r="AC298">
-        <v>54.962746279999998</v>
+        <v>-1.4442525340164001</v>
       </c>
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.25">
@@ -31976,12 +31916,6 @@
       <c r="AA299">
         <v>381</v>
       </c>
-      <c r="AB299">
-        <v>52.165017849999998</v>
-      </c>
-      <c r="AC299">
-        <v>52.165017849999998</v>
-      </c>
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -32039,7 +31973,7 @@
         <v>51.342928389999997</v>
       </c>
       <c r="AC300">
-        <v>51.342928389999997</v>
+        <v>-0.670548578569375</v>
       </c>
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.25">
@@ -32077,7 +32011,7 @@
         <v>2535</v>
       </c>
       <c r="S301" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="T301">
         <v>866</v>
@@ -32107,7 +32041,7 @@
         <v>51.57151811</v>
       </c>
       <c r="AC301">
-        <v>51.57151811</v>
+        <v>-1.74381282954794</v>
       </c>
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.25">
@@ -32166,7 +32100,7 @@
         <v>51.473137510000001</v>
       </c>
       <c r="AC302">
-        <v>51.473137510000001</v>
+        <v>-7.4056169834462102E-2</v>
       </c>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.25">
@@ -32225,7 +32159,7 @@
         <v>51.33565918</v>
       </c>
       <c r="AC303">
-        <v>51.33565918</v>
+        <v>0.813219656271712</v>
       </c>
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.25">
@@ -32262,6 +32196,9 @@
       <c r="U304">
         <v>411</v>
       </c>
+      <c r="AC304">
+        <v>-3.3625758803201502</v>
+      </c>
     </row>
     <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
@@ -32295,7 +32232,7 @@
         <v>2560</v>
       </c>
       <c r="S305" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="T305">
         <v>357</v>
@@ -32325,7 +32262,7 @@
         <v>53.477471940000001</v>
       </c>
       <c r="AC305">
-        <v>53.477471940000001</v>
+        <v>-2.06281384080734</v>
       </c>
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.25">
@@ -32384,7 +32321,7 @@
         <v>51.227032139999999</v>
       </c>
       <c r="AC306">
-        <v>51.227032139999999</v>
+        <v>-4.3406638690371799E-2</v>
       </c>
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.25">
@@ -32445,12 +32382,6 @@
       <c r="AA307">
         <v>392</v>
       </c>
-      <c r="AB307">
-        <v>51.0105146</v>
-      </c>
-      <c r="AC307">
-        <v>51.0105146</v>
-      </c>
     </row>
     <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -32508,7 +32439,7 @@
         <v>52.626428249999996</v>
       </c>
       <c r="AC308">
-        <v>52.626428249999996</v>
+        <v>-1.6778453301552601</v>
       </c>
     </row>
     <row r="309" spans="1:29" x14ac:dyDescent="0.25">
@@ -32567,7 +32498,7 @@
         <v>50.60655071</v>
       </c>
       <c r="AC309">
-        <v>50.60655071</v>
+        <v>-3.6567559949466601</v>
       </c>
     </row>
     <row r="310" spans="1:29" x14ac:dyDescent="0.25">
@@ -32626,7 +32557,7 @@
         <v>51.87034147</v>
       </c>
       <c r="AC310">
-        <v>51.87034147</v>
+        <v>1.1150094479463799</v>
       </c>
     </row>
     <row r="311" spans="1:29" x14ac:dyDescent="0.25">
@@ -32685,7 +32616,7 @@
         <v>51.128445020000001</v>
       </c>
       <c r="AC311">
-        <v>51.128445020000001</v>
+        <v>-1.5106533665965201</v>
       </c>
     </row>
     <row r="312" spans="1:29" x14ac:dyDescent="0.25">
@@ -32744,7 +32675,7 @@
         <v>51.94573844</v>
       </c>
       <c r="AC312">
-        <v>51.94573844</v>
+        <v>-2.08744455338184</v>
       </c>
     </row>
     <row r="313" spans="1:29" x14ac:dyDescent="0.25">
@@ -32785,7 +32716,7 @@
         <v>2627</v>
       </c>
       <c r="S313" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="T313">
         <v>894</v>
@@ -32815,7 +32746,7 @@
         <v>52.730194990000001</v>
       </c>
       <c r="AC313">
-        <v>52.730194990000001</v>
+        <v>-2.4887952473460202</v>
       </c>
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.25">
@@ -32874,7 +32805,7 @@
         <v>51.354348109999997</v>
       </c>
       <c r="AC314">
-        <v>51.354348109999997</v>
+        <v>1.3405526779310999</v>
       </c>
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.25">
@@ -32933,7 +32864,7 @@
         <v>51.660966469999998</v>
       </c>
       <c r="AC315">
-        <v>51.660966469999998</v>
+        <v>-0.460598678152911</v>
       </c>
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.25">
@@ -32971,7 +32902,7 @@
         <v>2653</v>
       </c>
       <c r="S316" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="T316">
         <v>883</v>
@@ -33001,7 +32932,7 @@
         <v>51.509109189999997</v>
       </c>
       <c r="AC316">
-        <v>51.509109189999997</v>
+        <v>0.373108306637151</v>
       </c>
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.25">
@@ -33039,7 +32970,7 @@
         <v>2663</v>
       </c>
       <c r="S317" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="T317">
         <v>880</v>
@@ -33069,7 +33000,7 @@
         <v>50.441723750000001</v>
       </c>
       <c r="AC317">
-        <v>50.441723750000001</v>
+        <v>-3.53020277442742</v>
       </c>
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.25">
@@ -33131,7 +33062,7 @@
         <v>51.273416490000002</v>
       </c>
       <c r="AC318">
-        <v>51.273416490000002</v>
+        <v>0.357837154125004</v>
       </c>
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.25">
@@ -33190,7 +33121,7 @@
         <v>50.88593951</v>
       </c>
       <c r="AC319">
-        <v>50.88593951</v>
+        <v>-4.2488527797753202</v>
       </c>
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.25">
@@ -33225,7 +33156,7 @@
         <v>2689</v>
       </c>
       <c r="S320" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="T320">
         <v>358</v>
@@ -33255,7 +33186,7 @@
         <v>53.418996190000001</v>
       </c>
       <c r="AC320">
-        <v>53.418996190000001</v>
+        <v>-2.3553497197990101</v>
       </c>
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.25">
@@ -33314,7 +33245,7 @@
         <v>51.11439773</v>
       </c>
       <c r="AC321">
-        <v>51.11439773</v>
+        <v>0.43082466120681001</v>
       </c>
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.25">
@@ -33393,7 +33324,7 @@
         <v>51.517163259999997</v>
       </c>
       <c r="AC323">
-        <v>51.517163259999997</v>
+        <v>-3.4657444542099701E-2</v>
       </c>
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.25">
@@ -33452,7 +33383,7 @@
         <v>51.9346003</v>
       </c>
       <c r="AC324">
-        <v>51.9346003</v>
+        <v>0.279804820777248</v>
       </c>
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.25">
@@ -33511,7 +33442,7 @@
         <v>51.634232840000003</v>
       </c>
       <c r="AC325">
-        <v>51.634232840000003</v>
+        <v>-1.4416684895262699</v>
       </c>
     </row>
     <row r="326" spans="1:29" x14ac:dyDescent="0.25">
@@ -33570,7 +33501,7 @@
         <v>51.149829189999998</v>
       </c>
       <c r="AC326">
-        <v>51.149829189999998</v>
+        <v>-0.63266617343135401</v>
       </c>
     </row>
     <row r="327" spans="1:29" x14ac:dyDescent="0.25">
@@ -33602,7 +33533,7 @@
         <v>2737</v>
       </c>
       <c r="S327" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="T327">
         <v>937</v>
@@ -33685,7 +33616,7 @@
         <v>51.668106710000004</v>
       </c>
       <c r="AC328">
-        <v>51.668106710000004</v>
+        <v>-0.40335198756146401</v>
       </c>
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.25">
@@ -33746,12 +33677,6 @@
       <c r="AA329">
         <v>419</v>
       </c>
-      <c r="AB329">
-        <v>52.418748630000003</v>
-      </c>
-      <c r="AC329">
-        <v>52.418748630000003</v>
-      </c>
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -33809,7 +33734,7 @@
         <v>52.310002769999997</v>
       </c>
       <c r="AC330">
-        <v>52.310002769999997</v>
+        <v>-1.58466508699511</v>
       </c>
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.25">
@@ -33847,7 +33772,7 @@
         <v>2770</v>
       </c>
       <c r="S331" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="T331">
         <v>869</v>
@@ -33877,7 +33802,7 @@
         <v>51.449628580000002</v>
       </c>
       <c r="AC331">
-        <v>51.449628580000002</v>
+        <v>-1.3044355560511001</v>
       </c>
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.25">
@@ -33936,7 +33861,7 @@
         <v>50.656728209999997</v>
       </c>
       <c r="AC332">
-        <v>50.656728209999997</v>
+        <v>-4.0462162110289803</v>
       </c>
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.25">
@@ -33997,12 +33922,6 @@
       <c r="AA333">
         <v>427</v>
       </c>
-      <c r="AB333">
-        <v>50.78524865</v>
-      </c>
-      <c r="AC333">
-        <v>50.78524865</v>
-      </c>
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -34060,7 +33979,7 @@
         <v>50.967632909999999</v>
       </c>
       <c r="AC334">
-        <v>50.967632909999999</v>
+        <v>0.19865335020727201</v>
       </c>
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.25">
@@ -34142,7 +34061,7 @@
         <v>52.287784619999996</v>
       </c>
       <c r="AC336">
-        <v>52.287784619999996</v>
+        <v>-0.71233980443257905</v>
       </c>
     </row>
     <row r="337" spans="1:29" x14ac:dyDescent="0.25">
@@ -34204,7 +34123,7 @@
         <v>51.766888829999999</v>
       </c>
       <c r="AC337">
-        <v>51.766888829999999</v>
+        <v>-0.19408512068214201</v>
       </c>
     </row>
     <row r="338" spans="1:29" x14ac:dyDescent="0.25">
@@ -34268,12 +34187,6 @@
       <c r="AA338">
         <v>434</v>
       </c>
-      <c r="AB338">
-        <v>50.610250069999999</v>
-      </c>
-      <c r="AC338">
-        <v>50.610250069999999</v>
-      </c>
     </row>
     <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -34331,7 +34244,7 @@
         <v>51.59402206</v>
       </c>
       <c r="AC339">
-        <v>51.59402206</v>
+        <v>-1.26453221779957E-2</v>
       </c>
     </row>
     <row r="340" spans="1:29" x14ac:dyDescent="0.25">
@@ -34366,7 +34279,7 @@
         <v>2837</v>
       </c>
       <c r="S340" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="T340">
         <v>359</v>
@@ -34396,7 +34309,7 @@
         <v>53.524149260000002</v>
       </c>
       <c r="AC340">
-        <v>53.524149260000002</v>
+        <v>-2.5895088338873</v>
       </c>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.25">
@@ -34434,7 +34347,7 @@
         <v>2847</v>
       </c>
       <c r="S341" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="T341">
         <v>865</v>
@@ -34464,7 +34377,7 @@
         <v>51.297115810000001</v>
       </c>
       <c r="AC341">
-        <v>51.297115810000001</v>
+        <v>-1.94460788203187</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.25">
@@ -34523,7 +34436,7 @@
         <v>51.028181269999997</v>
       </c>
       <c r="AC342">
-        <v>51.028181269999997</v>
+        <v>-1.2210742603696001</v>
       </c>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.25">
@@ -34558,7 +34471,7 @@
         <v>2864</v>
       </c>
       <c r="S343" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="T343">
         <v>384</v>
@@ -34588,7 +34501,7 @@
         <v>53.660675089999998</v>
       </c>
       <c r="AC343">
-        <v>53.660675089999998</v>
+        <v>-1.4118077319906499</v>
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.25">
@@ -34647,7 +34560,7 @@
         <v>53.599251270000003</v>
       </c>
       <c r="AC344">
-        <v>53.599251270000003</v>
+        <v>-2.8826587441298099</v>
       </c>
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.25">
@@ -34706,7 +34619,7 @@
         <v>53.39277242</v>
       </c>
       <c r="AC345">
-        <v>53.39277242</v>
+        <v>-0.477114657614783</v>
       </c>
     </row>
     <row r="346" spans="1:29" x14ac:dyDescent="0.25">
@@ -34741,7 +34654,7 @@
         <v>2889</v>
       </c>
       <c r="S346" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="T346">
         <v>335</v>
@@ -34771,7 +34684,7 @@
         <v>52.599255919999997</v>
       </c>
       <c r="AC346">
-        <v>52.599255919999997</v>
+        <v>-1.9663478518608499</v>
       </c>
     </row>
     <row r="347" spans="1:29" x14ac:dyDescent="0.25">
@@ -34806,7 +34719,7 @@
         <v>2898</v>
       </c>
       <c r="S347" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="T347">
         <v>336</v>
@@ -34836,7 +34749,7 @@
         <v>52.589190510000002</v>
       </c>
       <c r="AC347">
-        <v>52.589190510000002</v>
+        <v>-2.1209914536093502</v>
       </c>
     </row>
     <row r="348" spans="1:29" x14ac:dyDescent="0.25">
@@ -34918,7 +34831,7 @@
         <v>51.4513538</v>
       </c>
       <c r="AC349">
-        <v>51.4513538</v>
+        <v>-0.186190160336486</v>
       </c>
     </row>
     <row r="350" spans="1:29" x14ac:dyDescent="0.25">
@@ -34956,7 +34869,7 @@
         <v>2916</v>
       </c>
       <c r="S350" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="T350">
         <v>868</v>
@@ -34986,7 +34899,7 @@
         <v>51.485672090000001</v>
       </c>
       <c r="AC350">
-        <v>51.485672090000001</v>
+        <v>-0.69947832145465305</v>
       </c>
     </row>
     <row r="351" spans="1:29" x14ac:dyDescent="0.25">
@@ -35045,7 +34958,7 @@
         <v>52.196692669999997</v>
       </c>
       <c r="AC351">
-        <v>52.196692669999997</v>
+        <v>-2.2113242238437398</v>
       </c>
     </row>
     <row r="352" spans="1:29" x14ac:dyDescent="0.25">
@@ -35104,7 +35017,7 @@
         <v>51.313878629999998</v>
       </c>
       <c r="AC352">
-        <v>51.313878629999998</v>
+        <v>-0.56077011732615101</v>
       </c>
     </row>
     <row r="353" spans="1:29" x14ac:dyDescent="0.25">
@@ -35142,7 +35055,7 @@
         <v>2942</v>
       </c>
       <c r="S353" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="T353">
         <v>872</v>
@@ -35172,7 +35085,7 @@
         <v>51.429405969999998</v>
       </c>
       <c r="AC353">
-        <v>51.429405969999998</v>
+        <v>-0.88384218537428105</v>
       </c>
     </row>
     <row r="354" spans="1:29" x14ac:dyDescent="0.25">
@@ -35204,7 +35117,7 @@
         <v>2950</v>
       </c>
       <c r="S354" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="T354">
         <v>885</v>
@@ -35290,7 +35203,7 @@
         <v>50.830045920000003</v>
       </c>
       <c r="AC355">
-        <v>50.830045920000003</v>
+        <v>-0.39581200189250598</v>
       </c>
     </row>
     <row r="356" spans="1:29" x14ac:dyDescent="0.25">
@@ -35349,7 +35262,7 @@
         <v>51.837569809999998</v>
       </c>
       <c r="AC356">
-        <v>51.837569809999998</v>
+        <v>-1.5069302321045699</v>
       </c>
     </row>
     <row r="357" spans="1:29" x14ac:dyDescent="0.25">
@@ -35384,7 +35297,7 @@
         <v>2974</v>
       </c>
       <c r="S357" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="T357">
         <v>344</v>
@@ -35414,7 +35327,7 @@
         <v>53.363285189999999</v>
       </c>
       <c r="AC357">
-        <v>53.363285189999999</v>
+        <v>-3.09257525015963</v>
       </c>
     </row>
     <row r="358" spans="1:29" x14ac:dyDescent="0.25">
@@ -35452,7 +35365,7 @@
         <v>2984</v>
       </c>
       <c r="S358" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="T358">
         <v>877</v>
@@ -35482,7 +35395,7 @@
         <v>53.399097859999998</v>
       </c>
       <c r="AC358">
-        <v>53.399097859999998</v>
+        <v>-2.56362586747675</v>
       </c>
     </row>
     <row r="359" spans="1:29" x14ac:dyDescent="0.25">
@@ -35516,6 +35429,9 @@
       <c r="U359">
         <v>410</v>
       </c>
+      <c r="AC359">
+        <v>0.62207831122558699</v>
+      </c>
     </row>
     <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
@@ -35573,7 +35489,7 @@
         <v>51.513897700000001</v>
       </c>
       <c r="AC360">
-        <v>51.513897700000001</v>
+        <v>-0.16045950038840301</v>
       </c>
     </row>
     <row r="361" spans="1:29" x14ac:dyDescent="0.25">
@@ -35634,12 +35550,6 @@
       <c r="AA361">
         <v>647</v>
       </c>
-      <c r="AB361">
-        <v>51.131861110000003</v>
-      </c>
-      <c r="AC361">
-        <v>51.131861110000003</v>
-      </c>
     </row>
     <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -35670,7 +35580,7 @@
         <v>3008</v>
       </c>
       <c r="S362" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="T362">
         <v>938</v>
@@ -35753,7 +35663,7 @@
         <v>52.164187310000003</v>
       </c>
       <c r="AC363">
-        <v>52.164187310000003</v>
+        <v>-2.0508165247066201</v>
       </c>
     </row>
     <row r="364" spans="1:29" x14ac:dyDescent="0.25">
@@ -35812,7 +35722,7 @@
         <v>52.379576540000002</v>
       </c>
       <c r="AC364">
-        <v>52.379576540000002</v>
+        <v>-2.2746669467274199</v>
       </c>
     </row>
     <row r="365" spans="1:29" x14ac:dyDescent="0.25">
@@ -35873,12 +35783,6 @@
       <c r="AA365">
         <v>446</v>
       </c>
-      <c r="AB365">
-        <v>51.649193629999999</v>
-      </c>
-      <c r="AC365">
-        <v>51.649193629999999</v>
-      </c>
     </row>
     <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -35936,7 +35840,7 @@
         <v>53.897111610000003</v>
       </c>
       <c r="AC366">
-        <v>53.897111610000003</v>
+        <v>-2.8538694979818602</v>
       </c>
     </row>
     <row r="367" spans="1:29" x14ac:dyDescent="0.25">
@@ -35974,7 +35878,7 @@
         <v>3049</v>
       </c>
       <c r="S367" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="T367">
         <v>816</v>
@@ -36004,7 +35908,7 @@
         <v>53.958741230000001</v>
       </c>
       <c r="AC367">
-        <v>53.958741230000001</v>
+        <v>-1.0614499339671399</v>
       </c>
     </row>
     <row r="368" spans="1:29" x14ac:dyDescent="0.25">
@@ -37024,7 +36928,7 @@
         <v>3263</v>
       </c>
       <c r="S404" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="U404">
         <v>296</v>
@@ -37045,7 +36949,7 @@
         <v>57.24072675</v>
       </c>
       <c r="AC404">
-        <v>57.24072675</v>
+        <v>-2.6320254568961299</v>
       </c>
     </row>
     <row r="405" spans="1:29" x14ac:dyDescent="0.25">
@@ -37074,7 +36978,7 @@
         <v>3271</v>
       </c>
       <c r="S405" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="U405">
         <v>295</v>
@@ -37095,7 +36999,7 @@
         <v>57.157135670000002</v>
       </c>
       <c r="AC405">
-        <v>57.157135670000002</v>
+        <v>-2.1736372108922302</v>
       </c>
     </row>
     <row r="406" spans="1:29" x14ac:dyDescent="0.25">
@@ -37124,7 +37028,7 @@
         <v>3279</v>
       </c>
       <c r="S406" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="U406">
         <v>298</v>
@@ -37145,7 +37049,7 @@
         <v>56.121681529999996</v>
       </c>
       <c r="AC406">
-        <v>56.121681529999996</v>
+        <v>-5.2161559340253296</v>
       </c>
     </row>
     <row r="407" spans="1:29" x14ac:dyDescent="0.25">
@@ -37174,7 +37078,7 @@
         <v>3287</v>
       </c>
       <c r="S407" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="U407">
         <v>297</v>
@@ -37195,7 +37099,7 @@
         <v>56.724654049999998</v>
       </c>
       <c r="AC407">
-        <v>56.724654049999998</v>
+        <v>-2.9173012654216701</v>
       </c>
     </row>
     <row r="408" spans="1:29" x14ac:dyDescent="0.25">
@@ -37224,7 +37128,7 @@
         <v>3295</v>
       </c>
       <c r="S408" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="U408">
         <v>299</v>
@@ -37245,7 +37149,7 @@
         <v>56.152075750000002</v>
       </c>
       <c r="AC408">
-        <v>56.152075750000002</v>
+        <v>-3.7422224090000902</v>
       </c>
     </row>
     <row r="409" spans="1:29" x14ac:dyDescent="0.25">
@@ -37277,7 +37181,7 @@
         <v>3304</v>
       </c>
       <c r="S409" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="U409">
         <v>300</v>
@@ -37298,7 +37202,7 @@
         <v>55.077665860000003</v>
       </c>
       <c r="AC409">
-        <v>55.077665860000003</v>
+        <v>-3.9593418402573399</v>
       </c>
     </row>
     <row r="410" spans="1:29" x14ac:dyDescent="0.25">
@@ -37327,7 +37231,7 @@
         <v>3312</v>
       </c>
       <c r="S410" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="U410">
         <v>301</v>
@@ -37348,7 +37252,7 @@
         <v>56.477985760000003</v>
       </c>
       <c r="AC410">
-        <v>56.477985760000003</v>
+        <v>-2.9695507392012699</v>
       </c>
     </row>
     <row r="411" spans="1:29" x14ac:dyDescent="0.25">
@@ -37377,7 +37281,7 @@
         <v>3320</v>
       </c>
       <c r="S411" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="U411">
         <v>302</v>
@@ -37398,7 +37302,7 @@
         <v>55.485006990000002</v>
       </c>
       <c r="AC411">
-        <v>55.485006990000002</v>
+        <v>-4.3142015194398802</v>
       </c>
     </row>
     <row r="412" spans="1:29" x14ac:dyDescent="0.25">
@@ -37427,7 +37331,7 @@
         <v>3328</v>
       </c>
       <c r="S412" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="U412">
         <v>306</v>
@@ -37448,7 +37352,7 @@
         <v>55.924282789999999</v>
       </c>
       <c r="AC412">
-        <v>55.924282789999999</v>
+        <v>-3.2883920016089001</v>
       </c>
     </row>
     <row r="413" spans="1:29" x14ac:dyDescent="0.25">
@@ -37480,7 +37384,7 @@
         <v>3337</v>
       </c>
       <c r="S413" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="U413">
         <v>303</v>
@@ -37501,7 +37405,7 @@
         <v>55.956033840000003</v>
       </c>
       <c r="AC413">
-        <v>55.956033840000003</v>
+        <v>-4.2255597323538296</v>
       </c>
     </row>
     <row r="414" spans="1:29" x14ac:dyDescent="0.25">
@@ -37530,7 +37434,7 @@
         <v>3345</v>
       </c>
       <c r="S414" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="U414">
         <v>304</v>
@@ -37551,7 +37455,7 @@
         <v>55.939847360000002</v>
       </c>
       <c r="AC414">
-        <v>55.939847360000002</v>
+        <v>-2.72088790105995</v>
       </c>
     </row>
     <row r="415" spans="1:29" x14ac:dyDescent="0.25">
@@ -37586,7 +37490,7 @@
         <v>3355</v>
       </c>
       <c r="S415" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="U415">
         <v>307</v>
@@ -37607,7 +37511,7 @@
         <v>57.922294389999998</v>
       </c>
       <c r="AC415">
-        <v>57.922294389999998</v>
+        <v>-6.6727812366699801</v>
       </c>
     </row>
     <row r="416" spans="1:29" x14ac:dyDescent="0.25">
@@ -37636,7 +37540,7 @@
         <v>3363</v>
       </c>
       <c r="S416" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="U416">
         <v>305</v>
@@ -37657,7 +37561,7 @@
         <v>55.753140160000001</v>
       </c>
       <c r="AC416">
-        <v>55.753140160000001</v>
+        <v>-4.3595143451574803</v>
       </c>
     </row>
     <row r="417" spans="1:29" x14ac:dyDescent="0.25">
@@ -37686,7 +37590,7 @@
         <v>3371</v>
       </c>
       <c r="S417" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="U417">
         <v>308</v>
@@ -37707,7 +37611,7 @@
         <v>55.995194959999999</v>
       </c>
       <c r="AC417">
-        <v>55.995194959999999</v>
+        <v>-3.7906415337898101</v>
       </c>
     </row>
     <row r="418" spans="1:29" x14ac:dyDescent="0.25">
@@ -37739,7 +37643,7 @@
         <v>3379</v>
       </c>
       <c r="S418" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="U418">
         <v>309</v>
@@ -37760,7 +37664,7 @@
         <v>56.228451200000002</v>
       </c>
       <c r="AC418">
-        <v>56.228451200000002</v>
+        <v>-3.1243518319000199</v>
       </c>
     </row>
     <row r="419" spans="1:29" x14ac:dyDescent="0.25">
@@ -37792,7 +37696,7 @@
         <v>4112</v>
       </c>
       <c r="S419" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="U419">
         <v>310</v>
@@ -37813,7 +37717,7 @@
         <v>55.857841710000002</v>
       </c>
       <c r="AC419">
-        <v>55.857841710000002</v>
+        <v>-4.2531185815445198</v>
       </c>
     </row>
     <row r="420" spans="1:29" x14ac:dyDescent="0.25">
@@ -37845,7 +37749,7 @@
         <v>3395</v>
       </c>
       <c r="S420" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="U420">
         <v>311</v>
@@ -37866,7 +37770,7 @@
         <v>57.572502479999997</v>
       </c>
       <c r="AC420">
-        <v>57.572502479999997</v>
+        <v>-6.5410206557117796</v>
       </c>
     </row>
     <row r="421" spans="1:29" x14ac:dyDescent="0.25">
@@ -37895,7 +37799,7 @@
         <v>3403</v>
       </c>
       <c r="S421" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="U421">
         <v>312</v>
@@ -37916,7 +37820,7 @@
         <v>55.90118683</v>
       </c>
       <c r="AC421">
-        <v>55.90118683</v>
+        <v>-4.7426698710190003</v>
       </c>
     </row>
     <row r="422" spans="1:29" x14ac:dyDescent="0.25">
@@ -37945,7 +37849,7 @@
         <v>3411</v>
       </c>
       <c r="S422" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="U422">
         <v>313</v>
@@ -37966,7 +37870,7 @@
         <v>55.83222456</v>
       </c>
       <c r="AC422">
-        <v>55.83222456</v>
+        <v>-3.1104195114441802</v>
       </c>
     </row>
     <row r="423" spans="1:29" x14ac:dyDescent="0.25">
@@ -37998,7 +37902,7 @@
         <v>3420</v>
       </c>
       <c r="S423" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="U423">
         <v>314</v>
@@ -38019,7 +37923,7 @@
         <v>57.47383971</v>
       </c>
       <c r="AC423">
-        <v>57.47383971</v>
+        <v>-3.2675085733413902</v>
       </c>
     </row>
     <row r="424" spans="1:29" x14ac:dyDescent="0.25">
@@ -38048,7 +37952,7 @@
         <v>3428</v>
       </c>
       <c r="S424" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="U424">
         <v>315</v>
@@ -38069,7 +37973,7 @@
         <v>55.65105277</v>
       </c>
       <c r="AC424">
-        <v>55.65105277</v>
+        <v>-4.7318068826625499</v>
       </c>
     </row>
     <row r="425" spans="1:29" x14ac:dyDescent="0.25">
@@ -38101,7 +38005,7 @@
         <v>3436</v>
       </c>
       <c r="S425" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="U425">
         <v>316</v>
@@ -38122,7 +38026,7 @@
         <v>55.874755759999999</v>
       </c>
       <c r="AC425">
-        <v>55.874755759999999</v>
+        <v>-3.9482525144777099</v>
       </c>
     </row>
     <row r="426" spans="1:29" x14ac:dyDescent="0.25">
@@ -38151,7 +38055,7 @@
         <v>3444</v>
       </c>
       <c r="S426" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="U426">
         <v>317</v>
@@ -38172,7 +38076,7 @@
         <v>59.024298979999998</v>
       </c>
       <c r="AC426">
-        <v>59.024298979999998</v>
+        <v>-2.79660744400323</v>
       </c>
     </row>
     <row r="427" spans="1:29" x14ac:dyDescent="0.25">
@@ -38204,7 +38108,7 @@
         <v>3452</v>
       </c>
       <c r="S427" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="U427">
         <v>318</v>
@@ -38225,7 +38129,7 @@
         <v>56.566487930000001</v>
       </c>
       <c r="AC427">
-        <v>56.566487930000001</v>
+        <v>-3.81895374279111</v>
       </c>
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.25">
@@ -38254,7 +38158,7 @@
         <v>3460</v>
       </c>
       <c r="S428" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="U428">
         <v>319</v>
@@ -38275,7 +38179,7 @@
         <v>55.845690689999998</v>
       </c>
       <c r="AC428">
-        <v>55.845690689999998</v>
+        <v>-4.5428045875510996</v>
       </c>
     </row>
     <row r="429" spans="1:29" x14ac:dyDescent="0.25">
@@ -38304,7 +38208,7 @@
         <v>3468</v>
       </c>
       <c r="S429" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="U429">
         <v>322</v>
@@ -38325,7 +38229,7 @@
         <v>55.267233480000002</v>
       </c>
       <c r="AC429">
-        <v>55.267233480000002</v>
+        <v>-4.6889262632352802</v>
       </c>
     </row>
     <row r="430" spans="1:29" x14ac:dyDescent="0.25">
@@ -38354,7 +38258,7 @@
         <v>3476</v>
       </c>
       <c r="S430" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="U430">
         <v>320</v>
@@ -38375,7 +38279,7 @@
         <v>55.576010199999999</v>
       </c>
       <c r="AC430">
-        <v>55.576010199999999</v>
+        <v>-2.7884684974713201</v>
       </c>
     </row>
     <row r="431" spans="1:29" x14ac:dyDescent="0.25">
@@ -38404,7 +38308,7 @@
         <v>3484</v>
       </c>
       <c r="S431" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="U431">
         <v>323</v>
@@ -38425,7 +38329,7 @@
         <v>55.612638609999998</v>
       </c>
       <c r="AC431">
-        <v>55.612638609999998</v>
+        <v>-3.8106358553200299</v>
       </c>
     </row>
     <row r="432" spans="1:29" x14ac:dyDescent="0.25">
@@ -38454,7 +38358,7 @@
         <v>3492</v>
       </c>
       <c r="S432" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="U432">
         <v>324</v>
@@ -38475,7 +38379,7 @@
         <v>56.244098080000001</v>
       </c>
       <c r="AC432">
-        <v>56.244098080000001</v>
+        <v>-4.34034032374697</v>
       </c>
     </row>
     <row r="433" spans="1:29" x14ac:dyDescent="0.25">
@@ -38504,7 +38408,7 @@
         <v>3500</v>
       </c>
       <c r="S433" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="U433">
         <v>325</v>
@@ -38525,7 +38429,7 @@
         <v>55.986489769999999</v>
       </c>
       <c r="AC433">
-        <v>55.986489769999999</v>
+        <v>-4.5176029554922001</v>
       </c>
     </row>
     <row r="434" spans="1:29" x14ac:dyDescent="0.25">
@@ -38554,7 +38458,7 @@
         <v>3508</v>
       </c>
       <c r="S434" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="U434">
         <v>326</v>
@@ -38575,7 +38479,7 @@
         <v>55.884234460000002</v>
       </c>
       <c r="AC434">
-        <v>55.884234460000002</v>
+        <v>-3.5737860466933999</v>
       </c>
     </row>
     <row r="435" spans="1:29" x14ac:dyDescent="0.25">
@@ -38604,7 +38508,7 @@
         <v>3516</v>
       </c>
       <c r="S435" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="U435">
         <v>321</v>
@@ -38625,7 +38529,7 @@
         <v>60.378935509999998</v>
       </c>
       <c r="AC435">
-        <v>60.378935509999998</v>
+        <v>-1.3441674209272401</v>
       </c>
     </row>
     <row r="436" spans="1:29" x14ac:dyDescent="0.25">
@@ -38663,7 +38567,7 @@
         <v>3528</v>
       </c>
       <c r="S436" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="U436">
         <v>392</v>
@@ -38684,7 +38588,7 @@
         <v>53.287263070000002</v>
       </c>
       <c r="AC436">
-        <v>53.287263070000002</v>
+        <v>-4.3745242143952199</v>
       </c>
     </row>
     <row r="437" spans="1:29" x14ac:dyDescent="0.25">
@@ -38722,7 +38626,7 @@
         <v>3538</v>
       </c>
       <c r="S437" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="U437">
         <v>383</v>
@@ -38743,7 +38647,7 @@
         <v>51.556929169999997</v>
       </c>
       <c r="AC437">
-        <v>51.556929169999997</v>
+        <v>-3.6003878013017698</v>
       </c>
     </row>
     <row r="438" spans="1:29" x14ac:dyDescent="0.25">
@@ -38781,7 +38685,7 @@
         <v>3547</v>
       </c>
       <c r="S438" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="U438">
         <v>382</v>
@@ -38802,7 +38706,7 @@
         <v>51.766739950000002</v>
       </c>
       <c r="AC438">
-        <v>51.766739950000002</v>
+        <v>-3.1938186287935002</v>
       </c>
     </row>
     <row r="439" spans="1:29" x14ac:dyDescent="0.25">
@@ -38840,7 +38744,7 @@
         <v>3557</v>
       </c>
       <c r="S439" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="U439">
         <v>384</v>
@@ -38861,7 +38765,7 @@
         <v>51.65327018</v>
       </c>
       <c r="AC439">
-        <v>51.65327018</v>
+        <v>-3.2048973242453598</v>
       </c>
     </row>
     <row r="440" spans="1:29" x14ac:dyDescent="0.25">
@@ -38899,7 +38803,7 @@
         <v>3566</v>
       </c>
       <c r="S440" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="U440">
         <v>387</v>
@@ -38920,7 +38824,7 @@
         <v>52.254108199999997</v>
       </c>
       <c r="AC440">
-        <v>52.254108199999997</v>
+        <v>-4.0731173568071002</v>
       </c>
     </row>
     <row r="441" spans="1:29" x14ac:dyDescent="0.25">
@@ -38958,7 +38862,7 @@
         <v>3576</v>
       </c>
       <c r="S441" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="U441">
         <v>386</v>
@@ -38979,7 +38883,7 @@
         <v>51.905049269999999</v>
       </c>
       <c r="AC441">
-        <v>51.905049269999999</v>
+        <v>-4.1631820382407696</v>
       </c>
     </row>
     <row r="442" spans="1:29" x14ac:dyDescent="0.25">
@@ -39020,7 +38924,7 @@
         <v>3587</v>
       </c>
       <c r="S442" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="U442">
         <v>385</v>
@@ -39041,7 +38945,7 @@
         <v>51.51006134</v>
       </c>
       <c r="AC442">
-        <v>51.51006134</v>
+        <v>-3.1997652808396699</v>
       </c>
     </row>
     <row r="443" spans="1:29" x14ac:dyDescent="0.25">
@@ -39079,7 +38983,7 @@
         <v>3596</v>
       </c>
       <c r="S443" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="U443">
         <v>388</v>
@@ -39100,7 +39004,7 @@
         <v>53.137869139999999</v>
       </c>
       <c r="AC443">
-        <v>53.137869139999999</v>
+        <v>-3.7364398723286598</v>
       </c>
     </row>
     <row r="444" spans="1:29" x14ac:dyDescent="0.25">
@@ -39138,7 +39042,7 @@
         <v>3606</v>
       </c>
       <c r="S444" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="U444">
         <v>389</v>
@@ -39159,7 +39063,7 @@
         <v>53.08963447</v>
       </c>
       <c r="AC444">
-        <v>53.08963447</v>
+        <v>-3.3541041522652799</v>
       </c>
     </row>
     <row r="445" spans="1:29" x14ac:dyDescent="0.25">
@@ -39197,7 +39101,7 @@
         <v>3616</v>
       </c>
       <c r="S445" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="U445">
         <v>390</v>
@@ -39218,7 +39122,7 @@
         <v>53.208188159999999</v>
       </c>
       <c r="AC445">
-        <v>53.208188159999999</v>
+        <v>-3.1631503565558798</v>
       </c>
     </row>
     <row r="446" spans="1:29" x14ac:dyDescent="0.25">
@@ -39256,7 +39160,7 @@
         <v>3625</v>
       </c>
       <c r="S446" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="U446">
         <v>391</v>
@@ -39277,7 +39181,7 @@
         <v>52.892839250000002</v>
       </c>
       <c r="AC446">
-        <v>52.892839250000002</v>
+        <v>-4.69786872585005</v>
       </c>
     </row>
     <row r="447" spans="1:29" x14ac:dyDescent="0.25">
@@ -39315,7 +39219,7 @@
         <v>3635</v>
       </c>
       <c r="S447" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="U447">
         <v>394</v>
@@ -39336,7 +39240,7 @@
         <v>51.76597889</v>
       </c>
       <c r="AC447">
-        <v>51.76597889</v>
+        <v>-2.86732879213604</v>
       </c>
     </row>
     <row r="448" spans="1:29" x14ac:dyDescent="0.25">
@@ -39374,7 +39278,7 @@
         <v>3645</v>
       </c>
       <c r="S448" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="U448">
         <v>393</v>
@@ -39395,7 +39299,7 @@
         <v>51.740941759999998</v>
       </c>
       <c r="AC448">
-        <v>51.740941759999998</v>
+        <v>-3.3610566541754499</v>
       </c>
     </row>
     <row r="449" spans="1:29" x14ac:dyDescent="0.25">
@@ -39433,7 +39337,7 @@
         <v>3655</v>
       </c>
       <c r="S449" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="U449">
         <v>395</v>
@@ -39454,7 +39358,7 @@
         <v>51.681488620000003</v>
       </c>
       <c r="AC449">
-        <v>51.681488620000003</v>
+        <v>-3.7433933101120802</v>
       </c>
     </row>
     <row r="450" spans="1:29" x14ac:dyDescent="0.25">
@@ -39492,7 +39396,7 @@
         <v>3665</v>
       </c>
       <c r="S450" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="U450">
         <v>396</v>
@@ -39513,7 +39417,7 @@
         <v>51.579330810000002</v>
       </c>
       <c r="AC450">
-        <v>51.579330810000002</v>
+        <v>-2.9617942281162999</v>
       </c>
     </row>
     <row r="451" spans="1:29" x14ac:dyDescent="0.25">
@@ -39551,7 +39455,7 @@
         <v>3675</v>
       </c>
       <c r="S451" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="U451">
         <v>397</v>
@@ -39572,7 +39476,7 @@
         <v>51.855601749999998</v>
       </c>
       <c r="AC451">
-        <v>51.855601749999998</v>
+        <v>-5.4124349102999698</v>
       </c>
     </row>
     <row r="452" spans="1:29" x14ac:dyDescent="0.25">
@@ -39610,7 +39514,7 @@
         <v>3684</v>
       </c>
       <c r="S452" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="U452">
         <v>398</v>
@@ -39631,7 +39535,7 @@
         <v>52.323736680000003</v>
       </c>
       <c r="AC452">
-        <v>52.323736680000003</v>
+        <v>-3.4099252669704501</v>
       </c>
     </row>
     <row r="453" spans="1:29" x14ac:dyDescent="0.25">
@@ -39666,7 +39570,7 @@
         <v>3693</v>
       </c>
       <c r="S453" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="U453">
         <v>399</v>
@@ -39687,7 +39591,7 @@
         <v>51.650328020000003</v>
       </c>
       <c r="AC453">
-        <v>51.650328020000003</v>
+        <v>-3.43554851990443</v>
       </c>
     </row>
     <row r="454" spans="1:29" x14ac:dyDescent="0.25">
@@ -39728,7 +39632,7 @@
         <v>3704</v>
       </c>
       <c r="S454" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="U454">
         <v>400</v>
@@ -39749,7 +39653,7 @@
         <v>51.643470540000003</v>
       </c>
       <c r="AC454">
-        <v>51.643470540000003</v>
+        <v>-4.0613695499049802</v>
       </c>
     </row>
     <row r="455" spans="1:29" x14ac:dyDescent="0.25">
@@ -39787,7 +39691,7 @@
         <v>3714</v>
       </c>
       <c r="S455" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="U455">
         <v>401</v>
@@ -39808,7 +39712,7 @@
         <v>51.69858739</v>
       </c>
       <c r="AC455">
-        <v>51.69858739</v>
+        <v>-3.0534269632451698</v>
       </c>
     </row>
     <row r="456" spans="1:29" x14ac:dyDescent="0.25">
@@ -39846,7 +39750,7 @@
         <v>3724</v>
       </c>
       <c r="S456" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="U456">
         <v>402</v>
@@ -39867,7 +39771,7 @@
         <v>51.44576945</v>
       </c>
       <c r="AC456">
-        <v>51.44576945</v>
+        <v>-3.3991644530109499</v>
       </c>
     </row>
     <row r="457" spans="1:29" x14ac:dyDescent="0.25">
@@ -39905,7 +39809,7 @@
         <v>3734</v>
       </c>
       <c r="S457" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="U457">
         <v>403</v>
@@ -39926,7 +39830,7 @@
         <v>52.990268999999998</v>
       </c>
       <c r="AC457">
-        <v>52.990268999999998</v>
+        <v>-3.0178639598661499</v>
       </c>
     </row>
     <row r="458" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
@@ -39943,10 +39847,10 @@
         <v>138</v>
       </c>
       <c r="G458" t="s">
+        <v>139</v>
+      </c>
+      <c r="I458" t="s">
         <v>4140</v>
-      </c>
-      <c r="I458" t="s">
-        <v>4141</v>
       </c>
       <c r="J458" t="s">
         <v>213</v>
@@ -39956,10 +39860,13 @@
       </c>
       <c r="O458" s="1"/>
       <c r="Q458" s="3" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="AA458">
         <v>96</v>
+      </c>
+      <c r="AC458">
+        <v>-0.81157084150603698</v>
       </c>
     </row>
   </sheetData>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisecrow/dev/uk_local_authority_names_and_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3104E7-D09F-4991-946A-DECD79132F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35869CF8-FC1D-6540-90C1-31AAE9C0A22E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uk_local_authorities!$A$1:$AD$458</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="4315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6393" uniqueCount="4315">
   <si>
     <t>register</t>
   </si>
@@ -12984,7 +12974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13827,30 +13817,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z378" sqref="Z378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.140625" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.1640625" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="2"/>
+    <col min="25" max="25" width="5.83203125" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13942,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" hidden="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -14001,7 +13994,7 @@
         <v>-0.29853079768066898</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -14060,7 +14053,7 @@
         <v>-3.24722422689331</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -14119,7 +14112,7 @@
         <v>-1.46665873702776</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -14178,7 +14171,7 @@
         <v>-0.56818848880294304</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -14237,7 +14230,7 @@
         <v>0.81129819917048196</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -14296,7 +14289,7 @@
         <v>-1.2591513419243701</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -14355,7 +14348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" hidden="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -14414,7 +14407,7 @@
         <v>0.91533728957657501</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -14473,7 +14466,7 @@
         <v>-0.95891662147405199</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -14532,7 +14525,7 @@
         <v>0.46629089418242597</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -14594,7 +14587,7 @@
         <v>-1.2009435841509399</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -14653,7 +14646,7 @@
         <v>-3.2122852055299398</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -14721,7 +14714,7 @@
         <v>-2.4752562946031902</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -14789,7 +14782,7 @@
         <v>-2.4675476946073398</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -14857,7 +14850,7 @@
         <v>-0.47708243486090501</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" hidden="1">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -14919,7 +14912,7 @@
         <v>0.13316440100825999</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" hidden="1">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -14978,7 +14971,7 @@
         <v>-0.26781131950910397</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" hidden="1">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -15037,7 +15030,7 @@
         <v>0.142348001531232</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" hidden="1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -15102,7 +15095,7 @@
         <v>-1.8748023729485099</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" hidden="1">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -15167,7 +15160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" hidden="1">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -15226,7 +15219,7 @@
         <v>-1.22196189843978</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" hidden="1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -15291,7 +15284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" hidden="1">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -15350,7 +15343,7 @@
         <v>-0.21001736105659499</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -15418,7 +15411,7 @@
         <v>-0.13313545319187201</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" hidden="1">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -15483,7 +15476,7 @@
         <v>-1.53257458326465</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" hidden="1">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -15548,7 +15541,7 @@
         <v>-2.4669702024590698</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" hidden="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -15607,7 +15600,7 @@
         <v>-1.2773246814138699</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" hidden="1">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -15666,7 +15659,7 @@
         <v>-2.2346840889682799E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -15700,11 +15693,17 @@
       <c r="S30" t="s">
         <v>4150</v>
       </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30">
+        <v>91513</v>
+      </c>
       <c r="AC30">
         <v>-1.8832767543704001</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" hidden="1">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -15772,7 +15771,7 @@
         <v>-3.0355263398194898</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" hidden="1">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>0.58993191534261002</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" hidden="1">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>-0.73973762236580598</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" hidden="1">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>-1.8546713065720899</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>0.83727582982422</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" hidden="1">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>-2.0160150229923799</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" hidden="1">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>1.3106131362756599</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" hidden="1">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>-1.26209487685358</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" hidden="1">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>0.31075979004458298</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" hidden="1">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>-4.7375277037571301E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" hidden="1">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>5.1537722669066997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" hidden="1">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>-2.7708323519360398</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" hidden="1">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>-2.2219452917805902</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" hidden="1">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>-2.3125533828838001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" hidden="1">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -16631,7 +16630,7 @@
         <v>0.13292340916676401</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" hidden="1">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -16687,7 +16686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>-1.9802318640761301</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>-2.8092503063009899</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" hidden="1">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>0.59469378383326399</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" hidden="1">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -16923,7 +16922,7 @@
         <v>1.10181619758618</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" hidden="1">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -16991,7 +16990,7 @@
         <v>-0.43629195492780098</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" hidden="1">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -17050,7 +17049,7 @@
         <v>-1.14613584536538</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" hidden="1">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -17109,7 +17108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" hidden="1">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -17177,7 +17176,7 @@
         <v>-2.34994253283099</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" hidden="1">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -17239,7 +17238,7 @@
         <v>-0.74226375153748902</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" hidden="1">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -17298,7 +17297,7 @@
         <v>0.480915957502693</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" hidden="1">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -17357,7 +17356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" hidden="1">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>-2.6478813276136002</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" hidden="1">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>-1.27559517385222</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" hidden="1">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>-1.40123094254592</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" hidden="1">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>-2.0740223238436202</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" hidden="1">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>-2.7358562336485499</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" hidden="1">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -17726,7 +17725,7 @@
         <v>-1.9734126331777899</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" hidden="1">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -17782,7 +17781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" hidden="1">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>-0.157415056241972</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" hidden="1">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>0.86090231976730502</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" hidden="1">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>-4.9482176397012996</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" hidden="1">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -18027,7 +18026,7 @@
         <v>-3.3731363138071</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" hidden="1">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>-0.69591855896418098</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" hidden="1">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -18145,7 +18144,7 @@
         <v>-1.8929521615162299</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" hidden="1">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>-1.5197503068760101</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -18232,8 +18231,11 @@
       <c r="N72" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA72">
+        <v>64630</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" hidden="1">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -18292,7 +18294,7 @@
         <v>-2.1742510400716202</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" hidden="1">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -18354,7 +18356,7 @@
         <v>-0.18203462265567399</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" hidden="1">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -18413,7 +18415,7 @@
         <v>-8.7165024613834005E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" hidden="1">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -18472,7 +18474,7 @@
         <v>-0.54087696974008204</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" hidden="1">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -18540,7 +18542,7 @@
         <v>-1.5525857155965399</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" hidden="1">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -18599,7 +18601,7 @@
         <v>0.25316777724608802</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" hidden="1">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>-1.04824667885277</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" hidden="1">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -18714,7 +18716,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" hidden="1">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -18773,7 +18775,7 @@
         <v>-1.69368006706174</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" hidden="1">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -18841,7 +18843,7 @@
         <v>-1.4683439126002999</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" hidden="1">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -18897,7 +18899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" hidden="1">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -18962,7 +18964,7 @@
         <v>-1.0957642741408999</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" hidden="1">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -19024,7 +19026,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" hidden="1">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -19083,7 +19085,7 @@
         <v>1.2892144193203501</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -19111,11 +19113,17 @@
       <c r="Q87" t="s">
         <v>4107</v>
       </c>
+      <c r="Z87" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA87">
+        <v>91365</v>
+      </c>
       <c r="AC87">
         <v>-2.3335558746994098</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" hidden="1">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -19180,7 +19188,7 @@
         <v>-2.1087361271354599</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" hidden="1">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -19251,7 +19259,7 @@
         <v>-1.83991172191284</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" hidden="1">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -19310,7 +19318,7 @@
         <v>-0.331018584222806</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" hidden="1">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -19369,7 +19377,7 @@
         <v>0.26622944628692102</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" hidden="1">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -19428,7 +19436,7 @@
         <v>-1.32720068468055</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" hidden="1">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -19487,7 +19495,7 @@
         <v>0.294782697862571</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" hidden="1">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -19546,7 +19554,7 @@
         <v>-3.2243125929424199</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" hidden="1">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -19605,7 +19613,7 @@
         <v>-2.6218219715923099</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" hidden="1">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -19664,7 +19672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" hidden="1">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -19723,7 +19731,7 @@
         <v>-0.95512420774780105</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" hidden="1">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -19785,7 +19793,7 @@
         <v>-8.2579317821315692E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" hidden="1">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -19844,7 +19852,7 @@
         <v>3.03338886761347E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" hidden="1">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -19903,7 +19911,7 @@
         <v>-0.39217250644269003</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" hidden="1">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -19962,7 +19970,7 @@
         <v>-8.7264502186229706E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" hidden="1">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -20021,7 +20029,7 @@
         <v>-0.52347974785409601</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" hidden="1">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -20080,7 +20088,7 @@
         <v>0.14866520769558</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" hidden="1">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -20142,7 +20150,7 @@
         <v>-0.26144844660503602</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" hidden="1">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -20201,7 +20209,7 @@
         <v>-1.3466958468372301</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" hidden="1">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -20269,7 +20277,7 @@
         <v>-0.48250917149656902</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -20300,11 +20308,17 @@
       <c r="U107">
         <v>412</v>
       </c>
+      <c r="Z107" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA107">
+        <v>91370</v>
+      </c>
       <c r="AC107">
         <v>1.4614605743951401</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" hidden="1">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -20360,7 +20374,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" hidden="1">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -20419,7 +20433,7 @@
         <v>-1.81214118182388</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" hidden="1">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -20475,7 +20489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" hidden="1">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -20534,7 +20548,7 @@
         <v>-3.5101761920371901</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" hidden="1">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -20593,7 +20607,7 @@
         <v>-1.2246651080011499</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" hidden="1">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -20652,7 +20666,7 @@
         <v>6.0771297225044402E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" hidden="1">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -20711,7 +20725,7 @@
         <v>-2.4901213839832601</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" hidden="1">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -20770,7 +20784,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" hidden="1">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -20829,7 +20843,7 @@
         <v>-2.92287972999782</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" hidden="1">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -20894,7 +20908,7 @@
         <v>-1.68289087502256</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" hidden="1">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -20953,7 +20967,7 @@
         <v>-1.1193100378155301</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" hidden="1">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -21003,7 +21017,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" hidden="1">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -21062,7 +21076,7 @@
         <v>-2.2402646253741301</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" hidden="1">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -21118,7 +21132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -21140,8 +21154,11 @@
       <c r="N122" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA122">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" hidden="1">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -21200,7 +21217,7 @@
         <v>-1.1594623667666399</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" hidden="1">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -21259,7 +21276,7 @@
         <v>0.39499417091077599</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" hidden="1">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -21318,7 +21335,7 @@
         <v>5.5542716458775301E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" hidden="1">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -21377,7 +21394,7 @@
         <v>-0.56164554240444897</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" hidden="1">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -21436,7 +21453,7 @@
         <v>1.66134793066905</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" hidden="1">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -21495,7 +21512,7 @@
         <v>-0.98936169825244902</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" hidden="1">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -21554,7 +21571,7 @@
         <v>-1.31908778079823</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" hidden="1">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -21613,7 +21630,7 @@
         <v>-1.59553909500438</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" hidden="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -21681,7 +21698,7 @@
         <v>-2.7187968167260799</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" hidden="1">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -21737,7 +21754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" hidden="1">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -21796,7 +21813,7 @@
         <v>-1.0081235593811999</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -21855,7 +21872,7 @@
         <v>0.108539457994397</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" hidden="1">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -21914,7 +21931,7 @@
         <v>0.57043334791955602</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" hidden="1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -21973,7 +21990,7 @@
         <v>-0.89747200545425898</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" hidden="1">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -22032,7 +22049,7 @@
         <v>0.22042672677428801</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" hidden="1">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -22091,7 +22108,7 @@
         <v>-6.3315272614078294E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" hidden="1">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -22159,7 +22176,7 @@
         <v>-2.7449596144109498</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" hidden="1">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -22218,7 +22235,7 @@
         <v>-0.28109663669281998</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" hidden="1">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -22277,7 +22294,7 @@
         <v>-1.8739385921285301</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" hidden="1">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -22336,7 +22353,7 @@
         <v>-0.44566202430884599</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" hidden="1">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -22398,7 +22415,7 @@
         <v>-1.3910550818802301</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" hidden="1">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -22460,7 +22477,7 @@
         <v>-0.220777565101831</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" hidden="1">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -22519,7 +22536,7 @@
         <v>-0.36616172517234102</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" hidden="1">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -22581,7 +22598,7 @@
         <v>-0.36633274976462499</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -22649,7 +22666,7 @@
         <v>-1.2556467591787599</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" hidden="1">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -22705,7 +22722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" hidden="1">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -22764,7 +22781,7 @@
         <v>-0.341274221017002</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" hidden="1">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -22823,7 +22840,7 @@
         <v>-0.10747266739674501</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" hidden="1">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -22882,7 +22899,7 @@
         <v>-0.220773550455199</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" hidden="1">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -22941,7 +22958,7 @@
         <v>-2.3897873278493602</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" hidden="1">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -23006,7 +23023,7 @@
         <v>-6.2987980018748004</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" hidden="1">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -23074,7 +23091,7 @@
         <v>-1.09489649616619</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" hidden="1">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -23133,7 +23150,7 @@
         <v>1.1597791056265001</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" hidden="1">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -23192,7 +23209,7 @@
         <v>-0.110246258249108</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -23254,7 +23271,7 @@
         <v>-0.19221075151882699</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" hidden="1">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -23310,7 +23327,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" hidden="1">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -23369,7 +23386,7 @@
         <v>-0.76542910237272799</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" hidden="1">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -23440,7 +23457,7 @@
         <v>-0.33535150963390398</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" hidden="1">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -23505,7 +23522,7 @@
         <v>0.470465345077615</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" hidden="1">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -23570,7 +23587,7 @@
         <v>-1.76330731290644</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" hidden="1">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -23629,7 +23646,7 @@
         <v>-0.28691447761787803</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" hidden="1">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -23694,7 +23711,7 @@
         <v>-2.8340373463497501</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" hidden="1">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -23753,7 +23770,7 @@
         <v>-2.7147823620064</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" hidden="1">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -23809,7 +23826,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" hidden="1">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -23868,7 +23885,7 @@
         <v>-0.118309072522519</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" hidden="1">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -23939,7 +23956,7 @@
         <v>-1.1284852020846301</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -23961,8 +23978,11 @@
       <c r="N169" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA169">
+        <v>52349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" hidden="1">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -24027,7 +24047,7 @@
         <v>-1.50601636692331</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" hidden="1">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -24083,7 +24103,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" hidden="1">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -24142,7 +24162,7 @@
         <v>5.0543556228987803E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" hidden="1">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -24201,7 +24221,7 @@
         <v>-2.0285774043622199E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" hidden="1">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -24263,7 +24283,7 @@
         <v>-0.55495288760678196</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" hidden="1">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -24322,7 +24342,7 @@
         <v>-1.80491531530489</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" hidden="1">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -24378,7 +24398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" hidden="1">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -24443,7 +24463,7 @@
         <v>-2.91700763031041</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" hidden="1">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -24505,7 +24525,7 @@
         <v>-9.2437868622313998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" hidden="1">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -24573,7 +24593,7 @@
         <v>-0.42559029048565999</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" hidden="1">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -24632,7 +24652,7 @@
         <v>0.58055256446608905</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" hidden="1">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -24691,7 +24711,7 @@
         <v>0.78377739171598204</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" hidden="1">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -24756,7 +24776,7 @@
         <v>-2.2325236866808602</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" hidden="1">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -24815,7 +24835,7 @@
         <v>-1.1727869589561499</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" hidden="1">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -24874,7 +24894,7 @@
         <v>-2.3446652905044201</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" hidden="1">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -24942,7 +24962,7 @@
         <v>-1.2224301962791999</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" hidden="1">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -25001,7 +25021,7 @@
         <v>-3.55643798008176</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" hidden="1">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -25072,7 +25092,7 @@
         <v>0.56948457324977197</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" hidden="1">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -25131,7 +25151,7 @@
         <v>-0.85621855043544903</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" hidden="1">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -25190,7 +25210,7 @@
         <v>-2.5446553195065</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" hidden="1">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -25258,7 +25278,7 @@
         <v>-0.73354065299243898</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" hidden="1">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -25317,7 +25337,7 @@
         <v>-0.32511597467560699</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" hidden="1">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -25376,7 +25396,7 @@
         <v>-0.19724645978008301</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" hidden="1">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -25438,7 +25458,7 @@
         <v>-0.12705176017318801</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" hidden="1">
       <c r="A194" t="s">
         <v>24</v>
       </c>
@@ -25497,7 +25517,7 @@
         <v>1.0924171535160601</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" hidden="1">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -25565,7 +25585,7 @@
         <v>-2.06647808763908</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" hidden="1">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -25624,7 +25644,7 @@
         <v>-3.9145654715471498</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" hidden="1">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -25683,7 +25703,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" hidden="1">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -25745,7 +25765,7 @@
         <v>-0.91974426351731098</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" hidden="1">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -25804,7 +25824,7 @@
         <v>-2.3188747363185298</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" hidden="1">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -25863,7 +25883,7 @@
         <v>-1.44828792583317</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" hidden="1">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -25931,7 +25951,7 @@
         <v>-0.133445083693671</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" hidden="1">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -25996,7 +26016,7 @@
         <v>-1.65782010102585</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" hidden="1">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -26055,7 +26075,7 @@
         <v>-1.62474674793517</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" hidden="1">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -26111,7 +26131,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" hidden="1">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -26182,7 +26202,7 @@
         <v>-1.1765203960699999</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" hidden="1">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -26241,7 +26261,7 @@
         <v>-0.19270263064394799</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" hidden="1">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -26300,7 +26320,7 @@
         <v>-0.44592595094364801</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" hidden="1">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -26368,7 +26388,7 @@
         <v>-0.59273094304076102</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" hidden="1">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -26427,7 +26447,7 @@
         <v>1.1697820098986</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" hidden="1">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -26486,7 +26506,7 @@
         <v>-0.88691014682261404</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" hidden="1">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -26545,7 +26565,7 @@
         <v>1.2828005620354599</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" hidden="1">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -26613,7 +26633,7 @@
         <v>-2.8007412223167498</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" hidden="1">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -26669,7 +26689,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" hidden="1">
       <c r="A214" t="s">
         <v>24</v>
       </c>
@@ -26725,7 +26745,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" hidden="1">
       <c r="A215" t="s">
         <v>24</v>
       </c>
@@ -26790,7 +26810,7 @@
         <v>-1.51743967487292</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" hidden="1">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -26852,7 +26872,7 @@
         <v>-1.47587145083739</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" hidden="1">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -26911,7 +26931,7 @@
         <v>-1.62805460803472</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" hidden="1">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -26970,7 +26990,7 @@
         <v>-1.4051226189110999</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" hidden="1">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -27029,7 +27049,7 @@
         <v>3.7542592217240302E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" hidden="1">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -27085,7 +27105,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" hidden="1">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -27147,7 +27167,7 @@
         <v>-1.09340729708271</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" hidden="1">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -27212,7 +27232,7 @@
         <v>-2.0506522949308699</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" hidden="1">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -27268,7 +27288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" hidden="1">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -27327,7 +27347,7 @@
         <v>-1.2409629445558299</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" hidden="1">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -27386,7 +27406,7 @@
         <v>-2.1849303763291501</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" hidden="1">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -27454,7 +27474,7 @@
         <v>-4.1198560602811201</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" hidden="1">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -27519,7 +27539,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" hidden="1">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -27587,7 +27607,7 @@
         <v>-1.07837299817203</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" hidden="1">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -27646,7 +27666,7 @@
         <v>-2.69765172873824</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" hidden="1">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -27714,7 +27734,7 @@
         <v>-0.25310869841260603</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" hidden="1">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -27773,7 +27793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" hidden="1">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -27841,7 +27861,7 @@
         <v>-1.02164637989712</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" hidden="1">
       <c r="A233" t="s">
         <v>24</v>
       </c>
@@ -27906,7 +27926,7 @@
         <v>-2.1578678631274801</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" hidden="1">
       <c r="A234" t="s">
         <v>24</v>
       </c>
@@ -27965,7 +27985,7 @@
         <v>7.5862726477865405E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" hidden="1">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -28033,7 +28053,7 @@
         <v>-0.98382499545167101</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" hidden="1">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -28092,7 +28112,7 @@
         <v>-1.9518603046110901</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" hidden="1">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -28154,7 +28174,7 @@
         <v>-0.19185369982901401</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" hidden="1">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -28213,7 +28233,7 @@
         <v>-2.4447560366013001</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" hidden="1">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -28272,7 +28292,7 @@
         <v>-0.31237054143348503</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" hidden="1">
       <c r="A240" t="s">
         <v>24</v>
       </c>
@@ -28331,7 +28351,7 @@
         <v>-1.9343273352327199</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" hidden="1">
       <c r="A241" t="s">
         <v>24</v>
       </c>
@@ -28390,7 +28410,7 @@
         <v>0.80933174827144005</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" hidden="1">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -28449,7 +28469,7 @@
         <v>0.53888531091054503</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" hidden="1">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -28508,7 +28528,7 @@
         <v>-2.26729943401683</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" hidden="1">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -28573,7 +28593,7 @@
         <v>-1.28615064960739</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" hidden="1">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -28632,7 +28652,7 @@
         <v>-1.3282942440232499</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" hidden="1">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -28691,7 +28711,7 @@
         <v>-0.76748144845213595</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" hidden="1">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -28750,7 +28770,7 @@
         <v>-0.54131029860619295</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" hidden="1">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -28809,7 +28829,7 @@
         <v>-1.0377351214797901</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" hidden="1">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -28877,7 +28897,7 @@
         <v>-0.65469061550670404</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" hidden="1">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -28936,7 +28956,7 @@
         <v>-0.85200756474897199</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" hidden="1">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -28998,7 +29018,7 @@
         <v>-0.34249455556367903</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" hidden="1">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -29063,7 +29083,7 @@
         <v>-2.0089727072543599</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" hidden="1">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -29122,7 +29142,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" hidden="1">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -29181,7 +29201,7 @@
         <v>8.1300388968336204E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" hidden="1">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -29240,7 +29260,7 @@
         <v>-0.63497108623668497</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -29262,8 +29282,11 @@
       <c r="N256" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA256">
+        <v>52350</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" hidden="1">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -29322,7 +29345,7 @@
         <v>-1.55954528496134</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" hidden="1">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -29381,7 +29404,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" hidden="1">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -29440,7 +29463,7 @@
         <v>-2.9528578456735</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" hidden="1">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -29499,7 +29522,7 @@
         <v>-1.1346806822903901</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" hidden="1">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -29558,7 +29581,7 @@
         <v>0.17197231930346801</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" hidden="1">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -29614,7 +29637,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" hidden="1">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -29679,7 +29702,7 @@
         <v>-3.0150520386678501</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -29747,7 +29770,7 @@
         <v>-2.4704239435040698</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" hidden="1">
       <c r="A265" t="s">
         <v>24</v>
       </c>
@@ -29806,7 +29829,7 @@
         <v>-3.8229361944677298</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" hidden="1">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -29871,7 +29894,7 @@
         <v>0.99412411332960504</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -29936,7 +29959,7 @@
         <v>-1.5503791232830799</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" hidden="1">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -30004,7 +30027,7 @@
         <v>-2.7236205816115402</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" hidden="1">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -30063,7 +30086,7 @@
         <v>-3.2290793457714399E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" hidden="1">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -30131,7 +30154,7 @@
         <v>-2.73405297283644</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" hidden="1">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -30190,7 +30213,7 @@
         <v>-0.51784258112992498</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1">
       <c r="A272" t="s">
         <v>24</v>
       </c>
@@ -30255,7 +30278,7 @@
         <v>-2.1281087509678298</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" hidden="1">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -30314,7 +30337,7 @@
         <v>-2.85007636867961</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" hidden="1">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -30379,7 +30402,7 @@
         <v>-2.3701907477397399</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" hidden="1">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -30447,7 +30470,7 @@
         <v>-0.586234662289148</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" hidden="1">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -30512,7 +30535,7 @@
         <v>-1.45195283365534</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" hidden="1">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -30571,7 +30594,7 @@
         <v>1.2759971899167799</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" hidden="1">
       <c r="A278" t="s">
         <v>24</v>
       </c>
@@ -30630,7 +30653,7 @@
         <v>-1.04288891982992</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" hidden="1">
       <c r="A279" t="s">
         <v>24</v>
       </c>
@@ -30695,7 +30718,7 @@
         <v>-1.72707700878563</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" hidden="1">
       <c r="A280" t="s">
         <v>24</v>
       </c>
@@ -30751,7 +30774,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" hidden="1">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -30822,7 +30845,7 @@
         <v>0.72869135579069699</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" hidden="1">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -30881,7 +30904,7 @@
         <v>-1.07140821432959</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" hidden="1">
       <c r="A283" t="s">
         <v>24</v>
       </c>
@@ -30940,7 +30963,7 @@
         <v>-0.46798353846267798</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" hidden="1">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -30999,7 +31022,7 @@
         <v>-2.7102579722904498</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" hidden="1">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -31055,7 +31078,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" hidden="1">
       <c r="A286" t="s">
         <v>24</v>
       </c>
@@ -31114,7 +31137,7 @@
         <v>-2.70989034157054</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" hidden="1">
       <c r="A287" t="s">
         <v>24</v>
       </c>
@@ -31173,7 +31196,7 @@
         <v>-2.1768091357562098</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" hidden="1">
       <c r="A288" t="s">
         <v>24</v>
       </c>
@@ -31232,7 +31255,7 @@
         <v>-2.17649681212928</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" hidden="1">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -31300,7 +31323,7 @@
         <v>-2.1645283464811702</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" hidden="1">
       <c r="A290" t="s">
         <v>24</v>
       </c>
@@ -31359,7 +31382,7 @@
         <v>-1.98125403204151</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" hidden="1">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -31427,7 +31450,7 @@
         <v>-1.39871369539267</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" hidden="1">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -31486,7 +31509,7 @@
         <v>-0.17757021668369599</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" hidden="1">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -31545,7 +31568,7 @@
         <v>-2.3001467834814702</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" hidden="1">
       <c r="A294" t="s">
         <v>24</v>
       </c>
@@ -31604,7 +31627,7 @@
         <v>-1.62283893738364</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" hidden="1">
       <c r="A295" t="s">
         <v>24</v>
       </c>
@@ -31660,7 +31683,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" hidden="1">
       <c r="A296" t="s">
         <v>24</v>
       </c>
@@ -31731,7 +31754,7 @@
         <v>-1.32897995507878</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" hidden="1">
       <c r="A297" t="s">
         <v>24</v>
       </c>
@@ -31793,7 +31816,7 @@
         <v>-0.189332334990787</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" hidden="1">
       <c r="A298" t="s">
         <v>24</v>
       </c>
@@ -31858,7 +31881,7 @@
         <v>-1.4442525340164001</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" hidden="1">
       <c r="A299" t="s">
         <v>24</v>
       </c>
@@ -31917,7 +31940,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" hidden="1">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -31976,7 +31999,7 @@
         <v>-0.670548578569375</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" hidden="1">
       <c r="A301" t="s">
         <v>24</v>
       </c>
@@ -32044,7 +32067,7 @@
         <v>-1.74381282954794</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" hidden="1">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -32103,7 +32126,7 @@
         <v>-7.4056169834462102E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" hidden="1">
       <c r="A303" t="s">
         <v>24</v>
       </c>
@@ -32162,7 +32185,7 @@
         <v>0.813219656271712</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -32196,11 +32219,17 @@
       <c r="U304">
         <v>411</v>
       </c>
+      <c r="Z304" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA304">
+        <v>91531</v>
+      </c>
       <c r="AC304">
         <v>-3.3625758803201502</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" hidden="1">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -32265,7 +32294,7 @@
         <v>-2.06281384080734</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" hidden="1">
       <c r="A306" t="s">
         <v>24</v>
       </c>
@@ -32324,7 +32353,7 @@
         <v>-4.3406638690371799E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" hidden="1">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -32383,7 +32412,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" hidden="1">
       <c r="A308" t="s">
         <v>24</v>
       </c>
@@ -32442,7 +32471,7 @@
         <v>-1.6778453301552601</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" hidden="1">
       <c r="A309" t="s">
         <v>24</v>
       </c>
@@ -32501,7 +32530,7 @@
         <v>-3.6567559949466601</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" hidden="1">
       <c r="A310" t="s">
         <v>24</v>
       </c>
@@ -32560,7 +32589,7 @@
         <v>1.1150094479463799</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" hidden="1">
       <c r="A311" t="s">
         <v>24</v>
       </c>
@@ -32619,7 +32648,7 @@
         <v>-1.5106533665965201</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" hidden="1">
       <c r="A312" t="s">
         <v>24</v>
       </c>
@@ -32678,7 +32707,7 @@
         <v>-2.08744455338184</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" hidden="1">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -32749,7 +32778,7 @@
         <v>-2.4887952473460202</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" hidden="1">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -32808,7 +32837,7 @@
         <v>1.3405526779310999</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" hidden="1">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -32867,7 +32896,7 @@
         <v>-0.460598678152911</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" hidden="1">
       <c r="A316" t="s">
         <v>24</v>
       </c>
@@ -32935,7 +32964,7 @@
         <v>0.373108306637151</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" hidden="1">
       <c r="A317" t="s">
         <v>24</v>
       </c>
@@ -33003,7 +33032,7 @@
         <v>-3.53020277442742</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" hidden="1">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -33065,7 +33094,7 @@
         <v>0.357837154125004</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" hidden="1">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -33124,7 +33153,7 @@
         <v>-4.2488527797753202</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" hidden="1">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -33189,7 +33218,7 @@
         <v>-2.3553497197990101</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" hidden="1">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -33248,7 +33277,7 @@
         <v>0.43082466120681001</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -33267,8 +33296,11 @@
       <c r="I322" t="s">
         <v>4114</v>
       </c>
-    </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA322">
+        <v>87984</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29" hidden="1">
       <c r="A323" t="s">
         <v>24</v>
       </c>
@@ -33327,7 +33359,7 @@
         <v>-3.4657444542099701E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" hidden="1">
       <c r="A324" t="s">
         <v>24</v>
       </c>
@@ -33386,7 +33418,7 @@
         <v>0.279804820777248</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" hidden="1">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -33445,7 +33477,7 @@
         <v>-1.4416684895262699</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" hidden="1">
       <c r="A326" t="s">
         <v>24</v>
       </c>
@@ -33504,7 +33536,7 @@
         <v>-0.63266617343135401</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" hidden="1">
       <c r="A327" t="s">
         <v>24</v>
       </c>
@@ -33560,7 +33592,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" hidden="1">
       <c r="A328" t="s">
         <v>24</v>
       </c>
@@ -33619,7 +33651,7 @@
         <v>-0.40335198756146401</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" hidden="1">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -33678,7 +33710,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" hidden="1">
       <c r="A330" t="s">
         <v>24</v>
       </c>
@@ -33737,7 +33769,7 @@
         <v>-1.58466508699511</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" hidden="1">
       <c r="A331" t="s">
         <v>24</v>
       </c>
@@ -33805,7 +33837,7 @@
         <v>-1.3044355560511001</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" hidden="1">
       <c r="A332" t="s">
         <v>24</v>
       </c>
@@ -33864,7 +33896,7 @@
         <v>-4.0462162110289803</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" hidden="1">
       <c r="A333" t="s">
         <v>24</v>
       </c>
@@ -33923,7 +33955,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" hidden="1">
       <c r="A334" t="s">
         <v>24</v>
       </c>
@@ -33982,7 +34014,7 @@
         <v>0.19865335020727201</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29">
       <c r="A335" t="s">
         <v>24</v>
       </c>
@@ -34004,8 +34036,11 @@
       <c r="N335" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA335">
+        <v>88002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29" hidden="1">
       <c r="A336" t="s">
         <v>24</v>
       </c>
@@ -34064,7 +34099,7 @@
         <v>-0.71233980443257905</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" hidden="1">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -34126,7 +34161,7 @@
         <v>-0.19408512068214201</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" hidden="1">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -34188,7 +34223,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" hidden="1">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -34247,7 +34282,7 @@
         <v>-1.26453221779957E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" hidden="1">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -34312,7 +34347,7 @@
         <v>-2.5895088338873</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" hidden="1">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -34380,7 +34415,7 @@
         <v>-1.94460788203187</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" hidden="1">
       <c r="A342" t="s">
         <v>24</v>
       </c>
@@ -34439,7 +34474,7 @@
         <v>-1.2210742603696001</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" hidden="1">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -34504,7 +34539,7 @@
         <v>-1.4118077319906499</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" hidden="1">
       <c r="A344" t="s">
         <v>24</v>
       </c>
@@ -34563,7 +34598,7 @@
         <v>-2.8826587441298099</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" hidden="1">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -34622,7 +34657,7 @@
         <v>-0.477114657614783</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" hidden="1">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -34687,7 +34722,7 @@
         <v>-1.9663478518608499</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" hidden="1">
       <c r="A347" t="s">
         <v>24</v>
       </c>
@@ -34752,7 +34787,7 @@
         <v>-2.1209914536093502</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29">
       <c r="A348" t="s">
         <v>24</v>
       </c>
@@ -34774,8 +34809,11 @@
       <c r="N348" s="1">
         <v>41730</v>
       </c>
-    </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA348">
+        <v>64997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" hidden="1">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -34834,7 +34872,7 @@
         <v>-0.186190160336486</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" hidden="1">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -34902,7 +34940,7 @@
         <v>-0.69947832145465305</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" hidden="1">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -34961,7 +34999,7 @@
         <v>-2.2113242238437398</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" hidden="1">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -35020,7 +35058,7 @@
         <v>-0.56077011732615101</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" hidden="1">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -35088,7 +35126,7 @@
         <v>-0.88384218537428105</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" hidden="1">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -35144,7 +35182,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29" hidden="1">
       <c r="A355" t="s">
         <v>24</v>
       </c>
@@ -35206,7 +35244,7 @@
         <v>-0.39581200189250598</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29" hidden="1">
       <c r="A356" t="s">
         <v>24</v>
       </c>
@@ -35265,7 +35303,7 @@
         <v>-1.5069302321045699</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29" hidden="1">
       <c r="A357" t="s">
         <v>24</v>
       </c>
@@ -35330,7 +35368,7 @@
         <v>-3.09257525015963</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29" hidden="1">
       <c r="A358" t="s">
         <v>24</v>
       </c>
@@ -35398,7 +35436,7 @@
         <v>-2.56362586747675</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:29">
       <c r="A359" t="s">
         <v>24</v>
       </c>
@@ -35429,11 +35467,17 @@
       <c r="U359">
         <v>410</v>
       </c>
+      <c r="Z359" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA359">
+        <v>91366</v>
+      </c>
       <c r="AC359">
         <v>0.62207831122558699</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" hidden="1">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -35492,7 +35536,7 @@
         <v>-0.16045950038840301</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29" hidden="1">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -35551,7 +35595,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:29" hidden="1">
       <c r="A362" t="s">
         <v>24</v>
       </c>
@@ -35607,7 +35651,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29" hidden="1">
       <c r="A363" t="s">
         <v>24</v>
       </c>
@@ -35666,7 +35710,7 @@
         <v>-2.0508165247066201</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" hidden="1">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -35725,7 +35769,7 @@
         <v>-2.2746669467274199</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -35784,7 +35828,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" hidden="1">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -35843,7 +35887,7 @@
         <v>-2.8538694979818602</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1">
       <c r="A367" t="s">
         <v>24</v>
       </c>
@@ -35911,7 +35955,7 @@
         <v>-1.0614499339671399</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" hidden="1">
       <c r="A368" t="s">
         <v>3053</v>
       </c>
@@ -35946,7 +35990,7 @@
         <v>54906</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" hidden="1">
       <c r="A369" t="s">
         <v>3053</v>
       </c>
@@ -35981,7 +36025,7 @@
         <v>54914</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" hidden="1">
       <c r="A370" t="s">
         <v>3053</v>
       </c>
@@ -36016,7 +36060,7 @@
         <v>54905</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" hidden="1">
       <c r="A371" t="s">
         <v>3053</v>
       </c>
@@ -36054,7 +36098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" hidden="1">
       <c r="A372" t="s">
         <v>3053</v>
       </c>
@@ -36089,7 +36133,7 @@
         <v>54907</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" hidden="1">
       <c r="A373" t="s">
         <v>3053</v>
       </c>
@@ -36124,7 +36168,7 @@
         <v>54908</v>
       </c>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" hidden="1">
       <c r="A374" t="s">
         <v>3053</v>
       </c>
@@ -36159,7 +36203,7 @@
         <v>54909</v>
       </c>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" hidden="1">
       <c r="A375" t="s">
         <v>3053</v>
       </c>
@@ -36194,7 +36238,7 @@
         <v>54910</v>
       </c>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" hidden="1">
       <c r="A376" t="s">
         <v>3053</v>
       </c>
@@ -36229,7 +36273,7 @@
         <v>54911</v>
       </c>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" hidden="1">
       <c r="A377" t="s">
         <v>3053</v>
       </c>
@@ -36267,7 +36311,7 @@
         <v>54912</v>
       </c>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27">
       <c r="A378" t="s">
         <v>3053</v>
       </c>
@@ -36291,7 +36335,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27">
       <c r="A379" t="s">
         <v>3053</v>
       </c>
@@ -36315,7 +36359,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27">
       <c r="A380" t="s">
         <v>3053</v>
       </c>
@@ -36339,7 +36383,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27">
       <c r="A381" t="s">
         <v>3053</v>
       </c>
@@ -36363,7 +36407,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27">
       <c r="A382" t="s">
         <v>3053</v>
       </c>
@@ -36387,7 +36431,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27">
       <c r="A383" t="s">
         <v>3053</v>
       </c>
@@ -36411,7 +36455,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27">
       <c r="A384" t="s">
         <v>3053</v>
       </c>
@@ -36435,7 +36479,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23">
       <c r="A385" t="s">
         <v>3053</v>
       </c>
@@ -36459,7 +36503,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23">
       <c r="A386" t="s">
         <v>3053</v>
       </c>
@@ -36483,7 +36527,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23">
       <c r="A387" t="s">
         <v>3053</v>
       </c>
@@ -36507,7 +36551,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23">
       <c r="A388" t="s">
         <v>3053</v>
       </c>
@@ -36531,7 +36575,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23">
       <c r="A389" t="s">
         <v>3053</v>
       </c>
@@ -36555,7 +36599,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23">
       <c r="A390" t="s">
         <v>3053</v>
       </c>
@@ -36579,7 +36623,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23">
       <c r="A391" t="s">
         <v>3053</v>
       </c>
@@ -36603,7 +36647,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23">
       <c r="A392" t="s">
         <v>3053</v>
       </c>
@@ -36627,7 +36671,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23">
       <c r="A393" t="s">
         <v>3053</v>
       </c>
@@ -36651,7 +36695,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23">
       <c r="A394" t="s">
         <v>3053</v>
       </c>
@@ -36675,7 +36719,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23">
       <c r="A395" t="s">
         <v>3053</v>
       </c>
@@ -36699,7 +36743,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23">
       <c r="A396" t="s">
         <v>3053</v>
       </c>
@@ -36723,7 +36767,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23">
       <c r="A397" t="s">
         <v>3053</v>
       </c>
@@ -36747,7 +36791,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23">
       <c r="A398" t="s">
         <v>3053</v>
       </c>
@@ -36771,7 +36815,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23">
       <c r="A399" t="s">
         <v>3053</v>
       </c>
@@ -36795,7 +36839,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23">
       <c r="A400" t="s">
         <v>3053</v>
       </c>
@@ -36819,7 +36863,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:29">
       <c r="A401" t="s">
         <v>3053</v>
       </c>
@@ -36843,7 +36887,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:29">
       <c r="A402" t="s">
         <v>3053</v>
       </c>
@@ -36867,7 +36911,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:29" hidden="1">
       <c r="A403" t="s">
         <v>3053</v>
       </c>
@@ -36902,7 +36946,7 @@
         <v>54913</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:29" hidden="1">
       <c r="A404" t="s">
         <v>3257</v>
       </c>
@@ -36952,7 +36996,7 @@
         <v>-2.6320254568961299</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:29" hidden="1">
       <c r="A405" t="s">
         <v>3257</v>
       </c>
@@ -37002,7 +37046,7 @@
         <v>-2.1736372108922302</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:29" hidden="1">
       <c r="A406" t="s">
         <v>3257</v>
       </c>
@@ -37052,7 +37096,7 @@
         <v>-5.2161559340253296</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:29" hidden="1">
       <c r="A407" t="s">
         <v>3257</v>
       </c>
@@ -37102,7 +37146,7 @@
         <v>-2.9173012654216701</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:29" hidden="1">
       <c r="A408" t="s">
         <v>3257</v>
       </c>
@@ -37152,7 +37196,7 @@
         <v>-3.7422224090000902</v>
       </c>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:29" hidden="1">
       <c r="A409" t="s">
         <v>3257</v>
       </c>
@@ -37205,7 +37249,7 @@
         <v>-3.9593418402573399</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29" hidden="1">
       <c r="A410" t="s">
         <v>3257</v>
       </c>
@@ -37255,7 +37299,7 @@
         <v>-2.9695507392012699</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:29" hidden="1">
       <c r="A411" t="s">
         <v>3257</v>
       </c>
@@ -37305,7 +37349,7 @@
         <v>-4.3142015194398802</v>
       </c>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:29" hidden="1">
       <c r="A412" t="s">
         <v>3257</v>
       </c>
@@ -37355,7 +37399,7 @@
         <v>-3.2883920016089001</v>
       </c>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:29" hidden="1">
       <c r="A413" t="s">
         <v>3257</v>
       </c>
@@ -37408,7 +37452,7 @@
         <v>-4.2255597323538296</v>
       </c>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:29" hidden="1">
       <c r="A414" t="s">
         <v>3257</v>
       </c>
@@ -37458,7 +37502,7 @@
         <v>-2.72088790105995</v>
       </c>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:29" hidden="1">
       <c r="A415" t="s">
         <v>3257</v>
       </c>
@@ -37514,7 +37558,7 @@
         <v>-6.6727812366699801</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:29" hidden="1">
       <c r="A416" t="s">
         <v>3257</v>
       </c>
@@ -37564,7 +37608,7 @@
         <v>-4.3595143451574803</v>
       </c>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:29" hidden="1">
       <c r="A417" t="s">
         <v>3257</v>
       </c>
@@ -37614,7 +37658,7 @@
         <v>-3.7906415337898101</v>
       </c>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:29" hidden="1">
       <c r="A418" t="s">
         <v>3257</v>
       </c>
@@ -37667,7 +37711,7 @@
         <v>-3.1243518319000199</v>
       </c>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:29" hidden="1">
       <c r="A419" t="s">
         <v>3257</v>
       </c>
@@ -37720,7 +37764,7 @@
         <v>-4.2531185815445198</v>
       </c>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:29" hidden="1">
       <c r="A420" t="s">
         <v>3257</v>
       </c>
@@ -37773,7 +37817,7 @@
         <v>-6.5410206557117796</v>
       </c>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:29" hidden="1">
       <c r="A421" t="s">
         <v>3257</v>
       </c>
@@ -37823,7 +37867,7 @@
         <v>-4.7426698710190003</v>
       </c>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:29" hidden="1">
       <c r="A422" t="s">
         <v>3257</v>
       </c>
@@ -37873,7 +37917,7 @@
         <v>-3.1104195114441802</v>
       </c>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:29" hidden="1">
       <c r="A423" t="s">
         <v>3257</v>
       </c>
@@ -37926,7 +37970,7 @@
         <v>-3.2675085733413902</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:29" hidden="1">
       <c r="A424" t="s">
         <v>3257</v>
       </c>
@@ -37976,7 +38020,7 @@
         <v>-4.7318068826625499</v>
       </c>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:29" hidden="1">
       <c r="A425" t="s">
         <v>3257</v>
       </c>
@@ -38029,7 +38073,7 @@
         <v>-3.9482525144777099</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:29" hidden="1">
       <c r="A426" t="s">
         <v>3257</v>
       </c>
@@ -38079,7 +38123,7 @@
         <v>-2.79660744400323</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:29" hidden="1">
       <c r="A427" t="s">
         <v>3257</v>
       </c>
@@ -38132,7 +38176,7 @@
         <v>-3.81895374279111</v>
       </c>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:29" hidden="1">
       <c r="A428" t="s">
         <v>3257</v>
       </c>
@@ -38182,7 +38226,7 @@
         <v>-4.5428045875510996</v>
       </c>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:29" hidden="1">
       <c r="A429" t="s">
         <v>3257</v>
       </c>
@@ -38232,7 +38276,7 @@
         <v>-4.6889262632352802</v>
       </c>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:29" hidden="1">
       <c r="A430" t="s">
         <v>3257</v>
       </c>
@@ -38282,7 +38326,7 @@
         <v>-2.7884684974713201</v>
       </c>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:29" hidden="1">
       <c r="A431" t="s">
         <v>3257</v>
       </c>
@@ -38332,7 +38376,7 @@
         <v>-3.8106358553200299</v>
       </c>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:29" hidden="1">
       <c r="A432" t="s">
         <v>3257</v>
       </c>
@@ -38382,7 +38426,7 @@
         <v>-4.34034032374697</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:29" hidden="1">
       <c r="A433" t="s">
         <v>3257</v>
       </c>
@@ -38432,7 +38476,7 @@
         <v>-4.5176029554922001</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:29" hidden="1">
       <c r="A434" t="s">
         <v>3257</v>
       </c>
@@ -38482,7 +38526,7 @@
         <v>-3.5737860466933999</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:29" hidden="1">
       <c r="A435" t="s">
         <v>3257</v>
       </c>
@@ -38532,7 +38576,7 @@
         <v>-1.3441674209272401</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:29" hidden="1">
       <c r="A436" t="s">
         <v>3519</v>
       </c>
@@ -38591,7 +38635,7 @@
         <v>-4.3745242143952199</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" hidden="1">
       <c r="A437" t="s">
         <v>3519</v>
       </c>
@@ -38650,7 +38694,7 @@
         <v>-3.6003878013017698</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" hidden="1">
       <c r="A438" t="s">
         <v>3519</v>
       </c>
@@ -38709,7 +38753,7 @@
         <v>-3.1938186287935002</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" hidden="1">
       <c r="A439" t="s">
         <v>3519</v>
       </c>
@@ -38768,7 +38812,7 @@
         <v>-3.2048973242453598</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" hidden="1">
       <c r="A440" t="s">
         <v>3519</v>
       </c>
@@ -38827,7 +38871,7 @@
         <v>-4.0731173568071002</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" hidden="1">
       <c r="A441" t="s">
         <v>3519</v>
       </c>
@@ -38886,7 +38930,7 @@
         <v>-4.1631820382407696</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" hidden="1">
       <c r="A442" t="s">
         <v>3519</v>
       </c>
@@ -38948,7 +38992,7 @@
         <v>-3.1997652808396699</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" hidden="1">
       <c r="A443" t="s">
         <v>3519</v>
       </c>
@@ -39007,7 +39051,7 @@
         <v>-3.7364398723286598</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" hidden="1">
       <c r="A444" t="s">
         <v>3519</v>
       </c>
@@ -39066,7 +39110,7 @@
         <v>-3.3541041522652799</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" hidden="1">
       <c r="A445" t="s">
         <v>3519</v>
       </c>
@@ -39125,7 +39169,7 @@
         <v>-3.1631503565558798</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" hidden="1">
       <c r="A446" t="s">
         <v>3519</v>
       </c>
@@ -39184,7 +39228,7 @@
         <v>-4.69786872585005</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" hidden="1">
       <c r="A447" t="s">
         <v>3519</v>
       </c>
@@ -39243,7 +39287,7 @@
         <v>-2.86732879213604</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" hidden="1">
       <c r="A448" t="s">
         <v>3519</v>
       </c>
@@ -39302,7 +39346,7 @@
         <v>-3.3610566541754499</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" hidden="1">
       <c r="A449" t="s">
         <v>3519</v>
       </c>
@@ -39361,7 +39405,7 @@
         <v>-3.7433933101120802</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" hidden="1">
       <c r="A450" t="s">
         <v>3519</v>
       </c>
@@ -39420,7 +39464,7 @@
         <v>-2.9617942281162999</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" hidden="1">
       <c r="A451" t="s">
         <v>3519</v>
       </c>
@@ -39479,7 +39523,7 @@
         <v>-5.4124349102999698</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" hidden="1">
       <c r="A452" t="s">
         <v>3519</v>
       </c>
@@ -39538,7 +39582,7 @@
         <v>-3.4099252669704501</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" hidden="1">
       <c r="A453" t="s">
         <v>3519</v>
       </c>
@@ -39594,7 +39638,7 @@
         <v>-3.43554851990443</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" hidden="1">
       <c r="A454" t="s">
         <v>3519</v>
       </c>
@@ -39656,7 +39700,7 @@
         <v>-4.0613695499049802</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" hidden="1">
       <c r="A455" t="s">
         <v>3519</v>
       </c>
@@ -39715,7 +39759,7 @@
         <v>-3.0534269632451698</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" hidden="1">
       <c r="A456" t="s">
         <v>3519</v>
       </c>
@@ -39774,7 +39818,7 @@
         <v>-3.3991644530109499</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" hidden="1">
       <c r="A457" t="s">
         <v>3519</v>
       </c>
@@ -39833,7 +39877,7 @@
         <v>-3.0178639598661499</v>
       </c>
     </row>
-    <row r="458" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:29" ht="18" hidden="1">
       <c r="A458" t="s">
         <v>24</v>
       </c>
@@ -39870,7 +39914,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD458" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}"/>
+  <autoFilter ref="A1:AD458" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}">
+    <filterColumn colId="26">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F17987-47E6-4181-AA6B-7619A17D36C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E26AF1-1BD4-4898-B3BB-EB8287EEEFD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13894,9 +13894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20655,7 +20655,7 @@
         <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>640</v>
+        <v>327</v>
       </c>
       <c r="G102" t="s">
         <v>877</v>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E26AF1-1BD4-4898-B3BB-EB8287EEEFD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41107E2-EE54-4EBA-9F00-3A15F05E59B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uk_local_authorities!$A$1:$AE$460</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uk_local_authorities!$A$1:$AE$463</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="4334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7272" uniqueCount="4349">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13036,6 +13036,51 @@
   </si>
   <si>
     <t>BS-6879</t>
+  </si>
+  <si>
+    <t>NECA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North East Combined Authority	</t>
+  </si>
+  <si>
+    <t>West Yorkshire Combined Authority</t>
+  </si>
+  <si>
+    <t>WYCA</t>
+  </si>
+  <si>
+    <t>North of Tyne Combined Authority</t>
+  </si>
+  <si>
+    <t>NTCA</t>
+  </si>
+  <si>
+    <t>E47000008</t>
+  </si>
+  <si>
+    <t>E47000001</t>
+  </si>
+  <si>
+    <t>E47000006</t>
+  </si>
+  <si>
+    <t>E47000009</t>
+  </si>
+  <si>
+    <t>E47000007</t>
+  </si>
+  <si>
+    <t>E47000010</t>
+  </si>
+  <si>
+    <t>E47000003</t>
+  </si>
+  <si>
+    <t>E47000011</t>
+  </si>
+  <si>
+    <t>Newcastle Upon Tyne, North Tyneside and Northumberland Combined Authority</t>
   </si>
 </sst>
 </file>
@@ -13892,11 +13937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE460"/>
+  <dimension ref="A1:AE463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18725,6 +18770,9 @@
       <c r="L72" s="1">
         <v>41730</v>
       </c>
+      <c r="O72" t="s">
+        <v>4340</v>
+      </c>
       <c r="V72" t="s">
         <v>4116</v>
       </c>
@@ -21936,6 +21984,9 @@
       <c r="L122" s="1">
         <v>41730</v>
       </c>
+      <c r="O122" t="s">
+        <v>4341</v>
+      </c>
       <c r="V122" t="s">
         <v>4118</v>
       </c>
@@ -35245,6 +35296,12 @@
       <c r="G322" t="s">
         <v>4106</v>
       </c>
+      <c r="L322" s="1">
+        <v>41730</v>
+      </c>
+      <c r="O322" t="s">
+        <v>4342</v>
+      </c>
       <c r="V322" t="s">
         <v>4115</v>
       </c>
@@ -36051,6 +36108,9 @@
       <c r="L335" s="1">
         <v>41730</v>
       </c>
+      <c r="O335" t="s">
+        <v>4343</v>
+      </c>
       <c r="V335" t="s">
         <v>4119</v>
       </c>
@@ -36900,7 +36960,10 @@
         <v>4108</v>
       </c>
       <c r="L348" s="1">
-        <v>41730</v>
+        <v>42538</v>
+      </c>
+      <c r="O348" t="s">
+        <v>4344</v>
       </c>
       <c r="V348" t="s">
         <v>4117</v>
@@ -42591,8 +42654,80 @@
         <v>-0.81157084150603698</v>
       </c>
     </row>
+    <row r="461" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B461" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D461" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E461" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G461" t="s">
+        <v>4335</v>
+      </c>
+      <c r="L461" s="1">
+        <v>41744</v>
+      </c>
+      <c r="O461" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="462" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B462" t="s">
+        <v>4337</v>
+      </c>
+      <c r="D462" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E462" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G462" t="s">
+        <v>4336</v>
+      </c>
+      <c r="L462" s="1">
+        <v>41730</v>
+      </c>
+      <c r="O462" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="463" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B463" t="s">
+        <v>4339</v>
+      </c>
+      <c r="D463" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E463" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G463" t="s">
+        <v>4338</v>
+      </c>
+      <c r="H463" t="s">
+        <v>4348</v>
+      </c>
+      <c r="L463" s="1">
+        <v>43406</v>
+      </c>
+      <c r="O463" t="s">
+        <v>4347</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE460" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}"/>
+  <autoFilter ref="A1:AE463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41107E2-EE54-4EBA-9F00-3A15F05E59B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC7131-5FB2-4546-9ED0-65B3317AFD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7272" uniqueCount="4349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7271" uniqueCount="4349">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13941,7 +13941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15350,9 +15350,6 @@
       <c r="G21" t="s">
         <v>208</v>
       </c>
-      <c r="H21" t="s">
-        <v>209</v>
-      </c>
       <c r="K21" t="s">
         <v>210</v>
       </c>
@@ -19600,9 +19597,6 @@
       <c r="G85" t="s">
         <v>741</v>
       </c>
-      <c r="H85" t="s">
-        <v>742</v>
-      </c>
       <c r="K85" t="s">
         <v>743</v>
       </c>
@@ -19735,6 +19729,9 @@
       </c>
       <c r="H87" t="s">
         <v>4081</v>
+      </c>
+      <c r="I87" t="s">
+        <v>742</v>
       </c>
       <c r="L87" s="1">
         <v>43556</v>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC7131-5FB2-4546-9ED0-65B3317AFD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509D3C8-25E0-4C90-9EFB-E9E71BB74945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12999,18 +12999,12 @@
     <t>North Northamptonshire</t>
   </si>
   <si>
-    <t>E06000061 </t>
-  </si>
-  <si>
     <t>West Northamptonshire Council</t>
   </si>
   <si>
     <t>West Northamptonshire</t>
   </si>
   <si>
-    <t>E06000062 </t>
-  </si>
-  <si>
     <t>nation</t>
   </si>
   <si>
@@ -13081,6 +13075,12 @@
   </si>
   <si>
     <t>Newcastle Upon Tyne, North Tyneside and Northumberland Combined Authority</t>
+  </si>
+  <si>
+    <t>E06000062</t>
+  </si>
+  <si>
+    <t>E06000061</t>
   </si>
 </sst>
 </file>
@@ -13939,9 +13939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P376" sqref="P376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13967,7 +13967,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
@@ -14030,13 +14030,13 @@
         <v>16</v>
       </c>
       <c r="V1" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="W1" t="s">
         <v>1</v>
       </c>
       <c r="X1" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>17</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -14517,7 +14517,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B13" t="s">
         <v>124</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B14" t="s">
         <v>132</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B16" t="s">
         <v>155</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B17" t="s">
         <v>165</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B18" t="s">
         <v>177</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
@@ -15265,7 +15265,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B20" t="s">
         <v>193</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B22" t="s">
         <v>214</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B23" t="s">
         <v>223</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B24" t="s">
         <v>233</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B25" t="s">
         <v>241</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B26" t="s">
         <v>251</v>
@@ -15744,7 +15744,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B27" t="s">
         <v>260</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B28" t="s">
         <v>269</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B29" t="s">
         <v>278</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B30" t="s">
         <v>4075</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B31" t="s">
         <v>287</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B32" t="s">
         <v>297</v>
@@ -16134,7 +16134,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B33" t="s">
         <v>306</v>
@@ -16208,7 +16208,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B34" t="s">
         <v>316</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B35" t="s">
         <v>325</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B36" t="s">
         <v>334</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B37" t="s">
         <v>342</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B38" t="s">
         <v>351</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B39" t="s">
         <v>359</v>
@@ -16604,7 +16604,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B40" t="s">
         <v>367</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B41" t="s">
         <v>375</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B42" t="s">
         <v>383</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B43" t="s">
         <v>394</v>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B44" t="s">
         <v>402</v>
@@ -16947,7 +16947,7 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B45" t="s">
         <v>411</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B46" t="s">
         <v>413</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B47" t="s">
         <v>427</v>
@@ -17139,7 +17139,7 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B48" t="s">
         <v>436</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B49" t="s">
         <v>444</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B50" t="s">
         <v>452</v>
@@ -17334,7 +17334,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B51" t="s">
         <v>460</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B52" t="s">
         <v>470</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B53" t="s">
         <v>478</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B54" t="s">
         <v>487</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B55" t="s">
         <v>497</v>
@@ -17677,7 +17677,7 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B56" t="s">
         <v>505</v>
@@ -17742,7 +17742,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B57" t="s">
         <v>513</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B58" t="s">
         <v>521</v>
@@ -17872,7 +17872,7 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B59" t="s">
         <v>529</v>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B60" t="s">
         <v>537</v>
@@ -18002,7 +18002,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B61" t="s">
         <v>545</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B62" t="s">
         <v>553</v>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B63" t="s">
         <v>563</v>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B65" t="s">
         <v>579</v>
@@ -18339,7 +18339,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B66" t="s">
         <v>587</v>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B67" t="s">
         <v>595</v>
@@ -18478,7 +18478,7 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B68" t="s">
         <v>605</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B69" t="s">
         <v>613</v>
@@ -18573,7 +18573,7 @@
         <v>44287</v>
       </c>
       <c r="N69" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="O69" t="s">
         <v>618</v>
@@ -18614,7 +18614,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B70" t="s">
         <v>621</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B71" t="s">
         <v>629</v>
@@ -18750,7 +18750,7 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B72" t="s">
         <v>4116</v>
@@ -18768,7 +18768,7 @@
         <v>41730</v>
       </c>
       <c r="O72" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="V72" t="s">
         <v>4116</v>
@@ -18782,7 +18782,7 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B73" t="s">
         <v>638</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B74" t="s">
         <v>647</v>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B75" t="s">
         <v>655</v>
@@ -18980,7 +18980,7 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B76" t="s">
         <v>663</v>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B77" t="s">
         <v>672</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B78" t="s">
         <v>682</v>
@@ -19184,7 +19184,7 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B79" t="s">
         <v>690</v>
@@ -19214,7 +19214,7 @@
         <v>44287</v>
       </c>
       <c r="N79" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="O79" t="s">
         <v>695</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -19317,7 +19317,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B81" t="s">
         <v>705</v>
@@ -19379,7 +19379,7 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B82" t="s">
         <v>713</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B83" t="s">
         <v>271</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B84" t="s">
         <v>731</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B85" t="s">
         <v>480</v>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B86" t="s">
         <v>747</v>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B87" t="s">
         <v>4076</v>
@@ -19757,7 +19757,7 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B88" t="s">
         <v>755</v>
@@ -19828,7 +19828,7 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B89" t="s">
         <v>764</v>
@@ -19905,7 +19905,7 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B90" t="s">
         <v>775</v>
@@ -19970,7 +19970,7 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B91" t="s">
         <v>783</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B92" t="s">
         <v>792</v>
@@ -20100,7 +20100,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B93" t="s">
         <v>800</v>
@@ -20165,7 +20165,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B94" t="s">
         <v>808</v>
@@ -20230,7 +20230,7 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B95" t="s">
         <v>816</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B96" t="s">
         <v>824</v>
@@ -20357,7 +20357,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B97" t="s">
         <v>832</v>
@@ -20422,7 +20422,7 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B98" t="s">
         <v>841</v>
@@ -20490,7 +20490,7 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B99" t="s">
         <v>850</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B100" t="s">
         <v>858</v>
@@ -20620,7 +20620,7 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B101" t="s">
         <v>867</v>
@@ -20685,7 +20685,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B102" t="s">
         <v>875</v>
@@ -20715,7 +20715,7 @@
         <v>44287</v>
       </c>
       <c r="N102" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="O102" t="s">
         <v>880</v>
@@ -20756,7 +20756,7 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B103" t="s">
         <v>883</v>
@@ -20821,7 +20821,7 @@
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B104" t="s">
         <v>891</v>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B105" t="s">
         <v>901</v>
@@ -20954,7 +20954,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B106" t="s">
         <v>909</v>
@@ -21028,7 +21028,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B107" t="s">
         <v>4079</v>
@@ -21075,7 +21075,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
@@ -21137,7 +21137,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B109" t="s">
         <v>926</v>
@@ -21202,7 +21202,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B110" t="s">
         <v>785</v>
@@ -21264,7 +21264,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B111" t="s">
         <v>941</v>
@@ -21326,7 +21326,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B112" t="s">
         <v>949</v>
@@ -21391,7 +21391,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B113" t="s">
         <v>957</v>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B114" t="s">
         <v>965</v>
@@ -21521,7 +21521,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B115" t="s">
         <v>973</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B116" t="s">
         <v>981</v>
@@ -21648,7 +21648,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B117" t="s">
         <v>989</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B118" t="s">
         <v>998</v>
@@ -21784,7 +21784,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B119" t="s">
         <v>169</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B120" t="s">
         <v>1016</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B121" t="s">
         <v>299</v>
@@ -21964,7 +21964,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B122" t="s">
         <v>4118</v>
@@ -21982,7 +21982,7 @@
         <v>41730</v>
       </c>
       <c r="O122" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="V122" t="s">
         <v>4118</v>
@@ -21996,7 +21996,7 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B123" t="s">
         <v>1031</v>
@@ -22061,7 +22061,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B124" t="s">
         <v>1039</v>
@@ -22126,7 +22126,7 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B125" t="s">
         <v>1047</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B126" t="s">
         <v>1055</v>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B127" t="s">
         <v>1063</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B128" t="s">
         <v>1071</v>
@@ -22386,7 +22386,7 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B129" t="s">
         <v>1079</v>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B130" t="s">
         <v>1087</v>
@@ -22516,7 +22516,7 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B131" t="s">
         <v>1095</v>
@@ -22590,7 +22590,7 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B132" t="s">
         <v>834</v>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B133" t="s">
         <v>1112</v>
@@ -22714,7 +22714,7 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B134" t="s">
         <v>1120</v>
@@ -22779,7 +22779,7 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B135" t="s">
         <v>1128</v>
@@ -22844,7 +22844,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B136" t="s">
         <v>1136</v>
@@ -22909,7 +22909,7 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B137" t="s">
         <v>1144</v>
@@ -22974,7 +22974,7 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B138" t="s">
         <v>1152</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B139" t="s">
         <v>1160</v>
@@ -23113,7 +23113,7 @@
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B140" t="s">
         <v>1170</v>
@@ -23178,7 +23178,7 @@
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B141" t="s">
         <v>1178</v>
@@ -23243,7 +23243,7 @@
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B142" t="s">
         <v>1186</v>
@@ -23308,7 +23308,7 @@
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B143" t="s">
         <v>1194</v>
@@ -23376,7 +23376,7 @@
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B144" t="s">
         <v>1203</v>
@@ -23444,7 +23444,7 @@
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B145" t="s">
         <v>1212</v>
@@ -23509,7 +23509,7 @@
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B146" t="s">
         <v>1220</v>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B147" t="s">
         <v>1228</v>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B148" t="s">
         <v>116</v>
@@ -23713,7 +23713,7 @@
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B149" t="s">
         <v>1245</v>
@@ -23778,7 +23778,7 @@
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B150" t="s">
         <v>1253</v>
@@ -23843,7 +23843,7 @@
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B151" t="s">
         <v>1261</v>
@@ -23908,7 +23908,7 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B152" t="s">
         <v>1269</v>
@@ -23973,7 +23973,7 @@
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B153" t="s">
         <v>1277</v>
@@ -24044,7 +24044,7 @@
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B154" t="s">
         <v>1287</v>
@@ -24118,7 +24118,7 @@
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B155" t="s">
         <v>1297</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B156" t="s">
         <v>1305</v>
@@ -24248,7 +24248,7 @@
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B157" t="s">
         <v>1313</v>
@@ -24316,7 +24316,7 @@
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B158" t="s">
         <v>665</v>
@@ -24378,7 +24378,7 @@
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B159" t="s">
         <v>1329</v>
@@ -24405,7 +24405,7 @@
         <v>44287</v>
       </c>
       <c r="N159" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="O159" t="s">
         <v>1334</v>
@@ -24446,7 +24446,7 @@
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B160" t="s">
         <v>1337</v>
@@ -24523,7 +24523,7 @@
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B161" t="s">
         <v>1348</v>
@@ -24594,7 +24594,7 @@
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B162" t="s">
         <v>1358</v>
@@ -24665,7 +24665,7 @@
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B163" t="s">
         <v>1367</v>
@@ -24730,7 +24730,7 @@
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B164" t="s">
         <v>1375</v>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B165" t="s">
         <v>1384</v>
@@ -24866,7 +24866,7 @@
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B166" t="s">
         <v>62</v>
@@ -24928,7 +24928,7 @@
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B167" t="s">
         <v>1399</v>
@@ -24990,7 +24990,7 @@
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B168" t="s">
         <v>1407</v>
@@ -25067,7 +25067,7 @@
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B169" t="s">
         <v>4121</v>
@@ -25096,7 +25096,7 @@
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B170" t="s">
         <v>1418</v>
@@ -25167,7 +25167,7 @@
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B171" t="s">
         <v>216</v>
@@ -25229,7 +25229,7 @@
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B172" t="s">
         <v>1434</v>
@@ -25291,7 +25291,7 @@
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B173" t="s">
         <v>1442</v>
@@ -25356,7 +25356,7 @@
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B174" t="s">
         <v>1450</v>
@@ -25424,7 +25424,7 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B175" t="s">
         <v>1459</v>
@@ -25489,7 +25489,7 @@
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B176" t="s">
         <v>280</v>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B177" t="s">
         <v>1474</v>
@@ -25619,7 +25619,7 @@
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B178" t="s">
         <v>1483</v>
@@ -25687,7 +25687,7 @@
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B179" t="s">
         <v>1493</v>
@@ -25761,7 +25761,7 @@
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B180" t="s">
         <v>1503</v>
@@ -25826,7 +25826,7 @@
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B181" t="s">
         <v>1511</v>
@@ -25891,7 +25891,7 @@
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B182" t="s">
         <v>1519</v>
@@ -25962,7 +25962,7 @@
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B183" t="s">
         <v>1528</v>
@@ -26027,7 +26027,7 @@
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B184" t="s">
         <v>1536</v>
@@ -26092,7 +26092,7 @@
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B185" t="s">
         <v>1544</v>
@@ -26166,7 +26166,7 @@
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B186" t="s">
         <v>1554</v>
@@ -26231,7 +26231,7 @@
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B187" t="s">
         <v>1562</v>
@@ -26308,7 +26308,7 @@
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B188" t="s">
         <v>1573</v>
@@ -26373,7 +26373,7 @@
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B189" t="s">
         <v>1581</v>
@@ -26438,7 +26438,7 @@
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B190" t="s">
         <v>1590</v>
@@ -26512,7 +26512,7 @@
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B191" t="s">
         <v>1600</v>
@@ -26577,7 +26577,7 @@
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B192" t="s">
         <v>1608</v>
@@ -26642,7 +26642,7 @@
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B193" t="s">
         <v>1616</v>
@@ -26710,7 +26710,7 @@
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B194" t="s">
         <v>1624</v>
@@ -26775,7 +26775,7 @@
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B195" t="s">
         <v>1632</v>
@@ -26849,7 +26849,7 @@
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B196" t="s">
         <v>1642</v>
@@ -26914,7 +26914,7 @@
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B197" t="s">
         <v>1650</v>
@@ -26976,7 +26976,7 @@
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B198" t="s">
         <v>1658</v>
@@ -27044,7 +27044,7 @@
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B199" t="s">
         <v>1667</v>
@@ -27109,7 +27109,7 @@
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B200" t="s">
         <v>1675</v>
@@ -27174,7 +27174,7 @@
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B201" t="s">
         <v>1683</v>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B202" t="s">
         <v>1693</v>
@@ -27319,7 +27319,7 @@
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B203" t="s">
         <v>1702</v>
@@ -27384,7 +27384,7 @@
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B204" t="s">
         <v>344</v>
@@ -27446,7 +27446,7 @@
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B205" t="s">
         <v>1717</v>
@@ -27523,7 +27523,7 @@
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B206" t="s">
         <v>1728</v>
@@ -27588,7 +27588,7 @@
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B207" t="s">
         <v>1736</v>
@@ -27653,7 +27653,7 @@
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B208" t="s">
         <v>1744</v>
@@ -27727,7 +27727,7 @@
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B209" t="s">
         <v>1754</v>
@@ -27792,7 +27792,7 @@
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B210" t="s">
         <v>1762</v>
@@ -27822,7 +27822,7 @@
         <v>44287</v>
       </c>
       <c r="N210" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="O210" t="s">
         <v>1767</v>
@@ -27863,7 +27863,7 @@
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B211" t="s">
         <v>1770</v>
@@ -27928,7 +27928,7 @@
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B212" t="s">
         <v>1778</v>
@@ -28002,7 +28002,7 @@
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B213" t="s">
         <v>327</v>
@@ -28029,7 +28029,7 @@
         <v>44287</v>
       </c>
       <c r="N213" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="O213" t="s">
         <v>1792</v>
@@ -28070,7 +28070,7 @@
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B214" t="s">
         <v>71</v>
@@ -28132,7 +28132,7 @@
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B215" t="s">
         <v>1802</v>
@@ -28203,7 +28203,7 @@
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B216" t="s">
         <v>1811</v>
@@ -28271,7 +28271,7 @@
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B217" t="s">
         <v>1820</v>
@@ -28336,7 +28336,7 @@
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B218" t="s">
         <v>1828</v>
@@ -28401,7 +28401,7 @@
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B219" t="s">
         <v>1836</v>
@@ -28466,7 +28466,7 @@
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B220" t="s">
         <v>640</v>
@@ -28528,7 +28528,7 @@
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B221" t="s">
         <v>1851</v>
@@ -28593,7 +28593,7 @@
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B222" t="s">
         <v>1860</v>
@@ -28664,7 +28664,7 @@
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B223" t="s">
         <v>98</v>
@@ -28726,7 +28726,7 @@
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B224" t="s">
         <v>1876</v>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B225" t="s">
         <v>1884</v>
@@ -28853,7 +28853,7 @@
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B226" t="s">
         <v>1892</v>
@@ -28927,7 +28927,7 @@
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B227" t="s">
         <v>1902</v>
@@ -28995,7 +28995,7 @@
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B228" t="s">
         <v>1912</v>
@@ -29069,7 +29069,7 @@
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B229" t="s">
         <v>1922</v>
@@ -29134,7 +29134,7 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B230" t="s">
         <v>1930</v>
@@ -29208,7 +29208,7 @@
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B231" t="s">
         <v>1940</v>
@@ -29270,7 +29270,7 @@
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B232" t="s">
         <v>1948</v>
@@ -29344,7 +29344,7 @@
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B233" t="s">
         <v>1958</v>
@@ -29415,7 +29415,7 @@
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B234" t="s">
         <v>1967</v>
@@ -29480,7 +29480,7 @@
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B235" t="s">
         <v>1975</v>
@@ -29554,7 +29554,7 @@
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B236" t="s">
         <v>1985</v>
@@ -29619,7 +29619,7 @@
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B237" t="s">
         <v>1993</v>
@@ -29687,7 +29687,7 @@
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B238" t="s">
         <v>2002</v>
@@ -29752,7 +29752,7 @@
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B239" t="s">
         <v>2010</v>
@@ -29817,7 +29817,7 @@
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B240" t="s">
         <v>2018</v>
@@ -29882,7 +29882,7 @@
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B241" t="s">
         <v>2026</v>
@@ -29947,7 +29947,7 @@
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B242" t="s">
         <v>2034</v>
@@ -30012,7 +30012,7 @@
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B243" t="s">
         <v>2042</v>
@@ -30077,7 +30077,7 @@
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B244" t="s">
         <v>2050</v>
@@ -30148,7 +30148,7 @@
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B245" t="s">
         <v>2059</v>
@@ -30213,7 +30213,7 @@
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B246" t="s">
         <v>2067</v>
@@ -30278,7 +30278,7 @@
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B247" t="s">
         <v>2075</v>
@@ -30343,7 +30343,7 @@
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B248" t="s">
         <v>2083</v>
@@ -30408,7 +30408,7 @@
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B249" t="s">
         <v>2091</v>
@@ -30482,7 +30482,7 @@
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B250" t="s">
         <v>2101</v>
@@ -30547,7 +30547,7 @@
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B251" t="s">
         <v>2109</v>
@@ -30615,7 +30615,7 @@
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B252" t="s">
         <v>2118</v>
@@ -30686,7 +30686,7 @@
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B253" t="s">
         <v>2127</v>
@@ -30751,7 +30751,7 @@
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B254" t="s">
         <v>2135</v>
@@ -30816,7 +30816,7 @@
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B255" t="s">
         <v>2143</v>
@@ -30881,7 +30881,7 @@
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B256" t="s">
         <v>4120</v>
@@ -30910,7 +30910,7 @@
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B257" t="s">
         <v>2151</v>
@@ -30975,7 +30975,7 @@
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B258" t="s">
         <v>2159</v>
@@ -31037,7 +31037,7 @@
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B259" t="s">
         <v>2167</v>
@@ -31102,7 +31102,7 @@
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B260" t="s">
         <v>2175</v>
@@ -31167,7 +31167,7 @@
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B261" t="s">
         <v>2183</v>
@@ -31232,7 +31232,7 @@
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B262" t="s">
         <v>89</v>
@@ -31294,7 +31294,7 @@
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B263" t="s">
         <v>2198</v>
@@ -31365,7 +31365,7 @@
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B264" t="s">
         <v>2207</v>
@@ -31439,7 +31439,7 @@
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B265" t="s">
         <v>2217</v>
@@ -31504,7 +31504,7 @@
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B266" t="s">
         <v>2225</v>
@@ -31575,7 +31575,7 @@
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B267" t="s">
         <v>2233</v>
@@ -31646,7 +31646,7 @@
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B268" t="s">
         <v>2242</v>
@@ -31720,7 +31720,7 @@
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B269" t="s">
         <v>2252</v>
@@ -31785,7 +31785,7 @@
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B270" t="s">
         <v>2260</v>
@@ -31859,7 +31859,7 @@
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B271" t="s">
         <v>2270</v>
@@ -31924,7 +31924,7 @@
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B272" t="s">
         <v>2278</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B273" t="s">
         <v>2287</v>
@@ -32060,7 +32060,7 @@
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B274" t="s">
         <v>2295</v>
@@ -32131,7 +32131,7 @@
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B275" t="s">
         <v>2304</v>
@@ -32205,7 +32205,7 @@
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B276" t="s">
         <v>2314</v>
@@ -32276,7 +32276,7 @@
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B277" t="s">
         <v>2323</v>
@@ -32341,7 +32341,7 @@
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B278" t="s">
         <v>2331</v>
@@ -32371,7 +32371,7 @@
         <v>44287</v>
       </c>
       <c r="N278" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="O278" t="s">
         <v>2336</v>
@@ -32412,7 +32412,7 @@
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B279" t="s">
         <v>2339</v>
@@ -32483,7 +32483,7 @@
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B280" t="s">
         <v>1583</v>
@@ -32545,7 +32545,7 @@
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B281" t="s">
         <v>2355</v>
@@ -32619,7 +32619,7 @@
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B282" t="s">
         <v>2366</v>
@@ -32684,7 +32684,7 @@
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B283" t="s">
         <v>2374</v>
@@ -32749,7 +32749,7 @@
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B284" t="s">
         <v>2382</v>
@@ -32814,7 +32814,7 @@
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B285" t="s">
         <v>860</v>
@@ -32876,7 +32876,7 @@
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B286" t="s">
         <v>2397</v>
@@ -32938,7 +32938,7 @@
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B287" t="s">
         <v>2405</v>
@@ -33003,7 +33003,7 @@
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B288" t="s">
         <v>2413</v>
@@ -33068,7 +33068,7 @@
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B289" t="s">
         <v>2421</v>
@@ -33142,7 +33142,7 @@
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B290" t="s">
         <v>2431</v>
@@ -33207,7 +33207,7 @@
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B291" t="s">
         <v>2439</v>
@@ -33281,7 +33281,7 @@
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B292" t="s">
         <v>2449</v>
@@ -33346,7 +33346,7 @@
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B293" t="s">
         <v>2457</v>
@@ -33411,7 +33411,7 @@
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B294" t="s">
         <v>2465</v>
@@ -33476,7 +33476,7 @@
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B295" t="s">
         <v>429</v>
@@ -33538,7 +33538,7 @@
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B296" t="s">
         <v>2480</v>
@@ -33612,7 +33612,7 @@
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B297" t="s">
         <v>2491</v>
@@ -33680,7 +33680,7 @@
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B298" t="s">
         <v>2500</v>
@@ -33751,7 +33751,7 @@
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B299" t="s">
         <v>2509</v>
@@ -33813,7 +33813,7 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B300" t="s">
         <v>2517</v>
@@ -33878,7 +33878,7 @@
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B301" t="s">
         <v>2525</v>
@@ -33952,7 +33952,7 @@
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B302" t="s">
         <v>2535</v>
@@ -34017,7 +34017,7 @@
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B303" t="s">
         <v>2543</v>
@@ -34082,7 +34082,7 @@
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B304" t="s">
         <v>4077</v>
@@ -34132,7 +34132,7 @@
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B305" t="s">
         <v>2551</v>
@@ -34203,7 +34203,7 @@
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B306" t="s">
         <v>2560</v>
@@ -34268,7 +34268,7 @@
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B307" t="s">
         <v>2568</v>
@@ -34330,7 +34330,7 @@
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B308" t="s">
         <v>2576</v>
@@ -34395,7 +34395,7 @@
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B309" t="s">
         <v>2584</v>
@@ -34460,7 +34460,7 @@
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B310" t="s">
         <v>2592</v>
@@ -34525,7 +34525,7 @@
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B311" t="s">
         <v>2600</v>
@@ -34590,7 +34590,7 @@
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B312" t="s">
         <v>2608</v>
@@ -34655,7 +34655,7 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B313" t="s">
         <v>2616</v>
@@ -34732,7 +34732,7 @@
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B314" t="s">
         <v>2627</v>
@@ -34797,7 +34797,7 @@
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B315" t="s">
         <v>2635</v>
@@ -34862,7 +34862,7 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B316" t="s">
         <v>2643</v>
@@ -34936,7 +34936,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B317" t="s">
         <v>2653</v>
@@ -35010,7 +35010,7 @@
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B318" t="s">
         <v>2663</v>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B319" t="s">
         <v>2672</v>
@@ -35143,7 +35143,7 @@
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B320" t="s">
         <v>2680</v>
@@ -35214,7 +35214,7 @@
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B321" t="s">
         <v>2689</v>
@@ -35279,7 +35279,7 @@
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B322" t="s">
         <v>4115</v>
@@ -35297,7 +35297,7 @@
         <v>41730</v>
       </c>
       <c r="O322" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="V322" t="s">
         <v>4115</v>
@@ -35311,7 +35311,7 @@
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B323" t="s">
         <v>2697</v>
@@ -35376,7 +35376,7 @@
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B324" t="s">
         <v>2705</v>
@@ -35441,7 +35441,7 @@
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B325" t="s">
         <v>2713</v>
@@ -35506,7 +35506,7 @@
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B326" t="s">
         <v>2721</v>
@@ -35571,7 +35571,7 @@
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B327" t="s">
         <v>893</v>
@@ -35633,7 +35633,7 @@
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B328" t="s">
         <v>2736</v>
@@ -35695,7 +35695,7 @@
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B329" t="s">
         <v>2744</v>
@@ -35757,7 +35757,7 @@
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B330" t="s">
         <v>2752</v>
@@ -35822,7 +35822,7 @@
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B331" t="s">
         <v>2760</v>
@@ -35896,7 +35896,7 @@
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B332" t="s">
         <v>2770</v>
@@ -35961,7 +35961,7 @@
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B333" t="s">
         <v>2778</v>
@@ -36023,7 +36023,7 @@
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B334" t="s">
         <v>2786</v>
@@ -36088,7 +36088,7 @@
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B335" t="s">
         <v>4119</v>
@@ -36106,7 +36106,7 @@
         <v>41730</v>
       </c>
       <c r="O335" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="V335" t="s">
         <v>4119</v>
@@ -36120,7 +36120,7 @@
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B336" t="s">
         <v>2794</v>
@@ -36150,7 +36150,7 @@
         <v>44287</v>
       </c>
       <c r="N336" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="O336" t="s">
         <v>2799</v>
@@ -36191,7 +36191,7 @@
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B337" t="s">
         <v>2802</v>
@@ -36259,7 +36259,7 @@
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B338" t="s">
         <v>2811</v>
@@ -36324,7 +36324,7 @@
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B339" t="s">
         <v>2820</v>
@@ -36389,7 +36389,7 @@
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B340" t="s">
         <v>2828</v>
@@ -36460,7 +36460,7 @@
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B341" t="s">
         <v>2837</v>
@@ -36534,7 +36534,7 @@
     </row>
     <row r="342" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B342" t="s">
         <v>2847</v>
@@ -36599,7 +36599,7 @@
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B343" t="s">
         <v>2855</v>
@@ -36670,7 +36670,7 @@
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B344" t="s">
         <v>2864</v>
@@ -36735,7 +36735,7 @@
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B345" t="s">
         <v>2872</v>
@@ -36800,7 +36800,7 @@
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B346" t="s">
         <v>2880</v>
@@ -36871,7 +36871,7 @@
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B347" t="s">
         <v>2889</v>
@@ -36942,7 +36942,7 @@
     </row>
     <row r="348" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B348" t="s">
         <v>4117</v>
@@ -36960,7 +36960,7 @@
         <v>42538</v>
       </c>
       <c r="O348" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="V348" t="s">
         <v>4117</v>
@@ -36974,7 +36974,7 @@
     </row>
     <row r="349" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B349" t="s">
         <v>2898</v>
@@ -37039,7 +37039,7 @@
     </row>
     <row r="350" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B350" t="s">
         <v>2906</v>
@@ -37113,7 +37113,7 @@
     </row>
     <row r="351" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B351" t="s">
         <v>2916</v>
@@ -37178,7 +37178,7 @@
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B352" t="s">
         <v>2924</v>
@@ -37243,7 +37243,7 @@
     </row>
     <row r="353" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B353" t="s">
         <v>2932</v>
@@ -37317,7 +37317,7 @@
     </row>
     <row r="354" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B354" t="s">
         <v>25</v>
@@ -37379,7 +37379,7 @@
     </row>
     <row r="355" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B355" t="s">
         <v>2949</v>
@@ -37447,7 +37447,7 @@
     </row>
     <row r="356" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B356" t="s">
         <v>2957</v>
@@ -37512,7 +37512,7 @@
     </row>
     <row r="357" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B357" t="s">
         <v>2965</v>
@@ -37583,7 +37583,7 @@
     </row>
     <row r="358" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B358" t="s">
         <v>2974</v>
@@ -37657,7 +37657,7 @@
     </row>
     <row r="359" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B359" t="s">
         <v>4078</v>
@@ -37704,7 +37704,7 @@
     </row>
     <row r="360" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B360" t="s">
         <v>2984</v>
@@ -37769,7 +37769,7 @@
     </row>
     <row r="361" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B361" t="s">
         <v>2992</v>
@@ -37831,7 +37831,7 @@
     </row>
     <row r="362" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B362" t="s">
         <v>53</v>
@@ -37893,7 +37893,7 @@
     </row>
     <row r="363" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B363" t="s">
         <v>3007</v>
@@ -37955,7 +37955,7 @@
     </row>
     <row r="364" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B364" t="s">
         <v>3015</v>
@@ -38020,7 +38020,7 @@
     </row>
     <row r="365" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B365" t="s">
         <v>3023</v>
@@ -38085,7 +38085,7 @@
     </row>
     <row r="366" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B366" t="s">
         <v>3031</v>
@@ -38150,7 +38150,7 @@
     </row>
     <row r="367" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B367" t="s">
         <v>3039</v>
@@ -38224,10 +38224,10 @@
     </row>
     <row r="368" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B368" t="s">
         <v>4326</v>
-      </c>
-      <c r="B368" t="s">
-        <v>4328</v>
       </c>
       <c r="C368" t="s">
         <v>4309</v>
@@ -38248,19 +38248,19 @@
         <v>44287</v>
       </c>
       <c r="O368" s="4" t="s">
-        <v>4321</v>
+        <v>4348</v>
       </c>
       <c r="Y368"/>
       <c r="AE368" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="369" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B369" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="C369" t="s">
         <v>4309</v>
@@ -38272,20 +38272,20 @@
         <v>135</v>
       </c>
       <c r="G369" t="s">
+        <v>4321</v>
+      </c>
+      <c r="H369" t="s">
         <v>4322</v>
-      </c>
-      <c r="H369" t="s">
-        <v>4323</v>
       </c>
       <c r="L369" s="1">
         <v>44287</v>
       </c>
       <c r="O369" s="4" t="s">
-        <v>4324</v>
+        <v>4347</v>
       </c>
       <c r="Y369"/>
       <c r="AE369" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="370" spans="1:31" x14ac:dyDescent="0.25">
@@ -42611,7 +42611,7 @@
     </row>
     <row r="460" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B460" t="s">
         <v>4129</v>
@@ -42653,10 +42653,10 @@
     </row>
     <row r="461" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B461" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="D461" t="s">
         <v>4113</v>
@@ -42665,21 +42665,21 @@
         <v>4114</v>
       </c>
       <c r="G461" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="L461" s="1">
         <v>41744</v>
       </c>
       <c r="O461" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="462" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B462" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="D462" t="s">
         <v>4113</v>
@@ -42688,21 +42688,21 @@
         <v>4114</v>
       </c>
       <c r="G462" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="L462" s="1">
         <v>41730</v>
       </c>
       <c r="O462" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="463" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B463" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="D463" t="s">
         <v>4113</v>
@@ -42711,16 +42711,16 @@
         <v>4114</v>
       </c>
       <c r="G463" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="H463" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="L463" s="1">
         <v>43406</v>
       </c>
       <c r="O463" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
     </row>
   </sheetData>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509D3C8-25E0-4C90-9EFB-E9E71BB74945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6B13B-D41C-40B6-A396-4F0B255A23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uk_local_authorities!$A$1:$AE$463</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7271" uniqueCount="4349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7519" uniqueCount="4358">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13081,6 +13082,33 @@
   </si>
   <si>
     <t>E06000061</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>WPA</t>
+  </si>
+  <si>
+    <t>NID</t>
+  </si>
+  <si>
+    <t>Welsh Unitary Council</t>
+  </si>
+  <si>
+    <t>NI District Council</t>
+  </si>
+  <si>
+    <t>Scottish Unitary Council</t>
+  </si>
+  <si>
+    <t>E47000004</t>
+  </si>
+  <si>
+    <t>E47000002</t>
+  </si>
+  <si>
+    <t>E47000005</t>
   </si>
 </sst>
 </file>
@@ -13939,9 +13967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P376" sqref="P376"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13949,7 +13977,7 @@
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="19" customWidth="1"/>
@@ -15687,6 +15715,9 @@
       <c r="E26" t="s">
         <v>196</v>
       </c>
+      <c r="F26" t="s">
+        <v>4120</v>
+      </c>
       <c r="G26" t="s">
         <v>253</v>
       </c>
@@ -15758,6 +15789,9 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
+      <c r="F27" t="s">
+        <v>4118</v>
+      </c>
       <c r="G27" t="s">
         <v>262</v>
       </c>
@@ -16222,6 +16256,9 @@
       <c r="E34" t="s">
         <v>196</v>
       </c>
+      <c r="F34" t="s">
+        <v>4335</v>
+      </c>
       <c r="G34" t="s">
         <v>318</v>
       </c>
@@ -16890,6 +16927,9 @@
       <c r="E44" t="s">
         <v>196</v>
       </c>
+      <c r="F44" t="s">
+        <v>4118</v>
+      </c>
       <c r="G44" t="s">
         <v>404</v>
       </c>
@@ -18155,6 +18195,9 @@
       <c r="E63" t="s">
         <v>196</v>
       </c>
+      <c r="F63" t="s">
+        <v>4335</v>
+      </c>
       <c r="G63" t="s">
         <v>565</v>
       </c>
@@ -19059,6 +19102,9 @@
       <c r="E77" t="s">
         <v>135</v>
       </c>
+      <c r="F77" t="s">
+        <v>4115</v>
+      </c>
       <c r="G77" t="s">
         <v>674</v>
       </c>
@@ -19526,6 +19572,9 @@
       <c r="E84" t="s">
         <v>196</v>
       </c>
+      <c r="F84" t="s">
+        <v>4120</v>
+      </c>
       <c r="G84" t="s">
         <v>733</v>
       </c>
@@ -19842,6 +19891,9 @@
       <c r="E89" t="s">
         <v>135</v>
       </c>
+      <c r="F89" t="s">
+        <v>4332</v>
+      </c>
       <c r="G89" t="s">
         <v>766</v>
       </c>
@@ -21662,6 +21714,9 @@
       <c r="E117" t="s">
         <v>196</v>
       </c>
+      <c r="F117" t="s">
+        <v>4332</v>
+      </c>
       <c r="G117" t="s">
         <v>991</v>
       </c>
@@ -22530,6 +22585,9 @@
       <c r="E131" t="s">
         <v>135</v>
       </c>
+      <c r="F131" t="s">
+        <v>4121</v>
+      </c>
       <c r="G131" t="s">
         <v>1097</v>
       </c>
@@ -23591,6 +23649,9 @@
       <c r="E147" t="s">
         <v>135</v>
       </c>
+      <c r="F147" t="s">
+        <v>4115</v>
+      </c>
       <c r="G147" t="s">
         <v>1230</v>
       </c>
@@ -24608,6 +24669,9 @@
       <c r="E162" t="s">
         <v>196</v>
       </c>
+      <c r="F162" t="s">
+        <v>4335</v>
+      </c>
       <c r="G162" t="s">
         <v>1360</v>
       </c>
@@ -24744,6 +24808,9 @@
       <c r="E164" t="s">
         <v>196</v>
       </c>
+      <c r="F164" t="s">
+        <v>4121</v>
+      </c>
       <c r="G164" t="s">
         <v>1377</v>
       </c>
@@ -25084,6 +25151,9 @@
       <c r="L169" s="1">
         <v>41730</v>
       </c>
+      <c r="O169" t="s">
+        <v>4355</v>
+      </c>
       <c r="V169" t="s">
         <v>4121</v>
       </c>
@@ -25110,6 +25180,9 @@
       <c r="E170" t="s">
         <v>196</v>
       </c>
+      <c r="F170" t="s">
+        <v>4335</v>
+      </c>
       <c r="G170" t="s">
         <v>1420</v>
       </c>
@@ -25562,6 +25635,9 @@
       <c r="E177" t="s">
         <v>196</v>
       </c>
+      <c r="F177" t="s">
+        <v>4121</v>
+      </c>
       <c r="G177" t="s">
         <v>1476</v>
       </c>
@@ -25905,6 +25981,9 @@
       <c r="E182" t="s">
         <v>196</v>
       </c>
+      <c r="F182" t="s">
+        <v>4118</v>
+      </c>
       <c r="G182" t="s">
         <v>1521</v>
       </c>
@@ -26106,6 +26185,9 @@
       <c r="E185" t="s">
         <v>135</v>
       </c>
+      <c r="F185" t="s">
+        <v>4115</v>
+      </c>
       <c r="G185" t="s">
         <v>1546</v>
       </c>
@@ -26789,6 +26871,9 @@
       <c r="E195" t="s">
         <v>135</v>
       </c>
+      <c r="F195" t="s">
+        <v>4337</v>
+      </c>
       <c r="G195" t="s">
         <v>1634</v>
       </c>
@@ -27262,6 +27347,9 @@
       <c r="E202" t="s">
         <v>196</v>
       </c>
+      <c r="F202" t="s">
+        <v>4337</v>
+      </c>
       <c r="G202" t="s">
         <v>1695</v>
       </c>
@@ -28146,6 +28234,9 @@
       <c r="E215" t="s">
         <v>196</v>
       </c>
+      <c r="F215" t="s">
+        <v>4337</v>
+      </c>
       <c r="G215" t="s">
         <v>1804</v>
       </c>
@@ -28607,6 +28698,9 @@
       <c r="E222" t="s">
         <v>196</v>
       </c>
+      <c r="F222" t="s">
+        <v>4118</v>
+      </c>
       <c r="G222" t="s">
         <v>1862</v>
       </c>
@@ -29284,6 +29378,9 @@
       <c r="E232" t="s">
         <v>135</v>
       </c>
+      <c r="F232" t="s">
+        <v>4115</v>
+      </c>
       <c r="G232" t="s">
         <v>1950</v>
       </c>
@@ -29358,6 +29455,9 @@
       <c r="E233" t="s">
         <v>196</v>
       </c>
+      <c r="F233" t="s">
+        <v>4118</v>
+      </c>
       <c r="G233" t="s">
         <v>1960</v>
       </c>
@@ -30091,6 +30191,9 @@
       <c r="E244" t="s">
         <v>196</v>
       </c>
+      <c r="F244" t="s">
+        <v>4120</v>
+      </c>
       <c r="G244" t="s">
         <v>2052</v>
       </c>
@@ -30898,6 +31001,9 @@
       <c r="L256" s="1">
         <v>41730</v>
       </c>
+      <c r="O256" t="s">
+        <v>4356</v>
+      </c>
       <c r="V256" t="s">
         <v>4120</v>
       </c>
@@ -31308,6 +31414,9 @@
       <c r="E263" t="s">
         <v>196</v>
       </c>
+      <c r="F263" t="s">
+        <v>4121</v>
+      </c>
       <c r="G263" t="s">
         <v>2200</v>
       </c>
@@ -31589,6 +31698,9 @@
       <c r="E267" t="s">
         <v>196</v>
       </c>
+      <c r="F267" t="s">
+        <v>4120</v>
+      </c>
       <c r="G267" t="s">
         <v>2235</v>
       </c>
@@ -31660,6 +31772,9 @@
       <c r="E268" t="s">
         <v>196</v>
       </c>
+      <c r="F268" t="s">
+        <v>4121</v>
+      </c>
       <c r="G268" t="s">
         <v>2244</v>
       </c>
@@ -31938,6 +32053,9 @@
       <c r="E272" t="s">
         <v>196</v>
       </c>
+      <c r="F272" t="s">
+        <v>4118</v>
+      </c>
       <c r="G272" t="s">
         <v>2280</v>
       </c>
@@ -32074,6 +32192,9 @@
       <c r="E274" t="s">
         <v>196</v>
       </c>
+      <c r="F274" t="s">
+        <v>4118</v>
+      </c>
       <c r="G274" t="s">
         <v>2297</v>
       </c>
@@ -32219,6 +32340,9 @@
       <c r="E276" t="s">
         <v>196</v>
       </c>
+      <c r="F276" t="s">
+        <v>4332</v>
+      </c>
       <c r="G276" t="s">
         <v>2316</v>
       </c>
@@ -33549,6 +33673,9 @@
       <c r="E296" t="s">
         <v>135</v>
       </c>
+      <c r="F296" t="s">
+        <v>4115</v>
+      </c>
       <c r="G296" t="s">
         <v>2482</v>
       </c>
@@ -33694,6 +33821,9 @@
       <c r="E298" t="s">
         <v>196</v>
       </c>
+      <c r="F298" t="s">
+        <v>4332</v>
+      </c>
       <c r="G298" t="s">
         <v>2502</v>
       </c>
@@ -34146,6 +34276,9 @@
       <c r="E305" t="s">
         <v>196</v>
       </c>
+      <c r="F305" t="s">
+        <v>4118</v>
+      </c>
       <c r="G305" t="s">
         <v>2553</v>
       </c>
@@ -35157,6 +35290,9 @@
       <c r="E320" t="s">
         <v>196</v>
       </c>
+      <c r="F320" t="s">
+        <v>4118</v>
+      </c>
       <c r="G320" t="s">
         <v>2682</v>
       </c>
@@ -36403,6 +36539,9 @@
       <c r="E340" t="s">
         <v>196</v>
       </c>
+      <c r="F340" t="s">
+        <v>4118</v>
+      </c>
       <c r="G340" t="s">
         <v>2830</v>
       </c>
@@ -36613,6 +36752,9 @@
       <c r="E343" t="s">
         <v>196</v>
       </c>
+      <c r="F343" t="s">
+        <v>4335</v>
+      </c>
       <c r="G343" t="s">
         <v>2857</v>
       </c>
@@ -37013,7 +37155,7 @@
         <v>2904</v>
       </c>
       <c r="V349" t="s">
-        <v>2898</v>
+        <v>4332</v>
       </c>
       <c r="W349" t="s">
         <v>2899</v>
@@ -37087,7 +37229,7 @@
         <v>2914</v>
       </c>
       <c r="V350" t="s">
-        <v>2906</v>
+        <v>4335</v>
       </c>
       <c r="W350" t="s">
         <v>2907</v>
@@ -37152,7 +37294,7 @@
         <v>2922</v>
       </c>
       <c r="V351" t="s">
-        <v>2916</v>
+        <v>4337</v>
       </c>
       <c r="W351" t="s">
         <v>2917</v>
@@ -37526,6 +37668,9 @@
       <c r="E357" t="s">
         <v>196</v>
       </c>
+      <c r="F357" t="s">
+        <v>4121</v>
+      </c>
       <c r="G357" t="s">
         <v>2967</v>
       </c>
@@ -38298,6 +38443,12 @@
       <c r="C370" t="s">
         <v>4316</v>
       </c>
+      <c r="D370" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E370" t="s">
+        <v>4353</v>
+      </c>
       <c r="G370" t="s">
         <v>3051</v>
       </c>
@@ -38339,6 +38490,12 @@
       <c r="C371" t="s">
         <v>4316</v>
       </c>
+      <c r="D371" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E371" t="s">
+        <v>4353</v>
+      </c>
       <c r="G371" t="s">
         <v>3058</v>
       </c>
@@ -38380,6 +38537,12 @@
       <c r="C372" t="s">
         <v>4316</v>
       </c>
+      <c r="D372" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E372" t="s">
+        <v>4353</v>
+      </c>
       <c r="G372" t="s">
         <v>3065</v>
       </c>
@@ -38421,6 +38584,12 @@
       <c r="C373" t="s">
         <v>4316</v>
       </c>
+      <c r="D373" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E373" t="s">
+        <v>4353</v>
+      </c>
       <c r="G373" t="s">
         <v>3072</v>
       </c>
@@ -38465,6 +38634,12 @@
       <c r="C374" t="s">
         <v>4316</v>
       </c>
+      <c r="D374" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E374" t="s">
+        <v>4353</v>
+      </c>
       <c r="G374" t="s">
         <v>3080</v>
       </c>
@@ -38506,6 +38681,12 @@
       <c r="C375" t="s">
         <v>4316</v>
       </c>
+      <c r="D375" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E375" t="s">
+        <v>4353</v>
+      </c>
       <c r="G375" t="s">
         <v>3087</v>
       </c>
@@ -38547,6 +38728,12 @@
       <c r="C376" t="s">
         <v>4316</v>
       </c>
+      <c r="D376" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E376" t="s">
+        <v>4353</v>
+      </c>
       <c r="G376" t="s">
         <v>3094</v>
       </c>
@@ -38588,6 +38775,12 @@
       <c r="C377" t="s">
         <v>4316</v>
       </c>
+      <c r="D377" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E377" t="s">
+        <v>4353</v>
+      </c>
       <c r="G377" t="s">
         <v>3101</v>
       </c>
@@ -38629,6 +38822,12 @@
       <c r="C378" t="s">
         <v>4316</v>
       </c>
+      <c r="D378" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E378" t="s">
+        <v>4353</v>
+      </c>
       <c r="G378" t="s">
         <v>3108</v>
       </c>
@@ -38670,6 +38869,12 @@
       <c r="C379" t="s">
         <v>4316</v>
       </c>
+      <c r="D379" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E379" t="s">
+        <v>4353</v>
+      </c>
       <c r="G379" t="s">
         <v>3115</v>
       </c>
@@ -38711,6 +38916,15 @@
       <c r="B380" t="s">
         <v>3121</v>
       </c>
+      <c r="C380" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E380" t="s">
+        <v>4353</v>
+      </c>
       <c r="G380" t="s">
         <v>3123</v>
       </c>
@@ -38738,6 +38952,15 @@
       <c r="B381" t="s">
         <v>3126</v>
       </c>
+      <c r="C381" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E381" t="s">
+        <v>4353</v>
+      </c>
       <c r="G381" t="s">
         <v>3128</v>
       </c>
@@ -38765,6 +38988,15 @@
       <c r="B382" t="s">
         <v>3131</v>
       </c>
+      <c r="C382" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E382" t="s">
+        <v>4353</v>
+      </c>
       <c r="G382" t="s">
         <v>3133</v>
       </c>
@@ -38792,6 +39024,15 @@
       <c r="B383" t="s">
         <v>3136</v>
       </c>
+      <c r="C383" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D383" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E383" t="s">
+        <v>4353</v>
+      </c>
       <c r="G383" t="s">
         <v>3138</v>
       </c>
@@ -38819,6 +39060,15 @@
       <c r="B384" t="s">
         <v>3141</v>
       </c>
+      <c r="C384" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D384" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E384" t="s">
+        <v>4353</v>
+      </c>
       <c r="G384" t="s">
         <v>3143</v>
       </c>
@@ -38846,6 +39096,15 @@
       <c r="B385" t="s">
         <v>3146</v>
       </c>
+      <c r="C385" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E385" t="s">
+        <v>4353</v>
+      </c>
       <c r="G385" t="s">
         <v>3148</v>
       </c>
@@ -38873,6 +39132,15 @@
       <c r="B386" t="s">
         <v>3151</v>
       </c>
+      <c r="C386" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D386" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E386" t="s">
+        <v>4353</v>
+      </c>
       <c r="G386" t="s">
         <v>3153</v>
       </c>
@@ -38900,6 +39168,15 @@
       <c r="B387" t="s">
         <v>3156</v>
       </c>
+      <c r="C387" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D387" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E387" t="s">
+        <v>4353</v>
+      </c>
       <c r="G387" t="s">
         <v>3158</v>
       </c>
@@ -38927,6 +39204,15 @@
       <c r="B388" t="s">
         <v>3161</v>
       </c>
+      <c r="C388" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D388" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E388" t="s">
+        <v>4353</v>
+      </c>
       <c r="G388" t="s">
         <v>3163</v>
       </c>
@@ -38954,6 +39240,15 @@
       <c r="B389" t="s">
         <v>3166</v>
       </c>
+      <c r="C389" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D389" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E389" t="s">
+        <v>4353</v>
+      </c>
       <c r="G389" t="s">
         <v>3168</v>
       </c>
@@ -38981,6 +39276,15 @@
       <c r="B390" t="s">
         <v>3171</v>
       </c>
+      <c r="C390" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D390" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E390" t="s">
+        <v>4353</v>
+      </c>
       <c r="G390" t="s">
         <v>3173</v>
       </c>
@@ -39008,6 +39312,15 @@
       <c r="B391" t="s">
         <v>3176</v>
       </c>
+      <c r="C391" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D391" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E391" t="s">
+        <v>4353</v>
+      </c>
       <c r="G391" t="s">
         <v>3178</v>
       </c>
@@ -39035,6 +39348,15 @@
       <c r="B392" t="s">
         <v>3181</v>
       </c>
+      <c r="C392" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D392" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E392" t="s">
+        <v>4353</v>
+      </c>
       <c r="G392" t="s">
         <v>3183</v>
       </c>
@@ -39062,6 +39384,15 @@
       <c r="B393" t="s">
         <v>3186</v>
       </c>
+      <c r="C393" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D393" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E393" t="s">
+        <v>4353</v>
+      </c>
       <c r="G393" t="s">
         <v>3188</v>
       </c>
@@ -39089,6 +39420,15 @@
       <c r="B394" t="s">
         <v>3191</v>
       </c>
+      <c r="C394" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E394" t="s">
+        <v>4353</v>
+      </c>
       <c r="G394" t="s">
         <v>3193</v>
       </c>
@@ -39116,6 +39456,15 @@
       <c r="B395" t="s">
         <v>3196</v>
       </c>
+      <c r="C395" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D395" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E395" t="s">
+        <v>4353</v>
+      </c>
       <c r="G395" t="s">
         <v>3198</v>
       </c>
@@ -39143,6 +39492,15 @@
       <c r="B396" t="s">
         <v>3201</v>
       </c>
+      <c r="C396" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D396" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E396" t="s">
+        <v>4353</v>
+      </c>
       <c r="G396" t="s">
         <v>3203</v>
       </c>
@@ -39170,6 +39528,15 @@
       <c r="B397" t="s">
         <v>3206</v>
       </c>
+      <c r="C397" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D397" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E397" t="s">
+        <v>4353</v>
+      </c>
       <c r="G397" t="s">
         <v>3208</v>
       </c>
@@ -39197,6 +39564,15 @@
       <c r="B398" t="s">
         <v>3211</v>
       </c>
+      <c r="C398" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E398" t="s">
+        <v>4353</v>
+      </c>
       <c r="G398" t="s">
         <v>3213</v>
       </c>
@@ -39224,6 +39600,15 @@
       <c r="B399" t="s">
         <v>3216</v>
       </c>
+      <c r="C399" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D399" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E399" t="s">
+        <v>4353</v>
+      </c>
       <c r="G399" t="s">
         <v>3218</v>
       </c>
@@ -39251,6 +39636,15 @@
       <c r="B400" t="s">
         <v>3221</v>
       </c>
+      <c r="C400" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D400" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E400" t="s">
+        <v>4353</v>
+      </c>
       <c r="G400" t="s">
         <v>3223</v>
       </c>
@@ -39278,6 +39672,15 @@
       <c r="B401" t="s">
         <v>3226</v>
       </c>
+      <c r="C401" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D401" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E401" t="s">
+        <v>4353</v>
+      </c>
       <c r="G401" t="s">
         <v>3228</v>
       </c>
@@ -39305,6 +39708,15 @@
       <c r="B402" t="s">
         <v>3231</v>
       </c>
+      <c r="C402" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D402" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E402" t="s">
+        <v>4353</v>
+      </c>
       <c r="G402" t="s">
         <v>3233</v>
       </c>
@@ -39332,6 +39744,15 @@
       <c r="B403" t="s">
         <v>3236</v>
       </c>
+      <c r="C403" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E403" t="s">
+        <v>4353</v>
+      </c>
       <c r="G403" t="s">
         <v>3238</v>
       </c>
@@ -39359,6 +39780,15 @@
       <c r="B404" t="s">
         <v>3241</v>
       </c>
+      <c r="C404" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E404" t="s">
+        <v>4353</v>
+      </c>
       <c r="G404" t="s">
         <v>3243</v>
       </c>
@@ -39389,6 +39819,12 @@
       <c r="C405" t="s">
         <v>4316</v>
       </c>
+      <c r="D405" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E405" t="s">
+        <v>4353</v>
+      </c>
       <c r="G405" t="s">
         <v>3247</v>
       </c>
@@ -39430,6 +39866,12 @@
       <c r="C406" t="s">
         <v>4317</v>
       </c>
+      <c r="D406" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E406" t="s">
+        <v>4354</v>
+      </c>
       <c r="G406" t="s">
         <v>3254</v>
       </c>
@@ -39486,6 +39928,12 @@
       <c r="C407" t="s">
         <v>4317</v>
       </c>
+      <c r="D407" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E407" t="s">
+        <v>4354</v>
+      </c>
       <c r="G407" t="s">
         <v>3262</v>
       </c>
@@ -39542,6 +39990,12 @@
       <c r="C408" t="s">
         <v>4317</v>
       </c>
+      <c r="D408" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E408" t="s">
+        <v>4354</v>
+      </c>
       <c r="G408" t="s">
         <v>3270</v>
       </c>
@@ -39598,6 +40052,12 @@
       <c r="C409" t="s">
         <v>4317</v>
       </c>
+      <c r="D409" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E409" t="s">
+        <v>4354</v>
+      </c>
       <c r="G409" t="s">
         <v>3278</v>
       </c>
@@ -39654,6 +40114,12 @@
       <c r="C410" t="s">
         <v>4317</v>
       </c>
+      <c r="D410" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E410" t="s">
+        <v>4354</v>
+      </c>
       <c r="G410" t="s">
         <v>3286</v>
       </c>
@@ -39710,6 +40176,12 @@
       <c r="C411" t="s">
         <v>4317</v>
       </c>
+      <c r="D411" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E411" t="s">
+        <v>4354</v>
+      </c>
       <c r="G411" t="s">
         <v>3294</v>
       </c>
@@ -39769,6 +40241,12 @@
       <c r="C412" t="s">
         <v>4317</v>
       </c>
+      <c r="D412" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E412" t="s">
+        <v>4354</v>
+      </c>
       <c r="G412" t="s">
         <v>3303</v>
       </c>
@@ -39825,6 +40303,12 @@
       <c r="C413" t="s">
         <v>4317</v>
       </c>
+      <c r="D413" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E413" t="s">
+        <v>4354</v>
+      </c>
       <c r="G413" t="s">
         <v>3311</v>
       </c>
@@ -39881,6 +40365,12 @@
       <c r="C414" t="s">
         <v>4317</v>
       </c>
+      <c r="D414" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E414" t="s">
+        <v>4354</v>
+      </c>
       <c r="G414" t="s">
         <v>3319</v>
       </c>
@@ -39937,6 +40427,12 @@
       <c r="C415" t="s">
         <v>4317</v>
       </c>
+      <c r="D415" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E415" t="s">
+        <v>4354</v>
+      </c>
       <c r="G415" t="s">
         <v>3327</v>
       </c>
@@ -39996,6 +40492,12 @@
       <c r="C416" t="s">
         <v>4317</v>
       </c>
+      <c r="D416" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E416" t="s">
+        <v>4354</v>
+      </c>
       <c r="G416" t="s">
         <v>3336</v>
       </c>
@@ -40052,6 +40554,12 @@
       <c r="C417" t="s">
         <v>4317</v>
       </c>
+      <c r="D417" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E417" t="s">
+        <v>4354</v>
+      </c>
       <c r="G417" t="s">
         <v>3344</v>
       </c>
@@ -40114,6 +40622,12 @@
       <c r="C418" t="s">
         <v>4317</v>
       </c>
+      <c r="D418" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E418" t="s">
+        <v>4354</v>
+      </c>
       <c r="G418" t="s">
         <v>3354</v>
       </c>
@@ -40170,6 +40684,12 @@
       <c r="C419" t="s">
         <v>4317</v>
       </c>
+      <c r="D419" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E419" t="s">
+        <v>4354</v>
+      </c>
       <c r="G419" t="s">
         <v>3362</v>
       </c>
@@ -40226,6 +40746,12 @@
       <c r="C420" t="s">
         <v>4317</v>
       </c>
+      <c r="D420" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E420" t="s">
+        <v>4354</v>
+      </c>
       <c r="G420" t="s">
         <v>3370</v>
       </c>
@@ -40285,6 +40811,12 @@
       <c r="C421" t="s">
         <v>4317</v>
       </c>
+      <c r="D421" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E421" t="s">
+        <v>4354</v>
+      </c>
       <c r="G421" t="s">
         <v>3378</v>
       </c>
@@ -40344,6 +40876,12 @@
       <c r="C422" t="s">
         <v>4317</v>
       </c>
+      <c r="D422" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E422" t="s">
+        <v>4354</v>
+      </c>
       <c r="G422" t="s">
         <v>3385</v>
       </c>
@@ -40403,6 +40941,12 @@
       <c r="C423" t="s">
         <v>4317</v>
       </c>
+      <c r="D423" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E423" t="s">
+        <v>4354</v>
+      </c>
       <c r="G423" t="s">
         <v>3394</v>
       </c>
@@ -40459,6 +41003,12 @@
       <c r="C424" t="s">
         <v>4317</v>
       </c>
+      <c r="D424" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E424" t="s">
+        <v>4354</v>
+      </c>
       <c r="G424" t="s">
         <v>3402</v>
       </c>
@@ -40515,6 +41065,12 @@
       <c r="C425" t="s">
         <v>4317</v>
       </c>
+      <c r="D425" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E425" t="s">
+        <v>4354</v>
+      </c>
       <c r="G425" t="s">
         <v>3410</v>
       </c>
@@ -40574,6 +41130,12 @@
       <c r="C426" t="s">
         <v>4317</v>
       </c>
+      <c r="D426" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E426" t="s">
+        <v>4354</v>
+      </c>
       <c r="G426" t="s">
         <v>3419</v>
       </c>
@@ -40630,6 +41192,12 @@
       <c r="C427" t="s">
         <v>4317</v>
       </c>
+      <c r="D427" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E427" t="s">
+        <v>4354</v>
+      </c>
       <c r="G427" t="s">
         <v>3427</v>
       </c>
@@ -40689,6 +41257,12 @@
       <c r="C428" t="s">
         <v>4317</v>
       </c>
+      <c r="D428" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E428" t="s">
+        <v>4354</v>
+      </c>
       <c r="G428" t="s">
         <v>3435</v>
       </c>
@@ -40745,6 +41319,12 @@
       <c r="C429" t="s">
         <v>4317</v>
       </c>
+      <c r="D429" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E429" t="s">
+        <v>4354</v>
+      </c>
       <c r="G429" t="s">
         <v>3443</v>
       </c>
@@ -40804,6 +41384,12 @@
       <c r="C430" t="s">
         <v>4317</v>
       </c>
+      <c r="D430" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E430" t="s">
+        <v>4354</v>
+      </c>
       <c r="G430" t="s">
         <v>3451</v>
       </c>
@@ -40860,6 +41446,12 @@
       <c r="C431" t="s">
         <v>4317</v>
       </c>
+      <c r="D431" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E431" t="s">
+        <v>4354</v>
+      </c>
       <c r="G431" t="s">
         <v>3459</v>
       </c>
@@ -40916,6 +41508,12 @@
       <c r="C432" t="s">
         <v>4317</v>
       </c>
+      <c r="D432" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E432" t="s">
+        <v>4354</v>
+      </c>
       <c r="G432" t="s">
         <v>3467</v>
       </c>
@@ -40972,6 +41570,12 @@
       <c r="C433" t="s">
         <v>4317</v>
       </c>
+      <c r="D433" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E433" t="s">
+        <v>4354</v>
+      </c>
       <c r="G433" t="s">
         <v>3475</v>
       </c>
@@ -41028,6 +41632,12 @@
       <c r="C434" t="s">
         <v>4317</v>
       </c>
+      <c r="D434" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E434" t="s">
+        <v>4354</v>
+      </c>
       <c r="G434" t="s">
         <v>3483</v>
       </c>
@@ -41084,6 +41694,12 @@
       <c r="C435" t="s">
         <v>4317</v>
       </c>
+      <c r="D435" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E435" t="s">
+        <v>4354</v>
+      </c>
       <c r="G435" t="s">
         <v>3491</v>
       </c>
@@ -41140,6 +41756,12 @@
       <c r="C436" t="s">
         <v>4317</v>
       </c>
+      <c r="D436" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E436" t="s">
+        <v>4354</v>
+      </c>
       <c r="G436" t="s">
         <v>3499</v>
       </c>
@@ -41196,6 +41818,12 @@
       <c r="C437" t="s">
         <v>4317</v>
       </c>
+      <c r="D437" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E437" t="s">
+        <v>4354</v>
+      </c>
       <c r="G437" t="s">
         <v>3507</v>
       </c>
@@ -41252,6 +41880,12 @@
       <c r="C438" t="s">
         <v>4318</v>
       </c>
+      <c r="D438" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E438" t="s">
+        <v>4352</v>
+      </c>
       <c r="G438" t="s">
         <v>3516</v>
       </c>
@@ -41314,6 +41948,12 @@
       <c r="C439" t="s">
         <v>4318</v>
       </c>
+      <c r="D439" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E439" t="s">
+        <v>4352</v>
+      </c>
       <c r="G439" t="s">
         <v>3526</v>
       </c>
@@ -41376,6 +42016,12 @@
       <c r="C440" t="s">
         <v>4318</v>
       </c>
+      <c r="D440" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E440" t="s">
+        <v>4352</v>
+      </c>
       <c r="G440" t="s">
         <v>3536</v>
       </c>
@@ -41438,6 +42084,12 @@
       <c r="C441" t="s">
         <v>4318</v>
       </c>
+      <c r="D441" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E441" t="s">
+        <v>4352</v>
+      </c>
       <c r="G441" t="s">
         <v>3545</v>
       </c>
@@ -41500,6 +42152,12 @@
       <c r="C442" t="s">
         <v>4318</v>
       </c>
+      <c r="D442" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E442" t="s">
+        <v>4352</v>
+      </c>
       <c r="G442" t="s">
         <v>3555</v>
       </c>
@@ -41562,6 +42220,12 @@
       <c r="C443" t="s">
         <v>4318</v>
       </c>
+      <c r="D443" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E443" t="s">
+        <v>4352</v>
+      </c>
       <c r="G443" t="s">
         <v>3564</v>
       </c>
@@ -41624,6 +42288,12 @@
       <c r="C444" t="s">
         <v>4318</v>
       </c>
+      <c r="D444" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E444" t="s">
+        <v>4352</v>
+      </c>
       <c r="G444" t="s">
         <v>3574</v>
       </c>
@@ -41689,6 +42359,12 @@
       <c r="C445" t="s">
         <v>4318</v>
       </c>
+      <c r="D445" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E445" t="s">
+        <v>4352</v>
+      </c>
       <c r="G445" t="s">
         <v>3585</v>
       </c>
@@ -41751,6 +42427,12 @@
       <c r="C446" t="s">
         <v>4318</v>
       </c>
+      <c r="D446" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E446" t="s">
+        <v>4352</v>
+      </c>
       <c r="G446" t="s">
         <v>3594</v>
       </c>
@@ -41813,6 +42495,12 @@
       <c r="C447" t="s">
         <v>4318</v>
       </c>
+      <c r="D447" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E447" t="s">
+        <v>4352</v>
+      </c>
       <c r="G447" t="s">
         <v>3604</v>
       </c>
@@ -41875,6 +42563,12 @@
       <c r="C448" t="s">
         <v>4318</v>
       </c>
+      <c r="D448" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E448" t="s">
+        <v>4352</v>
+      </c>
       <c r="G448" t="s">
         <v>3614</v>
       </c>
@@ -41937,6 +42631,12 @@
       <c r="C449" t="s">
         <v>4318</v>
       </c>
+      <c r="D449" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E449" t="s">
+        <v>4352</v>
+      </c>
       <c r="G449" t="s">
         <v>3623</v>
       </c>
@@ -41999,6 +42699,12 @@
       <c r="C450" t="s">
         <v>4318</v>
       </c>
+      <c r="D450" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E450" t="s">
+        <v>4352</v>
+      </c>
       <c r="G450" t="s">
         <v>3633</v>
       </c>
@@ -42061,6 +42767,12 @@
       <c r="C451" t="s">
         <v>4318</v>
       </c>
+      <c r="D451" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E451" t="s">
+        <v>4352</v>
+      </c>
       <c r="G451" t="s">
         <v>3643</v>
       </c>
@@ -42123,6 +42835,12 @@
       <c r="C452" t="s">
         <v>4318</v>
       </c>
+      <c r="D452" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E452" t="s">
+        <v>4352</v>
+      </c>
       <c r="G452" t="s">
         <v>3653</v>
       </c>
@@ -42185,6 +42903,12 @@
       <c r="C453" t="s">
         <v>4318</v>
       </c>
+      <c r="D453" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E453" t="s">
+        <v>4352</v>
+      </c>
       <c r="G453" t="s">
         <v>3663</v>
       </c>
@@ -42247,6 +42971,12 @@
       <c r="C454" t="s">
         <v>4318</v>
       </c>
+      <c r="D454" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E454" t="s">
+        <v>4352</v>
+      </c>
       <c r="G454" t="s">
         <v>3673</v>
       </c>
@@ -42309,6 +43039,12 @@
       <c r="C455" t="s">
         <v>4318</v>
       </c>
+      <c r="D455" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E455" t="s">
+        <v>4352</v>
+      </c>
       <c r="G455" t="s">
         <v>3682</v>
       </c>
@@ -42368,6 +43104,12 @@
       <c r="C456" t="s">
         <v>4318</v>
       </c>
+      <c r="D456" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E456" t="s">
+        <v>4352</v>
+      </c>
       <c r="G456" t="s">
         <v>3691</v>
       </c>
@@ -42433,6 +43175,12 @@
       <c r="C457" t="s">
         <v>4318</v>
       </c>
+      <c r="D457" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E457" t="s">
+        <v>4352</v>
+      </c>
       <c r="G457" t="s">
         <v>3702</v>
       </c>
@@ -42495,6 +43243,12 @@
       <c r="C458" t="s">
         <v>4318</v>
       </c>
+      <c r="D458" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E458" t="s">
+        <v>4352</v>
+      </c>
       <c r="G458" t="s">
         <v>3712</v>
       </c>
@@ -42557,6 +43311,12 @@
       <c r="C459" t="s">
         <v>4318</v>
       </c>
+      <c r="D459" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E459" t="s">
+        <v>4352</v>
+      </c>
       <c r="G459" t="s">
         <v>3722</v>
       </c>
@@ -42673,6 +43433,12 @@
       <c r="O461" t="s">
         <v>4343</v>
       </c>
+      <c r="P461" t="s">
+        <v>4357</v>
+      </c>
+      <c r="V461" t="s">
+        <v>4332</v>
+      </c>
     </row>
     <row r="462" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
@@ -42696,6 +43462,9 @@
       <c r="O462" t="s">
         <v>4344</v>
       </c>
+      <c r="V462" t="s">
+        <v>4335</v>
+      </c>
     </row>
     <row r="463" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
@@ -42721,6 +43490,9 @@
       </c>
       <c r="O463" t="s">
         <v>4345</v>
+      </c>
+      <c r="V463" t="s">
+        <v>4337</v>
       </c>
     </row>
   </sheetData>
@@ -42728,4 +43500,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF461D-2AE5-44E4-B500-5FA29EC6B45C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33546F8B-B054-4850-BA4A-BEAAAD2D7E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609D3CF-50A4-4E9D-8FF1-3AA26CB3A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7517" uniqueCount="4356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7521" uniqueCount="4356">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13959,11 +13959,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14076,7 +14077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4321</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4321</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4321</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4321</v>
       </c>
@@ -14312,7 +14313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4321</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4321</v>
       </c>
@@ -14430,7 +14431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4321</v>
       </c>
@@ -14495,7 +14496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4321</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4321</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4321</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4321</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4321</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4321</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4321</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4321</v>
       </c>
@@ -15247,67 +15248,31 @@
         <v>4321</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>4334</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>4111</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>4354</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" t="s">
-        <v>210</v>
+        <v>4333</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4343</v>
       </c>
       <c r="L21" s="1">
-        <v>38522</v>
-      </c>
-      <c r="M21" s="1">
-        <v>43921</v>
-      </c>
-      <c r="N21" t="s">
-        <v>4126</v>
+        <v>43406</v>
       </c>
       <c r="O21" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>4134</v>
-      </c>
-      <c r="R21">
-        <v>825</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>212</v>
-      </c>
-      <c r="U21">
-        <v>11</v>
+        <v>4342</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>3736</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB21">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4321</v>
       </c>
@@ -15371,70 +15336,34 @@
         <v>4321</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>4114</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>4111</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>4354</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" t="s">
-        <v>227</v>
-      </c>
-      <c r="K23" t="s">
-        <v>228</v>
+        <v>4106</v>
       </c>
       <c r="L23" s="1">
-        <v>38522</v>
-      </c>
-      <c r="M23" s="1">
-        <v>43555</v>
-      </c>
-      <c r="N23" t="s">
-        <v>4073</v>
+        <v>42538</v>
       </c>
       <c r="O23" t="s">
-        <v>229</v>
-      </c>
-      <c r="R23">
-        <v>837</v>
-      </c>
-      <c r="S23">
-        <v>330</v>
-      </c>
-      <c r="T23" t="s">
-        <v>230</v>
-      </c>
-      <c r="U23" t="s">
-        <v>231</v>
+        <v>4339</v>
       </c>
       <c r="V23" t="s">
-        <v>223</v>
+        <v>4114</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>3762</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>144</v>
+        <v>4121</v>
       </c>
       <c r="AB23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>64997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4321</v>
       </c>
@@ -15697,7 +15626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4321</v>
       </c>
@@ -15756,7 +15685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4321</v>
       </c>
@@ -15930,7 +15859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4321</v>
       </c>
@@ -16125,7 +16054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4321</v>
       </c>
@@ -16184,7 +16113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4321</v>
       </c>
@@ -16243,7 +16172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4321</v>
       </c>
@@ -16302,7 +16231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4321</v>
       </c>
@@ -16361,7 +16290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4321</v>
       </c>
@@ -16420,7 +16349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4321</v>
       </c>
@@ -16479,7 +16408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4321</v>
       </c>
@@ -16609,7 +16538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4321</v>
       </c>
@@ -16736,7 +16665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4321</v>
       </c>
@@ -16795,7 +16724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4321</v>
       </c>
@@ -16857,7 +16786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4321</v>
       </c>
@@ -16916,7 +16845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4321</v>
       </c>
@@ -16975,7 +16904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4321</v>
       </c>
@@ -17034,7 +16963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4321</v>
       </c>
@@ -17161,7 +17090,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4321</v>
       </c>
@@ -17220,7 +17149,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4321</v>
       </c>
@@ -17412,7 +17341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4321</v>
       </c>
@@ -17471,7 +17400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4321</v>
       </c>
@@ -17536,7 +17465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4321</v>
       </c>
@@ -17595,7 +17524,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4321</v>
       </c>
@@ -17654,7 +17583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4321</v>
       </c>
@@ -17713,7 +17642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4321</v>
       </c>
@@ -17908,7 +17837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4321</v>
       </c>
@@ -17970,7 +17899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4321</v>
       </c>
@@ -18029,7 +17958,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4321</v>
       </c>
@@ -18156,7 +18085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4321</v>
       </c>
@@ -18215,7 +18144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4321</v>
       </c>
@@ -18280,7 +18209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4321</v>
       </c>
@@ -18409,7 +18338,7 @@
         <v>4321</v>
       </c>
       <c r="B72" t="s">
-        <v>4113</v>
+        <v>4329</v>
       </c>
       <c r="D72" t="s">
         <v>4111</v>
@@ -18418,25 +18347,22 @@
         <v>4354</v>
       </c>
       <c r="G72" t="s">
-        <v>4105</v>
+        <v>4330</v>
       </c>
       <c r="L72" s="1">
-        <v>41730</v>
+        <v>41744</v>
       </c>
       <c r="O72" t="s">
-        <v>4335</v>
+        <v>4340</v>
+      </c>
+      <c r="P72" t="s">
+        <v>4351</v>
       </c>
       <c r="V72" t="s">
-        <v>4113</v>
-      </c>
-      <c r="W72" t="s">
-        <v>4120</v>
-      </c>
-      <c r="AB72">
-        <v>64630</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4321</v>
       </c>
@@ -18557,7 +18483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4321</v>
       </c>
@@ -18616,7 +18542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4321</v>
       </c>
@@ -18746,7 +18672,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4321</v>
       </c>
@@ -18805,7 +18731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4321</v>
       </c>
@@ -18870,7 +18796,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4321</v>
       </c>
@@ -18932,7 +18858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4321</v>
       </c>
@@ -18988,7 +18914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4321</v>
       </c>
@@ -19056,7 +18982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4321</v>
       </c>
@@ -19123,67 +19049,34 @@
         <v>4321</v>
       </c>
       <c r="B84" t="s">
-        <v>731</v>
+        <v>4113</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>4111</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
-      </c>
-      <c r="F84" t="s">
-        <v>4117</v>
+        <v>4354</v>
       </c>
       <c r="G84" t="s">
-        <v>733</v>
-      </c>
-      <c r="H84" t="s">
-        <v>734</v>
-      </c>
-      <c r="K84" t="s">
-        <v>735</v>
+        <v>4105</v>
       </c>
       <c r="L84" s="1">
-        <v>27120</v>
+        <v>41730</v>
       </c>
       <c r="O84" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>4156</v>
-      </c>
-      <c r="R84">
-        <v>371</v>
-      </c>
-      <c r="S84">
-        <v>260</v>
-      </c>
-      <c r="T84" t="s">
-        <v>737</v>
-      </c>
-      <c r="U84" t="s">
-        <v>738</v>
+        <v>4335</v>
       </c>
       <c r="V84" t="s">
-        <v>731</v>
+        <v>4113</v>
       </c>
       <c r="W84" t="s">
-        <v>732</v>
-      </c>
-      <c r="Y84" s="2" t="s">
-        <v>3929</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>204</v>
+        <v>4120</v>
       </c>
       <c r="AB84">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+        <v>64630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4321</v>
       </c>
@@ -19245,7 +19138,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4321</v>
       </c>
@@ -19487,7 +19380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4321</v>
       </c>
@@ -19546,7 +19439,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4321</v>
       </c>
@@ -19605,7 +19498,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4321</v>
       </c>
@@ -19664,7 +19557,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4321</v>
       </c>
@@ -19723,7 +19616,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4321</v>
       </c>
@@ -19782,7 +19675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4321</v>
       </c>
@@ -19841,7 +19734,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4321</v>
       </c>
@@ -19903,7 +19796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4321</v>
       </c>
@@ -19962,7 +19855,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4321</v>
       </c>
@@ -20024,7 +19917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4321</v>
       </c>
@@ -20083,7 +19976,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4321</v>
       </c>
@@ -20142,7 +20035,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4321</v>
       </c>
@@ -20201,7 +20094,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4321</v>
       </c>
@@ -20266,7 +20159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4321</v>
       </c>
@@ -20325,7 +20218,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4321</v>
       </c>
@@ -20387,7 +20280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4321</v>
       </c>
@@ -20558,7 +20451,7 @@
         <v>91370</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4321</v>
       </c>
@@ -20620,7 +20513,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>4321</v>
       </c>
@@ -20679,7 +20572,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4321</v>
       </c>
@@ -20741,7 +20634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4321</v>
       </c>
@@ -20797,7 +20690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4321</v>
       </c>
@@ -20856,7 +20749,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4321</v>
       </c>
@@ -20915,7 +20808,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4321</v>
       </c>
@@ -20974,7 +20867,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4321</v>
       </c>
@@ -21036,7 +20929,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4321</v>
       </c>
@@ -21095,7 +20988,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4321</v>
       </c>
@@ -21163,7 +21056,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4321</v>
       </c>
@@ -21222,60 +21115,39 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4321</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>4115</v>
       </c>
       <c r="D119" t="s">
-        <v>1007</v>
+        <v>4111</v>
       </c>
       <c r="E119" t="s">
-        <v>1008</v>
+        <v>4354</v>
       </c>
       <c r="G119" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1010</v>
+        <v>4107</v>
       </c>
       <c r="L119" s="1">
-        <v>38525</v>
+        <v>41730</v>
       </c>
       <c r="O119" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>4164</v>
-      </c>
-      <c r="R119" t="s">
-        <v>1012</v>
-      </c>
-      <c r="T119" t="s">
-        <v>1013</v>
+        <v>4336</v>
       </c>
       <c r="V119" t="s">
-        <v>169</v>
+        <v>4115</v>
       </c>
       <c r="W119" t="s">
-        <v>1006</v>
-      </c>
-      <c r="Y119" s="2" t="s">
-        <v>3959</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>1014</v>
+        <v>4122</v>
       </c>
       <c r="AB119">
-        <v>606</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4321</v>
       </c>
@@ -21334,7 +21206,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4321</v>
       </c>
@@ -21396,12 +21268,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4321</v>
       </c>
       <c r="B122" t="s">
-        <v>4115</v>
+        <v>4118</v>
       </c>
       <c r="D122" t="s">
         <v>4111</v>
@@ -21410,25 +21282,25 @@
         <v>4354</v>
       </c>
       <c r="G122" t="s">
-        <v>4107</v>
+        <v>4110</v>
       </c>
       <c r="L122" s="1">
         <v>41730</v>
       </c>
       <c r="O122" t="s">
-        <v>4336</v>
+        <v>4349</v>
       </c>
       <c r="V122" t="s">
-        <v>4115</v>
+        <v>4118</v>
       </c>
       <c r="W122" t="s">
-        <v>4122</v>
+        <v>4125</v>
       </c>
       <c r="AB122">
-        <v>8211</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+        <v>52349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4321</v>
       </c>
@@ -21487,7 +21359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4321</v>
       </c>
@@ -21546,7 +21418,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4321</v>
       </c>
@@ -21605,7 +21477,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4321</v>
       </c>
@@ -21664,7 +21536,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4321</v>
       </c>
@@ -21723,7 +21595,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4321</v>
       </c>
@@ -21782,7 +21654,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4321</v>
       </c>
@@ -21841,7 +21713,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4321</v>
       </c>
@@ -21971,7 +21843,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4321</v>
       </c>
@@ -22033,7 +21905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4321</v>
       </c>
@@ -22089,7 +21961,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4321</v>
       </c>
@@ -22148,7 +22020,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4321</v>
       </c>
@@ -22207,7 +22079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4321</v>
       </c>
@@ -22266,7 +22138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4321</v>
       </c>
@@ -22325,7 +22197,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4321</v>
       </c>
@@ -22452,7 +22324,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4321</v>
       </c>
@@ -22511,7 +22383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4321</v>
       </c>
@@ -22570,7 +22442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4321</v>
       </c>
@@ -22629,7 +22501,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4321</v>
       </c>
@@ -22691,7 +22563,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4321</v>
       </c>
@@ -22753,7 +22625,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4321</v>
       </c>
@@ -22945,7 +22817,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4321</v>
       </c>
@@ -23007,7 +22879,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4321</v>
       </c>
@@ -23066,7 +22938,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4321</v>
       </c>
@@ -23125,7 +22997,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4321</v>
       </c>
@@ -23184,7 +23056,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4321</v>
       </c>
@@ -23376,7 +23248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4321</v>
       </c>
@@ -23435,7 +23307,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4321</v>
       </c>
@@ -23494,7 +23366,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4321</v>
       </c>
@@ -23556,7 +23428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4321</v>
       </c>
@@ -23618,7 +23490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4321</v>
       </c>
@@ -23751,7 +23623,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4321</v>
       </c>
@@ -23884,7 +23756,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4321</v>
       </c>
@@ -24011,7 +23883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4321</v>
       </c>
@@ -24070,7 +23942,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4321</v>
       </c>
@@ -24132,7 +24004,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4321</v>
       </c>
@@ -24264,7 +24136,7 @@
         <v>4321</v>
       </c>
       <c r="B169" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="D169" t="s">
         <v>4111</v>
@@ -24273,22 +24145,22 @@
         <v>4354</v>
       </c>
       <c r="G169" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="L169" s="1">
         <v>41730</v>
       </c>
       <c r="O169" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="V169" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="W169" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="AB169">
-        <v>52349</v>
+        <v>52350</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
@@ -24359,7 +24231,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4321</v>
       </c>
@@ -24421,7 +24293,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4321</v>
       </c>
@@ -24477,7 +24349,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4321</v>
       </c>
@@ -24536,7 +24408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4321</v>
       </c>
@@ -24598,7 +24470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4321</v>
       </c>
@@ -24657,7 +24529,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4321</v>
       </c>
@@ -24724,64 +24596,31 @@
         <v>4321</v>
       </c>
       <c r="B177" t="s">
-        <v>1474</v>
+        <v>4112</v>
       </c>
       <c r="D177" t="s">
-        <v>195</v>
+        <v>4111</v>
       </c>
       <c r="E177" t="s">
-        <v>196</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4118</v>
+        <v>4354</v>
       </c>
       <c r="G177" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1478</v>
+        <v>4104</v>
       </c>
       <c r="L177" s="1">
-        <v>38511</v>
+        <v>41730</v>
       </c>
       <c r="O177" t="s">
-        <v>1479</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>4182</v>
-      </c>
-      <c r="R177">
-        <v>341</v>
-      </c>
-      <c r="S177">
-        <v>274</v>
-      </c>
-      <c r="T177" t="s">
-        <v>1480</v>
-      </c>
-      <c r="U177" t="s">
-        <v>1481</v>
+        <v>4337</v>
       </c>
       <c r="V177" t="s">
-        <v>1474</v>
+        <v>4112</v>
       </c>
       <c r="W177" t="s">
-        <v>1475</v>
-      </c>
-      <c r="Y177" s="2" t="s">
-        <v>4034</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>1482</v>
-      </c>
-      <c r="AA177" t="s">
-        <v>204</v>
+        <v>4119</v>
       </c>
       <c r="AB177">
-        <v>3</v>
+        <v>87984</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
@@ -24914,7 +24753,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4321</v>
       </c>
@@ -24973,7 +24812,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4321</v>
       </c>
@@ -25100,7 +24939,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4321</v>
       </c>
@@ -25159,7 +24998,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4321</v>
       </c>
@@ -25289,7 +25128,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4321</v>
       </c>
@@ -25419,7 +25258,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4321</v>
       </c>
@@ -25478,7 +25317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4321</v>
       </c>
@@ -25605,7 +25444,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4321</v>
       </c>
@@ -25664,7 +25503,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4321</v>
       </c>
@@ -25785,7 +25624,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4321</v>
       </c>
@@ -25915,7 +25754,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4321</v>
       </c>
@@ -25974,7 +25813,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4321</v>
       </c>
@@ -26036,7 +25875,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4321</v>
       </c>
@@ -26098,7 +25937,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4321</v>
       </c>
@@ -26157,7 +25996,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4321</v>
       </c>
@@ -26352,7 +26191,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4321</v>
       </c>
@@ -26411,7 +26250,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4321</v>
       </c>
@@ -26544,7 +26383,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4321</v>
       </c>
@@ -26603,7 +26442,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4321</v>
       </c>
@@ -26730,7 +26569,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4321</v>
       </c>
@@ -26789,7 +26628,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4321</v>
       </c>
@@ -26854,7 +26693,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4321</v>
       </c>
@@ -26981,7 +26820,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4321</v>
       </c>
@@ -27049,7 +26888,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4321</v>
       </c>
@@ -27179,7 +27018,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4321</v>
       </c>
@@ -27241,7 +27080,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4321</v>
       </c>
@@ -27300,7 +27139,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4321</v>
       </c>
@@ -27359,7 +27198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4321</v>
       </c>
@@ -27418,7 +27257,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4321</v>
       </c>
@@ -27480,7 +27319,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4321</v>
       </c>
@@ -27607,7 +27446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4321</v>
       </c>
@@ -27669,7 +27508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4321</v>
       </c>
@@ -27725,7 +27564,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4321</v>
       </c>
@@ -27857,67 +27696,31 @@
         <v>4321</v>
       </c>
       <c r="B227" t="s">
-        <v>1902</v>
+        <v>4116</v>
       </c>
       <c r="D227" t="s">
-        <v>134</v>
+        <v>4111</v>
       </c>
       <c r="E227" t="s">
-        <v>135</v>
+        <v>4354</v>
       </c>
       <c r="G227" t="s">
-        <v>1904</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1905</v>
-      </c>
-      <c r="I227" t="s">
-        <v>1906</v>
-      </c>
-      <c r="K227" t="s">
-        <v>1907</v>
+        <v>4108</v>
       </c>
       <c r="L227" s="1">
-        <v>35521</v>
-      </c>
-      <c r="M227" s="1">
-        <v>43555</v>
-      </c>
-      <c r="N227" t="s">
-        <v>4073</v>
+        <v>41730</v>
       </c>
       <c r="O227" t="s">
-        <v>1908</v>
-      </c>
-      <c r="R227">
-        <v>836</v>
-      </c>
-      <c r="S227">
-        <v>351</v>
-      </c>
-      <c r="T227" t="s">
-        <v>1909</v>
-      </c>
-      <c r="U227" t="s">
-        <v>1910</v>
+        <v>4338</v>
       </c>
       <c r="V227" t="s">
-        <v>1902</v>
+        <v>4116</v>
       </c>
       <c r="W227" t="s">
-        <v>1903</v>
-      </c>
-      <c r="Y227" s="2" t="s">
-        <v>3901</v>
-      </c>
-      <c r="Z227" t="s">
-        <v>1911</v>
-      </c>
-      <c r="AA227" t="s">
-        <v>144</v>
+        <v>4123</v>
       </c>
       <c r="AB227">
-        <v>305</v>
+        <v>88002</v>
       </c>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
@@ -27988,7 +27791,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4321</v>
       </c>
@@ -28115,7 +27918,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4321</v>
       </c>
@@ -28316,7 +28119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4321</v>
       </c>
@@ -28443,7 +28246,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4321</v>
       </c>
@@ -28502,7 +28305,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4321</v>
       </c>
@@ -28564,7 +28367,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4321</v>
       </c>
@@ -28623,7 +28426,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4321</v>
       </c>
@@ -28682,7 +28485,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4321</v>
       </c>
@@ -28741,7 +28544,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4321</v>
       </c>
@@ -28800,7 +28603,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4321</v>
       </c>
@@ -28859,7 +28662,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4321</v>
       </c>
@@ -28986,7 +28789,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4321</v>
       </c>
@@ -29045,7 +28848,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4321</v>
       </c>
@@ -29104,7 +28907,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4321</v>
       </c>
@@ -29163,7 +28966,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4321</v>
       </c>
@@ -29290,7 +29093,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4321</v>
       </c>
@@ -29349,7 +29152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4321</v>
       </c>
@@ -29476,7 +29279,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4321</v>
       </c>
@@ -29541,7 +29344,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4321</v>
       </c>
@@ -29600,7 +29403,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4321</v>
       </c>
@@ -29664,7 +29467,7 @@
         <v>4321</v>
       </c>
       <c r="B256" t="s">
-        <v>4117</v>
+        <v>4332</v>
       </c>
       <c r="D256" t="s">
         <v>4111</v>
@@ -29673,25 +29476,19 @@
         <v>4354</v>
       </c>
       <c r="G256" t="s">
-        <v>4109</v>
+        <v>4331</v>
       </c>
       <c r="L256" s="1">
         <v>41730</v>
       </c>
       <c r="O256" t="s">
-        <v>4350</v>
+        <v>4341</v>
       </c>
       <c r="V256" t="s">
-        <v>4117</v>
-      </c>
-      <c r="W256" t="s">
-        <v>4124</v>
-      </c>
-      <c r="AB256">
-        <v>52350</v>
-      </c>
-    </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4321</v>
       </c>
@@ -29750,7 +29547,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4321</v>
       </c>
@@ -29812,7 +29609,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4321</v>
       </c>
@@ -29871,7 +29668,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4321</v>
       </c>
@@ -29930,7 +29727,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4321</v>
       </c>
@@ -29989,7 +29786,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4321</v>
       </c>
@@ -30187,7 +29984,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4321</v>
       </c>
@@ -30246,7 +30043,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4321</v>
       </c>
@@ -30450,7 +30247,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4321</v>
       </c>
@@ -30577,7 +30374,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4321</v>
       </c>
@@ -30704,7 +30501,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4321</v>
       </c>
@@ -30763,7 +30560,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4321</v>
       </c>
@@ -30831,7 +30628,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4321</v>
       </c>
@@ -30899,7 +30696,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4321</v>
       </c>
@@ -30967,7 +30764,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4321</v>
       </c>
@@ -31026,7 +30823,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4321</v>
       </c>
@@ -31091,7 +30888,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4321</v>
       </c>
@@ -31156,7 +30953,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4321</v>
       </c>
@@ -31218,75 +31015,60 @@
         <v>344</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4321</v>
       </c>
       <c r="B281" t="s">
-        <v>2355</v>
+        <v>169</v>
       </c>
       <c r="D281" t="s">
-        <v>134</v>
+        <v>1007</v>
       </c>
       <c r="E281" t="s">
-        <v>135</v>
+        <v>1008</v>
       </c>
       <c r="G281" t="s">
-        <v>2357</v>
+        <v>1009</v>
       </c>
       <c r="H281" t="s">
-        <v>2358</v>
-      </c>
-      <c r="I281" t="s">
-        <v>2359</v>
-      </c>
-      <c r="J281" t="s">
-        <v>2360</v>
-      </c>
-      <c r="K281" t="s">
-        <v>2361</v>
+        <v>1010</v>
       </c>
       <c r="L281" s="1">
-        <v>38523</v>
+        <v>38525</v>
       </c>
       <c r="O281" t="s">
-        <v>2362</v>
+        <v>1011</v>
       </c>
       <c r="Q281" t="s">
-        <v>4222</v>
-      </c>
-      <c r="R281">
-        <v>882</v>
-      </c>
-      <c r="S281">
-        <v>378</v>
+        <v>4164</v>
+      </c>
+      <c r="R281" t="s">
+        <v>1012</v>
       </c>
       <c r="T281" t="s">
-        <v>2363</v>
-      </c>
-      <c r="U281" t="s">
-        <v>2364</v>
+        <v>1013</v>
       </c>
       <c r="V281" t="s">
-        <v>2355</v>
+        <v>169</v>
       </c>
       <c r="W281" t="s">
-        <v>2356</v>
+        <v>1006</v>
       </c>
       <c r="Y281" s="2" t="s">
-        <v>3882</v>
+        <v>3959</v>
       </c>
       <c r="Z281" t="s">
-        <v>2365</v>
-      </c>
-      <c r="AA281" t="s">
-        <v>144</v>
+        <v>1014</v>
       </c>
       <c r="AB281">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4321</v>
       </c>
@@ -31345,7 +31127,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4321</v>
       </c>
@@ -31404,7 +31186,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4321</v>
       </c>
@@ -31463,7 +31245,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4321</v>
       </c>
@@ -31525,7 +31307,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4321</v>
       </c>
@@ -31581,7 +31363,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4321</v>
       </c>
@@ -31640,7 +31422,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4321</v>
       </c>
@@ -31767,7 +31549,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4321</v>
       </c>
@@ -31894,7 +31676,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4321</v>
       </c>
@@ -31953,7 +31735,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4321</v>
       </c>
@@ -32012,7 +31794,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>4321</v>
       </c>
@@ -32071,7 +31853,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>4321</v>
       </c>
@@ -32138,7 +31920,10 @@
         <v>4321</v>
       </c>
       <c r="B296" t="s">
-        <v>2480</v>
+        <v>2355</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4307</v>
       </c>
       <c r="D296" t="s">
         <v>134</v>
@@ -32146,65 +31931,62 @@
       <c r="E296" t="s">
         <v>135</v>
       </c>
-      <c r="F296" t="s">
-        <v>4112</v>
-      </c>
       <c r="G296" t="s">
-        <v>2482</v>
+        <v>2357</v>
       </c>
       <c r="H296" t="s">
-        <v>2483</v>
+        <v>2358</v>
       </c>
       <c r="I296" t="s">
-        <v>2484</v>
+        <v>2359</v>
       </c>
       <c r="J296" t="s">
-        <v>2485</v>
+        <v>2360</v>
       </c>
       <c r="K296" t="s">
-        <v>2486</v>
+        <v>2361</v>
       </c>
       <c r="L296" s="1">
-        <v>38521</v>
+        <v>38523</v>
       </c>
       <c r="O296" t="s">
-        <v>2487</v>
+        <v>2362</v>
       </c>
       <c r="Q296" t="s">
-        <v>4227</v>
+        <v>4222</v>
       </c>
       <c r="R296">
-        <v>808</v>
+        <v>882</v>
       </c>
       <c r="S296">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T296" t="s">
-        <v>2488</v>
+        <v>2363</v>
       </c>
       <c r="U296" t="s">
-        <v>2489</v>
+        <v>2364</v>
       </c>
       <c r="V296" t="s">
-        <v>2480</v>
+        <v>2355</v>
       </c>
       <c r="W296" t="s">
-        <v>2481</v>
+        <v>2356</v>
       </c>
       <c r="Y296" s="2" t="s">
-        <v>3860</v>
+        <v>3882</v>
       </c>
       <c r="Z296" t="s">
-        <v>2490</v>
+        <v>2365</v>
       </c>
       <c r="AA296" t="s">
         <v>144</v>
       </c>
       <c r="AB296">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4321</v>
       </c>
@@ -32334,7 +32116,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4321</v>
       </c>
@@ -32396,7 +32178,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>4321</v>
       </c>
@@ -32523,7 +32305,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>4321</v>
       </c>
@@ -32582,7 +32364,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4321</v>
       </c>
@@ -32756,7 +32538,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>4321</v>
       </c>
@@ -32815,7 +32597,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4321</v>
       </c>
@@ -32877,7 +32659,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4321</v>
       </c>
@@ -32936,7 +32718,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4321</v>
       </c>
@@ -32995,7 +32777,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>4321</v>
       </c>
@@ -33054,7 +32836,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4321</v>
       </c>
@@ -33113,7 +32895,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>4321</v>
       </c>
@@ -33243,7 +33025,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>4321</v>
       </c>
@@ -33302,7 +33084,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4321</v>
       </c>
@@ -33497,7 +33279,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4321</v>
       </c>
@@ -33559,7 +33341,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4321</v>
       </c>
@@ -33686,7 +33468,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>4321</v>
       </c>
@@ -33745,39 +33527,72 @@
         <v>407</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4321</v>
       </c>
       <c r="B322" t="s">
-        <v>4112</v>
+        <v>80</v>
       </c>
       <c r="D322" t="s">
-        <v>4111</v>
+        <v>206</v>
       </c>
       <c r="E322" t="s">
-        <v>4354</v>
+        <v>207</v>
       </c>
       <c r="G322" t="s">
-        <v>4104</v>
+        <v>208</v>
+      </c>
+      <c r="K322" t="s">
+        <v>210</v>
       </c>
       <c r="L322" s="1">
-        <v>41730</v>
+        <v>38522</v>
+      </c>
+      <c r="M322" s="1">
+        <v>43921</v>
+      </c>
+      <c r="N322" t="s">
+        <v>4126</v>
       </c>
       <c r="O322" t="s">
-        <v>4337</v>
+        <v>211</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>4134</v>
+      </c>
+      <c r="R322">
+        <v>825</v>
+      </c>
+      <c r="S322">
+        <v>1</v>
+      </c>
+      <c r="T322" t="s">
+        <v>212</v>
+      </c>
+      <c r="U322">
+        <v>11</v>
       </c>
       <c r="V322" t="s">
-        <v>4112</v>
+        <v>80</v>
       </c>
       <c r="W322" t="s">
-        <v>4119</v>
+        <v>205</v>
+      </c>
+      <c r="Y322" s="2" t="s">
+        <v>3736</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>206</v>
       </c>
       <c r="AB322">
-        <v>87984</v>
-      </c>
-    </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4321</v>
       </c>
@@ -33836,7 +33651,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>4321</v>
       </c>
@@ -33895,7 +33710,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4321</v>
       </c>
@@ -33954,7 +33769,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4321</v>
       </c>
@@ -34013,7 +33828,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>4321</v>
       </c>
@@ -34075,7 +33890,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4321</v>
       </c>
@@ -34131,7 +33946,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>4321</v>
       </c>
@@ -34193,7 +34008,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>4321</v>
       </c>
@@ -34320,7 +34135,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4321</v>
       </c>
@@ -34379,7 +34194,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4321</v>
       </c>
@@ -34441,7 +34256,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>4321</v>
       </c>
@@ -34500,39 +34315,75 @@
         <v>421</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>4321</v>
       </c>
       <c r="B335" t="s">
-        <v>4116</v>
+        <v>223</v>
       </c>
       <c r="D335" t="s">
-        <v>4111</v>
+        <v>134</v>
       </c>
       <c r="E335" t="s">
-        <v>4354</v>
+        <v>135</v>
       </c>
       <c r="G335" t="s">
-        <v>4108</v>
+        <v>225</v>
+      </c>
+      <c r="H335" t="s">
+        <v>226</v>
+      </c>
+      <c r="I335" t="s">
+        <v>227</v>
+      </c>
+      <c r="K335" t="s">
+        <v>228</v>
       </c>
       <c r="L335" s="1">
-        <v>41730</v>
+        <v>38522</v>
+      </c>
+      <c r="M335" s="1">
+        <v>43555</v>
+      </c>
+      <c r="N335" t="s">
+        <v>4073</v>
       </c>
       <c r="O335" t="s">
-        <v>4338</v>
+        <v>229</v>
+      </c>
+      <c r="R335">
+        <v>837</v>
+      </c>
+      <c r="S335">
+        <v>330</v>
+      </c>
+      <c r="T335" t="s">
+        <v>230</v>
+      </c>
+      <c r="U335" t="s">
+        <v>231</v>
       </c>
       <c r="V335" t="s">
-        <v>4116</v>
+        <v>223</v>
       </c>
       <c r="W335" t="s">
-        <v>4123</v>
+        <v>224</v>
+      </c>
+      <c r="Y335" s="2" t="s">
+        <v>3762</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>144</v>
       </c>
       <c r="AB335">
-        <v>88002</v>
-      </c>
-    </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>4321</v>
       </c>
@@ -34597,7 +34448,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4321</v>
       </c>
@@ -34659,7 +34510,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>4321</v>
       </c>
@@ -34724,7 +34575,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>4321</v>
       </c>
@@ -34919,7 +34770,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4321</v>
       </c>
@@ -35046,7 +34897,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4321</v>
       </c>
@@ -35105,7 +34956,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4321</v>
       </c>
@@ -35299,34 +35150,76 @@
         <v>4321</v>
       </c>
       <c r="B348" t="s">
-        <v>4114</v>
+        <v>2480</v>
+      </c>
+      <c r="C348" t="s">
+        <v>4312</v>
       </c>
       <c r="D348" t="s">
-        <v>4111</v>
+        <v>134</v>
       </c>
       <c r="E348" t="s">
-        <v>4354</v>
+        <v>135</v>
+      </c>
+      <c r="F348" t="s">
+        <v>4112</v>
       </c>
       <c r="G348" t="s">
-        <v>4106</v>
+        <v>2482</v>
+      </c>
+      <c r="H348" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I348" t="s">
+        <v>2484</v>
+      </c>
+      <c r="J348" t="s">
+        <v>2485</v>
+      </c>
+      <c r="K348" t="s">
+        <v>2486</v>
       </c>
       <c r="L348" s="1">
-        <v>42538</v>
+        <v>38521</v>
       </c>
       <c r="O348" t="s">
-        <v>4339</v>
+        <v>2487</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>4227</v>
+      </c>
+      <c r="R348">
+        <v>808</v>
+      </c>
+      <c r="S348">
+        <v>356</v>
+      </c>
+      <c r="T348" t="s">
+        <v>2488</v>
+      </c>
+      <c r="U348" t="s">
+        <v>2489</v>
       </c>
       <c r="V348" t="s">
-        <v>4114</v>
+        <v>2480</v>
       </c>
       <c r="W348" t="s">
-        <v>4121</v>
+        <v>2481</v>
+      </c>
+      <c r="Y348" s="2" t="s">
+        <v>3860</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>2490</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>144</v>
       </c>
       <c r="AB348">
-        <v>64997</v>
-      </c>
-    </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4321</v>
       </c>
@@ -35453,7 +35346,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4321</v>
       </c>
@@ -35512,7 +35405,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>4321</v>
       </c>
@@ -35639,7 +35532,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4321</v>
       </c>
@@ -35763,7 +35656,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>4321</v>
       </c>
@@ -36002,7 +35895,7 @@
         <v>91366</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4321</v>
       </c>
@@ -36061,7 +35954,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4321</v>
       </c>
@@ -36123,7 +36016,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4321</v>
       </c>
@@ -36185,7 +36078,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4321</v>
       </c>
@@ -36241,7 +36134,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>4321</v>
       </c>
@@ -36300,7 +36193,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4321</v>
       </c>
@@ -36365,7 +36258,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>4321</v>
       </c>
@@ -37034,7 +36927,7 @@
         <v>54912</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4313</v>
       </c>
@@ -37070,7 +36963,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4313</v>
       </c>
@@ -37106,7 +36999,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4313</v>
       </c>
@@ -37142,7 +37035,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>4313</v>
       </c>
@@ -37178,7 +37071,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4313</v>
       </c>
@@ -37214,7 +37107,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>4313</v>
       </c>
@@ -37250,7 +37143,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>4313</v>
       </c>
@@ -37286,7 +37179,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4313</v>
       </c>
@@ -37322,7 +37215,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>4313</v>
       </c>
@@ -37358,7 +37251,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4313</v>
       </c>
@@ -37394,7 +37287,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>4313</v>
       </c>
@@ -37430,7 +37323,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4313</v>
       </c>
@@ -37466,7 +37359,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4313</v>
       </c>
@@ -37502,7 +37395,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4313</v>
       </c>
@@ -37538,7 +37431,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4313</v>
       </c>
@@ -37574,7 +37467,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>4313</v>
       </c>
@@ -37610,7 +37503,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4313</v>
       </c>
@@ -37646,7 +37539,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>4313</v>
       </c>
@@ -37682,7 +37575,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4313</v>
       </c>
@@ -37718,7 +37611,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>4313</v>
       </c>
@@ -37754,7 +37647,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4313</v>
       </c>
@@ -37790,7 +37683,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>4313</v>
       </c>
@@ -37826,7 +37719,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>4313</v>
       </c>
@@ -37862,7 +37755,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>4313</v>
       </c>
@@ -37898,7 +37791,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>4313</v>
       </c>
@@ -41214,54 +41107,135 @@
         <v>4321</v>
       </c>
       <c r="B461" t="s">
-        <v>4329</v>
+        <v>1474</v>
+      </c>
+      <c r="C461" t="s">
+        <v>4305</v>
       </c>
       <c r="D461" t="s">
-        <v>4111</v>
+        <v>195</v>
       </c>
       <c r="E461" t="s">
-        <v>4354</v>
+        <v>196</v>
+      </c>
+      <c r="F461" t="s">
+        <v>4118</v>
       </c>
       <c r="G461" t="s">
-        <v>4330</v>
+        <v>1476</v>
+      </c>
+      <c r="H461" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K461" t="s">
+        <v>1478</v>
       </c>
       <c r="L461" s="1">
-        <v>41744</v>
+        <v>38511</v>
       </c>
       <c r="O461" t="s">
-        <v>4340</v>
-      </c>
-      <c r="P461" t="s">
-        <v>4351</v>
+        <v>1479</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>4182</v>
+      </c>
+      <c r="R461">
+        <v>341</v>
+      </c>
+      <c r="S461">
+        <v>274</v>
+      </c>
+      <c r="T461" t="s">
+        <v>1480</v>
+      </c>
+      <c r="U461" t="s">
+        <v>1481</v>
       </c>
       <c r="V461" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+      <c r="W461" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Y461" s="2" t="s">
+        <v>4034</v>
+      </c>
+      <c r="Z461" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>4321</v>
       </c>
       <c r="B462" t="s">
-        <v>4332</v>
+        <v>1902</v>
       </c>
       <c r="D462" t="s">
-        <v>4111</v>
+        <v>134</v>
       </c>
       <c r="E462" t="s">
-        <v>4354</v>
+        <v>135</v>
       </c>
       <c r="G462" t="s">
-        <v>4331</v>
+        <v>1904</v>
+      </c>
+      <c r="H462" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I462" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K462" t="s">
+        <v>1907</v>
       </c>
       <c r="L462" s="1">
-        <v>41730</v>
+        <v>35521</v>
+      </c>
+      <c r="M462" s="1">
+        <v>43555</v>
+      </c>
+      <c r="N462" t="s">
+        <v>4073</v>
       </c>
       <c r="O462" t="s">
-        <v>4341</v>
+        <v>1908</v>
+      </c>
+      <c r="R462">
+        <v>836</v>
+      </c>
+      <c r="S462">
+        <v>351</v>
+      </c>
+      <c r="T462" t="s">
+        <v>1909</v>
+      </c>
+      <c r="U462" t="s">
+        <v>1910</v>
       </c>
       <c r="V462" t="s">
-        <v>4332</v>
+        <v>1902</v>
+      </c>
+      <c r="W462" t="s">
+        <v>1903</v>
+      </c>
+      <c r="Y462" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="Z462" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA462" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB462">
+        <v>305</v>
       </c>
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.25">
@@ -41269,32 +41243,83 @@
         <v>4321</v>
       </c>
       <c r="B463" t="s">
-        <v>4334</v>
+        <v>731</v>
+      </c>
+      <c r="C463" t="s">
+        <v>4311</v>
       </c>
       <c r="D463" t="s">
-        <v>4111</v>
+        <v>195</v>
       </c>
       <c r="E463" t="s">
-        <v>4354</v>
+        <v>196</v>
+      </c>
+      <c r="F463" t="s">
+        <v>4117</v>
       </c>
       <c r="G463" t="s">
-        <v>4333</v>
+        <v>733</v>
       </c>
       <c r="H463" t="s">
-        <v>4343</v>
+        <v>734</v>
+      </c>
+      <c r="K463" t="s">
+        <v>735</v>
       </c>
       <c r="L463" s="1">
-        <v>43406</v>
+        <v>27120</v>
       </c>
       <c r="O463" t="s">
-        <v>4342</v>
+        <v>736</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>4156</v>
+      </c>
+      <c r="R463">
+        <v>371</v>
+      </c>
+      <c r="S463">
+        <v>260</v>
+      </c>
+      <c r="T463" t="s">
+        <v>737</v>
+      </c>
+      <c r="U463" t="s">
+        <v>738</v>
       </c>
       <c r="V463" t="s">
-        <v>4334</v>
+        <v>731</v>
+      </c>
+      <c r="W463" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y463" s="2" t="s">
+        <v>3929</v>
+      </c>
+      <c r="Z463" t="s">
+        <v>739</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB463">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}"/>
+  <autoFilter ref="A1:AC463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:AC463">
+      <sortCondition descending="1" ref="L1:L463"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609D3CF-50A4-4E9D-8FF1-3AA26CB3A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53310BF-5F1B-415E-85CF-225B82D5EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7521" uniqueCount="4356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7531" uniqueCount="4356">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13963,8 +13963,8 @@
   <dimension ref="A1:AC463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14077,7 +14077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4321</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4321</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4321</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4321</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4321</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4321</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4321</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4321</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4321</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4321</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4321</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4321</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4321</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4321</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4321</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4321</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4321</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4321</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4321</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4321</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4321</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>64997</v>
       </c>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4321</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4321</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4321</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4321</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4321</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4321</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4321</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>91513</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4321</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4321</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4321</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4321</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4321</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4321</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4321</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4321</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4321</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4321</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4321</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4321</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4321</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4321</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4321</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4321</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4321</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4321</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4321</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4321</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4321</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4321</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4321</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4321</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4321</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4321</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4321</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4321</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4321</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4321</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4321</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4321</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4321</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4321</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4321</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4321</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4321</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4321</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4321</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4321</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4321</v>
       </c>
@@ -18858,12 +18858,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4321</v>
       </c>
       <c r="B81" t="s">
         <v>705</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4306</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -19044,7 +19047,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4321</v>
       </c>
@@ -19138,7 +19141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4321</v>
       </c>
@@ -19197,7 +19200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4321</v>
       </c>
@@ -19241,7 +19244,7 @@
         <v>91365</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4321</v>
       </c>
@@ -19306,7 +19309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4321</v>
       </c>
@@ -19380,7 +19383,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4321</v>
       </c>
@@ -19439,7 +19442,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4321</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4321</v>
       </c>
@@ -19557,7 +19560,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4321</v>
       </c>
@@ -19616,7 +19619,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4321</v>
       </c>
@@ -19675,7 +19678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4321</v>
       </c>
@@ -19796,7 +19799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4321</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4321</v>
       </c>
@@ -19917,7 +19920,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4321</v>
       </c>
@@ -19976,7 +19979,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4321</v>
       </c>
@@ -20035,7 +20038,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4321</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4321</v>
       </c>
@@ -20218,7 +20221,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4321</v>
       </c>
@@ -20280,7 +20283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4321</v>
       </c>
@@ -20339,7 +20342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4321</v>
       </c>
@@ -20513,7 +20516,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>4321</v>
       </c>
@@ -20634,13 +20637,16 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4321</v>
       </c>
       <c r="B111" t="s">
         <v>941</v>
       </c>
+      <c r="C111" t="s">
+        <v>4308</v>
+      </c>
       <c r="D111" t="s">
         <v>23</v>
       </c>
@@ -20690,7 +20696,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4321</v>
       </c>
@@ -20749,7 +20755,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4321</v>
       </c>
@@ -20808,7 +20814,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4321</v>
       </c>
@@ -20929,7 +20935,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4321</v>
       </c>
@@ -20988,7 +20994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4321</v>
       </c>
@@ -21056,7 +21062,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4321</v>
       </c>
@@ -21115,7 +21121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4321</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>8211</v>
       </c>
     </row>
-    <row r="120" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4321</v>
       </c>
@@ -21268,7 +21274,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4321</v>
       </c>
@@ -21300,7 +21306,7 @@
         <v>52349</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4321</v>
       </c>
@@ -21359,7 +21365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4321</v>
       </c>
@@ -21418,7 +21424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4321</v>
       </c>
@@ -21477,7 +21483,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4321</v>
       </c>
@@ -21536,7 +21542,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4321</v>
       </c>
@@ -21595,7 +21601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4321</v>
       </c>
@@ -21654,7 +21660,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4321</v>
       </c>
@@ -21713,7 +21719,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4321</v>
       </c>
@@ -21772,7 +21778,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4321</v>
       </c>
@@ -21905,13 +21911,16 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4321</v>
       </c>
       <c r="B133" t="s">
         <v>1112</v>
       </c>
+      <c r="C133" t="s">
+        <v>4306</v>
+      </c>
       <c r="D133" t="s">
         <v>23</v>
       </c>
@@ -21961,7 +21970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4321</v>
       </c>
@@ -22020,7 +22029,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4321</v>
       </c>
@@ -22079,7 +22088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4321</v>
       </c>
@@ -22138,7 +22147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4321</v>
       </c>
@@ -22197,7 +22206,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4321</v>
       </c>
@@ -22256,7 +22265,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4321</v>
       </c>
@@ -22324,7 +22333,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4321</v>
       </c>
@@ -22383,7 +22392,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4321</v>
       </c>
@@ -22442,7 +22451,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4321</v>
       </c>
@@ -22501,7 +22510,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4321</v>
       </c>
@@ -22563,7 +22572,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4321</v>
       </c>
@@ -22625,7 +22634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4321</v>
       </c>
@@ -22746,7 +22755,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4321</v>
       </c>
@@ -22879,7 +22888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4321</v>
       </c>
@@ -22938,7 +22947,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4321</v>
       </c>
@@ -22997,7 +23006,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4321</v>
       </c>
@@ -23056,7 +23065,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="152" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4321</v>
       </c>
@@ -23115,7 +23124,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4321</v>
       </c>
@@ -23180,7 +23189,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4321</v>
       </c>
@@ -23248,7 +23257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4321</v>
       </c>
@@ -23307,7 +23316,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4321</v>
       </c>
@@ -23366,7 +23375,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4321</v>
       </c>
@@ -23552,7 +23561,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4321</v>
       </c>
@@ -23623,7 +23632,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4321</v>
       </c>
@@ -23688,7 +23697,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4321</v>
       </c>
@@ -23756,7 +23765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4321</v>
       </c>
@@ -23815,7 +23824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4321</v>
       </c>
@@ -23883,7 +23892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4321</v>
       </c>
@@ -24004,13 +24013,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4321</v>
       </c>
       <c r="B167" t="s">
         <v>1399</v>
       </c>
+      <c r="C167" t="s">
+        <v>4309</v>
+      </c>
       <c r="D167" t="s">
         <v>167</v>
       </c>
@@ -24060,7 +24072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4321</v>
       </c>
@@ -24131,7 +24143,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4321</v>
       </c>
@@ -24163,7 +24175,7 @@
         <v>52350</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4321</v>
       </c>
@@ -24293,13 +24305,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4321</v>
       </c>
       <c r="B172" t="s">
         <v>1434</v>
       </c>
+      <c r="C172" t="s">
+        <v>4304</v>
+      </c>
       <c r="D172" t="s">
         <v>23</v>
       </c>
@@ -24349,7 +24364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4321</v>
       </c>
@@ -24408,7 +24423,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4321</v>
       </c>
@@ -24470,7 +24485,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4321</v>
       </c>
@@ -24591,7 +24606,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4321</v>
       </c>
@@ -24623,7 +24638,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4321</v>
       </c>
@@ -24685,7 +24700,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4321</v>
       </c>
@@ -24753,7 +24768,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4321</v>
       </c>
@@ -24812,7 +24827,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4321</v>
       </c>
@@ -24871,7 +24886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4321</v>
       </c>
@@ -24939,7 +24954,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4321</v>
       </c>
@@ -24998,7 +25013,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4321</v>
       </c>
@@ -25057,7 +25072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4321</v>
       </c>
@@ -25128,7 +25143,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4321</v>
       </c>
@@ -25187,7 +25202,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4321</v>
       </c>
@@ -25258,7 +25273,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4321</v>
       </c>
@@ -25317,7 +25332,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4321</v>
       </c>
@@ -25376,7 +25391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4321</v>
       </c>
@@ -25444,7 +25459,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4321</v>
       </c>
@@ -25503,7 +25518,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4321</v>
       </c>
@@ -25624,7 +25639,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4321</v>
       </c>
@@ -25683,7 +25698,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4321</v>
       </c>
@@ -25754,7 +25769,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="196" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4321</v>
       </c>
@@ -25875,7 +25890,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="198" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4321</v>
       </c>
@@ -25937,7 +25952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4321</v>
       </c>
@@ -25996,7 +26011,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="200" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4321</v>
       </c>
@@ -26055,7 +26070,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4321</v>
       </c>
@@ -26123,7 +26138,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4321</v>
       </c>
@@ -26191,7 +26206,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4321</v>
       </c>
@@ -26312,7 +26327,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4321</v>
       </c>
@@ -26383,7 +26398,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4321</v>
       </c>
@@ -26442,7 +26457,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="207" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4321</v>
       </c>
@@ -26501,7 +26516,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4321</v>
       </c>
@@ -26569,7 +26584,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4321</v>
       </c>
@@ -26693,7 +26708,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4321</v>
       </c>
@@ -26752,7 +26767,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4321</v>
       </c>
@@ -26950,7 +26965,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4321</v>
       </c>
@@ -27018,7 +27033,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4321</v>
       </c>
@@ -27080,7 +27095,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4321</v>
       </c>
@@ -27139,7 +27154,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4321</v>
       </c>
@@ -27198,7 +27213,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4321</v>
       </c>
@@ -27319,13 +27334,16 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4321</v>
       </c>
       <c r="B221" t="s">
         <v>1851</v>
       </c>
+      <c r="C221" t="s">
+        <v>4306</v>
+      </c>
       <c r="D221" t="s">
         <v>23</v>
       </c>
@@ -27378,7 +27396,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4321</v>
       </c>
@@ -27508,13 +27526,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4321</v>
       </c>
       <c r="B224" t="s">
         <v>1876</v>
       </c>
+      <c r="C224" t="s">
+        <v>4304</v>
+      </c>
       <c r="D224" t="s">
         <v>23</v>
       </c>
@@ -27564,7 +27585,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4321</v>
       </c>
@@ -27623,7 +27644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4321</v>
       </c>
@@ -27691,7 +27712,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4321</v>
       </c>
@@ -27723,7 +27744,7 @@
         <v>88002</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4321</v>
       </c>
@@ -27791,7 +27812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4321</v>
       </c>
@@ -27850,7 +27871,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4321</v>
       </c>
@@ -27980,7 +28001,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4321</v>
       </c>
@@ -28051,7 +28072,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4321</v>
       </c>
@@ -28119,7 +28140,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4321</v>
       </c>
@@ -28178,7 +28199,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4321</v>
       </c>
@@ -28246,7 +28267,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4321</v>
       </c>
@@ -28305,7 +28326,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4321</v>
       </c>
@@ -28367,7 +28388,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4321</v>
       </c>
@@ -28426,7 +28447,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4321</v>
       </c>
@@ -28485,7 +28506,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4321</v>
       </c>
@@ -28544,7 +28565,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="241" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4321</v>
       </c>
@@ -28603,7 +28624,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="242" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4321</v>
       </c>
@@ -28662,7 +28683,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="243" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4321</v>
       </c>
@@ -28721,7 +28742,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4321</v>
       </c>
@@ -28789,7 +28810,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4321</v>
       </c>
@@ -28848,7 +28869,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4321</v>
       </c>
@@ -28907,7 +28928,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4321</v>
       </c>
@@ -28966,7 +28987,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="248" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4321</v>
       </c>
@@ -29025,7 +29046,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4321</v>
       </c>
@@ -29093,7 +29114,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4321</v>
       </c>
@@ -29152,7 +29173,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4321</v>
       </c>
@@ -29214,7 +29235,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4321</v>
       </c>
@@ -29344,7 +29365,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="254" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4321</v>
       </c>
@@ -29403,7 +29424,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4321</v>
       </c>
@@ -29462,7 +29483,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4321</v>
       </c>
@@ -29488,7 +29509,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4321</v>
       </c>
@@ -29609,7 +29630,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4321</v>
       </c>
@@ -29668,7 +29689,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4321</v>
       </c>
@@ -29727,7 +29748,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4321</v>
       </c>
@@ -29848,7 +29869,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4321</v>
       </c>
@@ -29916,7 +29937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4321</v>
       </c>
@@ -29984,7 +30005,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4321</v>
       </c>
@@ -30043,7 +30064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4321</v>
       </c>
@@ -30108,7 +30129,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4321</v>
       </c>
@@ -30176,7 +30197,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4321</v>
       </c>
@@ -30247,7 +30268,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4321</v>
       </c>
@@ -30306,7 +30327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4321</v>
       </c>
@@ -30374,7 +30395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4321</v>
       </c>
@@ -30433,7 +30454,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4321</v>
       </c>
@@ -30501,7 +30522,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4321</v>
       </c>
@@ -30560,7 +30581,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4321</v>
       </c>
@@ -30628,7 +30649,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4321</v>
       </c>
@@ -30696,7 +30717,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4321</v>
       </c>
@@ -30764,7 +30785,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4321</v>
       </c>
@@ -30888,7 +30909,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4321</v>
       </c>
@@ -31015,7 +31036,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4321</v>
       </c>
@@ -31068,7 +31089,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4321</v>
       </c>
@@ -31127,7 +31148,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4321</v>
       </c>
@@ -31186,7 +31207,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4321</v>
       </c>
@@ -31307,13 +31328,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4321</v>
       </c>
       <c r="B286" t="s">
         <v>2397</v>
       </c>
+      <c r="C286" t="s">
+        <v>4308</v>
+      </c>
       <c r="D286" t="s">
         <v>23</v>
       </c>
@@ -31363,7 +31387,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4321</v>
       </c>
@@ -31422,7 +31446,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4321</v>
       </c>
@@ -31481,7 +31505,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4321</v>
       </c>
@@ -31549,7 +31573,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4321</v>
       </c>
@@ -31608,7 +31632,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4321</v>
       </c>
@@ -31676,7 +31700,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="292" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4321</v>
       </c>
@@ -31735,7 +31759,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="293" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4321</v>
       </c>
@@ -31794,7 +31818,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="294" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>4321</v>
       </c>
@@ -31915,7 +31939,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4321</v>
       </c>
@@ -31986,7 +32010,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="297" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4321</v>
       </c>
@@ -32048,7 +32072,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4321</v>
       </c>
@@ -32178,7 +32202,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="300" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>4321</v>
       </c>
@@ -32237,7 +32261,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>4321</v>
       </c>
@@ -32305,7 +32329,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>4321</v>
       </c>
@@ -32364,7 +32388,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="303" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4321</v>
       </c>
@@ -32470,7 +32494,7 @@
         <v>91531</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>4321</v>
       </c>
@@ -32538,7 +32562,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>4321</v>
       </c>
@@ -32659,7 +32683,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4321</v>
       </c>
@@ -32718,7 +32742,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4321</v>
       </c>
@@ -32777,7 +32801,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>4321</v>
       </c>
@@ -32836,7 +32860,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4321</v>
       </c>
@@ -32895,7 +32919,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>4321</v>
       </c>
@@ -32954,7 +32978,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4321</v>
       </c>
@@ -33025,7 +33049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>4321</v>
       </c>
@@ -33084,7 +33108,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4321</v>
       </c>
@@ -33143,7 +33167,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>4321</v>
       </c>
@@ -33211,7 +33235,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>4321</v>
       </c>
@@ -33279,7 +33303,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4321</v>
       </c>
@@ -33341,7 +33365,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4321</v>
       </c>
@@ -33400,7 +33424,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>4321</v>
       </c>
@@ -33468,7 +33492,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>4321</v>
       </c>
@@ -33592,7 +33616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4321</v>
       </c>
@@ -33651,7 +33675,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>4321</v>
       </c>
@@ -33710,7 +33734,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4321</v>
       </c>
@@ -33769,7 +33793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4321</v>
       </c>
@@ -33890,12 +33914,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4321</v>
       </c>
       <c r="B328" t="s">
         <v>2736</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4307</v>
       </c>
       <c r="D328" t="s">
         <v>23</v>
@@ -34008,7 +34035,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>4321</v>
       </c>
@@ -34067,7 +34094,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>4321</v>
       </c>
@@ -34135,7 +34162,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4321</v>
       </c>
@@ -34256,7 +34283,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>4321</v>
       </c>
@@ -34448,7 +34475,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4321</v>
       </c>
@@ -34575,7 +34602,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>4321</v>
       </c>
@@ -34634,7 +34661,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>4321</v>
       </c>
@@ -34702,7 +34729,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4321</v>
       </c>
@@ -34770,7 +34797,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4321</v>
       </c>
@@ -34829,7 +34856,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4321</v>
       </c>
@@ -34897,7 +34924,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4321</v>
       </c>
@@ -34956,7 +34983,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4321</v>
       </c>
@@ -35015,7 +35042,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4321</v>
       </c>
@@ -35080,7 +35107,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4321</v>
       </c>
@@ -35145,7 +35172,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4321</v>
       </c>
@@ -35219,7 +35246,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4321</v>
       </c>
@@ -35278,7 +35305,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4321</v>
       </c>
@@ -35346,7 +35373,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="351" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4321</v>
       </c>
@@ -35405,7 +35432,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>4321</v>
       </c>
@@ -35464,7 +35491,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4321</v>
       </c>
@@ -35656,7 +35683,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>4321</v>
       </c>
@@ -35715,7 +35742,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4321</v>
       </c>
@@ -35783,7 +35810,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>4321</v>
       </c>
@@ -35895,7 +35922,7 @@
         <v>91366</v>
       </c>
     </row>
-    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4321</v>
       </c>
@@ -36078,13 +36105,16 @@
         <v>431</v>
       </c>
     </row>
-    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4321</v>
       </c>
       <c r="B363" t="s">
         <v>3007</v>
       </c>
+      <c r="C363" t="s">
+        <v>4310</v>
+      </c>
       <c r="D363" t="s">
         <v>23</v>
       </c>
@@ -36134,7 +36164,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>4321</v>
       </c>
@@ -36258,7 +36288,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>4321</v>
       </c>
@@ -36317,7 +36347,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4321</v>
       </c>
@@ -36385,7 +36415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4321</v>
       </c>
@@ -36418,7 +36448,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4321</v>
       </c>
@@ -36451,7 +36481,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4313</v>
       </c>
@@ -36498,7 +36528,7 @@
         <v>54906</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4313</v>
       </c>
@@ -36545,7 +36575,7 @@
         <v>54914</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4313</v>
       </c>
@@ -36592,7 +36622,7 @@
         <v>54905</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>4313</v>
       </c>
@@ -36642,7 +36672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>4313</v>
       </c>
@@ -36689,7 +36719,7 @@
         <v>54907</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4313</v>
       </c>
@@ -36736,7 +36766,7 @@
         <v>54908</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>4313</v>
       </c>
@@ -36783,7 +36813,7 @@
         <v>54909</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4313</v>
       </c>
@@ -36830,7 +36860,7 @@
         <v>54910</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4313</v>
       </c>
@@ -36877,7 +36907,7 @@
         <v>54911</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>4313</v>
       </c>
@@ -37827,7 +37857,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>4313</v>
       </c>
@@ -37874,7 +37904,7 @@
         <v>54913</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>4314</v>
       </c>
@@ -37930,7 +37960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>4314</v>
       </c>
@@ -37986,7 +38016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>4314</v>
       </c>
@@ -38042,7 +38072,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>4314</v>
       </c>
@@ -38098,7 +38128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>4314</v>
       </c>
@@ -38154,7 +38184,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>4314</v>
       </c>
@@ -38213,7 +38243,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>4314</v>
       </c>
@@ -38269,7 +38299,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>4314</v>
       </c>
@@ -38325,7 +38355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>4314</v>
       </c>
@@ -38381,7 +38411,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>4314</v>
       </c>
@@ -38440,7 +38470,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>4314</v>
       </c>
@@ -38496,7 +38526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>4314</v>
       </c>
@@ -38558,7 +38588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>4314</v>
       </c>
@@ -38614,7 +38644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>4314</v>
       </c>
@@ -38670,7 +38700,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>4314</v>
       </c>
@@ -38729,7 +38759,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>4314</v>
       </c>
@@ -38788,7 +38818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4314</v>
       </c>
@@ -38847,7 +38877,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4314</v>
       </c>
@@ -38903,7 +38933,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4314</v>
       </c>
@@ -38959,7 +38989,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4314</v>
       </c>
@@ -39018,7 +39048,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4314</v>
       </c>
@@ -39074,7 +39104,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4314</v>
       </c>
@@ -39133,7 +39163,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4314</v>
       </c>
@@ -39189,7 +39219,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4314</v>
       </c>
@@ -39248,7 +39278,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4314</v>
       </c>
@@ -39304,7 +39334,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>4314</v>
       </c>
@@ -39360,7 +39390,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>4314</v>
       </c>
@@ -39416,7 +39446,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>4314</v>
       </c>
@@ -39472,7 +39502,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>4314</v>
       </c>
@@ -39528,7 +39558,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>4314</v>
       </c>
@@ -39584,7 +39614,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4314</v>
       </c>
@@ -39640,7 +39670,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4314</v>
       </c>
@@ -39696,7 +39726,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>4315</v>
       </c>
@@ -39758,7 +39788,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4315</v>
       </c>
@@ -39820,7 +39850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4315</v>
       </c>
@@ -39882,7 +39912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4315</v>
       </c>
@@ -39944,7 +39974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>4315</v>
       </c>
@@ -40006,7 +40036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4315</v>
       </c>
@@ -40068,7 +40098,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4315</v>
       </c>
@@ -40133,7 +40163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4315</v>
       </c>
@@ -40195,7 +40225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4315</v>
       </c>
@@ -40257,7 +40287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4315</v>
       </c>
@@ -40319,7 +40349,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>4315</v>
       </c>
@@ -40381,7 +40411,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>4315</v>
       </c>
@@ -40443,7 +40473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>4315</v>
       </c>
@@ -40505,7 +40535,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>4315</v>
       </c>
@@ -40567,7 +40597,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4315</v>
       </c>
@@ -40629,7 +40659,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4315</v>
       </c>
@@ -40691,7 +40721,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4315</v>
       </c>
@@ -40753,7 +40783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4315</v>
       </c>
@@ -40812,7 +40842,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4315</v>
       </c>
@@ -40877,7 +40907,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>4315</v>
       </c>
@@ -40939,7 +40969,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>4315</v>
       </c>
@@ -41001,7 +41031,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4315</v>
       </c>
@@ -41063,7 +41093,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="460" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>4321</v>
       </c>
@@ -41102,7 +41132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>4321</v>
       </c>
@@ -41238,7 +41268,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>4321</v>
       </c>
@@ -41308,17 +41338,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="London borough"/>
+        <filter val="Non-metropolitan district"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="12">
       <filters blank="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:AC463">
-      <sortCondition descending="1" ref="L1:L463"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53310BF-5F1B-415E-85CF-225B82D5EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA23C97-9369-462E-AC33-E32A7F188343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13959,12 +13959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14431,7 +14430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4321</v>
       </c>
@@ -14794,7 +14793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4321</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4321</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4321</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4321</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4321</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4321</v>
       </c>
@@ -15422,7 +15421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4321</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4321</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4321</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4321</v>
       </c>
@@ -15791,7 +15790,7 @@
         <v>91513</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4321</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4321</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4321</v>
       </c>
@@ -16467,7 +16466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4321</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4321</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4321</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4321</v>
       </c>
@@ -17149,7 +17148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4321</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4321</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4321</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4321</v>
       </c>
@@ -17769,7 +17768,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4321</v>
       </c>
@@ -17837,7 +17836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4321</v>
       </c>
@@ -18017,7 +18016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4321</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4321</v>
       </c>
@@ -18268,7 +18267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4321</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4321</v>
       </c>
@@ -18601,7 +18600,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4321</v>
       </c>
@@ -18731,7 +18730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4321</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4321</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4321</v>
       </c>
@@ -18985,7 +18984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4321</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4321</v>
       </c>
@@ -19079,7 +19078,7 @@
         <v>64630</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4321</v>
       </c>
@@ -19200,7 +19199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4321</v>
       </c>
@@ -19244,7 +19243,7 @@
         <v>91365</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4321</v>
       </c>
@@ -19309,7 +19308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4321</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4321</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4321</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4321</v>
       </c>
@@ -20454,7 +20453,7 @@
         <v>91370</v>
       </c>
     </row>
-    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4321</v>
       </c>
@@ -20575,7 +20574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4321</v>
       </c>
@@ -20873,7 +20872,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4321</v>
       </c>
@@ -20994,7 +20993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4321</v>
       </c>
@@ -21121,7 +21120,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4321</v>
       </c>
@@ -21212,7 +21211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4321</v>
       </c>
@@ -21274,7 +21273,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4321</v>
       </c>
@@ -21778,7 +21777,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4321</v>
       </c>
@@ -21849,7 +21848,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4321</v>
       </c>
@@ -22265,7 +22264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4321</v>
       </c>
@@ -22755,7 +22754,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4321</v>
       </c>
@@ -22826,7 +22825,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4321</v>
       </c>
@@ -23124,7 +23123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4321</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4321</v>
       </c>
@@ -23437,7 +23436,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4321</v>
       </c>
@@ -23499,7 +23498,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4321</v>
       </c>
@@ -23561,7 +23560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4321</v>
       </c>
@@ -23697,7 +23696,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4321</v>
       </c>
@@ -23824,7 +23823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4321</v>
       </c>
@@ -23951,7 +23950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4321</v>
       </c>
@@ -24072,7 +24071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4321</v>
       </c>
@@ -24143,7 +24142,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4321</v>
       </c>
@@ -24175,7 +24174,7 @@
         <v>52350</v>
       </c>
     </row>
-    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4321</v>
       </c>
@@ -24243,7 +24242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4321</v>
       </c>
@@ -24544,7 +24543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4321</v>
       </c>
@@ -24606,7 +24605,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4321</v>
       </c>
@@ -24638,7 +24637,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="178" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4321</v>
       </c>
@@ -24700,7 +24699,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4321</v>
       </c>
@@ -24886,7 +24885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4321</v>
       </c>
@@ -25072,7 +25071,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4321</v>
       </c>
@@ -25202,7 +25201,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4321</v>
       </c>
@@ -25391,7 +25390,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4321</v>
       </c>
@@ -25698,7 +25697,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4321</v>
       </c>
@@ -25828,7 +25827,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="197" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4321</v>
       </c>
@@ -26070,7 +26069,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="201" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4321</v>
       </c>
@@ -26138,7 +26137,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="202" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4321</v>
       </c>
@@ -26265,7 +26264,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="204" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4321</v>
       </c>
@@ -26327,7 +26326,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4321</v>
       </c>
@@ -26516,7 +26515,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4321</v>
       </c>
@@ -26643,7 +26642,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4321</v>
       </c>
@@ -26767,7 +26766,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4321</v>
       </c>
@@ -26835,7 +26834,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4321</v>
       </c>
@@ -26903,7 +26902,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4321</v>
       </c>
@@ -26965,7 +26964,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4321</v>
       </c>
@@ -27272,7 +27271,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4321</v>
       </c>
@@ -27396,7 +27395,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4321</v>
       </c>
@@ -27464,7 +27463,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4321</v>
       </c>
@@ -27644,7 +27643,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4321</v>
       </c>
@@ -27712,7 +27711,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4321</v>
       </c>
@@ -27744,7 +27743,7 @@
         <v>88002</v>
       </c>
     </row>
-    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4321</v>
       </c>
@@ -27871,7 +27870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4321</v>
       </c>
@@ -27939,7 +27938,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4321</v>
       </c>
@@ -28001,7 +28000,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4321</v>
       </c>
@@ -28072,7 +28071,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4321</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4321</v>
       </c>
@@ -28742,7 +28741,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4321</v>
       </c>
@@ -29046,7 +29045,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4321</v>
       </c>
@@ -29235,7 +29234,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4321</v>
       </c>
@@ -29300,7 +29299,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4321</v>
       </c>
@@ -29483,7 +29482,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4321</v>
       </c>
@@ -29568,7 +29567,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4321</v>
       </c>
@@ -29807,7 +29806,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4321</v>
       </c>
@@ -29869,7 +29868,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4321</v>
       </c>
@@ -29937,7 +29936,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4321</v>
       </c>
@@ -30022,7 +30021,7 @@
         <v>24</v>
       </c>
       <c r="F265" t="s">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="G265" t="s">
         <v>2219</v>
@@ -30129,7 +30128,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4321</v>
       </c>
@@ -30197,7 +30196,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4321</v>
       </c>
@@ -30327,7 +30326,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4321</v>
       </c>
@@ -30454,7 +30453,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4321</v>
       </c>
@@ -30581,7 +30580,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4321</v>
       </c>
@@ -30649,7 +30648,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4321</v>
       </c>
@@ -30717,7 +30716,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4321</v>
       </c>
@@ -30844,7 +30843,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4321</v>
       </c>
@@ -30909,7 +30908,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4321</v>
       </c>
@@ -30974,7 +30973,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4321</v>
       </c>
@@ -31036,7 +31035,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4321</v>
       </c>
@@ -31266,7 +31265,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4321</v>
       </c>
@@ -31505,7 +31504,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="289" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4321</v>
       </c>
@@ -31632,7 +31631,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="291" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4321</v>
       </c>
@@ -31877,7 +31876,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="295" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>4321</v>
       </c>
@@ -31939,7 +31938,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4321</v>
       </c>
@@ -32072,7 +32071,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="298" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4321</v>
       </c>
@@ -32140,7 +32139,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="299" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4321</v>
       </c>
@@ -32261,7 +32260,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>4321</v>
       </c>
@@ -32494,7 +32493,7 @@
         <v>91531</v>
       </c>
     </row>
-    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>4321</v>
       </c>
@@ -32621,7 +32620,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4321</v>
       </c>
@@ -32759,7 +32758,7 @@
         <v>24</v>
       </c>
       <c r="F309" t="s">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="G309" t="s">
         <v>2586</v>
@@ -32978,7 +32977,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4321</v>
       </c>
@@ -33167,7 +33166,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>4321</v>
       </c>
@@ -33235,7 +33234,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>4321</v>
       </c>
@@ -33424,7 +33423,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>4321</v>
       </c>
@@ -33551,7 +33550,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4321</v>
       </c>
@@ -33852,7 +33851,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>4321</v>
       </c>
@@ -33973,7 +33972,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>4321</v>
       </c>
@@ -34094,7 +34093,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>4321</v>
       </c>
@@ -34221,7 +34220,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4321</v>
       </c>
@@ -34342,7 +34341,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>4321</v>
       </c>
@@ -34410,7 +34409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>4321</v>
       </c>
@@ -34537,7 +34536,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>4321</v>
       </c>
@@ -34661,7 +34660,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>4321</v>
       </c>
@@ -34729,7 +34728,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4321</v>
       </c>
@@ -34856,7 +34855,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4321</v>
       </c>
@@ -35042,7 +35041,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4321</v>
       </c>
@@ -35107,7 +35106,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4321</v>
       </c>
@@ -35172,7 +35171,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4321</v>
       </c>
@@ -35305,7 +35304,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="350" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4321</v>
       </c>
@@ -35491,7 +35490,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4321</v>
       </c>
@@ -35559,7 +35558,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4321</v>
       </c>
@@ -35742,7 +35741,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4321</v>
       </c>
@@ -35810,7 +35809,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>4321</v>
       </c>
@@ -35981,7 +35980,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4321</v>
       </c>
@@ -36043,7 +36042,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4321</v>
       </c>
@@ -36223,7 +36222,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4321</v>
       </c>
@@ -36347,7 +36346,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4321</v>
       </c>
@@ -36415,7 +36414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4321</v>
       </c>
@@ -36448,7 +36447,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4321</v>
       </c>
@@ -36481,7 +36480,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4313</v>
       </c>
@@ -36528,7 +36527,7 @@
         <v>54906</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4313</v>
       </c>
@@ -36575,7 +36574,7 @@
         <v>54914</v>
       </c>
     </row>
-    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4313</v>
       </c>
@@ -36622,7 +36621,7 @@
         <v>54905</v>
       </c>
     </row>
-    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>4313</v>
       </c>
@@ -36672,7 +36671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>4313</v>
       </c>
@@ -36719,7 +36718,7 @@
         <v>54907</v>
       </c>
     </row>
-    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4313</v>
       </c>
@@ -36766,7 +36765,7 @@
         <v>54908</v>
       </c>
     </row>
-    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>4313</v>
       </c>
@@ -36813,7 +36812,7 @@
         <v>54909</v>
       </c>
     </row>
-    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4313</v>
       </c>
@@ -36860,7 +36859,7 @@
         <v>54910</v>
       </c>
     </row>
-    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4313</v>
       </c>
@@ -36907,7 +36906,7 @@
         <v>54911</v>
       </c>
     </row>
-    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>4313</v>
       </c>
@@ -36957,7 +36956,7 @@
         <v>54912</v>
       </c>
     </row>
-    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4313</v>
       </c>
@@ -36993,7 +36992,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4313</v>
       </c>
@@ -37029,7 +37028,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4313</v>
       </c>
@@ -37065,7 +37064,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>4313</v>
       </c>
@@ -37101,7 +37100,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4313</v>
       </c>
@@ -37137,7 +37136,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>4313</v>
       </c>
@@ -37173,7 +37172,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>4313</v>
       </c>
@@ -37209,7 +37208,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4313</v>
       </c>
@@ -37245,7 +37244,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>4313</v>
       </c>
@@ -37281,7 +37280,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4313</v>
       </c>
@@ -37317,7 +37316,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>4313</v>
       </c>
@@ -37353,7 +37352,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4313</v>
       </c>
@@ -37389,7 +37388,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4313</v>
       </c>
@@ -37425,7 +37424,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4313</v>
       </c>
@@ -37461,7 +37460,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4313</v>
       </c>
@@ -37497,7 +37496,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>4313</v>
       </c>
@@ -37533,7 +37532,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4313</v>
       </c>
@@ -37569,7 +37568,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>4313</v>
       </c>
@@ -37605,7 +37604,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4313</v>
       </c>
@@ -37641,7 +37640,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>4313</v>
       </c>
@@ -37677,7 +37676,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4313</v>
       </c>
@@ -37713,7 +37712,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="401" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>4313</v>
       </c>
@@ -37749,7 +37748,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="402" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>4313</v>
       </c>
@@ -37785,7 +37784,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="403" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>4313</v>
       </c>
@@ -37821,7 +37820,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="404" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>4313</v>
       </c>
@@ -37857,7 +37856,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="405" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>4313</v>
       </c>
@@ -37904,7 +37903,7 @@
         <v>54913</v>
       </c>
     </row>
-    <row r="406" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>4314</v>
       </c>
@@ -37960,7 +37959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>4314</v>
       </c>
@@ -38016,7 +38015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="408" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>4314</v>
       </c>
@@ -38072,7 +38071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>4314</v>
       </c>
@@ -38128,7 +38127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>4314</v>
       </c>
@@ -38184,7 +38183,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>4314</v>
       </c>
@@ -38243,7 +38242,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="412" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>4314</v>
       </c>
@@ -38299,7 +38298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="413" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>4314</v>
       </c>
@@ -38355,7 +38354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="414" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>4314</v>
       </c>
@@ -38411,7 +38410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="415" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>4314</v>
       </c>
@@ -38470,7 +38469,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="416" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>4314</v>
       </c>
@@ -38526,7 +38525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="417" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>4314</v>
       </c>
@@ -38588,7 +38587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="418" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>4314</v>
       </c>
@@ -38644,7 +38643,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="419" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>4314</v>
       </c>
@@ -38700,7 +38699,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="420" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>4314</v>
       </c>
@@ -38759,7 +38758,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="421" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>4314</v>
       </c>
@@ -38818,7 +38817,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="422" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4314</v>
       </c>
@@ -38877,7 +38876,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="423" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4314</v>
       </c>
@@ -38933,7 +38932,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="424" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4314</v>
       </c>
@@ -38989,7 +38988,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="425" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4314</v>
       </c>
@@ -39048,7 +39047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="426" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4314</v>
       </c>
@@ -39104,7 +39103,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="427" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4314</v>
       </c>
@@ -39163,7 +39162,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4314</v>
       </c>
@@ -39219,7 +39218,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4314</v>
       </c>
@@ -39278,7 +39277,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4314</v>
       </c>
@@ -39334,7 +39333,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>4314</v>
       </c>
@@ -39390,7 +39389,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>4314</v>
       </c>
@@ -39446,7 +39445,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="433" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>4314</v>
       </c>
@@ -39502,7 +39501,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="434" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>4314</v>
       </c>
@@ -39558,7 +39557,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="435" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>4314</v>
       </c>
@@ -39614,7 +39613,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="436" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4314</v>
       </c>
@@ -39670,7 +39669,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="437" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4314</v>
       </c>
@@ -39726,7 +39725,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="438" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>4315</v>
       </c>
@@ -39788,7 +39787,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="439" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4315</v>
       </c>
@@ -39850,7 +39849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4315</v>
       </c>
@@ -39912,7 +39911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4315</v>
       </c>
@@ -39974,7 +39973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="442" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>4315</v>
       </c>
@@ -40036,7 +40035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="443" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4315</v>
       </c>
@@ -40098,7 +40097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="444" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4315</v>
       </c>
@@ -40163,7 +40162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="445" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4315</v>
       </c>
@@ -40225,7 +40224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="446" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4315</v>
       </c>
@@ -40287,7 +40286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="447" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4315</v>
       </c>
@@ -40349,7 +40348,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="448" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>4315</v>
       </c>
@@ -40411,7 +40410,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="449" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>4315</v>
       </c>
@@ -40473,7 +40472,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="450" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>4315</v>
       </c>
@@ -40535,7 +40534,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="451" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>4315</v>
       </c>
@@ -40597,7 +40596,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="452" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4315</v>
       </c>
@@ -40659,7 +40658,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="453" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4315</v>
       </c>
@@ -40721,7 +40720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="454" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4315</v>
       </c>
@@ -40783,7 +40782,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4315</v>
       </c>
@@ -40842,7 +40841,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="456" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4315</v>
       </c>
@@ -40907,7 +40906,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="457" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>4315</v>
       </c>
@@ -40969,7 +40968,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="458" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>4315</v>
       </c>
@@ -41031,7 +41030,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="459" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4315</v>
       </c>
@@ -41093,7 +41092,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="460" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>4321</v>
       </c>
@@ -41132,7 +41131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="461" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>4321</v>
       </c>
@@ -41200,7 +41199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>4321</v>
       </c>
@@ -41268,7 +41267,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="463" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>4321</v>
       </c>
@@ -41337,17 +41336,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="London borough"/>
-        <filter val="Non-metropolitan district"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F8E734-450F-4424-8AC4-6CD703F340AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49494AD7-9449-4F63-8EAB-5292BE4698AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7549" uniqueCount="4357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7561" uniqueCount="4358">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13106,6 +13106,9 @@
   </si>
   <si>
     <t>combined-authority</t>
+  </si>
+  <si>
+    <t>East</t>
   </si>
 </sst>
 </file>
@@ -13962,18 +13965,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -14200,7 +14204,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4320</v>
       </c>
@@ -14959,12 +14963,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4320</v>
       </c>
       <c r="B16" t="s">
         <v>2810</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4307</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -15031,6 +15038,9 @@
       <c r="B17" t="s">
         <v>4330</v>
       </c>
+      <c r="C17" t="s">
+        <v>4310</v>
+      </c>
       <c r="D17" t="s">
         <v>4110</v>
       </c>
@@ -15156,7 +15166,7 @@
         <v>91366</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4320</v>
       </c>
@@ -15284,6 +15294,9 @@
       <c r="B22" t="s">
         <v>4115</v>
       </c>
+      <c r="C22" t="s">
+        <v>4307</v>
+      </c>
       <c r="D22" t="s">
         <v>4110</v>
       </c>
@@ -15349,6 +15362,9 @@
       <c r="B24" t="s">
         <v>4113</v>
       </c>
+      <c r="C24" t="s">
+        <v>4309</v>
+      </c>
       <c r="D24" t="s">
         <v>4110</v>
       </c>
@@ -15604,7 +15620,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4320</v>
       </c>
@@ -15855,7 +15871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4320</v>
       </c>
@@ -16038,7 +16054,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4320</v>
       </c>
@@ -17660,6 +17676,9 @@
       <c r="B62" t="s">
         <v>4111</v>
       </c>
+      <c r="C62" t="s">
+        <v>4311</v>
+      </c>
       <c r="D62" t="s">
         <v>4110</v>
       </c>
@@ -17685,7 +17704,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4320</v>
       </c>
@@ -18311,7 +18330,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4320</v>
       </c>
@@ -18491,7 +18510,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4312</v>
       </c>
@@ -19106,7 +19125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4320</v>
       </c>
@@ -19732,7 +19751,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4320</v>
       </c>
@@ -20340,7 +20359,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4320</v>
       </c>
@@ -20837,6 +20856,9 @@
       <c r="B114" t="s">
         <v>4116</v>
       </c>
+      <c r="C114" t="s">
+        <v>4310</v>
+      </c>
       <c r="D114" t="s">
         <v>4110</v>
       </c>
@@ -22843,7 +22865,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4320</v>
       </c>
@@ -23590,7 +23612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4312</v>
       </c>
@@ -24081,7 +24103,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4320</v>
       </c>
@@ -24149,7 +24171,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4320</v>
       </c>
@@ -24537,6 +24559,9 @@
       <c r="B174" t="s">
         <v>4332</v>
       </c>
+      <c r="C174" t="s">
+        <v>4311</v>
+      </c>
       <c r="D174" t="s">
         <v>4110</v>
       </c>
@@ -25030,6 +25055,9 @@
       <c r="B183" t="s">
         <v>4328</v>
       </c>
+      <c r="C183" t="s">
+        <v>4311</v>
+      </c>
       <c r="D183" t="s">
         <v>4110</v>
       </c>
@@ -25052,7 +25080,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4312</v>
       </c>
@@ -25088,7 +25116,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4320</v>
       </c>
@@ -25327,7 +25355,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4312</v>
       </c>
@@ -25410,7 +25438,7 @@
         <v>54913</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4312</v>
       </c>
@@ -25818,7 +25846,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4312</v>
       </c>
@@ -27002,7 +27030,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4312</v>
       </c>
@@ -28771,6 +28799,9 @@
       <c r="B248" t="s">
         <v>4117</v>
       </c>
+      <c r="C248" t="s">
+        <v>4304</v>
+      </c>
       <c r="D248" t="s">
         <v>4110</v>
       </c>
@@ -28864,7 +28895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4312</v>
       </c>
@@ -29009,7 +29040,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4312</v>
       </c>
@@ -29364,7 +29395,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4312</v>
       </c>
@@ -29657,7 +29688,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4320</v>
       </c>
@@ -31335,6 +31366,9 @@
       <c r="B291" t="s">
         <v>4114</v>
       </c>
+      <c r="C291" t="s">
+        <v>4304</v>
+      </c>
       <c r="D291" t="s">
         <v>4110</v>
       </c>
@@ -31367,6 +31401,9 @@
       <c r="B292" t="s">
         <v>168</v>
       </c>
+      <c r="C292" t="s">
+        <v>4308</v>
+      </c>
       <c r="D292" t="s">
         <v>1006</v>
       </c>
@@ -32015,7 +32052,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4320</v>
       </c>
@@ -32263,7 +32300,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4312</v>
       </c>
@@ -33349,7 +33386,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4320</v>
       </c>
@@ -33709,7 +33746,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4320</v>
       </c>
@@ -34022,7 +34059,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4312</v>
       </c>
@@ -34241,7 +34278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4312</v>
       </c>
@@ -34336,7 +34373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4320</v>
       </c>
@@ -34572,7 +34609,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4312</v>
       </c>
@@ -34906,7 +34943,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4320</v>
       </c>
@@ -35343,7 +35380,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4312</v>
       </c>
@@ -35639,7 +35676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4320</v>
       </c>
@@ -35763,7 +35800,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4312</v>
       </c>
@@ -35923,7 +35960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4312</v>
       </c>
@@ -36647,7 +36684,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4320</v>
       </c>
@@ -36768,7 +36805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4320</v>
       </c>
@@ -37503,7 +37540,7 @@
         <v>54907</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4312</v>
       </c>
@@ -37598,7 +37635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4312</v>
       </c>
@@ -37945,6 +37982,9 @@
       <c r="B404" t="s">
         <v>4112</v>
       </c>
+      <c r="C404" t="s">
+        <v>4357</v>
+      </c>
       <c r="D404" t="s">
         <v>4110</v>
       </c>
@@ -38289,7 +38329,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>4320</v>
       </c>
@@ -39125,7 +39165,7 @@
         <v>91513</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4320</v>
       </c>
@@ -39252,7 +39292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4320</v>
       </c>
@@ -40333,7 +40373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4312</v>
       </c>
@@ -40369,7 +40409,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4312</v>
       </c>
@@ -40405,7 +40445,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4312</v>
       </c>
@@ -40500,7 +40540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4320</v>
       </c>
@@ -40789,7 +40829,7 @@
         <v>54906</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4312</v>
       </c>
@@ -40881,7 +40921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4312</v>
       </c>
@@ -40964,7 +41004,7 @@
         <v>54914</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4312</v>
       </c>
@@ -41394,6 +41434,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AD463" xr:uid="{4F3B871C-5D88-4776-ABC1-BB4125ADD1C8}">
+    <filterColumn colId="13">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD463">
       <sortCondition descending="1" ref="H1:H463"/>
     </sortState>

--- a/uk_local_authorities.xlsx
+++ b/uk_local_authorities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Dropbox\mysociety\uk_local_authority_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49494AD7-9449-4F63-8EAB-5292BE4698AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B1B3D-E57C-4AA0-87CB-2DF7EAD36478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uk_local_authorities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7561" uniqueCount="4358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7561" uniqueCount="4357">
   <si>
     <t>local-authority-code</t>
   </si>
@@ -13106,9 +13106,6 @@
   </si>
   <si>
     <t>combined-authority</t>
-  </si>
-  <si>
-    <t>East</t>
   </si>
 </sst>
 </file>
@@ -37983,7 +37980,7 @@
         <v>4112</v>
       </c>
       <c r="C404" t="s">
-        <v>4357</v>
+        <v>4306</v>
       </c>
       <c r="D404" t="s">
         <v>4110</v>
